--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="202">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -472,6 +472,15 @@
     <t>['72']</t>
   </si>
   <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['9', '90+3']</t>
+  </si>
+  <si>
+    <t>['45+4', '90+1']</t>
+  </si>
+  <si>
     <t>['31', '60']</t>
   </si>
   <si>
@@ -602,6 +611,15 @@
   </si>
   <si>
     <t>['31', '73']</t>
+  </si>
+  <si>
+    <t>['2']</t>
+  </si>
+  <si>
+    <t>['50', '55']</t>
+  </si>
+  <si>
+    <t>['7', '79', '82']</t>
   </si>
 </sst>
 </file>
@@ -963,7 +981,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP94"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1222,7 +1240,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1712,10 +1730,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ4">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1840,7 +1858,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2046,7 +2064,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>4.1</v>
@@ -2252,7 +2270,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2330,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7">
         <v>1.75</v>
@@ -2458,7 +2476,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q8">
         <v>2.28</v>
@@ -2664,7 +2682,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -2870,7 +2888,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3900,7 +3918,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q15">
         <v>4.1</v>
@@ -3981,7 +3999,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ15">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -5136,7 +5154,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q21">
         <v>4.4</v>
@@ -5548,7 +5566,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5626,7 +5644,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ23">
         <v>2.5</v>
@@ -5960,7 +5978,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6166,7 +6184,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q26">
         <v>3.95</v>
@@ -6372,7 +6390,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6578,7 +6596,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>3.35</v>
@@ -7071,7 +7089,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ30">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR30">
         <v>1.54</v>
@@ -7402,7 +7420,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q32">
         <v>3.45</v>
@@ -7483,7 +7501,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR32">
         <v>1.26</v>
@@ -7608,7 +7626,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7689,7 +7707,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ33">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR33">
         <v>1.88</v>
@@ -7814,7 +7832,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8020,7 +8038,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8226,7 +8244,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q36">
         <v>2.8</v>
@@ -8304,7 +8322,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ36">
         <v>1</v>
@@ -8638,7 +8656,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -8716,7 +8734,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ38">
         <v>0.75</v>
@@ -8844,7 +8862,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -9462,7 +9480,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10158,7 +10176,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ45">
         <v>1.5</v>
@@ -10492,7 +10510,7 @@
         <v>105</v>
       </c>
       <c r="P47" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10698,7 +10716,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -10904,7 +10922,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -11316,7 +11334,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q51">
         <v>1.91</v>
@@ -11397,7 +11415,7 @@
         <v>3</v>
       </c>
       <c r="AQ51">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR51">
         <v>1.69</v>
@@ -11522,7 +11540,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11728,7 +11746,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12218,7 +12236,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12346,7 +12364,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q56">
         <v>4.33</v>
@@ -12964,7 +12982,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13248,7 +13266,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ60">
         <v>1</v>
@@ -13376,7 +13394,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13454,7 +13472,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ61">
         <v>2.4</v>
@@ -13582,7 +13600,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -13788,7 +13806,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13994,7 +14012,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14200,7 +14218,7 @@
         <v>90</v>
       </c>
       <c r="P65" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q65">
         <v>3.6</v>
@@ -14406,7 +14424,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q66">
         <v>4.75</v>
@@ -14487,7 +14505,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ66">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR66">
         <v>1.04</v>
@@ -14612,7 +14630,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14899,7 +14917,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR68">
         <v>1.93</v>
@@ -15926,7 +15944,7 @@
         <v>0.33</v>
       </c>
       <c r="AP73">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ73">
         <v>0.25</v>
@@ -16054,7 +16072,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16135,7 +16153,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ74">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR74">
         <v>1.3</v>
@@ -16544,7 +16562,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AQ76">
         <v>0.75</v>
@@ -16750,7 +16768,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ77">
         <v>1</v>
@@ -17084,7 +17102,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17496,7 +17514,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17577,7 +17595,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ81">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="AR81">
         <v>1.55</v>
@@ -17908,7 +17926,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18114,7 +18132,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18526,7 +18544,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18732,7 +18750,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -18813,7 +18831,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ87">
-        <v>0.25</v>
+        <v>0.4</v>
       </c>
       <c r="AR87">
         <v>1.26</v>
@@ -18938,7 +18956,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19144,7 +19162,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19712,6 +19730,624 @@
         <v>0</v>
       </c>
       <c r="BP91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7778583</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45766.08333333334</v>
+      </c>
+      <c r="F92">
+        <v>10</v>
+      </c>
+      <c r="G92" t="s">
+        <v>72</v>
+      </c>
+      <c r="H92" t="s">
+        <v>76</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>2</v>
+      </c>
+      <c r="L92">
+        <v>1</v>
+      </c>
+      <c r="M92">
+        <v>1</v>
+      </c>
+      <c r="N92">
+        <v>2</v>
+      </c>
+      <c r="O92" t="s">
+        <v>152</v>
+      </c>
+      <c r="P92" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q92">
+        <v>4</v>
+      </c>
+      <c r="R92">
+        <v>2.2</v>
+      </c>
+      <c r="S92">
+        <v>2.75</v>
+      </c>
+      <c r="T92">
+        <v>1.36</v>
+      </c>
+      <c r="U92">
+        <v>3</v>
+      </c>
+      <c r="V92">
+        <v>2.75</v>
+      </c>
+      <c r="W92">
+        <v>1.4</v>
+      </c>
+      <c r="X92">
+        <v>8</v>
+      </c>
+      <c r="Y92">
+        <v>1.08</v>
+      </c>
+      <c r="Z92">
+        <v>3.31</v>
+      </c>
+      <c r="AA92">
+        <v>3.5</v>
+      </c>
+      <c r="AB92">
+        <v>2.08</v>
+      </c>
+      <c r="AC92">
+        <v>1.05</v>
+      </c>
+      <c r="AD92">
+        <v>8.5</v>
+      </c>
+      <c r="AE92">
+        <v>1.25</v>
+      </c>
+      <c r="AF92">
+        <v>3.6</v>
+      </c>
+      <c r="AG92">
+        <v>1.82</v>
+      </c>
+      <c r="AH92">
+        <v>1.92</v>
+      </c>
+      <c r="AI92">
+        <v>1.67</v>
+      </c>
+      <c r="AJ92">
+        <v>2.1</v>
+      </c>
+      <c r="AK92">
+        <v>1.73</v>
+      </c>
+      <c r="AL92">
+        <v>1.25</v>
+      </c>
+      <c r="AM92">
+        <v>1.3</v>
+      </c>
+      <c r="AN92">
+        <v>1.75</v>
+      </c>
+      <c r="AO92">
+        <v>0.5</v>
+      </c>
+      <c r="AP92">
+        <v>1.6</v>
+      </c>
+      <c r="AQ92">
+        <v>0.6</v>
+      </c>
+      <c r="AR92">
+        <v>1.1</v>
+      </c>
+      <c r="AS92">
+        <v>1.63</v>
+      </c>
+      <c r="AT92">
+        <v>2.73</v>
+      </c>
+      <c r="AU92">
+        <v>8</v>
+      </c>
+      <c r="AV92">
+        <v>3</v>
+      </c>
+      <c r="AW92">
+        <v>3</v>
+      </c>
+      <c r="AX92">
+        <v>9</v>
+      </c>
+      <c r="AY92">
+        <v>11</v>
+      </c>
+      <c r="AZ92">
+        <v>12</v>
+      </c>
+      <c r="BA92">
+        <v>1</v>
+      </c>
+      <c r="BB92">
+        <v>8</v>
+      </c>
+      <c r="BC92">
+        <v>9</v>
+      </c>
+      <c r="BD92">
+        <v>0</v>
+      </c>
+      <c r="BE92">
+        <v>0</v>
+      </c>
+      <c r="BF92">
+        <v>0</v>
+      </c>
+      <c r="BG92">
+        <v>0</v>
+      </c>
+      <c r="BH92">
+        <v>0</v>
+      </c>
+      <c r="BI92">
+        <v>0</v>
+      </c>
+      <c r="BJ92">
+        <v>0</v>
+      </c>
+      <c r="BK92">
+        <v>0</v>
+      </c>
+      <c r="BL92">
+        <v>0</v>
+      </c>
+      <c r="BM92">
+        <v>0</v>
+      </c>
+      <c r="BN92">
+        <v>0</v>
+      </c>
+      <c r="BO92">
+        <v>0</v>
+      </c>
+      <c r="BP92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7778587</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45766.08333333334</v>
+      </c>
+      <c r="F93">
+        <v>10</v>
+      </c>
+      <c r="G93" t="s">
+        <v>75</v>
+      </c>
+      <c r="H93" t="s">
+        <v>81</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>2</v>
+      </c>
+      <c r="N93">
+        <v>4</v>
+      </c>
+      <c r="O93" t="s">
+        <v>153</v>
+      </c>
+      <c r="P93" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q93">
+        <v>3</v>
+      </c>
+      <c r="R93">
+        <v>2</v>
+      </c>
+      <c r="S93">
+        <v>4</v>
+      </c>
+      <c r="T93">
+        <v>1.5</v>
+      </c>
+      <c r="U93">
+        <v>2.5</v>
+      </c>
+      <c r="V93">
+        <v>3.4</v>
+      </c>
+      <c r="W93">
+        <v>1.3</v>
+      </c>
+      <c r="X93">
+        <v>10</v>
+      </c>
+      <c r="Y93">
+        <v>1.06</v>
+      </c>
+      <c r="Z93">
+        <v>2.29</v>
+      </c>
+      <c r="AA93">
+        <v>3.08</v>
+      </c>
+      <c r="AB93">
+        <v>3.23</v>
+      </c>
+      <c r="AC93">
+        <v>1.07</v>
+      </c>
+      <c r="AD93">
+        <v>7.5</v>
+      </c>
+      <c r="AE93">
+        <v>1.38</v>
+      </c>
+      <c r="AF93">
+        <v>2.88</v>
+      </c>
+      <c r="AG93">
+        <v>2.15</v>
+      </c>
+      <c r="AH93">
+        <v>1.6</v>
+      </c>
+      <c r="AI93">
+        <v>1.91</v>
+      </c>
+      <c r="AJ93">
+        <v>1.8</v>
+      </c>
+      <c r="AK93">
+        <v>1.33</v>
+      </c>
+      <c r="AL93">
+        <v>1.28</v>
+      </c>
+      <c r="AM93">
+        <v>1.62</v>
+      </c>
+      <c r="AN93">
+        <v>1.8</v>
+      </c>
+      <c r="AO93">
+        <v>0.25</v>
+      </c>
+      <c r="AP93">
+        <v>1.67</v>
+      </c>
+      <c r="AQ93">
+        <v>0.4</v>
+      </c>
+      <c r="AR93">
+        <v>1.32</v>
+      </c>
+      <c r="AS93">
+        <v>1.6</v>
+      </c>
+      <c r="AT93">
+        <v>2.92</v>
+      </c>
+      <c r="AU93">
+        <v>5</v>
+      </c>
+      <c r="AV93">
+        <v>4</v>
+      </c>
+      <c r="AW93">
+        <v>5</v>
+      </c>
+      <c r="AX93">
+        <v>3</v>
+      </c>
+      <c r="AY93">
+        <v>10</v>
+      </c>
+      <c r="AZ93">
+        <v>7</v>
+      </c>
+      <c r="BA93">
+        <v>6</v>
+      </c>
+      <c r="BB93">
+        <v>1</v>
+      </c>
+      <c r="BC93">
+        <v>7</v>
+      </c>
+      <c r="BD93">
+        <v>0</v>
+      </c>
+      <c r="BE93">
+        <v>0</v>
+      </c>
+      <c r="BF93">
+        <v>0</v>
+      </c>
+      <c r="BG93">
+        <v>0</v>
+      </c>
+      <c r="BH93">
+        <v>0</v>
+      </c>
+      <c r="BI93">
+        <v>0</v>
+      </c>
+      <c r="BJ93">
+        <v>0</v>
+      </c>
+      <c r="BK93">
+        <v>0</v>
+      </c>
+      <c r="BL93">
+        <v>0</v>
+      </c>
+      <c r="BM93">
+        <v>0</v>
+      </c>
+      <c r="BN93">
+        <v>0</v>
+      </c>
+      <c r="BO93">
+        <v>0</v>
+      </c>
+      <c r="BP93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7778581</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45766.08333333334</v>
+      </c>
+      <c r="F94">
+        <v>10</v>
+      </c>
+      <c r="G94" t="s">
+        <v>88</v>
+      </c>
+      <c r="H94" t="s">
+        <v>77</v>
+      </c>
+      <c r="I94">
+        <v>1</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>2</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>3</v>
+      </c>
+      <c r="N94">
+        <v>5</v>
+      </c>
+      <c r="O94" t="s">
+        <v>154</v>
+      </c>
+      <c r="P94" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q94">
+        <v>2.3</v>
+      </c>
+      <c r="R94">
+        <v>2.25</v>
+      </c>
+      <c r="S94">
+        <v>5</v>
+      </c>
+      <c r="T94">
+        <v>1.36</v>
+      </c>
+      <c r="U94">
+        <v>3</v>
+      </c>
+      <c r="V94">
+        <v>2.75</v>
+      </c>
+      <c r="W94">
+        <v>1.4</v>
+      </c>
+      <c r="X94">
+        <v>7</v>
+      </c>
+      <c r="Y94">
+        <v>1.1</v>
+      </c>
+      <c r="Z94">
+        <v>1.69</v>
+      </c>
+      <c r="AA94">
+        <v>3.99</v>
+      </c>
+      <c r="AB94">
+        <v>4.4</v>
+      </c>
+      <c r="AC94">
+        <v>1.04</v>
+      </c>
+      <c r="AD94">
+        <v>9</v>
+      </c>
+      <c r="AE94">
+        <v>1.25</v>
+      </c>
+      <c r="AF94">
+        <v>3.8</v>
+      </c>
+      <c r="AG94">
+        <v>1.8</v>
+      </c>
+      <c r="AH94">
+        <v>1.94</v>
+      </c>
+      <c r="AI94">
+        <v>1.8</v>
+      </c>
+      <c r="AJ94">
+        <v>1.91</v>
+      </c>
+      <c r="AK94">
+        <v>1.17</v>
+      </c>
+      <c r="AL94">
+        <v>1.2</v>
+      </c>
+      <c r="AM94">
+        <v>2.05</v>
+      </c>
+      <c r="AN94">
+        <v>1.67</v>
+      </c>
+      <c r="AO94">
+        <v>0.67</v>
+      </c>
+      <c r="AP94">
+        <v>1.25</v>
+      </c>
+      <c r="AQ94">
+        <v>1.25</v>
+      </c>
+      <c r="AR94">
+        <v>1.38</v>
+      </c>
+      <c r="AS94">
+        <v>1.36</v>
+      </c>
+      <c r="AT94">
+        <v>2.74</v>
+      </c>
+      <c r="AU94">
+        <v>4</v>
+      </c>
+      <c r="AV94">
+        <v>6</v>
+      </c>
+      <c r="AW94">
+        <v>9</v>
+      </c>
+      <c r="AX94">
+        <v>8</v>
+      </c>
+      <c r="AY94">
+        <v>13</v>
+      </c>
+      <c r="AZ94">
+        <v>14</v>
+      </c>
+      <c r="BA94">
+        <v>8</v>
+      </c>
+      <c r="BB94">
+        <v>4</v>
+      </c>
+      <c r="BC94">
+        <v>12</v>
+      </c>
+      <c r="BD94">
+        <v>0</v>
+      </c>
+      <c r="BE94">
+        <v>0</v>
+      </c>
+      <c r="BF94">
+        <v>0</v>
+      </c>
+      <c r="BG94">
+        <v>0</v>
+      </c>
+      <c r="BH94">
+        <v>0</v>
+      </c>
+      <c r="BI94">
+        <v>0</v>
+      </c>
+      <c r="BJ94">
+        <v>0</v>
+      </c>
+      <c r="BK94">
+        <v>0</v>
+      </c>
+      <c r="BL94">
+        <v>0</v>
+      </c>
+      <c r="BM94">
+        <v>0</v>
+      </c>
+      <c r="BN94">
+        <v>0</v>
+      </c>
+      <c r="BO94">
+        <v>0</v>
+      </c>
+      <c r="BP94">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="208">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -481,6 +481,15 @@
     <t>['45+4', '90+1']</t>
   </si>
   <si>
+    <t>['54']</t>
+  </si>
+  <si>
+    <t>['68', '90+2']</t>
+  </si>
+  <si>
+    <t>['30', '54']</t>
+  </si>
+  <si>
     <t>['31', '60']</t>
   </si>
   <si>
@@ -620,6 +629,15 @@
   </si>
   <si>
     <t>['7', '79', '82']</t>
+  </si>
+  <si>
+    <t>['37']</t>
+  </si>
+  <si>
+    <t>['49']</t>
+  </si>
+  <si>
+    <t>['7', '83']</t>
   </si>
 </sst>
 </file>
@@ -981,7 +999,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP94"/>
+  <dimension ref="A1:BP101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1240,7 +1258,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1858,7 +1876,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -1939,7 +1957,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ5">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2064,7 +2082,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q6">
         <v>4.1</v>
@@ -2270,7 +2288,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2351,7 +2369,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ7">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2476,7 +2494,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q8">
         <v>2.28</v>
@@ -2682,7 +2700,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -2888,7 +2906,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -2966,7 +2984,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3918,7 +3936,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q15">
         <v>4.1</v>
@@ -4202,7 +4220,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ16">
         <v>1</v>
@@ -4408,10 +4426,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ17">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4820,10 +4838,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ19">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR19">
         <v>1.74</v>
@@ -5029,7 +5047,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ20">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR20">
         <v>1.61</v>
@@ -5154,7 +5172,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q21">
         <v>4.4</v>
@@ -5441,7 +5459,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ22">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5566,7 +5584,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5853,7 +5871,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ24">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR24">
         <v>3.04</v>
@@ -5978,7 +5996,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6184,7 +6202,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q26">
         <v>3.95</v>
@@ -6390,7 +6408,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6468,10 +6486,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
+        <v>1.17</v>
+      </c>
+      <c r="AQ27">
         <v>1.4</v>
-      </c>
-      <c r="AQ27">
-        <v>1.5</v>
       </c>
       <c r="AR27">
         <v>1.59</v>
@@ -6596,7 +6614,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q28">
         <v>3.35</v>
@@ -6880,7 +6898,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ29">
         <v>0.8</v>
@@ -7420,7 +7438,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q32">
         <v>3.45</v>
@@ -7626,7 +7644,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7832,7 +7850,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8038,7 +8056,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8116,7 +8134,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>2.4</v>
@@ -8244,7 +8262,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q36">
         <v>2.8</v>
@@ -8656,7 +8674,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -8737,7 +8755,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ38">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR38">
         <v>1.1</v>
@@ -8862,7 +8880,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8940,10 +8958,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ39">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR39">
         <v>1.33</v>
@@ -9146,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ40">
         <v>1.25</v>
@@ -9355,7 +9373,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ41">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR41">
         <v>1.46</v>
@@ -9480,7 +9498,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9558,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9767,7 +9785,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ43">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR43">
         <v>1.09</v>
@@ -10179,7 +10197,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ45">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR45">
         <v>1.47</v>
@@ -10510,7 +10528,7 @@
         <v>105</v>
       </c>
       <c r="P47" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10588,7 +10606,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ47">
         <v>1.17</v>
@@ -10716,7 +10734,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -10797,7 +10815,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ48">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR48">
         <v>1.52</v>
@@ -10922,7 +10940,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -11003,7 +11021,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ49">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.15</v>
@@ -11206,7 +11224,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ50">
         <v>1</v>
@@ -11334,7 +11352,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q51">
         <v>1.91</v>
@@ -11540,7 +11558,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11621,7 +11639,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ52">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR52">
         <v>1.25</v>
@@ -11746,7 +11764,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12364,7 +12382,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>4.33</v>
@@ -12857,7 +12875,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ58">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR58">
         <v>1.9</v>
@@ -12982,7 +13000,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13063,7 +13081,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ59">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR59">
         <v>1.09</v>
@@ -13394,7 +13412,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13600,7 +13618,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -13678,7 +13696,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ62">
         <v>0.8</v>
@@ -13806,7 +13824,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -13884,7 +13902,7 @@
         <v>0.5</v>
       </c>
       <c r="AP63">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ63">
         <v>1</v>
@@ -14012,7 +14030,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14093,7 +14111,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ64">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR64">
         <v>1.49</v>
@@ -14218,7 +14236,7 @@
         <v>90</v>
       </c>
       <c r="P65" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q65">
         <v>3.6</v>
@@ -14296,10 +14314,10 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ65">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AR65">
         <v>1.13</v>
@@ -14424,7 +14442,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q66">
         <v>4.75</v>
@@ -14630,7 +14648,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14708,7 +14726,7 @@
         <v>0.75</v>
       </c>
       <c r="AP67">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ67">
         <v>1.17</v>
@@ -14914,7 +14932,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ68">
         <v>0.4</v>
@@ -15329,7 +15347,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ70">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.09</v>
@@ -15532,10 +15550,10 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ71">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR71">
         <v>1.39</v>
@@ -15947,7 +15965,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ73">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR73">
         <v>1.25</v>
@@ -16072,7 +16090,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16359,7 +16377,7 @@
         <v>3</v>
       </c>
       <c r="AQ75">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="AR75">
         <v>1.77</v>
@@ -16565,7 +16583,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ76">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AR76">
         <v>1.39</v>
@@ -16771,7 +16789,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ77">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR77">
         <v>1.29</v>
@@ -16974,7 +16992,7 @@
         <v>1.25</v>
       </c>
       <c r="AP78">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78">
         <v>1</v>
@@ -17102,7 +17120,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17183,7 +17201,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ79">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>2.01</v>
@@ -17386,7 +17404,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ80">
         <v>1</v>
@@ -17514,7 +17532,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17592,7 +17610,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AQ81">
         <v>0.6</v>
@@ -17926,7 +17944,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18132,7 +18150,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18544,7 +18562,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18622,10 +18640,10 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AQ86">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR86">
         <v>1.94</v>
@@ -18750,7 +18768,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -18828,7 +18846,7 @@
         <v>0</v>
       </c>
       <c r="AP87">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AQ87">
         <v>0.4</v>
@@ -18956,7 +18974,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19162,7 +19180,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19780,7 +19798,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -19986,7 +20004,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20192,7 +20210,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q94">
         <v>2.3</v>
@@ -20348,6 +20366,1448 @@
         <v>0</v>
       </c>
       <c r="BP94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7778588</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45767.04166666666</v>
+      </c>
+      <c r="F95">
+        <v>10</v>
+      </c>
+      <c r="G95" t="s">
+        <v>82</v>
+      </c>
+      <c r="H95" t="s">
+        <v>85</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>1</v>
+      </c>
+      <c r="N95">
+        <v>1</v>
+      </c>
+      <c r="O95" t="s">
+        <v>90</v>
+      </c>
+      <c r="P95" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q95">
+        <v>3.5</v>
+      </c>
+      <c r="R95">
+        <v>2.05</v>
+      </c>
+      <c r="S95">
+        <v>3.25</v>
+      </c>
+      <c r="T95">
+        <v>1.44</v>
+      </c>
+      <c r="U95">
+        <v>2.63</v>
+      </c>
+      <c r="V95">
+        <v>3.4</v>
+      </c>
+      <c r="W95">
+        <v>1.3</v>
+      </c>
+      <c r="X95">
+        <v>10</v>
+      </c>
+      <c r="Y95">
+        <v>1.06</v>
+      </c>
+      <c r="Z95">
+        <v>2.82</v>
+      </c>
+      <c r="AA95">
+        <v>3.08</v>
+      </c>
+      <c r="AB95">
+        <v>2.56</v>
+      </c>
+      <c r="AC95">
+        <v>1.01</v>
+      </c>
+      <c r="AD95">
+        <v>8.6</v>
+      </c>
+      <c r="AE95">
+        <v>1.31</v>
+      </c>
+      <c r="AF95">
+        <v>2.92</v>
+      </c>
+      <c r="AG95">
+        <v>2.1</v>
+      </c>
+      <c r="AH95">
+        <v>1.61</v>
+      </c>
+      <c r="AI95">
+        <v>1.83</v>
+      </c>
+      <c r="AJ95">
+        <v>1.83</v>
+      </c>
+      <c r="AK95">
+        <v>1.44</v>
+      </c>
+      <c r="AL95">
+        <v>1.36</v>
+      </c>
+      <c r="AM95">
+        <v>1.4</v>
+      </c>
+      <c r="AN95">
+        <v>1.4</v>
+      </c>
+      <c r="AO95">
+        <v>1.75</v>
+      </c>
+      <c r="AP95">
+        <v>1.17</v>
+      </c>
+      <c r="AQ95">
+        <v>2</v>
+      </c>
+      <c r="AR95">
+        <v>1.47</v>
+      </c>
+      <c r="AS95">
+        <v>1.44</v>
+      </c>
+      <c r="AT95">
+        <v>2.91</v>
+      </c>
+      <c r="AU95">
+        <v>4</v>
+      </c>
+      <c r="AV95">
+        <v>3</v>
+      </c>
+      <c r="AW95">
+        <v>2</v>
+      </c>
+      <c r="AX95">
+        <v>4</v>
+      </c>
+      <c r="AY95">
+        <v>7</v>
+      </c>
+      <c r="AZ95">
+        <v>8</v>
+      </c>
+      <c r="BA95">
+        <v>4</v>
+      </c>
+      <c r="BB95">
+        <v>1</v>
+      </c>
+      <c r="BC95">
+        <v>5</v>
+      </c>
+      <c r="BD95">
+        <v>0</v>
+      </c>
+      <c r="BE95">
+        <v>0</v>
+      </c>
+      <c r="BF95">
+        <v>0</v>
+      </c>
+      <c r="BG95">
+        <v>0</v>
+      </c>
+      <c r="BH95">
+        <v>0</v>
+      </c>
+      <c r="BI95">
+        <v>0</v>
+      </c>
+      <c r="BJ95">
+        <v>0</v>
+      </c>
+      <c r="BK95">
+        <v>0</v>
+      </c>
+      <c r="BL95">
+        <v>0</v>
+      </c>
+      <c r="BM95">
+        <v>0</v>
+      </c>
+      <c r="BN95">
+        <v>0</v>
+      </c>
+      <c r="BO95">
+        <v>0</v>
+      </c>
+      <c r="BP95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7778586</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45767.08333333334</v>
+      </c>
+      <c r="F96">
+        <v>10</v>
+      </c>
+      <c r="G96" t="s">
+        <v>78</v>
+      </c>
+      <c r="H96" t="s">
+        <v>71</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0</v>
+      </c>
+      <c r="O96" t="s">
+        <v>90</v>
+      </c>
+      <c r="P96" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q96">
+        <v>3.25</v>
+      </c>
+      <c r="R96">
+        <v>2.05</v>
+      </c>
+      <c r="S96">
+        <v>3.5</v>
+      </c>
+      <c r="T96">
+        <v>1.44</v>
+      </c>
+      <c r="U96">
+        <v>2.63</v>
+      </c>
+      <c r="V96">
+        <v>3.4</v>
+      </c>
+      <c r="W96">
+        <v>1.3</v>
+      </c>
+      <c r="X96">
+        <v>10</v>
+      </c>
+      <c r="Y96">
+        <v>1.06</v>
+      </c>
+      <c r="Z96">
+        <v>2.32</v>
+      </c>
+      <c r="AA96">
+        <v>3.23</v>
+      </c>
+      <c r="AB96">
+        <v>3.04</v>
+      </c>
+      <c r="AC96">
+        <v>1.02</v>
+      </c>
+      <c r="AD96">
+        <v>7.8</v>
+      </c>
+      <c r="AE96">
+        <v>1.32</v>
+      </c>
+      <c r="AF96">
+        <v>2.88</v>
+      </c>
+      <c r="AG96">
+        <v>2.1</v>
+      </c>
+      <c r="AH96">
+        <v>1.61</v>
+      </c>
+      <c r="AI96">
+        <v>1.83</v>
+      </c>
+      <c r="AJ96">
+        <v>1.83</v>
+      </c>
+      <c r="AK96">
+        <v>1.36</v>
+      </c>
+      <c r="AL96">
+        <v>1.35</v>
+      </c>
+      <c r="AM96">
+        <v>1.57</v>
+      </c>
+      <c r="AN96">
+        <v>1.2</v>
+      </c>
+      <c r="AO96">
+        <v>1.5</v>
+      </c>
+      <c r="AP96">
+        <v>1.17</v>
+      </c>
+      <c r="AQ96">
+        <v>1.4</v>
+      </c>
+      <c r="AR96">
+        <v>1.52</v>
+      </c>
+      <c r="AS96">
+        <v>1.59</v>
+      </c>
+      <c r="AT96">
+        <v>3.11</v>
+      </c>
+      <c r="AU96">
+        <v>4</v>
+      </c>
+      <c r="AV96">
+        <v>5</v>
+      </c>
+      <c r="AW96">
+        <v>7</v>
+      </c>
+      <c r="AX96">
+        <v>6</v>
+      </c>
+      <c r="AY96">
+        <v>11</v>
+      </c>
+      <c r="AZ96">
+        <v>11</v>
+      </c>
+      <c r="BA96">
+        <v>3</v>
+      </c>
+      <c r="BB96">
+        <v>4</v>
+      </c>
+      <c r="BC96">
+        <v>7</v>
+      </c>
+      <c r="BD96">
+        <v>0</v>
+      </c>
+      <c r="BE96">
+        <v>0</v>
+      </c>
+      <c r="BF96">
+        <v>0</v>
+      </c>
+      <c r="BG96">
+        <v>0</v>
+      </c>
+      <c r="BH96">
+        <v>0</v>
+      </c>
+      <c r="BI96">
+        <v>0</v>
+      </c>
+      <c r="BJ96">
+        <v>0</v>
+      </c>
+      <c r="BK96">
+        <v>0</v>
+      </c>
+      <c r="BL96">
+        <v>0</v>
+      </c>
+      <c r="BM96">
+        <v>0</v>
+      </c>
+      <c r="BN96">
+        <v>0</v>
+      </c>
+      <c r="BO96">
+        <v>0</v>
+      </c>
+      <c r="BP96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7778585</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45767.08333333334</v>
+      </c>
+      <c r="F97">
+        <v>10</v>
+      </c>
+      <c r="G97" t="s">
+        <v>83</v>
+      </c>
+      <c r="H97" t="s">
+        <v>84</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <v>1</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="s">
+        <v>90</v>
+      </c>
+      <c r="P97" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q97">
+        <v>3.25</v>
+      </c>
+      <c r="R97">
+        <v>1.91</v>
+      </c>
+      <c r="S97">
+        <v>4</v>
+      </c>
+      <c r="T97">
+        <v>1.57</v>
+      </c>
+      <c r="U97">
+        <v>2.25</v>
+      </c>
+      <c r="V97">
+        <v>3.75</v>
+      </c>
+      <c r="W97">
+        <v>1.25</v>
+      </c>
+      <c r="X97">
+        <v>13</v>
+      </c>
+      <c r="Y97">
+        <v>1.04</v>
+      </c>
+      <c r="Z97">
+        <v>2.39</v>
+      </c>
+      <c r="AA97">
+        <v>3.08</v>
+      </c>
+      <c r="AB97">
+        <v>3.06</v>
+      </c>
+      <c r="AC97">
+        <v>1.04</v>
+      </c>
+      <c r="AD97">
+        <v>7.1</v>
+      </c>
+      <c r="AE97">
+        <v>1.42</v>
+      </c>
+      <c r="AF97">
+        <v>2.49</v>
+      </c>
+      <c r="AG97">
+        <v>2.37</v>
+      </c>
+      <c r="AH97">
+        <v>1.48</v>
+      </c>
+      <c r="AI97">
+        <v>2.1</v>
+      </c>
+      <c r="AJ97">
+        <v>1.67</v>
+      </c>
+      <c r="AK97">
+        <v>1.36</v>
+      </c>
+      <c r="AL97">
+        <v>1.36</v>
+      </c>
+      <c r="AM97">
+        <v>1.57</v>
+      </c>
+      <c r="AN97">
+        <v>2.33</v>
+      </c>
+      <c r="AO97">
+        <v>0.25</v>
+      </c>
+      <c r="AP97">
+        <v>1.75</v>
+      </c>
+      <c r="AQ97">
+        <v>0.8</v>
+      </c>
+      <c r="AR97">
+        <v>1.35</v>
+      </c>
+      <c r="AS97">
+        <v>1.52</v>
+      </c>
+      <c r="AT97">
+        <v>2.87</v>
+      </c>
+      <c r="AU97">
+        <v>3</v>
+      </c>
+      <c r="AV97">
+        <v>6</v>
+      </c>
+      <c r="AW97">
+        <v>7</v>
+      </c>
+      <c r="AX97">
+        <v>5</v>
+      </c>
+      <c r="AY97">
+        <v>10</v>
+      </c>
+      <c r="AZ97">
+        <v>11</v>
+      </c>
+      <c r="BA97">
+        <v>5</v>
+      </c>
+      <c r="BB97">
+        <v>3</v>
+      </c>
+      <c r="BC97">
+        <v>8</v>
+      </c>
+      <c r="BD97">
+        <v>0</v>
+      </c>
+      <c r="BE97">
+        <v>0</v>
+      </c>
+      <c r="BF97">
+        <v>0</v>
+      </c>
+      <c r="BG97">
+        <v>0</v>
+      </c>
+      <c r="BH97">
+        <v>0</v>
+      </c>
+      <c r="BI97">
+        <v>0</v>
+      </c>
+      <c r="BJ97">
+        <v>0</v>
+      </c>
+      <c r="BK97">
+        <v>0</v>
+      </c>
+      <c r="BL97">
+        <v>0</v>
+      </c>
+      <c r="BM97">
+        <v>0</v>
+      </c>
+      <c r="BN97">
+        <v>0</v>
+      </c>
+      <c r="BO97">
+        <v>0</v>
+      </c>
+      <c r="BP97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7778582</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45767.08333333334</v>
+      </c>
+      <c r="F98">
+        <v>10</v>
+      </c>
+      <c r="G98" t="s">
+        <v>80</v>
+      </c>
+      <c r="H98" t="s">
+        <v>79</v>
+      </c>
+      <c r="I98">
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>1</v>
+      </c>
+      <c r="M98">
+        <v>0</v>
+      </c>
+      <c r="N98">
+        <v>1</v>
+      </c>
+      <c r="O98" t="s">
+        <v>155</v>
+      </c>
+      <c r="P98" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q98">
+        <v>2.5</v>
+      </c>
+      <c r="R98">
+        <v>2.1</v>
+      </c>
+      <c r="S98">
+        <v>5</v>
+      </c>
+      <c r="T98">
+        <v>1.44</v>
+      </c>
+      <c r="U98">
+        <v>2.63</v>
+      </c>
+      <c r="V98">
+        <v>3.25</v>
+      </c>
+      <c r="W98">
+        <v>1.33</v>
+      </c>
+      <c r="X98">
+        <v>9</v>
+      </c>
+      <c r="Y98">
+        <v>1.07</v>
+      </c>
+      <c r="Z98">
+        <v>1.78</v>
+      </c>
+      <c r="AA98">
+        <v>3.8</v>
+      </c>
+      <c r="AB98">
+        <v>4.1</v>
+      </c>
+      <c r="AC98">
+        <v>1.02</v>
+      </c>
+      <c r="AD98">
+        <v>8.1</v>
+      </c>
+      <c r="AE98">
+        <v>1.28</v>
+      </c>
+      <c r="AF98">
+        <v>3.08</v>
+      </c>
+      <c r="AG98">
+        <v>1.98</v>
+      </c>
+      <c r="AH98">
+        <v>1.77</v>
+      </c>
+      <c r="AI98">
+        <v>2</v>
+      </c>
+      <c r="AJ98">
+        <v>1.73</v>
+      </c>
+      <c r="AK98">
+        <v>1.2</v>
+      </c>
+      <c r="AL98">
+        <v>1.3</v>
+      </c>
+      <c r="AM98">
+        <v>1.95</v>
+      </c>
+      <c r="AN98">
+        <v>3</v>
+      </c>
+      <c r="AO98">
+        <v>1.25</v>
+      </c>
+      <c r="AP98">
+        <v>3</v>
+      </c>
+      <c r="AQ98">
+        <v>1</v>
+      </c>
+      <c r="AR98">
+        <v>1.74</v>
+      </c>
+      <c r="AS98">
+        <v>1.26</v>
+      </c>
+      <c r="AT98">
+        <v>3</v>
+      </c>
+      <c r="AU98">
+        <v>4</v>
+      </c>
+      <c r="AV98">
+        <v>0</v>
+      </c>
+      <c r="AW98">
+        <v>6</v>
+      </c>
+      <c r="AX98">
+        <v>5</v>
+      </c>
+      <c r="AY98">
+        <v>10</v>
+      </c>
+      <c r="AZ98">
+        <v>5</v>
+      </c>
+      <c r="BA98">
+        <v>5</v>
+      </c>
+      <c r="BB98">
+        <v>3</v>
+      </c>
+      <c r="BC98">
+        <v>8</v>
+      </c>
+      <c r="BD98">
+        <v>0</v>
+      </c>
+      <c r="BE98">
+        <v>0</v>
+      </c>
+      <c r="BF98">
+        <v>0</v>
+      </c>
+      <c r="BG98">
+        <v>0</v>
+      </c>
+      <c r="BH98">
+        <v>0</v>
+      </c>
+      <c r="BI98">
+        <v>0</v>
+      </c>
+      <c r="BJ98">
+        <v>0</v>
+      </c>
+      <c r="BK98">
+        <v>0</v>
+      </c>
+      <c r="BL98">
+        <v>0</v>
+      </c>
+      <c r="BM98">
+        <v>0</v>
+      </c>
+      <c r="BN98">
+        <v>0</v>
+      </c>
+      <c r="BO98">
+        <v>0</v>
+      </c>
+      <c r="BP98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7778580</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45767.08333333334</v>
+      </c>
+      <c r="F99">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>89</v>
+      </c>
+      <c r="H99" t="s">
+        <v>73</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>2</v>
+      </c>
+      <c r="M99">
+        <v>1</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99" t="s">
+        <v>156</v>
+      </c>
+      <c r="P99" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q99">
+        <v>3.4</v>
+      </c>
+      <c r="R99">
+        <v>2.05</v>
+      </c>
+      <c r="S99">
+        <v>3.4</v>
+      </c>
+      <c r="T99">
+        <v>1.5</v>
+      </c>
+      <c r="U99">
+        <v>2.5</v>
+      </c>
+      <c r="V99">
+        <v>3.4</v>
+      </c>
+      <c r="W99">
+        <v>1.3</v>
+      </c>
+      <c r="X99">
+        <v>10</v>
+      </c>
+      <c r="Y99">
+        <v>1.06</v>
+      </c>
+      <c r="Z99">
+        <v>2.69</v>
+      </c>
+      <c r="AA99">
+        <v>3.2</v>
+      </c>
+      <c r="AB99">
+        <v>2.6</v>
+      </c>
+      <c r="AC99">
+        <v>1.01</v>
+      </c>
+      <c r="AD99">
+        <v>8.5</v>
+      </c>
+      <c r="AE99">
+        <v>1.32</v>
+      </c>
+      <c r="AF99">
+        <v>2.88</v>
+      </c>
+      <c r="AG99">
+        <v>2.1</v>
+      </c>
+      <c r="AH99">
+        <v>1.61</v>
+      </c>
+      <c r="AI99">
+        <v>1.83</v>
+      </c>
+      <c r="AJ99">
+        <v>1.83</v>
+      </c>
+      <c r="AK99">
+        <v>1.44</v>
+      </c>
+      <c r="AL99">
+        <v>1.35</v>
+      </c>
+      <c r="AM99">
+        <v>1.44</v>
+      </c>
+      <c r="AN99">
+        <v>1</v>
+      </c>
+      <c r="AO99">
+        <v>1</v>
+      </c>
+      <c r="AP99">
+        <v>1.5</v>
+      </c>
+      <c r="AQ99">
+        <v>0.8</v>
+      </c>
+      <c r="AR99">
+        <v>1.86</v>
+      </c>
+      <c r="AS99">
+        <v>1.03</v>
+      </c>
+      <c r="AT99">
+        <v>2.89</v>
+      </c>
+      <c r="AU99">
+        <v>6</v>
+      </c>
+      <c r="AV99">
+        <v>5</v>
+      </c>
+      <c r="AW99">
+        <v>7</v>
+      </c>
+      <c r="AX99">
+        <v>6</v>
+      </c>
+      <c r="AY99">
+        <v>13</v>
+      </c>
+      <c r="AZ99">
+        <v>11</v>
+      </c>
+      <c r="BA99">
+        <v>2</v>
+      </c>
+      <c r="BB99">
+        <v>10</v>
+      </c>
+      <c r="BC99">
+        <v>12</v>
+      </c>
+      <c r="BD99">
+        <v>0</v>
+      </c>
+      <c r="BE99">
+        <v>0</v>
+      </c>
+      <c r="BF99">
+        <v>0</v>
+      </c>
+      <c r="BG99">
+        <v>0</v>
+      </c>
+      <c r="BH99">
+        <v>0</v>
+      </c>
+      <c r="BI99">
+        <v>0</v>
+      </c>
+      <c r="BJ99">
+        <v>0</v>
+      </c>
+      <c r="BK99">
+        <v>0</v>
+      </c>
+      <c r="BL99">
+        <v>0</v>
+      </c>
+      <c r="BM99">
+        <v>0</v>
+      </c>
+      <c r="BN99">
+        <v>0</v>
+      </c>
+      <c r="BO99">
+        <v>0</v>
+      </c>
+      <c r="BP99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7778579</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45767.08333333334</v>
+      </c>
+      <c r="F100">
+        <v>10</v>
+      </c>
+      <c r="G100" t="s">
+        <v>87</v>
+      </c>
+      <c r="H100" t="s">
+        <v>74</v>
+      </c>
+      <c r="I100">
+        <v>1</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>2</v>
+      </c>
+      <c r="L100">
+        <v>2</v>
+      </c>
+      <c r="M100">
+        <v>1</v>
+      </c>
+      <c r="N100">
+        <v>3</v>
+      </c>
+      <c r="O100" t="s">
+        <v>157</v>
+      </c>
+      <c r="P100" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q100">
+        <v>2.6</v>
+      </c>
+      <c r="R100">
+        <v>2.2</v>
+      </c>
+      <c r="S100">
+        <v>4.33</v>
+      </c>
+      <c r="T100">
+        <v>1.4</v>
+      </c>
+      <c r="U100">
+        <v>2.75</v>
+      </c>
+      <c r="V100">
+        <v>2.75</v>
+      </c>
+      <c r="W100">
+        <v>1.4</v>
+      </c>
+      <c r="X100">
+        <v>8</v>
+      </c>
+      <c r="Y100">
+        <v>1.08</v>
+      </c>
+      <c r="Z100">
+        <v>1.89</v>
+      </c>
+      <c r="AA100">
+        <v>3.51</v>
+      </c>
+      <c r="AB100">
+        <v>3.91</v>
+      </c>
+      <c r="AC100">
+        <v>1</v>
+      </c>
+      <c r="AD100">
+        <v>9.1</v>
+      </c>
+      <c r="AE100">
+        <v>1.21</v>
+      </c>
+      <c r="AF100">
+        <v>3.58</v>
+      </c>
+      <c r="AG100">
+        <v>1.83</v>
+      </c>
+      <c r="AH100">
+        <v>1.91</v>
+      </c>
+      <c r="AI100">
+        <v>1.73</v>
+      </c>
+      <c r="AJ100">
+        <v>2</v>
+      </c>
+      <c r="AK100">
+        <v>1.25</v>
+      </c>
+      <c r="AL100">
+        <v>1.3</v>
+      </c>
+      <c r="AM100">
+        <v>1.83</v>
+      </c>
+      <c r="AN100">
+        <v>1</v>
+      </c>
+      <c r="AO100">
+        <v>0.75</v>
+      </c>
+      <c r="AP100">
+        <v>1.5</v>
+      </c>
+      <c r="AQ100">
+        <v>0.6</v>
+      </c>
+      <c r="AR100">
+        <v>1.51</v>
+      </c>
+      <c r="AS100">
+        <v>1.34</v>
+      </c>
+      <c r="AT100">
+        <v>2.85</v>
+      </c>
+      <c r="AU100">
+        <v>6</v>
+      </c>
+      <c r="AV100">
+        <v>3</v>
+      </c>
+      <c r="AW100">
+        <v>6</v>
+      </c>
+      <c r="AX100">
+        <v>8</v>
+      </c>
+      <c r="AY100">
+        <v>12</v>
+      </c>
+      <c r="AZ100">
+        <v>11</v>
+      </c>
+      <c r="BA100">
+        <v>11</v>
+      </c>
+      <c r="BB100">
+        <v>6</v>
+      </c>
+      <c r="BC100">
+        <v>17</v>
+      </c>
+      <c r="BD100">
+        <v>0</v>
+      </c>
+      <c r="BE100">
+        <v>0</v>
+      </c>
+      <c r="BF100">
+        <v>0</v>
+      </c>
+      <c r="BG100">
+        <v>0</v>
+      </c>
+      <c r="BH100">
+        <v>0</v>
+      </c>
+      <c r="BI100">
+        <v>0</v>
+      </c>
+      <c r="BJ100">
+        <v>0</v>
+      </c>
+      <c r="BK100">
+        <v>0</v>
+      </c>
+      <c r="BL100">
+        <v>0</v>
+      </c>
+      <c r="BM100">
+        <v>0</v>
+      </c>
+      <c r="BN100">
+        <v>0</v>
+      </c>
+      <c r="BO100">
+        <v>0</v>
+      </c>
+      <c r="BP100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7778584</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45767.08333333334</v>
+      </c>
+      <c r="F101">
+        <v>10</v>
+      </c>
+      <c r="G101" t="s">
+        <v>86</v>
+      </c>
+      <c r="H101" t="s">
+        <v>70</v>
+      </c>
+      <c r="I101">
+        <v>1</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>2</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101" t="s">
+        <v>122</v>
+      </c>
+      <c r="P101" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q101">
+        <v>3.25</v>
+      </c>
+      <c r="R101">
+        <v>1.95</v>
+      </c>
+      <c r="S101">
+        <v>3.75</v>
+      </c>
+      <c r="T101">
+        <v>1.53</v>
+      </c>
+      <c r="U101">
+        <v>2.38</v>
+      </c>
+      <c r="V101">
+        <v>3.5</v>
+      </c>
+      <c r="W101">
+        <v>1.29</v>
+      </c>
+      <c r="X101">
+        <v>11</v>
+      </c>
+      <c r="Y101">
+        <v>1.05</v>
+      </c>
+      <c r="Z101">
+        <v>2.49</v>
+      </c>
+      <c r="AA101">
+        <v>3.02</v>
+      </c>
+      <c r="AB101">
+        <v>2.96</v>
+      </c>
+      <c r="AC101">
+        <v>1.03</v>
+      </c>
+      <c r="AD101">
+        <v>7.6</v>
+      </c>
+      <c r="AE101">
+        <v>1.39</v>
+      </c>
+      <c r="AF101">
+        <v>2.59</v>
+      </c>
+      <c r="AG101">
+        <v>2.25</v>
+      </c>
+      <c r="AH101">
+        <v>1.53</v>
+      </c>
+      <c r="AI101">
+        <v>2</v>
+      </c>
+      <c r="AJ101">
+        <v>1.73</v>
+      </c>
+      <c r="AK101">
+        <v>1.4</v>
+      </c>
+      <c r="AL101">
+        <v>1.36</v>
+      </c>
+      <c r="AM101">
+        <v>1.53</v>
+      </c>
+      <c r="AN101">
+        <v>1.75</v>
+      </c>
+      <c r="AO101">
+        <v>0.25</v>
+      </c>
+      <c r="AP101">
+        <v>1.4</v>
+      </c>
+      <c r="AQ101">
+        <v>0.8</v>
+      </c>
+      <c r="AR101">
+        <v>1.44</v>
+      </c>
+      <c r="AS101">
+        <v>1.02</v>
+      </c>
+      <c r="AT101">
+        <v>2.46</v>
+      </c>
+      <c r="AU101">
+        <v>3</v>
+      </c>
+      <c r="AV101">
+        <v>4</v>
+      </c>
+      <c r="AW101">
+        <v>4</v>
+      </c>
+      <c r="AX101">
+        <v>1</v>
+      </c>
+      <c r="AY101">
+        <v>7</v>
+      </c>
+      <c r="AZ101">
+        <v>5</v>
+      </c>
+      <c r="BA101">
+        <v>7</v>
+      </c>
+      <c r="BB101">
+        <v>5</v>
+      </c>
+      <c r="BC101">
+        <v>12</v>
+      </c>
+      <c r="BD101">
+        <v>0</v>
+      </c>
+      <c r="BE101">
+        <v>0</v>
+      </c>
+      <c r="BF101">
+        <v>0</v>
+      </c>
+      <c r="BG101">
+        <v>0</v>
+      </c>
+      <c r="BH101">
+        <v>0</v>
+      </c>
+      <c r="BI101">
+        <v>0</v>
+      </c>
+      <c r="BJ101">
+        <v>0</v>
+      </c>
+      <c r="BK101">
+        <v>0</v>
+      </c>
+      <c r="BL101">
+        <v>0</v>
+      </c>
+      <c r="BM101">
+        <v>0</v>
+      </c>
+      <c r="BN101">
+        <v>0</v>
+      </c>
+      <c r="BO101">
+        <v>0</v>
+      </c>
+      <c r="BP101">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,18 @@
     <t>['30', '54']</t>
   </si>
   <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['6', '38', '48']</t>
+  </si>
+  <si>
+    <t>['19', '31']</t>
+  </si>
+  <si>
+    <t>['45+1', '75', '90+2']</t>
+  </si>
+  <si>
     <t>['31', '60']</t>
   </si>
   <si>
@@ -580,9 +592,6 @@
     <t>['7']</t>
   </si>
   <si>
-    <t>['90+2']</t>
-  </si>
-  <si>
     <t>['17']</t>
   </si>
   <si>
@@ -638,6 +647,24 @@
   </si>
   <si>
     <t>['7', '83']</t>
+  </si>
+  <si>
+    <t>['34']</t>
+  </si>
+  <si>
+    <t>['87']</t>
+  </si>
+  <si>
+    <t>['6', '58', '64']</t>
+  </si>
+  <si>
+    <t>['45', '63']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['37', '51', '68', '78']</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP101"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1258,7 +1285,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1542,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ3">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1876,7 +1903,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -1954,7 +1981,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ5">
         <v>0.8</v>
@@ -2082,7 +2109,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>4.1</v>
@@ -2160,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ6">
         <v>1</v>
@@ -2288,7 +2315,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2366,7 +2393,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ7">
         <v>2</v>
@@ -2494,7 +2521,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q8">
         <v>2.28</v>
@@ -2572,10 +2599,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2700,7 +2727,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -2906,7 +2933,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -2987,7 +3014,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3193,7 +3220,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3396,7 +3423,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3808,10 +3835,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ14">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR14">
         <v>2.25</v>
@@ -3936,7 +3963,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q15">
         <v>4.1</v>
@@ -4223,7 +4250,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4632,10 +4659,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5047,7 +5074,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ20">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR20">
         <v>1.61</v>
@@ -5172,7 +5199,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q21">
         <v>4.4</v>
@@ -5253,7 +5280,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ21">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR21">
         <v>1.32</v>
@@ -5456,10 +5483,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5584,7 +5611,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5662,7 +5689,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ23">
         <v>2.5</v>
@@ -5868,7 +5895,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ24">
         <v>0.8</v>
@@ -5996,7 +6023,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6077,7 +6104,7 @@
         <v>3</v>
       </c>
       <c r="AQ25">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.45</v>
@@ -6202,7 +6229,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q26">
         <v>3.95</v>
@@ -6280,10 +6307,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR26">
         <v>0.85</v>
@@ -6408,7 +6435,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6614,7 +6641,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q28">
         <v>3.35</v>
@@ -6901,7 +6928,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ29">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7104,10 +7131,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR30">
         <v>1.54</v>
@@ -7313,7 +7340,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR31">
         <v>1.27</v>
@@ -7438,7 +7465,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q32">
         <v>3.45</v>
@@ -7516,7 +7543,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
         <v>0.6</v>
@@ -7644,7 +7671,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7722,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ33">
         <v>0.4</v>
@@ -7850,7 +7877,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8056,7 +8083,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8262,7 +8289,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q36">
         <v>2.8</v>
@@ -8343,7 +8370,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -8674,7 +8701,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -8880,7 +8907,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -9167,7 +9194,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ40">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR40">
         <v>1.47</v>
@@ -9498,7 +9525,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9579,7 +9606,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR42">
         <v>0</v>
@@ -9782,10 +9809,10 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR43">
         <v>1.09</v>
@@ -9988,10 +10015,10 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ44">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR44">
         <v>1.37</v>
@@ -10194,7 +10221,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ45">
         <v>1.4</v>
@@ -10400,7 +10427,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10528,7 +10555,7 @@
         <v>105</v>
       </c>
       <c r="P47" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10609,7 +10636,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ47">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.58</v>
@@ -10734,7 +10761,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -10812,7 +10839,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>2</v>
@@ -10940,7 +10967,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -11021,7 +11048,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ49">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR49">
         <v>1.15</v>
@@ -11352,7 +11379,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q51">
         <v>1.91</v>
@@ -11433,7 +11460,7 @@
         <v>3</v>
       </c>
       <c r="AQ51">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR51">
         <v>1.69</v>
@@ -11558,7 +11585,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11636,7 +11663,7 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52">
         <v>0.8</v>
@@ -11764,7 +11791,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11845,7 +11872,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ53">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR53">
         <v>1.15</v>
@@ -12048,10 +12075,10 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR54">
         <v>2.36</v>
@@ -12254,7 +12281,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ55">
         <v>1</v>
@@ -12382,7 +12409,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q56">
         <v>4.33</v>
@@ -12463,7 +12490,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR56">
         <v>1.03</v>
@@ -12872,7 +12899,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ58">
         <v>0.8</v>
@@ -13000,7 +13027,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13412,7 +13439,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13618,7 +13645,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -13699,7 +13726,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ62">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -13824,7 +13851,7 @@
         <v>133</v>
       </c>
       <c r="P63" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="Q63">
         <v>3</v>
@@ -14030,7 +14057,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14108,10 +14135,10 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR64">
         <v>1.49</v>
@@ -14236,7 +14263,7 @@
         <v>90</v>
       </c>
       <c r="P65" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q65">
         <v>3.6</v>
@@ -14442,7 +14469,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q66">
         <v>4.75</v>
@@ -14520,7 +14547,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
         <v>0.6</v>
@@ -14648,7 +14675,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14729,7 +14756,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ67">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.24</v>
@@ -15138,7 +15165,7 @@
         <v>3</v>
       </c>
       <c r="AP69">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ69">
         <v>2.4</v>
@@ -15347,7 +15374,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ70">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR70">
         <v>1.09</v>
@@ -15756,10 +15783,10 @@
         <v>1.2</v>
       </c>
       <c r="AP72">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR72">
         <v>1.51</v>
@@ -15965,7 +15992,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ73">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR73">
         <v>1.25</v>
@@ -16090,7 +16117,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16171,7 +16198,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ74">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR74">
         <v>1.3</v>
@@ -16580,7 +16607,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ76">
         <v>0.6</v>
@@ -17120,7 +17147,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17198,10 +17225,10 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR79">
         <v>2.01</v>
@@ -17532,7 +17559,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17816,7 +17843,7 @@
         <v>3</v>
       </c>
       <c r="AP82">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ82">
         <v>2.5</v>
@@ -17944,7 +17971,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18025,7 +18052,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ83">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR83">
         <v>1.52</v>
@@ -18150,7 +18177,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18228,10 +18255,10 @@
         <v>1.2</v>
       </c>
       <c r="AP84">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR84">
         <v>1.56</v>
@@ -18562,7 +18589,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18768,7 +18795,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -18974,7 +19001,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19052,7 +19079,7 @@
         <v>2.25</v>
       </c>
       <c r="AP88">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
         <v>2.4</v>
@@ -19180,7 +19207,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19258,7 +19285,7 @@
         <v>0.33</v>
       </c>
       <c r="AP89">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -19464,10 +19491,10 @@
         <v>1.33</v>
       </c>
       <c r="AP90">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="AQ90">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AR90">
         <v>1.26</v>
@@ -19673,7 +19700,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ91">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR91">
         <v>1.1</v>
@@ -19798,7 +19825,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20004,7 +20031,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20082,7 +20109,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ93">
         <v>0.4</v>
@@ -20210,7 +20237,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q94">
         <v>2.3</v>
@@ -20291,7 +20318,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ94">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AR94">
         <v>1.38</v>
@@ -20416,7 +20443,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20828,7 +20855,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q97">
         <v>3.25</v>
@@ -21115,7 +21142,7 @@
         <v>3</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR98">
         <v>1.74</v>
@@ -21446,7 +21473,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21652,7 +21679,7 @@
         <v>122</v>
       </c>
       <c r="P101" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q101">
         <v>3.25</v>
@@ -21733,7 +21760,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ101">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR101">
         <v>1.44</v>
@@ -21808,6 +21835,1654 @@
         <v>0</v>
       </c>
       <c r="BP101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7778589</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45772.29166666666</v>
+      </c>
+      <c r="F102">
+        <v>11</v>
+      </c>
+      <c r="G102" t="s">
+        <v>85</v>
+      </c>
+      <c r="H102" t="s">
+        <v>77</v>
+      </c>
+      <c r="I102">
+        <v>0</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>1</v>
+      </c>
+      <c r="N102">
+        <v>2</v>
+      </c>
+      <c r="O102" t="s">
+        <v>158</v>
+      </c>
+      <c r="P102" t="s">
+        <v>211</v>
+      </c>
+      <c r="Q102">
+        <v>2.25</v>
+      </c>
+      <c r="R102">
+        <v>2.2</v>
+      </c>
+      <c r="S102">
+        <v>5.5</v>
+      </c>
+      <c r="T102">
+        <v>1.4</v>
+      </c>
+      <c r="U102">
+        <v>2.75</v>
+      </c>
+      <c r="V102">
+        <v>3</v>
+      </c>
+      <c r="W102">
+        <v>1.36</v>
+      </c>
+      <c r="X102">
+        <v>8</v>
+      </c>
+      <c r="Y102">
+        <v>1.08</v>
+      </c>
+      <c r="Z102">
+        <v>1.6</v>
+      </c>
+      <c r="AA102">
+        <v>3.83</v>
+      </c>
+      <c r="AB102">
+        <v>5.4</v>
+      </c>
+      <c r="AC102">
+        <v>0</v>
+      </c>
+      <c r="AD102">
+        <v>0</v>
+      </c>
+      <c r="AE102">
+        <v>2.24</v>
+      </c>
+      <c r="AF102">
+        <v>1.66</v>
+      </c>
+      <c r="AG102">
+        <v>1.98</v>
+      </c>
+      <c r="AH102">
+        <v>1.77</v>
+      </c>
+      <c r="AI102">
+        <v>1.91</v>
+      </c>
+      <c r="AJ102">
+        <v>1.8</v>
+      </c>
+      <c r="AK102">
+        <v>0</v>
+      </c>
+      <c r="AL102">
+        <v>0</v>
+      </c>
+      <c r="AM102">
+        <v>0</v>
+      </c>
+      <c r="AN102">
+        <v>1.6</v>
+      </c>
+      <c r="AO102">
+        <v>1.25</v>
+      </c>
+      <c r="AP102">
+        <v>1.5</v>
+      </c>
+      <c r="AQ102">
+        <v>1.2</v>
+      </c>
+      <c r="AR102">
+        <v>1.46</v>
+      </c>
+      <c r="AS102">
+        <v>1.42</v>
+      </c>
+      <c r="AT102">
+        <v>2.88</v>
+      </c>
+      <c r="AU102">
+        <v>6</v>
+      </c>
+      <c r="AV102">
+        <v>4</v>
+      </c>
+      <c r="AW102">
+        <v>9</v>
+      </c>
+      <c r="AX102">
+        <v>5</v>
+      </c>
+      <c r="AY102">
+        <v>15</v>
+      </c>
+      <c r="AZ102">
+        <v>9</v>
+      </c>
+      <c r="BA102">
+        <v>8</v>
+      </c>
+      <c r="BB102">
+        <v>5</v>
+      </c>
+      <c r="BC102">
+        <v>13</v>
+      </c>
+      <c r="BD102">
+        <v>0</v>
+      </c>
+      <c r="BE102">
+        <v>0</v>
+      </c>
+      <c r="BF102">
+        <v>0</v>
+      </c>
+      <c r="BG102">
+        <v>0</v>
+      </c>
+      <c r="BH102">
+        <v>0</v>
+      </c>
+      <c r="BI102">
+        <v>0</v>
+      </c>
+      <c r="BJ102">
+        <v>0</v>
+      </c>
+      <c r="BK102">
+        <v>0</v>
+      </c>
+      <c r="BL102">
+        <v>0</v>
+      </c>
+      <c r="BM102">
+        <v>0</v>
+      </c>
+      <c r="BN102">
+        <v>0</v>
+      </c>
+      <c r="BO102">
+        <v>0</v>
+      </c>
+      <c r="BP102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7778590</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45772.29166666666</v>
+      </c>
+      <c r="F103">
+        <v>11</v>
+      </c>
+      <c r="G103" t="s">
+        <v>84</v>
+      </c>
+      <c r="H103" t="s">
+        <v>72</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103">
+        <v>0</v>
+      </c>
+      <c r="N103">
+        <v>0</v>
+      </c>
+      <c r="O103" t="s">
+        <v>90</v>
+      </c>
+      <c r="P103" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q103">
+        <v>3.1</v>
+      </c>
+      <c r="R103">
+        <v>2</v>
+      </c>
+      <c r="S103">
+        <v>3.75</v>
+      </c>
+      <c r="T103">
+        <v>1.5</v>
+      </c>
+      <c r="U103">
+        <v>2.5</v>
+      </c>
+      <c r="V103">
+        <v>3.4</v>
+      </c>
+      <c r="W103">
+        <v>1.3</v>
+      </c>
+      <c r="X103">
+        <v>10</v>
+      </c>
+      <c r="Y103">
+        <v>1.06</v>
+      </c>
+      <c r="Z103">
+        <v>2.26</v>
+      </c>
+      <c r="AA103">
+        <v>3.21</v>
+      </c>
+      <c r="AB103">
+        <v>3.16</v>
+      </c>
+      <c r="AC103">
+        <v>0</v>
+      </c>
+      <c r="AD103">
+        <v>0</v>
+      </c>
+      <c r="AE103">
+        <v>0</v>
+      </c>
+      <c r="AF103">
+        <v>0</v>
+      </c>
+      <c r="AG103">
+        <v>1.89</v>
+      </c>
+      <c r="AH103">
+        <v>1.85</v>
+      </c>
+      <c r="AI103">
+        <v>1.91</v>
+      </c>
+      <c r="AJ103">
+        <v>1.8</v>
+      </c>
+      <c r="AK103">
+        <v>0</v>
+      </c>
+      <c r="AL103">
+        <v>0</v>
+      </c>
+      <c r="AM103">
+        <v>0</v>
+      </c>
+      <c r="AN103">
+        <v>2.2</v>
+      </c>
+      <c r="AO103">
+        <v>0.8</v>
+      </c>
+      <c r="AP103">
+        <v>2</v>
+      </c>
+      <c r="AQ103">
+        <v>0.83</v>
+      </c>
+      <c r="AR103">
+        <v>1.59</v>
+      </c>
+      <c r="AS103">
+        <v>1.16</v>
+      </c>
+      <c r="AT103">
+        <v>2.75</v>
+      </c>
+      <c r="AU103">
+        <v>4</v>
+      </c>
+      <c r="AV103">
+        <v>2</v>
+      </c>
+      <c r="AW103">
+        <v>9</v>
+      </c>
+      <c r="AX103">
+        <v>8</v>
+      </c>
+      <c r="AY103">
+        <v>13</v>
+      </c>
+      <c r="AZ103">
+        <v>10</v>
+      </c>
+      <c r="BA103">
+        <v>6</v>
+      </c>
+      <c r="BB103">
+        <v>4</v>
+      </c>
+      <c r="BC103">
+        <v>10</v>
+      </c>
+      <c r="BD103">
+        <v>0</v>
+      </c>
+      <c r="BE103">
+        <v>0</v>
+      </c>
+      <c r="BF103">
+        <v>0</v>
+      </c>
+      <c r="BG103">
+        <v>0</v>
+      </c>
+      <c r="BH103">
+        <v>0</v>
+      </c>
+      <c r="BI103">
+        <v>0</v>
+      </c>
+      <c r="BJ103">
+        <v>0</v>
+      </c>
+      <c r="BK103">
+        <v>0</v>
+      </c>
+      <c r="BL103">
+        <v>0</v>
+      </c>
+      <c r="BM103">
+        <v>0</v>
+      </c>
+      <c r="BN103">
+        <v>0</v>
+      </c>
+      <c r="BO103">
+        <v>0</v>
+      </c>
+      <c r="BP103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7778591</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45772.29166666666</v>
+      </c>
+      <c r="F104">
+        <v>11</v>
+      </c>
+      <c r="G104" t="s">
+        <v>71</v>
+      </c>
+      <c r="H104" t="s">
+        <v>87</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>1</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>1</v>
+      </c>
+      <c r="O104" t="s">
+        <v>103</v>
+      </c>
+      <c r="P104" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q104">
+        <v>2.6</v>
+      </c>
+      <c r="R104">
+        <v>2.3</v>
+      </c>
+      <c r="S104">
+        <v>4</v>
+      </c>
+      <c r="T104">
+        <v>1.33</v>
+      </c>
+      <c r="U104">
+        <v>3.25</v>
+      </c>
+      <c r="V104">
+        <v>2.63</v>
+      </c>
+      <c r="W104">
+        <v>1.44</v>
+      </c>
+      <c r="X104">
+        <v>6.5</v>
+      </c>
+      <c r="Y104">
+        <v>1.11</v>
+      </c>
+      <c r="Z104">
+        <v>1.88</v>
+      </c>
+      <c r="AA104">
+        <v>3.74</v>
+      </c>
+      <c r="AB104">
+        <v>3.72</v>
+      </c>
+      <c r="AC104">
+        <v>0</v>
+      </c>
+      <c r="AD104">
+        <v>0</v>
+      </c>
+      <c r="AE104">
+        <v>1.81</v>
+      </c>
+      <c r="AF104">
+        <v>2.03</v>
+      </c>
+      <c r="AG104">
+        <v>1.85</v>
+      </c>
+      <c r="AH104">
+        <v>1.89</v>
+      </c>
+      <c r="AI104">
+        <v>1.62</v>
+      </c>
+      <c r="AJ104">
+        <v>2.2</v>
+      </c>
+      <c r="AK104">
+        <v>0</v>
+      </c>
+      <c r="AL104">
+        <v>0</v>
+      </c>
+      <c r="AM104">
+        <v>0</v>
+      </c>
+      <c r="AN104">
+        <v>2.6</v>
+      </c>
+      <c r="AO104">
+        <v>1</v>
+      </c>
+      <c r="AP104">
+        <v>2.67</v>
+      </c>
+      <c r="AQ104">
+        <v>0.86</v>
+      </c>
+      <c r="AR104">
+        <v>1.89</v>
+      </c>
+      <c r="AS104">
+        <v>1.19</v>
+      </c>
+      <c r="AT104">
+        <v>3.08</v>
+      </c>
+      <c r="AU104">
+        <v>2</v>
+      </c>
+      <c r="AV104">
+        <v>5</v>
+      </c>
+      <c r="AW104">
+        <v>8</v>
+      </c>
+      <c r="AX104">
+        <v>7</v>
+      </c>
+      <c r="AY104">
+        <v>12</v>
+      </c>
+      <c r="AZ104">
+        <v>12</v>
+      </c>
+      <c r="BA104">
+        <v>10</v>
+      </c>
+      <c r="BB104">
+        <v>5</v>
+      </c>
+      <c r="BC104">
+        <v>15</v>
+      </c>
+      <c r="BD104">
+        <v>0</v>
+      </c>
+      <c r="BE104">
+        <v>0</v>
+      </c>
+      <c r="BF104">
+        <v>0</v>
+      </c>
+      <c r="BG104">
+        <v>0</v>
+      </c>
+      <c r="BH104">
+        <v>0</v>
+      </c>
+      <c r="BI104">
+        <v>0</v>
+      </c>
+      <c r="BJ104">
+        <v>0</v>
+      </c>
+      <c r="BK104">
+        <v>0</v>
+      </c>
+      <c r="BL104">
+        <v>0</v>
+      </c>
+      <c r="BM104">
+        <v>0</v>
+      </c>
+      <c r="BN104">
+        <v>0</v>
+      </c>
+      <c r="BO104">
+        <v>0</v>
+      </c>
+      <c r="BP104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7778592</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45772.29166666666</v>
+      </c>
+      <c r="F105">
+        <v>11</v>
+      </c>
+      <c r="G105" t="s">
+        <v>80</v>
+      </c>
+      <c r="H105" t="s">
+        <v>89</v>
+      </c>
+      <c r="I105">
+        <v>2</v>
+      </c>
+      <c r="J105">
+        <v>0</v>
+      </c>
+      <c r="K105">
+        <v>2</v>
+      </c>
+      <c r="L105">
+        <v>3</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>4</v>
+      </c>
+      <c r="O105" t="s">
+        <v>159</v>
+      </c>
+      <c r="P105" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q105">
+        <v>2.38</v>
+      </c>
+      <c r="R105">
+        <v>2.2</v>
+      </c>
+      <c r="S105">
+        <v>4.75</v>
+      </c>
+      <c r="T105">
+        <v>1.4</v>
+      </c>
+      <c r="U105">
+        <v>2.75</v>
+      </c>
+      <c r="V105">
+        <v>2.75</v>
+      </c>
+      <c r="W105">
+        <v>1.4</v>
+      </c>
+      <c r="X105">
+        <v>8</v>
+      </c>
+      <c r="Y105">
+        <v>1.08</v>
+      </c>
+      <c r="Z105">
+        <v>1.7</v>
+      </c>
+      <c r="AA105">
+        <v>3.85</v>
+      </c>
+      <c r="AB105">
+        <v>4.5</v>
+      </c>
+      <c r="AC105">
+        <v>0</v>
+      </c>
+      <c r="AD105">
+        <v>0</v>
+      </c>
+      <c r="AE105">
+        <v>0</v>
+      </c>
+      <c r="AF105">
+        <v>0</v>
+      </c>
+      <c r="AG105">
+        <v>1.89</v>
+      </c>
+      <c r="AH105">
+        <v>1.85</v>
+      </c>
+      <c r="AI105">
+        <v>1.83</v>
+      </c>
+      <c r="AJ105">
+        <v>1.83</v>
+      </c>
+      <c r="AK105">
+        <v>0</v>
+      </c>
+      <c r="AL105">
+        <v>0</v>
+      </c>
+      <c r="AM105">
+        <v>0</v>
+      </c>
+      <c r="AN105">
+        <v>3</v>
+      </c>
+      <c r="AO105">
+        <v>1</v>
+      </c>
+      <c r="AP105">
+        <v>3</v>
+      </c>
+      <c r="AQ105">
+        <v>0.86</v>
+      </c>
+      <c r="AR105">
+        <v>1.64</v>
+      </c>
+      <c r="AS105">
+        <v>1.47</v>
+      </c>
+      <c r="AT105">
+        <v>3.11</v>
+      </c>
+      <c r="AU105">
+        <v>6</v>
+      </c>
+      <c r="AV105">
+        <v>6</v>
+      </c>
+      <c r="AW105">
+        <v>4</v>
+      </c>
+      <c r="AX105">
+        <v>5</v>
+      </c>
+      <c r="AY105">
+        <v>10</v>
+      </c>
+      <c r="AZ105">
+        <v>11</v>
+      </c>
+      <c r="BA105">
+        <v>3</v>
+      </c>
+      <c r="BB105">
+        <v>0</v>
+      </c>
+      <c r="BC105">
+        <v>3</v>
+      </c>
+      <c r="BD105">
+        <v>0</v>
+      </c>
+      <c r="BE105">
+        <v>0</v>
+      </c>
+      <c r="BF105">
+        <v>0</v>
+      </c>
+      <c r="BG105">
+        <v>0</v>
+      </c>
+      <c r="BH105">
+        <v>0</v>
+      </c>
+      <c r="BI105">
+        <v>0</v>
+      </c>
+      <c r="BJ105">
+        <v>0</v>
+      </c>
+      <c r="BK105">
+        <v>0</v>
+      </c>
+      <c r="BL105">
+        <v>0</v>
+      </c>
+      <c r="BM105">
+        <v>0</v>
+      </c>
+      <c r="BN105">
+        <v>0</v>
+      </c>
+      <c r="BO105">
+        <v>0</v>
+      </c>
+      <c r="BP105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7778593</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45772.29166666666</v>
+      </c>
+      <c r="F106">
+        <v>11</v>
+      </c>
+      <c r="G106" t="s">
+        <v>73</v>
+      </c>
+      <c r="H106" t="s">
+        <v>79</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>3</v>
+      </c>
+      <c r="N106">
+        <v>3</v>
+      </c>
+      <c r="O106" t="s">
+        <v>90</v>
+      </c>
+      <c r="P106" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q106">
+        <v>2.88</v>
+      </c>
+      <c r="R106">
+        <v>2</v>
+      </c>
+      <c r="S106">
+        <v>4.33</v>
+      </c>
+      <c r="T106">
+        <v>1.5</v>
+      </c>
+      <c r="U106">
+        <v>2.5</v>
+      </c>
+      <c r="V106">
+        <v>3.5</v>
+      </c>
+      <c r="W106">
+        <v>1.29</v>
+      </c>
+      <c r="X106">
+        <v>11</v>
+      </c>
+      <c r="Y106">
+        <v>1.05</v>
+      </c>
+      <c r="Z106">
+        <v>2.05</v>
+      </c>
+      <c r="AA106">
+        <v>3.21</v>
+      </c>
+      <c r="AB106">
+        <v>3.7</v>
+      </c>
+      <c r="AC106">
+        <v>0</v>
+      </c>
+      <c r="AD106">
+        <v>0</v>
+      </c>
+      <c r="AE106">
+        <v>0</v>
+      </c>
+      <c r="AF106">
+        <v>0</v>
+      </c>
+      <c r="AG106">
+        <v>2.2</v>
+      </c>
+      <c r="AH106">
+        <v>1.55</v>
+      </c>
+      <c r="AI106">
+        <v>2</v>
+      </c>
+      <c r="AJ106">
+        <v>1.73</v>
+      </c>
+      <c r="AK106">
+        <v>0</v>
+      </c>
+      <c r="AL106">
+        <v>0</v>
+      </c>
+      <c r="AM106">
+        <v>0</v>
+      </c>
+      <c r="AN106">
+        <v>2.6</v>
+      </c>
+      <c r="AO106">
+        <v>1</v>
+      </c>
+      <c r="AP106">
+        <v>2.17</v>
+      </c>
+      <c r="AQ106">
+        <v>1.33</v>
+      </c>
+      <c r="AR106">
+        <v>1.3</v>
+      </c>
+      <c r="AS106">
+        <v>1.13</v>
+      </c>
+      <c r="AT106">
+        <v>2.43</v>
+      </c>
+      <c r="AU106">
+        <v>6</v>
+      </c>
+      <c r="AV106">
+        <v>5</v>
+      </c>
+      <c r="AW106">
+        <v>8</v>
+      </c>
+      <c r="AX106">
+        <v>0</v>
+      </c>
+      <c r="AY106">
+        <v>14</v>
+      </c>
+      <c r="AZ106">
+        <v>5</v>
+      </c>
+      <c r="BA106">
+        <v>6</v>
+      </c>
+      <c r="BB106">
+        <v>4</v>
+      </c>
+      <c r="BC106">
+        <v>10</v>
+      </c>
+      <c r="BD106">
+        <v>0</v>
+      </c>
+      <c r="BE106">
+        <v>0</v>
+      </c>
+      <c r="BF106">
+        <v>0</v>
+      </c>
+      <c r="BG106">
+        <v>0</v>
+      </c>
+      <c r="BH106">
+        <v>0</v>
+      </c>
+      <c r="BI106">
+        <v>0</v>
+      </c>
+      <c r="BJ106">
+        <v>0</v>
+      </c>
+      <c r="BK106">
+        <v>0</v>
+      </c>
+      <c r="BL106">
+        <v>0</v>
+      </c>
+      <c r="BM106">
+        <v>0</v>
+      </c>
+      <c r="BN106">
+        <v>0</v>
+      </c>
+      <c r="BO106">
+        <v>0</v>
+      </c>
+      <c r="BP106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7778594</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45772.29166666666</v>
+      </c>
+      <c r="F107">
+        <v>11</v>
+      </c>
+      <c r="G107" t="s">
+        <v>74</v>
+      </c>
+      <c r="H107" t="s">
+        <v>82</v>
+      </c>
+      <c r="I107">
+        <v>0</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>1</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>2</v>
+      </c>
+      <c r="N107">
+        <v>2</v>
+      </c>
+      <c r="O107" t="s">
+        <v>90</v>
+      </c>
+      <c r="P107" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q107">
+        <v>3.25</v>
+      </c>
+      <c r="R107">
+        <v>2.2</v>
+      </c>
+      <c r="S107">
+        <v>3.25</v>
+      </c>
+      <c r="T107">
+        <v>1.4</v>
+      </c>
+      <c r="U107">
+        <v>2.75</v>
+      </c>
+      <c r="V107">
+        <v>2.75</v>
+      </c>
+      <c r="W107">
+        <v>1.4</v>
+      </c>
+      <c r="X107">
+        <v>8</v>
+      </c>
+      <c r="Y107">
+        <v>1.08</v>
+      </c>
+      <c r="Z107">
+        <v>2.6</v>
+      </c>
+      <c r="AA107">
+        <v>3.39</v>
+      </c>
+      <c r="AB107">
+        <v>2.56</v>
+      </c>
+      <c r="AC107">
+        <v>0</v>
+      </c>
+      <c r="AD107">
+        <v>0</v>
+      </c>
+      <c r="AE107">
+        <v>2.06</v>
+      </c>
+      <c r="AF107">
+        <v>1.78</v>
+      </c>
+      <c r="AG107">
+        <v>1.83</v>
+      </c>
+      <c r="AH107">
+        <v>1.91</v>
+      </c>
+      <c r="AI107">
+        <v>1.73</v>
+      </c>
+      <c r="AJ107">
+        <v>2</v>
+      </c>
+      <c r="AK107">
+        <v>0</v>
+      </c>
+      <c r="AL107">
+        <v>0</v>
+      </c>
+      <c r="AM107">
+        <v>0</v>
+      </c>
+      <c r="AN107">
+        <v>1.8</v>
+      </c>
+      <c r="AO107">
+        <v>1.25</v>
+      </c>
+      <c r="AP107">
+        <v>1.5</v>
+      </c>
+      <c r="AQ107">
+        <v>1.6</v>
+      </c>
+      <c r="AR107">
+        <v>1.3</v>
+      </c>
+      <c r="AS107">
+        <v>1.29</v>
+      </c>
+      <c r="AT107">
+        <v>2.59</v>
+      </c>
+      <c r="AU107">
+        <v>3</v>
+      </c>
+      <c r="AV107">
+        <v>8</v>
+      </c>
+      <c r="AW107">
+        <v>11</v>
+      </c>
+      <c r="AX107">
+        <v>4</v>
+      </c>
+      <c r="AY107">
+        <v>14</v>
+      </c>
+      <c r="AZ107">
+        <v>12</v>
+      </c>
+      <c r="BA107">
+        <v>8</v>
+      </c>
+      <c r="BB107">
+        <v>5</v>
+      </c>
+      <c r="BC107">
+        <v>13</v>
+      </c>
+      <c r="BD107">
+        <v>0</v>
+      </c>
+      <c r="BE107">
+        <v>0</v>
+      </c>
+      <c r="BF107">
+        <v>0</v>
+      </c>
+      <c r="BG107">
+        <v>0</v>
+      </c>
+      <c r="BH107">
+        <v>0</v>
+      </c>
+      <c r="BI107">
+        <v>0</v>
+      </c>
+      <c r="BJ107">
+        <v>0</v>
+      </c>
+      <c r="BK107">
+        <v>0</v>
+      </c>
+      <c r="BL107">
+        <v>0</v>
+      </c>
+      <c r="BM107">
+        <v>0</v>
+      </c>
+      <c r="BN107">
+        <v>0</v>
+      </c>
+      <c r="BO107">
+        <v>0</v>
+      </c>
+      <c r="BP107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7778597</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45772.29166666666</v>
+      </c>
+      <c r="F108">
+        <v>11</v>
+      </c>
+      <c r="G108" t="s">
+        <v>75</v>
+      </c>
+      <c r="H108" t="s">
+        <v>88</v>
+      </c>
+      <c r="I108">
+        <v>2</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>3</v>
+      </c>
+      <c r="O108" t="s">
+        <v>160</v>
+      </c>
+      <c r="P108" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q108">
+        <v>3.4</v>
+      </c>
+      <c r="R108">
+        <v>2.1</v>
+      </c>
+      <c r="S108">
+        <v>3.2</v>
+      </c>
+      <c r="T108">
+        <v>1.4</v>
+      </c>
+      <c r="U108">
+        <v>2.75</v>
+      </c>
+      <c r="V108">
+        <v>3</v>
+      </c>
+      <c r="W108">
+        <v>1.36</v>
+      </c>
+      <c r="X108">
+        <v>8</v>
+      </c>
+      <c r="Y108">
+        <v>1.08</v>
+      </c>
+      <c r="Z108">
+        <v>2.48</v>
+      </c>
+      <c r="AA108">
+        <v>3.38</v>
+      </c>
+      <c r="AB108">
+        <v>2.7</v>
+      </c>
+      <c r="AC108">
+        <v>0</v>
+      </c>
+      <c r="AD108">
+        <v>0</v>
+      </c>
+      <c r="AE108">
+        <v>0</v>
+      </c>
+      <c r="AF108">
+        <v>0</v>
+      </c>
+      <c r="AG108">
+        <v>1.89</v>
+      </c>
+      <c r="AH108">
+        <v>1.85</v>
+      </c>
+      <c r="AI108">
+        <v>1.73</v>
+      </c>
+      <c r="AJ108">
+        <v>2</v>
+      </c>
+      <c r="AK108">
+        <v>0</v>
+      </c>
+      <c r="AL108">
+        <v>0</v>
+      </c>
+      <c r="AM108">
+        <v>0</v>
+      </c>
+      <c r="AN108">
+        <v>1.67</v>
+      </c>
+      <c r="AO108">
+        <v>1.17</v>
+      </c>
+      <c r="AP108">
+        <v>1.86</v>
+      </c>
+      <c r="AQ108">
+        <v>1</v>
+      </c>
+      <c r="AR108">
+        <v>1.33</v>
+      </c>
+      <c r="AS108">
+        <v>1.25</v>
+      </c>
+      <c r="AT108">
+        <v>2.58</v>
+      </c>
+      <c r="AU108">
+        <v>4</v>
+      </c>
+      <c r="AV108">
+        <v>3</v>
+      </c>
+      <c r="AW108">
+        <v>6</v>
+      </c>
+      <c r="AX108">
+        <v>8</v>
+      </c>
+      <c r="AY108">
+        <v>10</v>
+      </c>
+      <c r="AZ108">
+        <v>11</v>
+      </c>
+      <c r="BA108">
+        <v>6</v>
+      </c>
+      <c r="BB108">
+        <v>6</v>
+      </c>
+      <c r="BC108">
+        <v>12</v>
+      </c>
+      <c r="BD108">
+        <v>0</v>
+      </c>
+      <c r="BE108">
+        <v>0</v>
+      </c>
+      <c r="BF108">
+        <v>0</v>
+      </c>
+      <c r="BG108">
+        <v>0</v>
+      </c>
+      <c r="BH108">
+        <v>0</v>
+      </c>
+      <c r="BI108">
+        <v>0</v>
+      </c>
+      <c r="BJ108">
+        <v>0</v>
+      </c>
+      <c r="BK108">
+        <v>0</v>
+      </c>
+      <c r="BL108">
+        <v>0</v>
+      </c>
+      <c r="BM108">
+        <v>0</v>
+      </c>
+      <c r="BN108">
+        <v>0</v>
+      </c>
+      <c r="BO108">
+        <v>0</v>
+      </c>
+      <c r="BP108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7778598</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45772.29166666666</v>
+      </c>
+      <c r="F109">
+        <v>11</v>
+      </c>
+      <c r="G109" t="s">
+        <v>76</v>
+      </c>
+      <c r="H109" t="s">
+        <v>70</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>2</v>
+      </c>
+      <c r="L109">
+        <v>3</v>
+      </c>
+      <c r="M109">
+        <v>4</v>
+      </c>
+      <c r="N109">
+        <v>7</v>
+      </c>
+      <c r="O109" t="s">
+        <v>161</v>
+      </c>
+      <c r="P109" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q109">
+        <v>2.3</v>
+      </c>
+      <c r="R109">
+        <v>2.25</v>
+      </c>
+      <c r="S109">
+        <v>5</v>
+      </c>
+      <c r="T109">
+        <v>1.36</v>
+      </c>
+      <c r="U109">
+        <v>3</v>
+      </c>
+      <c r="V109">
+        <v>2.63</v>
+      </c>
+      <c r="W109">
+        <v>1.44</v>
+      </c>
+      <c r="X109">
+        <v>7</v>
+      </c>
+      <c r="Y109">
+        <v>1.1</v>
+      </c>
+      <c r="Z109">
+        <v>1.67</v>
+      </c>
+      <c r="AA109">
+        <v>3.83</v>
+      </c>
+      <c r="AB109">
+        <v>4.75</v>
+      </c>
+      <c r="AC109">
+        <v>0</v>
+      </c>
+      <c r="AD109">
+        <v>0</v>
+      </c>
+      <c r="AE109">
+        <v>0</v>
+      </c>
+      <c r="AF109">
+        <v>0</v>
+      </c>
+      <c r="AG109">
+        <v>1.79</v>
+      </c>
+      <c r="AH109">
+        <v>1.95</v>
+      </c>
+      <c r="AI109">
+        <v>1.8</v>
+      </c>
+      <c r="AJ109">
+        <v>1.91</v>
+      </c>
+      <c r="AK109">
+        <v>0</v>
+      </c>
+      <c r="AL109">
+        <v>0</v>
+      </c>
+      <c r="AM109">
+        <v>0</v>
+      </c>
+      <c r="AN109">
+        <v>2.4</v>
+      </c>
+      <c r="AO109">
+        <v>0.8</v>
+      </c>
+      <c r="AP109">
+        <v>2</v>
+      </c>
+      <c r="AQ109">
+        <v>1.17</v>
+      </c>
+      <c r="AR109">
+        <v>2.1</v>
+      </c>
+      <c r="AS109">
+        <v>1.01</v>
+      </c>
+      <c r="AT109">
+        <v>3.11</v>
+      </c>
+      <c r="AU109">
+        <v>6</v>
+      </c>
+      <c r="AV109">
+        <v>5</v>
+      </c>
+      <c r="AW109">
+        <v>6</v>
+      </c>
+      <c r="AX109">
+        <v>2</v>
+      </c>
+      <c r="AY109">
+        <v>12</v>
+      </c>
+      <c r="AZ109">
+        <v>7</v>
+      </c>
+      <c r="BA109">
+        <v>5</v>
+      </c>
+      <c r="BB109">
+        <v>8</v>
+      </c>
+      <c r="BC109">
+        <v>13</v>
+      </c>
+      <c r="BD109">
+        <v>0</v>
+      </c>
+      <c r="BE109">
+        <v>0</v>
+      </c>
+      <c r="BF109">
+        <v>0</v>
+      </c>
+      <c r="BG109">
+        <v>0</v>
+      </c>
+      <c r="BH109">
+        <v>0</v>
+      </c>
+      <c r="BI109">
+        <v>0</v>
+      </c>
+      <c r="BJ109">
+        <v>0</v>
+      </c>
+      <c r="BK109">
+        <v>0</v>
+      </c>
+      <c r="BL109">
+        <v>0</v>
+      </c>
+      <c r="BM109">
+        <v>0</v>
+      </c>
+      <c r="BN109">
+        <v>0</v>
+      </c>
+      <c r="BO109">
+        <v>0</v>
+      </c>
+      <c r="BP109">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="219">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -493,6 +493,9 @@
     <t>['90+2']</t>
   </si>
   <si>
+    <t>['67']</t>
+  </si>
+  <si>
     <t>['6', '38', '48']</t>
   </si>
   <si>
@@ -500,6 +503,9 @@
   </si>
   <si>
     <t>['45+1', '75', '90+2']</t>
+  </si>
+  <si>
+    <t>['60']</t>
   </si>
   <si>
     <t>['31', '60']</t>
@@ -515,9 +521,6 @@
   </si>
   <si>
     <t>['10', '89']</t>
-  </si>
-  <si>
-    <t>['67']</t>
   </si>
   <si>
     <t>['40']</t>
@@ -665,6 +668,9 @@
   </si>
   <si>
     <t>['37', '51', '68', '78']</t>
+  </si>
+  <si>
+    <t>['75', '89']</t>
   </si>
 </sst>
 </file>
@@ -1026,7 +1032,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1285,7 +1291,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1903,7 +1909,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2109,7 +2115,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q6">
         <v>4.1</v>
@@ -2315,7 +2321,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2521,7 +2527,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q8">
         <v>2.28</v>
@@ -2727,7 +2733,7 @@
         <v>90</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="Q9">
         <v>3.5</v>
@@ -2808,7 +2814,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ9">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2933,7 +2939,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3632,7 +3638,7 @@
         <v>3</v>
       </c>
       <c r="AQ13">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3963,7 +3969,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q15">
         <v>4.1</v>
@@ -4041,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>0.6</v>
@@ -4453,7 +4459,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>2</v>
@@ -5199,7 +5205,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q21">
         <v>4.4</v>
@@ -5611,7 +5617,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5692,7 +5698,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ23">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR23">
         <v>1.4</v>
@@ -6023,7 +6029,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6229,7 +6235,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q26">
         <v>3.95</v>
@@ -6435,7 +6441,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6641,7 +6647,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q28">
         <v>3.35</v>
@@ -7337,7 +7343,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
         <v>0.86</v>
@@ -7465,7 +7471,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q32">
         <v>3.45</v>
@@ -7671,7 +7677,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7877,7 +7883,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7958,7 +7964,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ34">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR34">
         <v>1.24</v>
@@ -8083,7 +8089,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8289,7 +8295,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q36">
         <v>2.8</v>
@@ -8701,7 +8707,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -8907,7 +8913,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -9191,7 +9197,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ40">
         <v>1.6</v>
@@ -9525,7 +9531,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10555,7 +10561,7 @@
         <v>105</v>
       </c>
       <c r="P47" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10761,7 +10767,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -10967,7 +10973,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -11045,7 +11051,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
         <v>1.33</v>
@@ -11254,7 +11260,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ50">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR50">
         <v>1.08</v>
@@ -11379,7 +11385,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q51">
         <v>1.91</v>
@@ -11585,7 +11591,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11791,7 +11797,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11869,7 +11875,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ53">
         <v>1.6</v>
@@ -12284,7 +12290,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ55">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR55">
         <v>1.39</v>
@@ -12409,7 +12415,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q56">
         <v>4.33</v>
@@ -12696,7 +12702,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ57">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR57">
         <v>1.77</v>
@@ -13027,7 +13033,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13439,7 +13445,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13645,7 +13651,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -14057,7 +14063,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14263,7 +14269,7 @@
         <v>90</v>
       </c>
       <c r="P65" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q65">
         <v>3.6</v>
@@ -14469,7 +14475,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q66">
         <v>4.75</v>
@@ -14675,7 +14681,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15577,7 +15583,7 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ71">
         <v>1.4</v>
@@ -16117,7 +16123,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16195,7 +16201,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ74">
         <v>1.2</v>
@@ -17147,7 +17153,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17434,7 +17440,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ80">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR80">
         <v>1.56</v>
@@ -17559,7 +17565,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17846,7 +17852,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ82">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AR82">
         <v>1.31</v>
@@ -17971,7 +17977,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18177,7 +18183,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18589,7 +18595,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18795,7 +18801,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19001,7 +19007,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19207,7 +19213,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19825,7 +19831,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20031,7 +20037,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20237,7 +20243,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q94">
         <v>2.3</v>
@@ -20443,7 +20449,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20855,7 +20861,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q97">
         <v>3.25</v>
@@ -20933,7 +20939,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ97">
         <v>0.8</v>
@@ -21473,7 +21479,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21679,7 +21685,7 @@
         <v>122</v>
       </c>
       <c r="P101" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q101">
         <v>3.25</v>
@@ -21885,7 +21891,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q102">
         <v>2.25</v>
@@ -22294,7 +22300,7 @@
         <v>1</v>
       </c>
       <c r="O104" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="P104" t="s">
         <v>90</v>
@@ -22500,10 +22506,10 @@
         <v>4</v>
       </c>
       <c r="O105" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q105">
         <v>2.38</v>
@@ -22709,7 +22715,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22915,7 +22921,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -23118,10 +23124,10 @@
         <v>3</v>
       </c>
       <c r="O108" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23324,10 +23330,10 @@
         <v>7</v>
       </c>
       <c r="O109" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q109">
         <v>2.3</v>
@@ -23483,6 +23489,418 @@
         <v>0</v>
       </c>
       <c r="BP109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7778596</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45773.08333333334</v>
+      </c>
+      <c r="F110">
+        <v>11</v>
+      </c>
+      <c r="G110" t="s">
+        <v>83</v>
+      </c>
+      <c r="H110" t="s">
+        <v>86</v>
+      </c>
+      <c r="I110">
+        <v>0</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>1</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>1</v>
+      </c>
+      <c r="O110" t="s">
+        <v>163</v>
+      </c>
+      <c r="P110" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q110">
+        <v>2.88</v>
+      </c>
+      <c r="R110">
+        <v>1.95</v>
+      </c>
+      <c r="S110">
+        <v>4.5</v>
+      </c>
+      <c r="T110">
+        <v>1.57</v>
+      </c>
+      <c r="U110">
+        <v>2.25</v>
+      </c>
+      <c r="V110">
+        <v>3.75</v>
+      </c>
+      <c r="W110">
+        <v>1.25</v>
+      </c>
+      <c r="X110">
+        <v>11</v>
+      </c>
+      <c r="Y110">
+        <v>1.05</v>
+      </c>
+      <c r="Z110">
+        <v>2.16</v>
+      </c>
+      <c r="AA110">
+        <v>3.01</v>
+      </c>
+      <c r="AB110">
+        <v>3.63</v>
+      </c>
+      <c r="AC110">
+        <v>0</v>
+      </c>
+      <c r="AD110">
+        <v>0</v>
+      </c>
+      <c r="AE110">
+        <v>1.5</v>
+      </c>
+      <c r="AF110">
+        <v>2.4</v>
+      </c>
+      <c r="AG110">
+        <v>2.25</v>
+      </c>
+      <c r="AH110">
+        <v>1.53</v>
+      </c>
+      <c r="AI110">
+        <v>2.1</v>
+      </c>
+      <c r="AJ110">
+        <v>1.67</v>
+      </c>
+      <c r="AK110">
+        <v>0</v>
+      </c>
+      <c r="AL110">
+        <v>0</v>
+      </c>
+      <c r="AM110">
+        <v>0</v>
+      </c>
+      <c r="AN110">
+        <v>1.75</v>
+      </c>
+      <c r="AO110">
+        <v>1</v>
+      </c>
+      <c r="AP110">
+        <v>2</v>
+      </c>
+      <c r="AQ110">
+        <v>0.83</v>
+      </c>
+      <c r="AR110">
+        <v>1.34</v>
+      </c>
+      <c r="AS110">
+        <v>1.09</v>
+      </c>
+      <c r="AT110">
+        <v>2.43</v>
+      </c>
+      <c r="AU110">
+        <v>5</v>
+      </c>
+      <c r="AV110">
+        <v>4</v>
+      </c>
+      <c r="AW110">
+        <v>4</v>
+      </c>
+      <c r="AX110">
+        <v>4</v>
+      </c>
+      <c r="AY110">
+        <v>9</v>
+      </c>
+      <c r="AZ110">
+        <v>8</v>
+      </c>
+      <c r="BA110">
+        <v>4</v>
+      </c>
+      <c r="BB110">
+        <v>3</v>
+      </c>
+      <c r="BC110">
+        <v>7</v>
+      </c>
+      <c r="BD110">
+        <v>0</v>
+      </c>
+      <c r="BE110">
+        <v>0</v>
+      </c>
+      <c r="BF110">
+        <v>0</v>
+      </c>
+      <c r="BG110">
+        <v>0</v>
+      </c>
+      <c r="BH110">
+        <v>0</v>
+      </c>
+      <c r="BI110">
+        <v>0</v>
+      </c>
+      <c r="BJ110">
+        <v>0</v>
+      </c>
+      <c r="BK110">
+        <v>0</v>
+      </c>
+      <c r="BL110">
+        <v>0</v>
+      </c>
+      <c r="BM110">
+        <v>0</v>
+      </c>
+      <c r="BN110">
+        <v>0</v>
+      </c>
+      <c r="BO110">
+        <v>0</v>
+      </c>
+      <c r="BP110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7778595</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45773.08333333334</v>
+      </c>
+      <c r="F111">
+        <v>11</v>
+      </c>
+      <c r="G111" t="s">
+        <v>81</v>
+      </c>
+      <c r="H111" t="s">
+        <v>78</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>2</v>
+      </c>
+      <c r="N111">
+        <v>3</v>
+      </c>
+      <c r="O111" t="s">
+        <v>122</v>
+      </c>
+      <c r="P111" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q111">
+        <v>4</v>
+      </c>
+      <c r="R111">
+        <v>1.95</v>
+      </c>
+      <c r="S111">
+        <v>3</v>
+      </c>
+      <c r="T111">
+        <v>1.53</v>
+      </c>
+      <c r="U111">
+        <v>2.38</v>
+      </c>
+      <c r="V111">
+        <v>3.5</v>
+      </c>
+      <c r="W111">
+        <v>1.29</v>
+      </c>
+      <c r="X111">
+        <v>11</v>
+      </c>
+      <c r="Y111">
+        <v>1.05</v>
+      </c>
+      <c r="Z111">
+        <v>2.94</v>
+      </c>
+      <c r="AA111">
+        <v>3.1</v>
+      </c>
+      <c r="AB111">
+        <v>2.46</v>
+      </c>
+      <c r="AC111">
+        <v>0</v>
+      </c>
+      <c r="AD111">
+        <v>0</v>
+      </c>
+      <c r="AE111">
+        <v>0</v>
+      </c>
+      <c r="AF111">
+        <v>0</v>
+      </c>
+      <c r="AG111">
+        <v>2.25</v>
+      </c>
+      <c r="AH111">
+        <v>1.53</v>
+      </c>
+      <c r="AI111">
+        <v>2</v>
+      </c>
+      <c r="AJ111">
+        <v>1.73</v>
+      </c>
+      <c r="AK111">
+        <v>0</v>
+      </c>
+      <c r="AL111">
+        <v>0</v>
+      </c>
+      <c r="AM111">
+        <v>0</v>
+      </c>
+      <c r="AN111">
+        <v>1.2</v>
+      </c>
+      <c r="AO111">
+        <v>2.5</v>
+      </c>
+      <c r="AP111">
+        <v>1</v>
+      </c>
+      <c r="AQ111">
+        <v>2.6</v>
+      </c>
+      <c r="AR111">
+        <v>1.26</v>
+      </c>
+      <c r="AS111">
+        <v>1.55</v>
+      </c>
+      <c r="AT111">
+        <v>2.81</v>
+      </c>
+      <c r="AU111">
+        <v>3</v>
+      </c>
+      <c r="AV111">
+        <v>3</v>
+      </c>
+      <c r="AW111">
+        <v>1</v>
+      </c>
+      <c r="AX111">
+        <v>5</v>
+      </c>
+      <c r="AY111">
+        <v>4</v>
+      </c>
+      <c r="AZ111">
+        <v>8</v>
+      </c>
+      <c r="BA111">
+        <v>4</v>
+      </c>
+      <c r="BB111">
+        <v>9</v>
+      </c>
+      <c r="BC111">
+        <v>13</v>
+      </c>
+      <c r="BD111">
+        <v>0</v>
+      </c>
+      <c r="BE111">
+        <v>0</v>
+      </c>
+      <c r="BF111">
+        <v>0</v>
+      </c>
+      <c r="BG111">
+        <v>0</v>
+      </c>
+      <c r="BH111">
+        <v>0</v>
+      </c>
+      <c r="BI111">
+        <v>0</v>
+      </c>
+      <c r="BJ111">
+        <v>0</v>
+      </c>
+      <c r="BK111">
+        <v>0</v>
+      </c>
+      <c r="BL111">
+        <v>0</v>
+      </c>
+      <c r="BM111">
+        <v>0</v>
+      </c>
+      <c r="BN111">
+        <v>0</v>
+      </c>
+      <c r="BO111">
+        <v>0</v>
+      </c>
+      <c r="BP111">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -508,6 +508,18 @@
     <t>['60']</t>
   </si>
   <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['76', '90+3']</t>
+  </si>
+  <si>
+    <t>['55', '59']</t>
+  </si>
+  <si>
+    <t>['53', '67']</t>
+  </si>
+  <si>
     <t>['31', '60']</t>
   </si>
   <si>
@@ -671,6 +683,18 @@
   </si>
   <si>
     <t>['75', '89']</t>
+  </si>
+  <si>
+    <t>['29', '55']</t>
+  </si>
+  <si>
+    <t>['32', '36']</t>
+  </si>
+  <si>
+    <t>['38', '51']</t>
+  </si>
+  <si>
+    <t>['5', '12', '14', '19']</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP111"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1291,7 +1315,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1369,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ2">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1781,10 +1805,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ4">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1909,7 +1933,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -1987,7 +2011,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ5">
         <v>0.8</v>
@@ -2115,7 +2139,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q6">
         <v>4.1</v>
@@ -2196,7 +2220,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2321,7 +2345,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2402,7 +2426,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ7">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2527,7 +2551,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q8">
         <v>2.28</v>
@@ -2811,7 +2835,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AQ9">
         <v>0.83</v>
@@ -2939,7 +2963,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3223,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ11">
         <v>0.86</v>
@@ -3429,10 +3453,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR12">
         <v>1.68</v>
@@ -3969,7 +3993,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q15">
         <v>4.1</v>
@@ -4050,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4253,7 +4277,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ16">
         <v>0.86</v>
@@ -4462,7 +4486,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4665,7 +4689,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4874,7 +4898,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ19">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR19">
         <v>1.74</v>
@@ -5077,7 +5101,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ20">
         <v>1.17</v>
@@ -5205,7 +5229,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q21">
         <v>4.4</v>
@@ -5283,7 +5307,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AQ21">
         <v>0.86</v>
@@ -5617,7 +5641,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5698,7 +5722,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ23">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR23">
         <v>1.4</v>
@@ -6029,7 +6053,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6235,7 +6259,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q26">
         <v>3.95</v>
@@ -6441,7 +6465,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6519,10 +6543,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
+        <v>1.14</v>
+      </c>
+      <c r="AQ27">
         <v>1.17</v>
-      </c>
-      <c r="AQ27">
-        <v>1.4</v>
       </c>
       <c r="AR27">
         <v>1.59</v>
@@ -6647,7 +6671,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q28">
         <v>3.35</v>
@@ -6725,10 +6749,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR28">
         <v>2.36</v>
@@ -6931,7 +6955,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ29">
         <v>0.83</v>
@@ -7137,7 +7161,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ30">
         <v>1.2</v>
@@ -7471,7 +7495,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q32">
         <v>3.45</v>
@@ -7552,7 +7576,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR32">
         <v>1.26</v>
@@ -7677,7 +7701,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7758,7 +7782,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ33">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR33">
         <v>1.88</v>
@@ -7883,7 +7907,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -7961,10 +7985,10 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AQ34">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR34">
         <v>1.24</v>
@@ -8089,7 +8113,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8167,10 +8191,10 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ35">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR35">
         <v>0</v>
@@ -8295,7 +8319,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q36">
         <v>2.8</v>
@@ -8579,10 +8603,10 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ37">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR37">
         <v>1.86</v>
@@ -8707,7 +8731,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -8785,10 +8809,10 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>1.1</v>
@@ -8913,7 +8937,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -8991,7 +9015,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ39">
         <v>0.8</v>
@@ -9403,7 +9427,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ41">
         <v>0.8</v>
@@ -9531,7 +9555,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9609,7 +9633,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ42">
         <v>0.86</v>
@@ -10021,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ44">
         <v>0.83</v>
@@ -10230,7 +10254,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ45">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR45">
         <v>1.47</v>
@@ -10436,7 +10460,7 @@
         <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR46">
         <v>2.49</v>
@@ -10561,7 +10585,7 @@
         <v>105</v>
       </c>
       <c r="P47" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10639,7 +10663,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10767,7 +10791,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -10845,10 +10869,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ48">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR48">
         <v>1.52</v>
@@ -10973,7 +10997,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -11385,7 +11409,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q51">
         <v>1.91</v>
@@ -11591,7 +11615,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11797,7 +11821,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12415,7 +12439,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q56">
         <v>4.33</v>
@@ -12493,7 +12517,7 @@
         <v>0.75</v>
       </c>
       <c r="AP56">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AQ56">
         <v>0.86</v>
@@ -12699,10 +12723,10 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ57">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR57">
         <v>1.77</v>
@@ -13033,7 +13057,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13111,10 +13135,10 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ59">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.09</v>
@@ -13320,7 +13344,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ60">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR60">
         <v>1.48</v>
@@ -13445,7 +13469,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13523,10 +13547,10 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ61">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR61">
         <v>1.1</v>
@@ -13651,7 +13675,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -13729,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ62">
         <v>0.83</v>
@@ -13935,10 +13959,10 @@
         <v>0.5</v>
       </c>
       <c r="AP63">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14063,7 +14087,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14141,7 +14165,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ64">
         <v>1.17</v>
@@ -14269,7 +14293,7 @@
         <v>90</v>
       </c>
       <c r="P65" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q65">
         <v>3.6</v>
@@ -14347,10 +14371,10 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ65">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR65">
         <v>1.13</v>
@@ -14475,7 +14499,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q66">
         <v>4.75</v>
@@ -14556,7 +14580,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ66">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR66">
         <v>1.04</v>
@@ -14681,7 +14705,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14965,10 +14989,10 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ68">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR68">
         <v>1.93</v>
@@ -15171,10 +15195,10 @@
         <v>3</v>
       </c>
       <c r="AP69">
+        <v>1.86</v>
+      </c>
+      <c r="AQ69">
         <v>2.17</v>
-      </c>
-      <c r="AQ69">
-        <v>2.4</v>
       </c>
       <c r="AR69">
         <v>1.3</v>
@@ -15377,7 +15401,7 @@
         <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AQ70">
         <v>1.33</v>
@@ -15586,7 +15610,7 @@
         <v>2</v>
       </c>
       <c r="AQ71">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR71">
         <v>1.39</v>
@@ -15995,7 +16019,7 @@
         <v>0.33</v>
       </c>
       <c r="AP73">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ73">
         <v>1.17</v>
@@ -16123,7 +16147,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16616,7 +16640,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ76">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>1.39</v>
@@ -17025,10 +17049,10 @@
         <v>1.25</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ78">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR78">
         <v>1.6</v>
@@ -17153,7 +17177,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17437,7 +17461,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ80">
         <v>0.83</v>
@@ -17565,7 +17589,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17646,7 +17670,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ81">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR81">
         <v>1.55</v>
@@ -17852,7 +17876,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ82">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR82">
         <v>1.31</v>
@@ -17977,7 +18001,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18055,7 +18079,7 @@
         <v>0.8</v>
       </c>
       <c r="AP83">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -18183,7 +18207,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18261,7 +18285,7 @@
         <v>1.2</v>
       </c>
       <c r="AP84">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ84">
         <v>0.86</v>
@@ -18467,10 +18491,10 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ85">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR85">
         <v>1.08</v>
@@ -18595,7 +18619,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18673,10 +18697,10 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ86">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR86">
         <v>1.94</v>
@@ -18801,7 +18825,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -18879,10 +18903,10 @@
         <v>0</v>
       </c>
       <c r="AP87">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ87">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR87">
         <v>1.26</v>
@@ -19007,7 +19031,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19088,7 +19112,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR88">
         <v>1.22</v>
@@ -19213,7 +19237,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19294,7 +19318,7 @@
         <v>2</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR89">
         <v>2.31</v>
@@ -19497,7 +19521,7 @@
         <v>1.33</v>
       </c>
       <c r="AP90">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ90">
         <v>1.6</v>
@@ -19703,7 +19727,7 @@
         <v>0.75</v>
       </c>
       <c r="AP91">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AQ91">
         <v>0.83</v>
@@ -19831,7 +19855,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -19909,10 +19933,10 @@
         <v>0.5</v>
       </c>
       <c r="AP92">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ92">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AR92">
         <v>1.1</v>
@@ -20037,7 +20061,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20118,7 +20142,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ93">
-        <v>0.4</v>
+        <v>0.83</v>
       </c>
       <c r="AR93">
         <v>1.32</v>
@@ -20243,7 +20267,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q94">
         <v>2.3</v>
@@ -20449,7 +20473,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20527,10 +20551,10 @@
         <v>1.75</v>
       </c>
       <c r="AP95">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ95">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AR95">
         <v>1.47</v>
@@ -20736,7 +20760,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ96">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR96">
         <v>1.52</v>
@@ -20861,7 +20885,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q97">
         <v>3.25</v>
@@ -21351,7 +21375,7 @@
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AQ99">
         <v>0.8</v>
@@ -21479,7 +21503,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21557,10 +21581,10 @@
         <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ100">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="AR100">
         <v>1.51</v>
@@ -21685,7 +21709,7 @@
         <v>122</v>
       </c>
       <c r="P101" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q101">
         <v>3.25</v>
@@ -21763,7 +21787,7 @@
         <v>0.25</v>
       </c>
       <c r="AP101">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ101">
         <v>1.17</v>
@@ -21891,7 +21915,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q102">
         <v>2.25</v>
@@ -22175,7 +22199,7 @@
         <v>0.8</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ103">
         <v>0.83</v>
@@ -22509,7 +22533,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q105">
         <v>2.38</v>
@@ -22715,7 +22739,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22793,7 +22817,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ106">
         <v>1.33</v>
@@ -22921,7 +22945,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -23127,7 +23151,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23333,7 +23357,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q109">
         <v>2.3</v>
@@ -23745,7 +23769,7 @@
         <v>122</v>
       </c>
       <c r="P111" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -23826,7 +23850,7 @@
         <v>1</v>
       </c>
       <c r="AQ111">
-        <v>2.6</v>
+        <v>2.33</v>
       </c>
       <c r="AR111">
         <v>1.26</v>
@@ -23901,6 +23925,2066 @@
         <v>0</v>
       </c>
       <c r="BP111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7778604</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45776.08333333334</v>
+      </c>
+      <c r="F112">
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>86</v>
+      </c>
+      <c r="H112" t="s">
+        <v>88</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>0</v>
+      </c>
+      <c r="O112" t="s">
+        <v>90</v>
+      </c>
+      <c r="P112" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q112">
+        <v>3.2</v>
+      </c>
+      <c r="R112">
+        <v>2.1</v>
+      </c>
+      <c r="S112">
+        <v>3.4</v>
+      </c>
+      <c r="T112">
+        <v>1.4</v>
+      </c>
+      <c r="U112">
+        <v>2.75</v>
+      </c>
+      <c r="V112">
+        <v>3</v>
+      </c>
+      <c r="W112">
+        <v>1.36</v>
+      </c>
+      <c r="X112">
+        <v>8</v>
+      </c>
+      <c r="Y112">
+        <v>1.08</v>
+      </c>
+      <c r="Z112">
+        <v>2.58</v>
+      </c>
+      <c r="AA112">
+        <v>3.51</v>
+      </c>
+      <c r="AB112">
+        <v>2.52</v>
+      </c>
+      <c r="AC112">
+        <v>3.42</v>
+      </c>
+      <c r="AD112">
+        <v>1.33</v>
+      </c>
+      <c r="AE112">
+        <v>0</v>
+      </c>
+      <c r="AF112">
+        <v>0</v>
+      </c>
+      <c r="AG112">
+        <v>1.77</v>
+      </c>
+      <c r="AH112">
+        <v>1.98</v>
+      </c>
+      <c r="AI112">
+        <v>1.73</v>
+      </c>
+      <c r="AJ112">
+        <v>2</v>
+      </c>
+      <c r="AK112">
+        <v>0</v>
+      </c>
+      <c r="AL112">
+        <v>0</v>
+      </c>
+      <c r="AM112">
+        <v>0</v>
+      </c>
+      <c r="AN112">
+        <v>1.4</v>
+      </c>
+      <c r="AO112">
+        <v>1</v>
+      </c>
+      <c r="AP112">
+        <v>1.33</v>
+      </c>
+      <c r="AQ112">
+        <v>1</v>
+      </c>
+      <c r="AR112">
+        <v>1.39</v>
+      </c>
+      <c r="AS112">
+        <v>1.26</v>
+      </c>
+      <c r="AT112">
+        <v>2.65</v>
+      </c>
+      <c r="AU112">
+        <v>0</v>
+      </c>
+      <c r="AV112">
+        <v>6</v>
+      </c>
+      <c r="AW112">
+        <v>6</v>
+      </c>
+      <c r="AX112">
+        <v>12</v>
+      </c>
+      <c r="AY112">
+        <v>6</v>
+      </c>
+      <c r="AZ112">
+        <v>18</v>
+      </c>
+      <c r="BA112">
+        <v>2</v>
+      </c>
+      <c r="BB112">
+        <v>7</v>
+      </c>
+      <c r="BC112">
+        <v>9</v>
+      </c>
+      <c r="BD112">
+        <v>0</v>
+      </c>
+      <c r="BE112">
+        <v>0</v>
+      </c>
+      <c r="BF112">
+        <v>0</v>
+      </c>
+      <c r="BG112">
+        <v>0</v>
+      </c>
+      <c r="BH112">
+        <v>0</v>
+      </c>
+      <c r="BI112">
+        <v>0</v>
+      </c>
+      <c r="BJ112">
+        <v>0</v>
+      </c>
+      <c r="BK112">
+        <v>0</v>
+      </c>
+      <c r="BL112">
+        <v>0</v>
+      </c>
+      <c r="BM112">
+        <v>0</v>
+      </c>
+      <c r="BN112">
+        <v>0</v>
+      </c>
+      <c r="BO112">
+        <v>0</v>
+      </c>
+      <c r="BP112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7778603</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45776.08333333334</v>
+      </c>
+      <c r="F113">
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>72</v>
+      </c>
+      <c r="H113" t="s">
+        <v>85</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>3</v>
+      </c>
+      <c r="O113" t="s">
+        <v>164</v>
+      </c>
+      <c r="P113" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q113">
+        <v>3.6</v>
+      </c>
+      <c r="R113">
+        <v>2</v>
+      </c>
+      <c r="S113">
+        <v>3.25</v>
+      </c>
+      <c r="T113">
+        <v>1.5</v>
+      </c>
+      <c r="U113">
+        <v>2.5</v>
+      </c>
+      <c r="V113">
+        <v>3.4</v>
+      </c>
+      <c r="W113">
+        <v>1.3</v>
+      </c>
+      <c r="X113">
+        <v>10</v>
+      </c>
+      <c r="Y113">
+        <v>1.06</v>
+      </c>
+      <c r="Z113">
+        <v>2.48</v>
+      </c>
+      <c r="AA113">
+        <v>3.41</v>
+      </c>
+      <c r="AB113">
+        <v>2.67</v>
+      </c>
+      <c r="AC113">
+        <v>0</v>
+      </c>
+      <c r="AD113">
+        <v>0</v>
+      </c>
+      <c r="AE113">
+        <v>1.5</v>
+      </c>
+      <c r="AF113">
+        <v>2.4</v>
+      </c>
+      <c r="AG113">
+        <v>1.87</v>
+      </c>
+      <c r="AH113">
+        <v>1.87</v>
+      </c>
+      <c r="AI113">
+        <v>1.91</v>
+      </c>
+      <c r="AJ113">
+        <v>1.8</v>
+      </c>
+      <c r="AK113">
+        <v>0</v>
+      </c>
+      <c r="AL113">
+        <v>0</v>
+      </c>
+      <c r="AM113">
+        <v>0</v>
+      </c>
+      <c r="AN113">
+        <v>1.6</v>
+      </c>
+      <c r="AO113">
+        <v>2</v>
+      </c>
+      <c r="AP113">
+        <v>1.33</v>
+      </c>
+      <c r="AQ113">
+        <v>2.17</v>
+      </c>
+      <c r="AR113">
+        <v>1.23</v>
+      </c>
+      <c r="AS113">
+        <v>1.34</v>
+      </c>
+      <c r="AT113">
+        <v>2.57</v>
+      </c>
+      <c r="AU113">
+        <v>2</v>
+      </c>
+      <c r="AV113">
+        <v>8</v>
+      </c>
+      <c r="AW113">
+        <v>6</v>
+      </c>
+      <c r="AX113">
+        <v>7</v>
+      </c>
+      <c r="AY113">
+        <v>8</v>
+      </c>
+      <c r="AZ113">
+        <v>15</v>
+      </c>
+      <c r="BA113">
+        <v>3</v>
+      </c>
+      <c r="BB113">
+        <v>4</v>
+      </c>
+      <c r="BC113">
+        <v>7</v>
+      </c>
+      <c r="BD113">
+        <v>0</v>
+      </c>
+      <c r="BE113">
+        <v>0</v>
+      </c>
+      <c r="BF113">
+        <v>0</v>
+      </c>
+      <c r="BG113">
+        <v>0</v>
+      </c>
+      <c r="BH113">
+        <v>0</v>
+      </c>
+      <c r="BI113">
+        <v>0</v>
+      </c>
+      <c r="BJ113">
+        <v>0</v>
+      </c>
+      <c r="BK113">
+        <v>0</v>
+      </c>
+      <c r="BL113">
+        <v>0</v>
+      </c>
+      <c r="BM113">
+        <v>0</v>
+      </c>
+      <c r="BN113">
+        <v>0</v>
+      </c>
+      <c r="BO113">
+        <v>0</v>
+      </c>
+      <c r="BP113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7778602</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45776.08333333334</v>
+      </c>
+      <c r="F114">
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>84</v>
+      </c>
+      <c r="H114" t="s">
+        <v>78</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>0</v>
+      </c>
+      <c r="O114" t="s">
+        <v>90</v>
+      </c>
+      <c r="P114" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q114">
+        <v>3.5</v>
+      </c>
+      <c r="R114">
+        <v>2.1</v>
+      </c>
+      <c r="S114">
+        <v>3.2</v>
+      </c>
+      <c r="T114">
+        <v>1.44</v>
+      </c>
+      <c r="U114">
+        <v>2.63</v>
+      </c>
+      <c r="V114">
+        <v>3.25</v>
+      </c>
+      <c r="W114">
+        <v>1.33</v>
+      </c>
+      <c r="X114">
+        <v>9</v>
+      </c>
+      <c r="Y114">
+        <v>1.07</v>
+      </c>
+      <c r="Z114">
+        <v>2.77</v>
+      </c>
+      <c r="AA114">
+        <v>3.41</v>
+      </c>
+      <c r="AB114">
+        <v>2.4</v>
+      </c>
+      <c r="AC114">
+        <v>2.68</v>
+      </c>
+      <c r="AD114">
+        <v>1.48</v>
+      </c>
+      <c r="AE114">
+        <v>0</v>
+      </c>
+      <c r="AF114">
+        <v>0</v>
+      </c>
+      <c r="AG114">
+        <v>2.02</v>
+      </c>
+      <c r="AH114">
+        <v>1.8</v>
+      </c>
+      <c r="AI114">
+        <v>1.83</v>
+      </c>
+      <c r="AJ114">
+        <v>1.83</v>
+      </c>
+      <c r="AK114">
+        <v>0</v>
+      </c>
+      <c r="AL114">
+        <v>0</v>
+      </c>
+      <c r="AM114">
+        <v>0</v>
+      </c>
+      <c r="AN114">
+        <v>2</v>
+      </c>
+      <c r="AO114">
+        <v>2.6</v>
+      </c>
+      <c r="AP114">
+        <v>1.86</v>
+      </c>
+      <c r="AQ114">
+        <v>2.33</v>
+      </c>
+      <c r="AR114">
+        <v>1.57</v>
+      </c>
+      <c r="AS114">
+        <v>1.46</v>
+      </c>
+      <c r="AT114">
+        <v>3.03</v>
+      </c>
+      <c r="AU114">
+        <v>3</v>
+      </c>
+      <c r="AV114">
+        <v>2</v>
+      </c>
+      <c r="AW114">
+        <v>5</v>
+      </c>
+      <c r="AX114">
+        <v>8</v>
+      </c>
+      <c r="AY114">
+        <v>8</v>
+      </c>
+      <c r="AZ114">
+        <v>10</v>
+      </c>
+      <c r="BA114">
+        <v>7</v>
+      </c>
+      <c r="BB114">
+        <v>3</v>
+      </c>
+      <c r="BC114">
+        <v>10</v>
+      </c>
+      <c r="BD114">
+        <v>0</v>
+      </c>
+      <c r="BE114">
+        <v>0</v>
+      </c>
+      <c r="BF114">
+        <v>0</v>
+      </c>
+      <c r="BG114">
+        <v>0</v>
+      </c>
+      <c r="BH114">
+        <v>0</v>
+      </c>
+      <c r="BI114">
+        <v>0</v>
+      </c>
+      <c r="BJ114">
+        <v>0</v>
+      </c>
+      <c r="BK114">
+        <v>0</v>
+      </c>
+      <c r="BL114">
+        <v>0</v>
+      </c>
+      <c r="BM114">
+        <v>0</v>
+      </c>
+      <c r="BN114">
+        <v>0</v>
+      </c>
+      <c r="BO114">
+        <v>0</v>
+      </c>
+      <c r="BP114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7778600</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45776.08333333334</v>
+      </c>
+      <c r="F115">
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>89</v>
+      </c>
+      <c r="H115" t="s">
+        <v>83</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>2</v>
+      </c>
+      <c r="K115">
+        <v>2</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+      <c r="N115">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>90</v>
+      </c>
+      <c r="P115" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q115">
+        <v>3.75</v>
+      </c>
+      <c r="R115">
+        <v>1.91</v>
+      </c>
+      <c r="S115">
+        <v>3.5</v>
+      </c>
+      <c r="T115">
+        <v>1.57</v>
+      </c>
+      <c r="U115">
+        <v>2.25</v>
+      </c>
+      <c r="V115">
+        <v>3.75</v>
+      </c>
+      <c r="W115">
+        <v>1.25</v>
+      </c>
+      <c r="X115">
+        <v>13</v>
+      </c>
+      <c r="Y115">
+        <v>1.04</v>
+      </c>
+      <c r="Z115">
+        <v>2.89</v>
+      </c>
+      <c r="AA115">
+        <v>3.32</v>
+      </c>
+      <c r="AB115">
+        <v>2.36</v>
+      </c>
+      <c r="AC115">
+        <v>0</v>
+      </c>
+      <c r="AD115">
+        <v>0</v>
+      </c>
+      <c r="AE115">
+        <v>1.53</v>
+      </c>
+      <c r="AF115">
+        <v>2.35</v>
+      </c>
+      <c r="AG115">
+        <v>2</v>
+      </c>
+      <c r="AH115">
+        <v>1.75</v>
+      </c>
+      <c r="AI115">
+        <v>2.2</v>
+      </c>
+      <c r="AJ115">
+        <v>1.62</v>
+      </c>
+      <c r="AK115">
+        <v>0</v>
+      </c>
+      <c r="AL115">
+        <v>0</v>
+      </c>
+      <c r="AM115">
+        <v>0</v>
+      </c>
+      <c r="AN115">
+        <v>1.5</v>
+      </c>
+      <c r="AO115">
+        <v>1</v>
+      </c>
+      <c r="AP115">
+        <v>1.2</v>
+      </c>
+      <c r="AQ115">
+        <v>1.29</v>
+      </c>
+      <c r="AR115">
+        <v>1.85</v>
+      </c>
+      <c r="AS115">
+        <v>1.35</v>
+      </c>
+      <c r="AT115">
+        <v>3.2</v>
+      </c>
+      <c r="AU115">
+        <v>3</v>
+      </c>
+      <c r="AV115">
+        <v>7</v>
+      </c>
+      <c r="AW115">
+        <v>7</v>
+      </c>
+      <c r="AX115">
+        <v>3</v>
+      </c>
+      <c r="AY115">
+        <v>10</v>
+      </c>
+      <c r="AZ115">
+        <v>10</v>
+      </c>
+      <c r="BA115">
+        <v>8</v>
+      </c>
+      <c r="BB115">
+        <v>2</v>
+      </c>
+      <c r="BC115">
+        <v>10</v>
+      </c>
+      <c r="BD115">
+        <v>0</v>
+      </c>
+      <c r="BE115">
+        <v>0</v>
+      </c>
+      <c r="BF115">
+        <v>0</v>
+      </c>
+      <c r="BG115">
+        <v>0</v>
+      </c>
+      <c r="BH115">
+        <v>0</v>
+      </c>
+      <c r="BI115">
+        <v>0</v>
+      </c>
+      <c r="BJ115">
+        <v>0</v>
+      </c>
+      <c r="BK115">
+        <v>0</v>
+      </c>
+      <c r="BL115">
+        <v>0</v>
+      </c>
+      <c r="BM115">
+        <v>0</v>
+      </c>
+      <c r="BN115">
+        <v>0</v>
+      </c>
+      <c r="BO115">
+        <v>0</v>
+      </c>
+      <c r="BP115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7778599</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45776.08333333334</v>
+      </c>
+      <c r="F116">
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>87</v>
+      </c>
+      <c r="H116" t="s">
+        <v>76</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="O116" t="s">
+        <v>165</v>
+      </c>
+      <c r="P116" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q116">
+        <v>3.25</v>
+      </c>
+      <c r="R116">
+        <v>2.38</v>
+      </c>
+      <c r="S116">
+        <v>2.75</v>
+      </c>
+      <c r="T116">
+        <v>1.29</v>
+      </c>
+      <c r="U116">
+        <v>3.5</v>
+      </c>
+      <c r="V116">
+        <v>2.38</v>
+      </c>
+      <c r="W116">
+        <v>1.53</v>
+      </c>
+      <c r="X116">
+        <v>5.5</v>
+      </c>
+      <c r="Y116">
+        <v>1.14</v>
+      </c>
+      <c r="Z116">
+        <v>2.86</v>
+      </c>
+      <c r="AA116">
+        <v>3.77</v>
+      </c>
+      <c r="AB116">
+        <v>2.2</v>
+      </c>
+      <c r="AC116">
+        <v>0</v>
+      </c>
+      <c r="AD116">
+        <v>0</v>
+      </c>
+      <c r="AE116">
+        <v>0</v>
+      </c>
+      <c r="AF116">
+        <v>0</v>
+      </c>
+      <c r="AG116">
+        <v>1.6</v>
+      </c>
+      <c r="AH116">
+        <v>2.2</v>
+      </c>
+      <c r="AI116">
+        <v>1.53</v>
+      </c>
+      <c r="AJ116">
+        <v>2.38</v>
+      </c>
+      <c r="AK116">
+        <v>0</v>
+      </c>
+      <c r="AL116">
+        <v>0</v>
+      </c>
+      <c r="AM116">
+        <v>0</v>
+      </c>
+      <c r="AN116">
+        <v>1.5</v>
+      </c>
+      <c r="AO116">
+        <v>0.6</v>
+      </c>
+      <c r="AP116">
+        <v>1.4</v>
+      </c>
+      <c r="AQ116">
+        <v>0.67</v>
+      </c>
+      <c r="AR116">
+        <v>1.54</v>
+      </c>
+      <c r="AS116">
+        <v>1.56</v>
+      </c>
+      <c r="AT116">
+        <v>3.1</v>
+      </c>
+      <c r="AU116">
+        <v>4</v>
+      </c>
+      <c r="AV116">
+        <v>6</v>
+      </c>
+      <c r="AW116">
+        <v>6</v>
+      </c>
+      <c r="AX116">
+        <v>5</v>
+      </c>
+      <c r="AY116">
+        <v>10</v>
+      </c>
+      <c r="AZ116">
+        <v>11</v>
+      </c>
+      <c r="BA116">
+        <v>6</v>
+      </c>
+      <c r="BB116">
+        <v>2</v>
+      </c>
+      <c r="BC116">
+        <v>8</v>
+      </c>
+      <c r="BD116">
+        <v>0</v>
+      </c>
+      <c r="BE116">
+        <v>0</v>
+      </c>
+      <c r="BF116">
+        <v>0</v>
+      </c>
+      <c r="BG116">
+        <v>0</v>
+      </c>
+      <c r="BH116">
+        <v>0</v>
+      </c>
+      <c r="BI116">
+        <v>0</v>
+      </c>
+      <c r="BJ116">
+        <v>0</v>
+      </c>
+      <c r="BK116">
+        <v>0</v>
+      </c>
+      <c r="BL116">
+        <v>0</v>
+      </c>
+      <c r="BM116">
+        <v>0</v>
+      </c>
+      <c r="BN116">
+        <v>0</v>
+      </c>
+      <c r="BO116">
+        <v>0</v>
+      </c>
+      <c r="BP116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7778608</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45776.08333333334</v>
+      </c>
+      <c r="F117">
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>79</v>
+      </c>
+      <c r="H117" t="s">
+        <v>75</v>
+      </c>
+      <c r="I117">
+        <v>1</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>1</v>
+      </c>
+      <c r="L117">
+        <v>1</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>1</v>
+      </c>
+      <c r="O117" t="s">
+        <v>98</v>
+      </c>
+      <c r="P117" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q117">
+        <v>3.5</v>
+      </c>
+      <c r="R117">
+        <v>1.95</v>
+      </c>
+      <c r="S117">
+        <v>3.5</v>
+      </c>
+      <c r="T117">
+        <v>1.53</v>
+      </c>
+      <c r="U117">
+        <v>2.38</v>
+      </c>
+      <c r="V117">
+        <v>3.5</v>
+      </c>
+      <c r="W117">
+        <v>1.29</v>
+      </c>
+      <c r="X117">
+        <v>11</v>
+      </c>
+      <c r="Y117">
+        <v>1.05</v>
+      </c>
+      <c r="Z117">
+        <v>2.35</v>
+      </c>
+      <c r="AA117">
+        <v>3.32</v>
+      </c>
+      <c r="AB117">
+        <v>2.92</v>
+      </c>
+      <c r="AC117">
+        <v>0</v>
+      </c>
+      <c r="AD117">
+        <v>0</v>
+      </c>
+      <c r="AE117">
+        <v>1.5</v>
+      </c>
+      <c r="AF117">
+        <v>2.4</v>
+      </c>
+      <c r="AG117">
+        <v>2.05</v>
+      </c>
+      <c r="AH117">
+        <v>1.7</v>
+      </c>
+      <c r="AI117">
+        <v>2.1</v>
+      </c>
+      <c r="AJ117">
+        <v>1.67</v>
+      </c>
+      <c r="AK117">
+        <v>0</v>
+      </c>
+      <c r="AL117">
+        <v>0</v>
+      </c>
+      <c r="AM117">
+        <v>0</v>
+      </c>
+      <c r="AN117">
+        <v>1.4</v>
+      </c>
+      <c r="AO117">
+        <v>1</v>
+      </c>
+      <c r="AP117">
+        <v>1.67</v>
+      </c>
+      <c r="AQ117">
+        <v>0.8</v>
+      </c>
+      <c r="AR117">
+        <v>1.11</v>
+      </c>
+      <c r="AS117">
+        <v>1.35</v>
+      </c>
+      <c r="AT117">
+        <v>2.46</v>
+      </c>
+      <c r="AU117">
+        <v>5</v>
+      </c>
+      <c r="AV117">
+        <v>3</v>
+      </c>
+      <c r="AW117">
+        <v>1</v>
+      </c>
+      <c r="AX117">
+        <v>3</v>
+      </c>
+      <c r="AY117">
+        <v>6</v>
+      </c>
+      <c r="AZ117">
+        <v>7</v>
+      </c>
+      <c r="BA117">
+        <v>7</v>
+      </c>
+      <c r="BB117">
+        <v>7</v>
+      </c>
+      <c r="BC117">
+        <v>14</v>
+      </c>
+      <c r="BD117">
+        <v>0</v>
+      </c>
+      <c r="BE117">
+        <v>0</v>
+      </c>
+      <c r="BF117">
+        <v>0</v>
+      </c>
+      <c r="BG117">
+        <v>0</v>
+      </c>
+      <c r="BH117">
+        <v>0</v>
+      </c>
+      <c r="BI117">
+        <v>0</v>
+      </c>
+      <c r="BJ117">
+        <v>0</v>
+      </c>
+      <c r="BK117">
+        <v>0</v>
+      </c>
+      <c r="BL117">
+        <v>0</v>
+      </c>
+      <c r="BM117">
+        <v>0</v>
+      </c>
+      <c r="BN117">
+        <v>0</v>
+      </c>
+      <c r="BO117">
+        <v>0</v>
+      </c>
+      <c r="BP117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7778601</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45776.08333333334</v>
+      </c>
+      <c r="F118">
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>70</v>
+      </c>
+      <c r="H118" t="s">
+        <v>71</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>2</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>3</v>
+      </c>
+      <c r="O118" t="s">
+        <v>166</v>
+      </c>
+      <c r="P118" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q118">
+        <v>4</v>
+      </c>
+      <c r="R118">
+        <v>2.1</v>
+      </c>
+      <c r="S118">
+        <v>2.88</v>
+      </c>
+      <c r="T118">
+        <v>1.44</v>
+      </c>
+      <c r="U118">
+        <v>2.63</v>
+      </c>
+      <c r="V118">
+        <v>3.25</v>
+      </c>
+      <c r="W118">
+        <v>1.33</v>
+      </c>
+      <c r="X118">
+        <v>9</v>
+      </c>
+      <c r="Y118">
+        <v>1.07</v>
+      </c>
+      <c r="Z118">
+        <v>3.2</v>
+      </c>
+      <c r="AA118">
+        <v>3.66</v>
+      </c>
+      <c r="AB118">
+        <v>2.07</v>
+      </c>
+      <c r="AC118">
+        <v>0</v>
+      </c>
+      <c r="AD118">
+        <v>0</v>
+      </c>
+      <c r="AE118">
+        <v>0</v>
+      </c>
+      <c r="AF118">
+        <v>0</v>
+      </c>
+      <c r="AG118">
+        <v>1.7</v>
+      </c>
+      <c r="AH118">
+        <v>2.05</v>
+      </c>
+      <c r="AI118">
+        <v>1.83</v>
+      </c>
+      <c r="AJ118">
+        <v>1.83</v>
+      </c>
+      <c r="AK118">
+        <v>0</v>
+      </c>
+      <c r="AL118">
+        <v>0</v>
+      </c>
+      <c r="AM118">
+        <v>0</v>
+      </c>
+      <c r="AN118">
+        <v>0.4</v>
+      </c>
+      <c r="AO118">
+        <v>1.4</v>
+      </c>
+      <c r="AP118">
+        <v>0.83</v>
+      </c>
+      <c r="AQ118">
+        <v>1.17</v>
+      </c>
+      <c r="AR118">
+        <v>1.57</v>
+      </c>
+      <c r="AS118">
+        <v>1.57</v>
+      </c>
+      <c r="AT118">
+        <v>3.14</v>
+      </c>
+      <c r="AU118">
+        <v>4</v>
+      </c>
+      <c r="AV118">
+        <v>4</v>
+      </c>
+      <c r="AW118">
+        <v>9</v>
+      </c>
+      <c r="AX118">
+        <v>3</v>
+      </c>
+      <c r="AY118">
+        <v>13</v>
+      </c>
+      <c r="AZ118">
+        <v>7</v>
+      </c>
+      <c r="BA118">
+        <v>6</v>
+      </c>
+      <c r="BB118">
+        <v>2</v>
+      </c>
+      <c r="BC118">
+        <v>8</v>
+      </c>
+      <c r="BD118">
+        <v>0</v>
+      </c>
+      <c r="BE118">
+        <v>0</v>
+      </c>
+      <c r="BF118">
+        <v>0</v>
+      </c>
+      <c r="BG118">
+        <v>0</v>
+      </c>
+      <c r="BH118">
+        <v>0</v>
+      </c>
+      <c r="BI118">
+        <v>0</v>
+      </c>
+      <c r="BJ118">
+        <v>0</v>
+      </c>
+      <c r="BK118">
+        <v>0</v>
+      </c>
+      <c r="BL118">
+        <v>0</v>
+      </c>
+      <c r="BM118">
+        <v>0</v>
+      </c>
+      <c r="BN118">
+        <v>0</v>
+      </c>
+      <c r="BO118">
+        <v>0</v>
+      </c>
+      <c r="BP118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7778607</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45776.08333333334</v>
+      </c>
+      <c r="F119">
+        <v>12</v>
+      </c>
+      <c r="G119" t="s">
+        <v>82</v>
+      </c>
+      <c r="H119" t="s">
+        <v>80</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119" t="s">
+        <v>90</v>
+      </c>
+      <c r="P119" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q119">
+        <v>3.75</v>
+      </c>
+      <c r="R119">
+        <v>2.25</v>
+      </c>
+      <c r="S119">
+        <v>2.63</v>
+      </c>
+      <c r="T119">
+        <v>1.33</v>
+      </c>
+      <c r="U119">
+        <v>3.25</v>
+      </c>
+      <c r="V119">
+        <v>2.63</v>
+      </c>
+      <c r="W119">
+        <v>1.44</v>
+      </c>
+      <c r="X119">
+        <v>6.5</v>
+      </c>
+      <c r="Y119">
+        <v>1.11</v>
+      </c>
+      <c r="Z119">
+        <v>3.41</v>
+      </c>
+      <c r="AA119">
+        <v>3.86</v>
+      </c>
+      <c r="AB119">
+        <v>1.93</v>
+      </c>
+      <c r="AC119">
+        <v>3.22</v>
+      </c>
+      <c r="AD119">
+        <v>1.36</v>
+      </c>
+      <c r="AE119">
+        <v>0</v>
+      </c>
+      <c r="AF119">
+        <v>0</v>
+      </c>
+      <c r="AG119">
+        <v>1.53</v>
+      </c>
+      <c r="AH119">
+        <v>2.25</v>
+      </c>
+      <c r="AI119">
+        <v>1.67</v>
+      </c>
+      <c r="AJ119">
+        <v>2.1</v>
+      </c>
+      <c r="AK119">
+        <v>0</v>
+      </c>
+      <c r="AL119">
+        <v>0</v>
+      </c>
+      <c r="AM119">
+        <v>0</v>
+      </c>
+      <c r="AN119">
+        <v>1.17</v>
+      </c>
+      <c r="AO119">
+        <v>2.4</v>
+      </c>
+      <c r="AP119">
+        <v>1.14</v>
+      </c>
+      <c r="AQ119">
+        <v>2.17</v>
+      </c>
+      <c r="AR119">
+        <v>1.4</v>
+      </c>
+      <c r="AS119">
+        <v>1.21</v>
+      </c>
+      <c r="AT119">
+        <v>2.61</v>
+      </c>
+      <c r="AU119">
+        <v>8</v>
+      </c>
+      <c r="AV119">
+        <v>2</v>
+      </c>
+      <c r="AW119">
+        <v>13</v>
+      </c>
+      <c r="AX119">
+        <v>6</v>
+      </c>
+      <c r="AY119">
+        <v>21</v>
+      </c>
+      <c r="AZ119">
+        <v>8</v>
+      </c>
+      <c r="BA119">
+        <v>8</v>
+      </c>
+      <c r="BB119">
+        <v>3</v>
+      </c>
+      <c r="BC119">
+        <v>11</v>
+      </c>
+      <c r="BD119">
+        <v>0</v>
+      </c>
+      <c r="BE119">
+        <v>0</v>
+      </c>
+      <c r="BF119">
+        <v>0</v>
+      </c>
+      <c r="BG119">
+        <v>0</v>
+      </c>
+      <c r="BH119">
+        <v>0</v>
+      </c>
+      <c r="BI119">
+        <v>0</v>
+      </c>
+      <c r="BJ119">
+        <v>0</v>
+      </c>
+      <c r="BK119">
+        <v>0</v>
+      </c>
+      <c r="BL119">
+        <v>0</v>
+      </c>
+      <c r="BM119">
+        <v>0</v>
+      </c>
+      <c r="BN119">
+        <v>0</v>
+      </c>
+      <c r="BO119">
+        <v>0</v>
+      </c>
+      <c r="BP119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7778605</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45776.125</v>
+      </c>
+      <c r="F120">
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>73</v>
+      </c>
+      <c r="H120" t="s">
+        <v>81</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>1</v>
+      </c>
+      <c r="N120">
+        <v>1</v>
+      </c>
+      <c r="O120" t="s">
+        <v>90</v>
+      </c>
+      <c r="P120" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q120">
+        <v>2.88</v>
+      </c>
+      <c r="R120">
+        <v>2.1</v>
+      </c>
+      <c r="S120">
+        <v>4</v>
+      </c>
+      <c r="T120">
+        <v>1.4</v>
+      </c>
+      <c r="U120">
+        <v>2.75</v>
+      </c>
+      <c r="V120">
+        <v>3</v>
+      </c>
+      <c r="W120">
+        <v>1.36</v>
+      </c>
+      <c r="X120">
+        <v>8</v>
+      </c>
+      <c r="Y120">
+        <v>1.08</v>
+      </c>
+      <c r="Z120">
+        <v>1.83</v>
+      </c>
+      <c r="AA120">
+        <v>3.79</v>
+      </c>
+      <c r="AB120">
+        <v>3.87</v>
+      </c>
+      <c r="AC120">
+        <v>0</v>
+      </c>
+      <c r="AD120">
+        <v>0</v>
+      </c>
+      <c r="AE120">
+        <v>3.29</v>
+      </c>
+      <c r="AF120">
+        <v>1.34</v>
+      </c>
+      <c r="AG120">
+        <v>1.75</v>
+      </c>
+      <c r="AH120">
+        <v>2</v>
+      </c>
+      <c r="AI120">
+        <v>1.83</v>
+      </c>
+      <c r="AJ120">
+        <v>1.83</v>
+      </c>
+      <c r="AK120">
+        <v>0</v>
+      </c>
+      <c r="AL120">
+        <v>0</v>
+      </c>
+      <c r="AM120">
+        <v>0</v>
+      </c>
+      <c r="AN120">
+        <v>2.17</v>
+      </c>
+      <c r="AO120">
+        <v>0.4</v>
+      </c>
+      <c r="AP120">
+        <v>1.86</v>
+      </c>
+      <c r="AQ120">
+        <v>0.83</v>
+      </c>
+      <c r="AR120">
+        <v>1.38</v>
+      </c>
+      <c r="AS120">
+        <v>1.47</v>
+      </c>
+      <c r="AT120">
+        <v>2.85</v>
+      </c>
+      <c r="AU120">
+        <v>5</v>
+      </c>
+      <c r="AV120">
+        <v>5</v>
+      </c>
+      <c r="AW120">
+        <v>3</v>
+      </c>
+      <c r="AX120">
+        <v>9</v>
+      </c>
+      <c r="AY120">
+        <v>8</v>
+      </c>
+      <c r="AZ120">
+        <v>14</v>
+      </c>
+      <c r="BA120">
+        <v>3</v>
+      </c>
+      <c r="BB120">
+        <v>9</v>
+      </c>
+      <c r="BC120">
+        <v>12</v>
+      </c>
+      <c r="BD120">
+        <v>0</v>
+      </c>
+      <c r="BE120">
+        <v>0</v>
+      </c>
+      <c r="BF120">
+        <v>0</v>
+      </c>
+      <c r="BG120">
+        <v>0</v>
+      </c>
+      <c r="BH120">
+        <v>0</v>
+      </c>
+      <c r="BI120">
+        <v>0</v>
+      </c>
+      <c r="BJ120">
+        <v>0</v>
+      </c>
+      <c r="BK120">
+        <v>0</v>
+      </c>
+      <c r="BL120">
+        <v>0</v>
+      </c>
+      <c r="BM120">
+        <v>0</v>
+      </c>
+      <c r="BN120">
+        <v>0</v>
+      </c>
+      <c r="BO120">
+        <v>0</v>
+      </c>
+      <c r="BP120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7778606</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45776.125</v>
+      </c>
+      <c r="F121">
+        <v>12</v>
+      </c>
+      <c r="G121" t="s">
+        <v>77</v>
+      </c>
+      <c r="H121" t="s">
+        <v>74</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>4</v>
+      </c>
+      <c r="K121">
+        <v>4</v>
+      </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>4</v>
+      </c>
+      <c r="N121">
+        <v>6</v>
+      </c>
+      <c r="O121" t="s">
+        <v>167</v>
+      </c>
+      <c r="P121" t="s">
+        <v>226</v>
+      </c>
+      <c r="Q121">
+        <v>3.4</v>
+      </c>
+      <c r="R121">
+        <v>2.1</v>
+      </c>
+      <c r="S121">
+        <v>3.1</v>
+      </c>
+      <c r="T121">
+        <v>1.4</v>
+      </c>
+      <c r="U121">
+        <v>2.75</v>
+      </c>
+      <c r="V121">
+        <v>3</v>
+      </c>
+      <c r="W121">
+        <v>1.36</v>
+      </c>
+      <c r="X121">
+        <v>8</v>
+      </c>
+      <c r="Y121">
+        <v>1.08</v>
+      </c>
+      <c r="Z121">
+        <v>2.6</v>
+      </c>
+      <c r="AA121">
+        <v>3.76</v>
+      </c>
+      <c r="AB121">
+        <v>2.39</v>
+      </c>
+      <c r="AC121">
+        <v>0</v>
+      </c>
+      <c r="AD121">
+        <v>0</v>
+      </c>
+      <c r="AE121">
+        <v>0</v>
+      </c>
+      <c r="AF121">
+        <v>0</v>
+      </c>
+      <c r="AG121">
+        <v>1.96</v>
+      </c>
+      <c r="AH121">
+        <v>1.76</v>
+      </c>
+      <c r="AI121">
+        <v>1.8</v>
+      </c>
+      <c r="AJ121">
+        <v>1.91</v>
+      </c>
+      <c r="AK121">
+        <v>0</v>
+      </c>
+      <c r="AL121">
+        <v>0</v>
+      </c>
+      <c r="AM121">
+        <v>0</v>
+      </c>
+      <c r="AN121">
+        <v>0.17</v>
+      </c>
+      <c r="AO121">
+        <v>0.6</v>
+      </c>
+      <c r="AP121">
+        <v>0.14</v>
+      </c>
+      <c r="AQ121">
+        <v>1</v>
+      </c>
+      <c r="AR121">
+        <v>1.17</v>
+      </c>
+      <c r="AS121">
+        <v>1.34</v>
+      </c>
+      <c r="AT121">
+        <v>2.51</v>
+      </c>
+      <c r="AU121">
+        <v>4</v>
+      </c>
+      <c r="AV121">
+        <v>5</v>
+      </c>
+      <c r="AW121">
+        <v>5</v>
+      </c>
+      <c r="AX121">
+        <v>3</v>
+      </c>
+      <c r="AY121">
+        <v>9</v>
+      </c>
+      <c r="AZ121">
+        <v>8</v>
+      </c>
+      <c r="BA121">
+        <v>2</v>
+      </c>
+      <c r="BB121">
+        <v>4</v>
+      </c>
+      <c r="BC121">
+        <v>6</v>
+      </c>
+      <c r="BD121">
+        <v>0</v>
+      </c>
+      <c r="BE121">
+        <v>0</v>
+      </c>
+      <c r="BF121">
+        <v>0</v>
+      </c>
+      <c r="BG121">
+        <v>0</v>
+      </c>
+      <c r="BH121">
+        <v>0</v>
+      </c>
+      <c r="BI121">
+        <v>0</v>
+      </c>
+      <c r="BJ121">
+        <v>0</v>
+      </c>
+      <c r="BK121">
+        <v>0</v>
+      </c>
+      <c r="BL121">
+        <v>0</v>
+      </c>
+      <c r="BM121">
+        <v>0</v>
+      </c>
+      <c r="BN121">
+        <v>0</v>
+      </c>
+      <c r="BO121">
+        <v>0</v>
+      </c>
+      <c r="BP121">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,6 +520,24 @@
     <t>['53', '67']</t>
   </si>
   <si>
+    <t>['20', '39', '78']</t>
+  </si>
+  <si>
+    <t>['71']</t>
+  </si>
+  <si>
+    <t>['40']</t>
+  </si>
+  <si>
+    <t>['52', '59', '61']</t>
+  </si>
+  <si>
+    <t>['5', '47']</t>
+  </si>
+  <si>
+    <t>['11']</t>
+  </si>
+  <si>
     <t>['31', '60']</t>
   </si>
   <si>
@@ -529,13 +547,7 @@
     <t>['52', '75']</t>
   </si>
   <si>
-    <t>['71']</t>
-  </si>
-  <si>
     <t>['10', '89']</t>
-  </si>
-  <si>
-    <t>['40']</t>
   </si>
   <si>
     <t>['60', '90+3']</t>
@@ -695,6 +707,30 @@
   </si>
   <si>
     <t>['5', '12', '14', '19']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
+    <t>['75', '86']</t>
+  </si>
+  <si>
+    <t>['25', '45+2', '56']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['29', '61']</t>
+  </si>
+  <si>
+    <t>['15', '79']</t>
+  </si>
+  <si>
+    <t>['61']</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,7 +1351,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1393,10 +1429,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ2">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1599,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1805,10 +1841,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ4">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1933,7 +1969,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2014,7 +2050,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ5">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2139,7 +2175,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="Q6">
         <v>4.1</v>
@@ -2217,10 +2253,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
+        <v>1.29</v>
+      </c>
+      <c r="AQ6">
         <v>1.5</v>
-      </c>
-      <c r="AQ6">
-        <v>1.29</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2345,7 +2381,7 @@
         <v>90</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q7">
         <v>2.88</v>
@@ -2423,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ7">
         <v>2.17</v>
@@ -2551,7 +2587,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q8">
         <v>2.28</v>
@@ -2629,10 +2665,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ8">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2838,7 +2874,7 @@
         <v>0.14</v>
       </c>
       <c r="AQ9">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -2963,7 +2999,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="Q10">
         <v>3.6</v>
@@ -3041,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ10">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3247,10 +3283,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ11">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3662,7 +3698,7 @@
         <v>3</v>
       </c>
       <c r="AQ13">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3865,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ14">
         <v>0.83</v>
@@ -3993,7 +4029,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q15">
         <v>4.1</v>
@@ -4280,7 +4316,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ16">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4895,7 +4931,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ19">
         <v>1</v>
@@ -5101,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ20">
         <v>1.17</v>
@@ -5229,7 +5265,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q21">
         <v>4.4</v>
@@ -5310,7 +5346,7 @@
         <v>0.14</v>
       </c>
       <c r="AQ21">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR21">
         <v>1.32</v>
@@ -5513,7 +5549,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -5641,7 +5677,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5719,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ23">
         <v>2.33</v>
@@ -5925,10 +5961,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ24">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR24">
         <v>3.04</v>
@@ -6053,7 +6089,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6259,7 +6295,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q26">
         <v>3.95</v>
@@ -6337,10 +6373,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ26">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR26">
         <v>0.85</v>
@@ -6465,7 +6501,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6671,7 +6707,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q28">
         <v>3.35</v>
@@ -6749,10 +6785,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ28">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR28">
         <v>2.36</v>
@@ -7164,7 +7200,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ30">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR30">
         <v>1.54</v>
@@ -7370,7 +7406,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR31">
         <v>1.27</v>
@@ -7495,7 +7531,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q32">
         <v>3.45</v>
@@ -7573,7 +7609,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ32">
         <v>0.67</v>
@@ -7701,7 +7737,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7779,10 +7815,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ33">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR33">
         <v>1.88</v>
@@ -7907,7 +7943,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8113,7 +8149,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8194,7 +8230,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ35">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR35">
         <v>0</v>
@@ -8319,7 +8355,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q36">
         <v>2.8</v>
@@ -8397,10 +8433,10 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -8603,7 +8639,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ37">
         <v>0.8</v>
@@ -8731,7 +8767,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -8809,7 +8845,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -8937,7 +8973,7 @@
         <v>119</v>
       </c>
       <c r="P39" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="Q39">
         <v>4</v>
@@ -9018,7 +9054,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ39">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR39">
         <v>1.33</v>
@@ -9224,7 +9260,7 @@
         <v>2</v>
       </c>
       <c r="AQ40">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR40">
         <v>1.47</v>
@@ -9427,10 +9463,10 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ41">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR41">
         <v>1.46</v>
@@ -9555,7 +9591,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9636,7 +9672,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ42">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR42">
         <v>0</v>
@@ -9839,7 +9875,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ43">
         <v>1.17</v>
@@ -10251,7 +10287,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ45">
         <v>1.17</v>
@@ -10457,10 +10493,10 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ46">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR46">
         <v>2.49</v>
@@ -10585,7 +10621,7 @@
         <v>105</v>
       </c>
       <c r="P47" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10791,7 +10827,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -10997,7 +11033,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -11281,10 +11317,10 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ50">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR50">
         <v>1.08</v>
@@ -11409,7 +11445,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q51">
         <v>1.91</v>
@@ -11490,7 +11526,7 @@
         <v>3</v>
       </c>
       <c r="AQ51">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR51">
         <v>1.69</v>
@@ -11615,7 +11651,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11693,10 +11729,10 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ52">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR52">
         <v>1.25</v>
@@ -11821,7 +11857,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11902,7 +11938,7 @@
         <v>1</v>
       </c>
       <c r="AQ53">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR53">
         <v>1.15</v>
@@ -12105,10 +12141,10 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ54">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR54">
         <v>2.36</v>
@@ -12311,10 +12347,10 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ55">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR55">
         <v>1.39</v>
@@ -12439,7 +12475,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q56">
         <v>4.33</v>
@@ -12520,7 +12556,7 @@
         <v>0.14</v>
       </c>
       <c r="AQ56">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR56">
         <v>1.03</v>
@@ -12723,7 +12759,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ57">
         <v>2.33</v>
@@ -12929,10 +12965,10 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ58">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR58">
         <v>1.9</v>
@@ -13057,7 +13093,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13135,7 +13171,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ59">
         <v>1</v>
@@ -13341,10 +13377,10 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ60">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR60">
         <v>1.48</v>
@@ -13469,7 +13505,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13547,10 +13583,10 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ61">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR61">
         <v>1.1</v>
@@ -13675,7 +13711,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -14087,7 +14123,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14293,7 +14329,7 @@
         <v>90</v>
       </c>
       <c r="P65" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q65">
         <v>3.6</v>
@@ -14499,7 +14535,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q66">
         <v>4.75</v>
@@ -14577,7 +14613,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ66">
         <v>0.67</v>
@@ -14705,7 +14741,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14783,7 +14819,7 @@
         <v>0.75</v>
       </c>
       <c r="AP67">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -14992,7 +15028,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ68">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR68">
         <v>1.93</v>
@@ -15198,7 +15234,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ69">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR69">
         <v>1.3</v>
@@ -15813,10 +15849,10 @@
         <v>1.2</v>
       </c>
       <c r="AP72">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ72">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR72">
         <v>1.51</v>
@@ -16019,7 +16055,7 @@
         <v>0.33</v>
       </c>
       <c r="AP73">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ73">
         <v>1.17</v>
@@ -16147,7 +16183,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16228,7 +16264,7 @@
         <v>1</v>
       </c>
       <c r="AQ74">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR74">
         <v>1.3</v>
@@ -16434,7 +16470,7 @@
         <v>3</v>
       </c>
       <c r="AQ75">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR75">
         <v>1.77</v>
@@ -16637,7 +16673,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ76">
         <v>1</v>
@@ -16843,10 +16879,10 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ77">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR77">
         <v>1.29</v>
@@ -17052,7 +17088,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ78">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR78">
         <v>1.6</v>
@@ -17177,7 +17213,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17255,7 +17291,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ79">
         <v>1.33</v>
@@ -17464,7 +17500,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ80">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR80">
         <v>1.56</v>
@@ -17589,7 +17625,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17667,7 +17703,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ81">
         <v>0.67</v>
@@ -17873,7 +17909,7 @@
         <v>3</v>
       </c>
       <c r="AP82">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ82">
         <v>2.33</v>
@@ -18001,7 +18037,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18079,7 +18115,7 @@
         <v>0.8</v>
       </c>
       <c r="AP83">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -18207,7 +18243,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18288,7 +18324,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ84">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR84">
         <v>1.56</v>
@@ -18491,10 +18527,10 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ85">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR85">
         <v>1.08</v>
@@ -18619,7 +18655,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18825,7 +18861,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -18906,7 +18942,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ87">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR87">
         <v>1.26</v>
@@ -19031,7 +19067,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19109,10 +19145,10 @@
         <v>2.25</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ88">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR88">
         <v>1.22</v>
@@ -19237,7 +19273,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19315,7 +19351,7 @@
         <v>0.33</v>
       </c>
       <c r="AP89">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ89">
         <v>0.8</v>
@@ -19524,7 +19560,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ90">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR90">
         <v>1.26</v>
@@ -19855,7 +19891,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -19933,7 +19969,7 @@
         <v>0.5</v>
       </c>
       <c r="AP92">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ92">
         <v>0.67</v>
@@ -20061,7 +20097,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20139,10 +20175,10 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ93">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR93">
         <v>1.32</v>
@@ -20267,7 +20303,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q94">
         <v>2.3</v>
@@ -20345,10 +20381,10 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AQ94">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR94">
         <v>1.38</v>
@@ -20473,7 +20509,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20757,7 +20793,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AQ96">
         <v>1.17</v>
@@ -20885,7 +20921,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q97">
         <v>3.25</v>
@@ -20966,7 +21002,7 @@
         <v>2</v>
       </c>
       <c r="AQ97">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR97">
         <v>1.35</v>
@@ -21378,7 +21414,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ99">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR99">
         <v>1.86</v>
@@ -21503,7 +21539,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21709,7 +21745,7 @@
         <v>122</v>
       </c>
       <c r="P101" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q101">
         <v>3.25</v>
@@ -21915,7 +21951,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q102">
         <v>2.25</v>
@@ -21993,10 +22029,10 @@
         <v>1.25</v>
       </c>
       <c r="AP102">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ102">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR102">
         <v>1.46</v>
@@ -22405,10 +22441,10 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AQ104">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR104">
         <v>1.89</v>
@@ -22533,7 +22569,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q105">
         <v>2.38</v>
@@ -22614,7 +22650,7 @@
         <v>3</v>
       </c>
       <c r="AQ105">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR105">
         <v>1.64</v>
@@ -22739,7 +22775,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22945,7 +22981,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -23023,10 +23059,10 @@
         <v>1.25</v>
       </c>
       <c r="AP107">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ107">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AR107">
         <v>1.3</v>
@@ -23151,7 +23187,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23229,7 +23265,7 @@
         <v>1.17</v>
       </c>
       <c r="AP108">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ108">
         <v>1</v>
@@ -23357,7 +23393,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q109">
         <v>2.3</v>
@@ -23435,7 +23471,7 @@
         <v>0.8</v>
       </c>
       <c r="AP109">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ109">
         <v>1.17</v>
@@ -23644,7 +23680,7 @@
         <v>2</v>
       </c>
       <c r="AQ110">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR110">
         <v>1.34</v>
@@ -23769,7 +23805,7 @@
         <v>122</v>
       </c>
       <c r="P111" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -24181,7 +24217,7 @@
         <v>164</v>
       </c>
       <c r="P113" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q113">
         <v>3.6</v>
@@ -24259,7 +24295,7 @@
         <v>2</v>
       </c>
       <c r="AP113">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ113">
         <v>2.17</v>
@@ -24593,7 +24629,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24674,7 +24710,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ115">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR115">
         <v>1.85</v>
@@ -24799,7 +24835,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q116">
         <v>3.25</v>
@@ -25083,7 +25119,7 @@
         <v>1</v>
       </c>
       <c r="AP117">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ117">
         <v>0.8</v>
@@ -25289,7 +25325,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ118">
         <v>1.17</v>
@@ -25498,7 +25534,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ119">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AR119">
         <v>1.4</v>
@@ -25704,7 +25740,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ120">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR120">
         <v>1.38</v>
@@ -25829,7 +25865,7 @@
         <v>167</v>
       </c>
       <c r="P121" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -25985,6 +26021,2066 @@
         <v>0</v>
       </c>
       <c r="BP121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7778609</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45780.04166666666</v>
+      </c>
+      <c r="F122">
+        <v>13</v>
+      </c>
+      <c r="G122" t="s">
+        <v>85</v>
+      </c>
+      <c r="H122" t="s">
+        <v>81</v>
+      </c>
+      <c r="I122">
+        <v>2</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>3</v>
+      </c>
+      <c r="L122">
+        <v>3</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>4</v>
+      </c>
+      <c r="O122" t="s">
+        <v>168</v>
+      </c>
+      <c r="P122" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q122">
+        <v>2.5</v>
+      </c>
+      <c r="R122">
+        <v>2.05</v>
+      </c>
+      <c r="S122">
+        <v>5</v>
+      </c>
+      <c r="T122">
+        <v>1.44</v>
+      </c>
+      <c r="U122">
+        <v>2.63</v>
+      </c>
+      <c r="V122">
+        <v>3.4</v>
+      </c>
+      <c r="W122">
+        <v>1.3</v>
+      </c>
+      <c r="X122">
+        <v>10</v>
+      </c>
+      <c r="Y122">
+        <v>1.06</v>
+      </c>
+      <c r="Z122">
+        <v>1.98</v>
+      </c>
+      <c r="AA122">
+        <v>3.5</v>
+      </c>
+      <c r="AB122">
+        <v>3.59</v>
+      </c>
+      <c r="AC122">
+        <v>0</v>
+      </c>
+      <c r="AD122">
+        <v>0</v>
+      </c>
+      <c r="AE122">
+        <v>0</v>
+      </c>
+      <c r="AF122">
+        <v>0</v>
+      </c>
+      <c r="AG122">
+        <v>1.95</v>
+      </c>
+      <c r="AH122">
+        <v>1.79</v>
+      </c>
+      <c r="AI122">
+        <v>2</v>
+      </c>
+      <c r="AJ122">
+        <v>1.73</v>
+      </c>
+      <c r="AK122">
+        <v>0</v>
+      </c>
+      <c r="AL122">
+        <v>0</v>
+      </c>
+      <c r="AM122">
+        <v>0</v>
+      </c>
+      <c r="AN122">
+        <v>1.5</v>
+      </c>
+      <c r="AO122">
+        <v>0.83</v>
+      </c>
+      <c r="AP122">
+        <v>1.71</v>
+      </c>
+      <c r="AQ122">
+        <v>0.71</v>
+      </c>
+      <c r="AR122">
+        <v>1.51</v>
+      </c>
+      <c r="AS122">
+        <v>1.5</v>
+      </c>
+      <c r="AT122">
+        <v>3.01</v>
+      </c>
+      <c r="AU122">
+        <v>4</v>
+      </c>
+      <c r="AV122">
+        <v>5</v>
+      </c>
+      <c r="AW122">
+        <v>5</v>
+      </c>
+      <c r="AX122">
+        <v>6</v>
+      </c>
+      <c r="AY122">
+        <v>9</v>
+      </c>
+      <c r="AZ122">
+        <v>11</v>
+      </c>
+      <c r="BA122">
+        <v>5</v>
+      </c>
+      <c r="BB122">
+        <v>2</v>
+      </c>
+      <c r="BC122">
+        <v>7</v>
+      </c>
+      <c r="BD122">
+        <v>0</v>
+      </c>
+      <c r="BE122">
+        <v>0</v>
+      </c>
+      <c r="BF122">
+        <v>0</v>
+      </c>
+      <c r="BG122">
+        <v>0</v>
+      </c>
+      <c r="BH122">
+        <v>0</v>
+      </c>
+      <c r="BI122">
+        <v>0</v>
+      </c>
+      <c r="BJ122">
+        <v>0</v>
+      </c>
+      <c r="BK122">
+        <v>0</v>
+      </c>
+      <c r="BL122">
+        <v>0</v>
+      </c>
+      <c r="BM122">
+        <v>0</v>
+      </c>
+      <c r="BN122">
+        <v>0</v>
+      </c>
+      <c r="BO122">
+        <v>0</v>
+      </c>
+      <c r="BP122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7778611</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45780.04166666666</v>
+      </c>
+      <c r="F123">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>70</v>
+      </c>
+      <c r="H123" t="s">
+        <v>89</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>1</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>2</v>
+      </c>
+      <c r="O123" t="s">
+        <v>169</v>
+      </c>
+      <c r="P123" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q123">
+        <v>3.4</v>
+      </c>
+      <c r="R123">
+        <v>2</v>
+      </c>
+      <c r="S123">
+        <v>3.5</v>
+      </c>
+      <c r="T123">
+        <v>1.5</v>
+      </c>
+      <c r="U123">
+        <v>2.5</v>
+      </c>
+      <c r="V123">
+        <v>3.5</v>
+      </c>
+      <c r="W123">
+        <v>1.29</v>
+      </c>
+      <c r="X123">
+        <v>11</v>
+      </c>
+      <c r="Y123">
+        <v>1.05</v>
+      </c>
+      <c r="Z123">
+        <v>2.27</v>
+      </c>
+      <c r="AA123">
+        <v>3.39</v>
+      </c>
+      <c r="AB123">
+        <v>2.98</v>
+      </c>
+      <c r="AC123">
+        <v>1.97</v>
+      </c>
+      <c r="AD123">
+        <v>1.87</v>
+      </c>
+      <c r="AE123">
+        <v>1.88</v>
+      </c>
+      <c r="AF123">
+        <v>1.96</v>
+      </c>
+      <c r="AG123">
+        <v>1.92</v>
+      </c>
+      <c r="AH123">
+        <v>1.82</v>
+      </c>
+      <c r="AI123">
+        <v>2</v>
+      </c>
+      <c r="AJ123">
+        <v>1.73</v>
+      </c>
+      <c r="AK123">
+        <v>0</v>
+      </c>
+      <c r="AL123">
+        <v>0</v>
+      </c>
+      <c r="AM123">
+        <v>0</v>
+      </c>
+      <c r="AN123">
+        <v>0.83</v>
+      </c>
+      <c r="AO123">
+        <v>0.86</v>
+      </c>
+      <c r="AP123">
+        <v>0.86</v>
+      </c>
+      <c r="AQ123">
+        <v>0.88</v>
+      </c>
+      <c r="AR123">
+        <v>1.58</v>
+      </c>
+      <c r="AS123">
+        <v>1.49</v>
+      </c>
+      <c r="AT123">
+        <v>3.07</v>
+      </c>
+      <c r="AU123">
+        <v>4</v>
+      </c>
+      <c r="AV123">
+        <v>3</v>
+      </c>
+      <c r="AW123">
+        <v>8</v>
+      </c>
+      <c r="AX123">
+        <v>4</v>
+      </c>
+      <c r="AY123">
+        <v>12</v>
+      </c>
+      <c r="AZ123">
+        <v>7</v>
+      </c>
+      <c r="BA123">
+        <v>5</v>
+      </c>
+      <c r="BB123">
+        <v>5</v>
+      </c>
+      <c r="BC123">
+        <v>10</v>
+      </c>
+      <c r="BD123">
+        <v>0</v>
+      </c>
+      <c r="BE123">
+        <v>0</v>
+      </c>
+      <c r="BF123">
+        <v>0</v>
+      </c>
+      <c r="BG123">
+        <v>0</v>
+      </c>
+      <c r="BH123">
+        <v>0</v>
+      </c>
+      <c r="BI123">
+        <v>0</v>
+      </c>
+      <c r="BJ123">
+        <v>0</v>
+      </c>
+      <c r="BK123">
+        <v>0</v>
+      </c>
+      <c r="BL123">
+        <v>0</v>
+      </c>
+      <c r="BM123">
+        <v>0</v>
+      </c>
+      <c r="BN123">
+        <v>0</v>
+      </c>
+      <c r="BO123">
+        <v>0</v>
+      </c>
+      <c r="BP123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7778613</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45780.0625</v>
+      </c>
+      <c r="F124">
+        <v>13</v>
+      </c>
+      <c r="G124" t="s">
+        <v>72</v>
+      </c>
+      <c r="H124" t="s">
+        <v>83</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>2</v>
+      </c>
+      <c r="N124">
+        <v>2</v>
+      </c>
+      <c r="O124" t="s">
+        <v>90</v>
+      </c>
+      <c r="P124" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q124">
+        <v>4</v>
+      </c>
+      <c r="R124">
+        <v>1.91</v>
+      </c>
+      <c r="S124">
+        <v>3.25</v>
+      </c>
+      <c r="T124">
+        <v>1.57</v>
+      </c>
+      <c r="U124">
+        <v>2.25</v>
+      </c>
+      <c r="V124">
+        <v>3.75</v>
+      </c>
+      <c r="W124">
+        <v>1.25</v>
+      </c>
+      <c r="X124">
+        <v>13</v>
+      </c>
+      <c r="Y124">
+        <v>1.04</v>
+      </c>
+      <c r="Z124">
+        <v>2.55</v>
+      </c>
+      <c r="AA124">
+        <v>3.38</v>
+      </c>
+      <c r="AB124">
+        <v>2.62</v>
+      </c>
+      <c r="AC124">
+        <v>0</v>
+      </c>
+      <c r="AD124">
+        <v>0</v>
+      </c>
+      <c r="AE124">
+        <v>1.55</v>
+      </c>
+      <c r="AF124">
+        <v>2.3</v>
+      </c>
+      <c r="AG124">
+        <v>1.92</v>
+      </c>
+      <c r="AH124">
+        <v>1.82</v>
+      </c>
+      <c r="AI124">
+        <v>2.2</v>
+      </c>
+      <c r="AJ124">
+        <v>1.62</v>
+      </c>
+      <c r="AK124">
+        <v>0</v>
+      </c>
+      <c r="AL124">
+        <v>0</v>
+      </c>
+      <c r="AM124">
+        <v>0</v>
+      </c>
+      <c r="AN124">
+        <v>1.33</v>
+      </c>
+      <c r="AO124">
+        <v>1.29</v>
+      </c>
+      <c r="AP124">
+        <v>1.14</v>
+      </c>
+      <c r="AQ124">
+        <v>1.5</v>
+      </c>
+      <c r="AR124">
+        <v>1.17</v>
+      </c>
+      <c r="AS124">
+        <v>1.36</v>
+      </c>
+      <c r="AT124">
+        <v>2.53</v>
+      </c>
+      <c r="AU124">
+        <v>3</v>
+      </c>
+      <c r="AV124">
+        <v>6</v>
+      </c>
+      <c r="AW124">
+        <v>6</v>
+      </c>
+      <c r="AX124">
+        <v>6</v>
+      </c>
+      <c r="AY124">
+        <v>9</v>
+      </c>
+      <c r="AZ124">
+        <v>12</v>
+      </c>
+      <c r="BA124">
+        <v>11</v>
+      </c>
+      <c r="BB124">
+        <v>2</v>
+      </c>
+      <c r="BC124">
+        <v>13</v>
+      </c>
+      <c r="BD124">
+        <v>0</v>
+      </c>
+      <c r="BE124">
+        <v>0</v>
+      </c>
+      <c r="BF124">
+        <v>0</v>
+      </c>
+      <c r="BG124">
+        <v>0</v>
+      </c>
+      <c r="BH124">
+        <v>0</v>
+      </c>
+      <c r="BI124">
+        <v>0</v>
+      </c>
+      <c r="BJ124">
+        <v>0</v>
+      </c>
+      <c r="BK124">
+        <v>0</v>
+      </c>
+      <c r="BL124">
+        <v>0</v>
+      </c>
+      <c r="BM124">
+        <v>0</v>
+      </c>
+      <c r="BN124">
+        <v>0</v>
+      </c>
+      <c r="BO124">
+        <v>0</v>
+      </c>
+      <c r="BP124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7778618</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45780.08333333334</v>
+      </c>
+      <c r="F125">
+        <v>13</v>
+      </c>
+      <c r="G125" t="s">
+        <v>79</v>
+      </c>
+      <c r="H125" t="s">
+        <v>82</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>1</v>
+      </c>
+      <c r="O125" t="s">
+        <v>170</v>
+      </c>
+      <c r="P125" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q125">
+        <v>3.4</v>
+      </c>
+      <c r="R125">
+        <v>1.95</v>
+      </c>
+      <c r="S125">
+        <v>3.5</v>
+      </c>
+      <c r="T125">
+        <v>1.53</v>
+      </c>
+      <c r="U125">
+        <v>2.38</v>
+      </c>
+      <c r="V125">
+        <v>3.5</v>
+      </c>
+      <c r="W125">
+        <v>1.29</v>
+      </c>
+      <c r="X125">
+        <v>11</v>
+      </c>
+      <c r="Y125">
+        <v>1.05</v>
+      </c>
+      <c r="Z125">
+        <v>2.24</v>
+      </c>
+      <c r="AA125">
+        <v>3.34</v>
+      </c>
+      <c r="AB125">
+        <v>3.08</v>
+      </c>
+      <c r="AC125">
+        <v>0</v>
+      </c>
+      <c r="AD125">
+        <v>0</v>
+      </c>
+      <c r="AE125">
+        <v>1.5</v>
+      </c>
+      <c r="AF125">
+        <v>2.4</v>
+      </c>
+      <c r="AG125">
+        <v>1.98</v>
+      </c>
+      <c r="AH125">
+        <v>1.77</v>
+      </c>
+      <c r="AI125">
+        <v>2</v>
+      </c>
+      <c r="AJ125">
+        <v>1.73</v>
+      </c>
+      <c r="AK125">
+        <v>0</v>
+      </c>
+      <c r="AL125">
+        <v>0</v>
+      </c>
+      <c r="AM125">
+        <v>0</v>
+      </c>
+      <c r="AN125">
+        <v>1.67</v>
+      </c>
+      <c r="AO125">
+        <v>1.6</v>
+      </c>
+      <c r="AP125">
+        <v>1.86</v>
+      </c>
+      <c r="AQ125">
+        <v>1.33</v>
+      </c>
+      <c r="AR125">
+        <v>1.1</v>
+      </c>
+      <c r="AS125">
+        <v>1.4</v>
+      </c>
+      <c r="AT125">
+        <v>2.5</v>
+      </c>
+      <c r="AU125">
+        <v>3</v>
+      </c>
+      <c r="AV125">
+        <v>5</v>
+      </c>
+      <c r="AW125">
+        <v>4</v>
+      </c>
+      <c r="AX125">
+        <v>7</v>
+      </c>
+      <c r="AY125">
+        <v>7</v>
+      </c>
+      <c r="AZ125">
+        <v>12</v>
+      </c>
+      <c r="BA125">
+        <v>1</v>
+      </c>
+      <c r="BB125">
+        <v>10</v>
+      </c>
+      <c r="BC125">
+        <v>11</v>
+      </c>
+      <c r="BD125">
+        <v>0</v>
+      </c>
+      <c r="BE125">
+        <v>0</v>
+      </c>
+      <c r="BF125">
+        <v>0</v>
+      </c>
+      <c r="BG125">
+        <v>0</v>
+      </c>
+      <c r="BH125">
+        <v>0</v>
+      </c>
+      <c r="BI125">
+        <v>0</v>
+      </c>
+      <c r="BJ125">
+        <v>0</v>
+      </c>
+      <c r="BK125">
+        <v>0</v>
+      </c>
+      <c r="BL125">
+        <v>0</v>
+      </c>
+      <c r="BM125">
+        <v>0</v>
+      </c>
+      <c r="BN125">
+        <v>0</v>
+      </c>
+      <c r="BO125">
+        <v>0</v>
+      </c>
+      <c r="BP125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7778616</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45780.08333333334</v>
+      </c>
+      <c r="F126">
+        <v>13</v>
+      </c>
+      <c r="G126" t="s">
+        <v>75</v>
+      </c>
+      <c r="H126" t="s">
+        <v>80</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>2</v>
+      </c>
+      <c r="L126">
+        <v>1</v>
+      </c>
+      <c r="M126">
+        <v>1</v>
+      </c>
+      <c r="N126">
+        <v>2</v>
+      </c>
+      <c r="O126" t="s">
+        <v>129</v>
+      </c>
+      <c r="P126" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q126">
+        <v>3.6</v>
+      </c>
+      <c r="R126">
+        <v>2.2</v>
+      </c>
+      <c r="S126">
+        <v>2.88</v>
+      </c>
+      <c r="T126">
+        <v>1.36</v>
+      </c>
+      <c r="U126">
+        <v>3</v>
+      </c>
+      <c r="V126">
+        <v>2.75</v>
+      </c>
+      <c r="W126">
+        <v>1.4</v>
+      </c>
+      <c r="X126">
+        <v>7</v>
+      </c>
+      <c r="Y126">
+        <v>1.1</v>
+      </c>
+      <c r="Z126">
+        <v>3.18</v>
+      </c>
+      <c r="AA126">
+        <v>3.63</v>
+      </c>
+      <c r="AB126">
+        <v>2.08</v>
+      </c>
+      <c r="AC126">
+        <v>0</v>
+      </c>
+      <c r="AD126">
+        <v>0</v>
+      </c>
+      <c r="AE126">
+        <v>0</v>
+      </c>
+      <c r="AF126">
+        <v>0</v>
+      </c>
+      <c r="AG126">
+        <v>1.65</v>
+      </c>
+      <c r="AH126">
+        <v>2.13</v>
+      </c>
+      <c r="AI126">
+        <v>1.73</v>
+      </c>
+      <c r="AJ126">
+        <v>2</v>
+      </c>
+      <c r="AK126">
+        <v>0</v>
+      </c>
+      <c r="AL126">
+        <v>0</v>
+      </c>
+      <c r="AM126">
+        <v>0</v>
+      </c>
+      <c r="AN126">
+        <v>1.86</v>
+      </c>
+      <c r="AO126">
+        <v>2.17</v>
+      </c>
+      <c r="AP126">
+        <v>1.75</v>
+      </c>
+      <c r="AQ126">
+        <v>2</v>
+      </c>
+      <c r="AR126">
+        <v>1.32</v>
+      </c>
+      <c r="AS126">
+        <v>1.16</v>
+      </c>
+      <c r="AT126">
+        <v>2.48</v>
+      </c>
+      <c r="AU126">
+        <v>3</v>
+      </c>
+      <c r="AV126">
+        <v>3</v>
+      </c>
+      <c r="AW126">
+        <v>10</v>
+      </c>
+      <c r="AX126">
+        <v>9</v>
+      </c>
+      <c r="AY126">
+        <v>13</v>
+      </c>
+      <c r="AZ126">
+        <v>12</v>
+      </c>
+      <c r="BA126">
+        <v>0</v>
+      </c>
+      <c r="BB126">
+        <v>9</v>
+      </c>
+      <c r="BC126">
+        <v>9</v>
+      </c>
+      <c r="BD126">
+        <v>0</v>
+      </c>
+      <c r="BE126">
+        <v>0</v>
+      </c>
+      <c r="BF126">
+        <v>0</v>
+      </c>
+      <c r="BG126">
+        <v>0</v>
+      </c>
+      <c r="BH126">
+        <v>0</v>
+      </c>
+      <c r="BI126">
+        <v>0</v>
+      </c>
+      <c r="BJ126">
+        <v>0</v>
+      </c>
+      <c r="BK126">
+        <v>0</v>
+      </c>
+      <c r="BL126">
+        <v>0</v>
+      </c>
+      <c r="BM126">
+        <v>0</v>
+      </c>
+      <c r="BN126">
+        <v>0</v>
+      </c>
+      <c r="BO126">
+        <v>0</v>
+      </c>
+      <c r="BP126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7778615</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45780.08333333334</v>
+      </c>
+      <c r="F127">
+        <v>13</v>
+      </c>
+      <c r="G127" t="s">
+        <v>78</v>
+      </c>
+      <c r="H127" t="s">
+        <v>73</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>2</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>3</v>
+      </c>
+      <c r="M127">
+        <v>3</v>
+      </c>
+      <c r="N127">
+        <v>6</v>
+      </c>
+      <c r="O127" t="s">
+        <v>171</v>
+      </c>
+      <c r="P127" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q127">
+        <v>2.63</v>
+      </c>
+      <c r="R127">
+        <v>2.1</v>
+      </c>
+      <c r="S127">
+        <v>4.33</v>
+      </c>
+      <c r="T127">
+        <v>1.44</v>
+      </c>
+      <c r="U127">
+        <v>2.63</v>
+      </c>
+      <c r="V127">
+        <v>3</v>
+      </c>
+      <c r="W127">
+        <v>1.36</v>
+      </c>
+      <c r="X127">
+        <v>9</v>
+      </c>
+      <c r="Y127">
+        <v>1.07</v>
+      </c>
+      <c r="Z127">
+        <v>2.19</v>
+      </c>
+      <c r="AA127">
+        <v>3.6</v>
+      </c>
+      <c r="AB127">
+        <v>2.98</v>
+      </c>
+      <c r="AC127">
+        <v>0</v>
+      </c>
+      <c r="AD127">
+        <v>0</v>
+      </c>
+      <c r="AE127">
+        <v>0</v>
+      </c>
+      <c r="AF127">
+        <v>0</v>
+      </c>
+      <c r="AG127">
+        <v>1.67</v>
+      </c>
+      <c r="AH127">
+        <v>2.1</v>
+      </c>
+      <c r="AI127">
+        <v>1.91</v>
+      </c>
+      <c r="AJ127">
+        <v>1.8</v>
+      </c>
+      <c r="AK127">
+        <v>0</v>
+      </c>
+      <c r="AL127">
+        <v>0</v>
+      </c>
+      <c r="AM127">
+        <v>0</v>
+      </c>
+      <c r="AN127">
+        <v>1.17</v>
+      </c>
+      <c r="AO127">
+        <v>0.8</v>
+      </c>
+      <c r="AP127">
+        <v>1.14</v>
+      </c>
+      <c r="AQ127">
+        <v>0.83</v>
+      </c>
+      <c r="AR127">
+        <v>1.52</v>
+      </c>
+      <c r="AS127">
+        <v>1.15</v>
+      </c>
+      <c r="AT127">
+        <v>2.67</v>
+      </c>
+      <c r="AU127">
+        <v>8</v>
+      </c>
+      <c r="AV127">
+        <v>6</v>
+      </c>
+      <c r="AW127">
+        <v>6</v>
+      </c>
+      <c r="AX127">
+        <v>6</v>
+      </c>
+      <c r="AY127">
+        <v>14</v>
+      </c>
+      <c r="AZ127">
+        <v>12</v>
+      </c>
+      <c r="BA127">
+        <v>4</v>
+      </c>
+      <c r="BB127">
+        <v>6</v>
+      </c>
+      <c r="BC127">
+        <v>10</v>
+      </c>
+      <c r="BD127">
+        <v>0</v>
+      </c>
+      <c r="BE127">
+        <v>0</v>
+      </c>
+      <c r="BF127">
+        <v>0</v>
+      </c>
+      <c r="BG127">
+        <v>0</v>
+      </c>
+      <c r="BH127">
+        <v>0</v>
+      </c>
+      <c r="BI127">
+        <v>0</v>
+      </c>
+      <c r="BJ127">
+        <v>0</v>
+      </c>
+      <c r="BK127">
+        <v>0</v>
+      </c>
+      <c r="BL127">
+        <v>0</v>
+      </c>
+      <c r="BM127">
+        <v>0</v>
+      </c>
+      <c r="BN127">
+        <v>0</v>
+      </c>
+      <c r="BO127">
+        <v>0</v>
+      </c>
+      <c r="BP127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7778610</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45780.08333333334</v>
+      </c>
+      <c r="F128">
+        <v>13</v>
+      </c>
+      <c r="G128" t="s">
+        <v>88</v>
+      </c>
+      <c r="H128" t="s">
+        <v>87</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>1</v>
+      </c>
+      <c r="O128" t="s">
+        <v>90</v>
+      </c>
+      <c r="P128" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q128">
+        <v>2.88</v>
+      </c>
+      <c r="R128">
+        <v>2.3</v>
+      </c>
+      <c r="S128">
+        <v>3.4</v>
+      </c>
+      <c r="T128">
+        <v>1.33</v>
+      </c>
+      <c r="U128">
+        <v>3.25</v>
+      </c>
+      <c r="V128">
+        <v>2.5</v>
+      </c>
+      <c r="W128">
+        <v>1.5</v>
+      </c>
+      <c r="X128">
+        <v>6.5</v>
+      </c>
+      <c r="Y128">
+        <v>1.11</v>
+      </c>
+      <c r="Z128">
+        <v>2.23</v>
+      </c>
+      <c r="AA128">
+        <v>3.78</v>
+      </c>
+      <c r="AB128">
+        <v>2.8</v>
+      </c>
+      <c r="AC128">
+        <v>0</v>
+      </c>
+      <c r="AD128">
+        <v>0</v>
+      </c>
+      <c r="AE128">
+        <v>2.81</v>
+      </c>
+      <c r="AF128">
+        <v>1.45</v>
+      </c>
+      <c r="AG128">
+        <v>1.71</v>
+      </c>
+      <c r="AH128">
+        <v>2.03</v>
+      </c>
+      <c r="AI128">
+        <v>1.62</v>
+      </c>
+      <c r="AJ128">
+        <v>2.2</v>
+      </c>
+      <c r="AK128">
+        <v>0</v>
+      </c>
+      <c r="AL128">
+        <v>0</v>
+      </c>
+      <c r="AM128">
+        <v>0</v>
+      </c>
+      <c r="AN128">
+        <v>1.25</v>
+      </c>
+      <c r="AO128">
+        <v>0.86</v>
+      </c>
+      <c r="AP128">
+        <v>1</v>
+      </c>
+      <c r="AQ128">
+        <v>1.13</v>
+      </c>
+      <c r="AR128">
+        <v>1.41</v>
+      </c>
+      <c r="AS128">
+        <v>1.24</v>
+      </c>
+      <c r="AT128">
+        <v>2.65</v>
+      </c>
+      <c r="AU128">
+        <v>3</v>
+      </c>
+      <c r="AV128">
+        <v>5</v>
+      </c>
+      <c r="AW128">
+        <v>6</v>
+      </c>
+      <c r="AX128">
+        <v>13</v>
+      </c>
+      <c r="AY128">
+        <v>9</v>
+      </c>
+      <c r="AZ128">
+        <v>18</v>
+      </c>
+      <c r="BA128">
+        <v>5</v>
+      </c>
+      <c r="BB128">
+        <v>4</v>
+      </c>
+      <c r="BC128">
+        <v>9</v>
+      </c>
+      <c r="BD128">
+        <v>0</v>
+      </c>
+      <c r="BE128">
+        <v>0</v>
+      </c>
+      <c r="BF128">
+        <v>0</v>
+      </c>
+      <c r="BG128">
+        <v>0</v>
+      </c>
+      <c r="BH128">
+        <v>0</v>
+      </c>
+      <c r="BI128">
+        <v>0</v>
+      </c>
+      <c r="BJ128">
+        <v>0</v>
+      </c>
+      <c r="BK128">
+        <v>0</v>
+      </c>
+      <c r="BL128">
+        <v>0</v>
+      </c>
+      <c r="BM128">
+        <v>0</v>
+      </c>
+      <c r="BN128">
+        <v>0</v>
+      </c>
+      <c r="BO128">
+        <v>0</v>
+      </c>
+      <c r="BP128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7778612</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45780.08333333334</v>
+      </c>
+      <c r="F129">
+        <v>13</v>
+      </c>
+      <c r="G129" t="s">
+        <v>71</v>
+      </c>
+      <c r="H129" t="s">
+        <v>86</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>2</v>
+      </c>
+      <c r="N129">
+        <v>4</v>
+      </c>
+      <c r="O129" t="s">
+        <v>172</v>
+      </c>
+      <c r="P129" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q129">
+        <v>2.4</v>
+      </c>
+      <c r="R129">
+        <v>2.2</v>
+      </c>
+      <c r="S129">
+        <v>5</v>
+      </c>
+      <c r="T129">
+        <v>1.4</v>
+      </c>
+      <c r="U129">
+        <v>2.75</v>
+      </c>
+      <c r="V129">
+        <v>3</v>
+      </c>
+      <c r="W129">
+        <v>1.36</v>
+      </c>
+      <c r="X129">
+        <v>8</v>
+      </c>
+      <c r="Y129">
+        <v>1.08</v>
+      </c>
+      <c r="Z129">
+        <v>1.73</v>
+      </c>
+      <c r="AA129">
+        <v>3.75</v>
+      </c>
+      <c r="AB129">
+        <v>4.4</v>
+      </c>
+      <c r="AC129">
+        <v>0</v>
+      </c>
+      <c r="AD129">
+        <v>0</v>
+      </c>
+      <c r="AE129">
+        <v>0</v>
+      </c>
+      <c r="AF129">
+        <v>0</v>
+      </c>
+      <c r="AG129">
+        <v>1.83</v>
+      </c>
+      <c r="AH129">
+        <v>1.91</v>
+      </c>
+      <c r="AI129">
+        <v>1.91</v>
+      </c>
+      <c r="AJ129">
+        <v>1.8</v>
+      </c>
+      <c r="AK129">
+        <v>0</v>
+      </c>
+      <c r="AL129">
+        <v>0</v>
+      </c>
+      <c r="AM129">
+        <v>0</v>
+      </c>
+      <c r="AN129">
+        <v>2.67</v>
+      </c>
+      <c r="AO129">
+        <v>0.83</v>
+      </c>
+      <c r="AP129">
+        <v>2.43</v>
+      </c>
+      <c r="AQ129">
+        <v>0.86</v>
+      </c>
+      <c r="AR129">
+        <v>1.79</v>
+      </c>
+      <c r="AS129">
+        <v>1.08</v>
+      </c>
+      <c r="AT129">
+        <v>2.87</v>
+      </c>
+      <c r="AU129">
+        <v>10</v>
+      </c>
+      <c r="AV129">
+        <v>5</v>
+      </c>
+      <c r="AW129">
+        <v>3</v>
+      </c>
+      <c r="AX129">
+        <v>7</v>
+      </c>
+      <c r="AY129">
+        <v>13</v>
+      </c>
+      <c r="AZ129">
+        <v>12</v>
+      </c>
+      <c r="BA129">
+        <v>4</v>
+      </c>
+      <c r="BB129">
+        <v>6</v>
+      </c>
+      <c r="BC129">
+        <v>10</v>
+      </c>
+      <c r="BD129">
+        <v>0</v>
+      </c>
+      <c r="BE129">
+        <v>0</v>
+      </c>
+      <c r="BF129">
+        <v>0</v>
+      </c>
+      <c r="BG129">
+        <v>0</v>
+      </c>
+      <c r="BH129">
+        <v>0</v>
+      </c>
+      <c r="BI129">
+        <v>0</v>
+      </c>
+      <c r="BJ129">
+        <v>0</v>
+      </c>
+      <c r="BK129">
+        <v>0</v>
+      </c>
+      <c r="BL129">
+        <v>0</v>
+      </c>
+      <c r="BM129">
+        <v>0</v>
+      </c>
+      <c r="BN129">
+        <v>0</v>
+      </c>
+      <c r="BO129">
+        <v>0</v>
+      </c>
+      <c r="BP129">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7778614</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45780.08333333334</v>
+      </c>
+      <c r="F130">
+        <v>13</v>
+      </c>
+      <c r="G130" t="s">
+        <v>74</v>
+      </c>
+      <c r="H130" t="s">
+        <v>84</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>2</v>
+      </c>
+      <c r="O130" t="s">
+        <v>90</v>
+      </c>
+      <c r="P130" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q130">
+        <v>3.4</v>
+      </c>
+      <c r="R130">
+        <v>2.1</v>
+      </c>
+      <c r="S130">
+        <v>3.25</v>
+      </c>
+      <c r="T130">
+        <v>1.44</v>
+      </c>
+      <c r="U130">
+        <v>2.63</v>
+      </c>
+      <c r="V130">
+        <v>3</v>
+      </c>
+      <c r="W130">
+        <v>1.36</v>
+      </c>
+      <c r="X130">
+        <v>9</v>
+      </c>
+      <c r="Y130">
+        <v>1.07</v>
+      </c>
+      <c r="Z130">
+        <v>2.77</v>
+      </c>
+      <c r="AA130">
+        <v>3.62</v>
+      </c>
+      <c r="AB130">
+        <v>2.31</v>
+      </c>
+      <c r="AC130">
+        <v>0</v>
+      </c>
+      <c r="AD130">
+        <v>0</v>
+      </c>
+      <c r="AE130">
+        <v>0</v>
+      </c>
+      <c r="AF130">
+        <v>0</v>
+      </c>
+      <c r="AG130">
+        <v>1.63</v>
+      </c>
+      <c r="AH130">
+        <v>2.15</v>
+      </c>
+      <c r="AI130">
+        <v>1.83</v>
+      </c>
+      <c r="AJ130">
+        <v>1.83</v>
+      </c>
+      <c r="AK130">
+        <v>0</v>
+      </c>
+      <c r="AL130">
+        <v>0</v>
+      </c>
+      <c r="AM130">
+        <v>0</v>
+      </c>
+      <c r="AN130">
+        <v>1.5</v>
+      </c>
+      <c r="AO130">
+        <v>0.8</v>
+      </c>
+      <c r="AP130">
+        <v>1.29</v>
+      </c>
+      <c r="AQ130">
+        <v>1.17</v>
+      </c>
+      <c r="AR130">
+        <v>1.35</v>
+      </c>
+      <c r="AS130">
+        <v>1.49</v>
+      </c>
+      <c r="AT130">
+        <v>2.84</v>
+      </c>
+      <c r="AU130">
+        <v>6</v>
+      </c>
+      <c r="AV130">
+        <v>7</v>
+      </c>
+      <c r="AW130">
+        <v>9</v>
+      </c>
+      <c r="AX130">
+        <v>7</v>
+      </c>
+      <c r="AY130">
+        <v>15</v>
+      </c>
+      <c r="AZ130">
+        <v>14</v>
+      </c>
+      <c r="BA130">
+        <v>6</v>
+      </c>
+      <c r="BB130">
+        <v>3</v>
+      </c>
+      <c r="BC130">
+        <v>9</v>
+      </c>
+      <c r="BD130">
+        <v>0</v>
+      </c>
+      <c r="BE130">
+        <v>0</v>
+      </c>
+      <c r="BF130">
+        <v>0</v>
+      </c>
+      <c r="BG130">
+        <v>0</v>
+      </c>
+      <c r="BH130">
+        <v>0</v>
+      </c>
+      <c r="BI130">
+        <v>0</v>
+      </c>
+      <c r="BJ130">
+        <v>0</v>
+      </c>
+      <c r="BK130">
+        <v>0</v>
+      </c>
+      <c r="BL130">
+        <v>0</v>
+      </c>
+      <c r="BM130">
+        <v>0</v>
+      </c>
+      <c r="BN130">
+        <v>0</v>
+      </c>
+      <c r="BO130">
+        <v>0</v>
+      </c>
+      <c r="BP130">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7778617</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45780.16666666666</v>
+      </c>
+      <c r="F131">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>76</v>
+      </c>
+      <c r="H131" t="s">
+        <v>77</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>173</v>
+      </c>
+      <c r="P131" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q131">
+        <v>2.1</v>
+      </c>
+      <c r="R131">
+        <v>2.38</v>
+      </c>
+      <c r="S131">
+        <v>5.5</v>
+      </c>
+      <c r="T131">
+        <v>1.33</v>
+      </c>
+      <c r="U131">
+        <v>3.25</v>
+      </c>
+      <c r="V131">
+        <v>2.5</v>
+      </c>
+      <c r="W131">
+        <v>1.5</v>
+      </c>
+      <c r="X131">
+        <v>6.5</v>
+      </c>
+      <c r="Y131">
+        <v>1.11</v>
+      </c>
+      <c r="Z131">
+        <v>1.54</v>
+      </c>
+      <c r="AA131">
+        <v>4.2</v>
+      </c>
+      <c r="AB131">
+        <v>5.4</v>
+      </c>
+      <c r="AC131">
+        <v>0</v>
+      </c>
+      <c r="AD131">
+        <v>0</v>
+      </c>
+      <c r="AE131">
+        <v>0</v>
+      </c>
+      <c r="AF131">
+        <v>0</v>
+      </c>
+      <c r="AG131">
+        <v>1.65</v>
+      </c>
+      <c r="AH131">
+        <v>2</v>
+      </c>
+      <c r="AI131">
+        <v>1.8</v>
+      </c>
+      <c r="AJ131">
+        <v>1.91</v>
+      </c>
+      <c r="AK131">
+        <v>0</v>
+      </c>
+      <c r="AL131">
+        <v>0</v>
+      </c>
+      <c r="AM131">
+        <v>0</v>
+      </c>
+      <c r="AN131">
+        <v>2</v>
+      </c>
+      <c r="AO131">
+        <v>1.2</v>
+      </c>
+      <c r="AP131">
+        <v>1.86</v>
+      </c>
+      <c r="AQ131">
+        <v>1.17</v>
+      </c>
+      <c r="AR131">
+        <v>2.03</v>
+      </c>
+      <c r="AS131">
+        <v>1.36</v>
+      </c>
+      <c r="AT131">
+        <v>3.39</v>
+      </c>
+      <c r="AU131">
+        <v>9</v>
+      </c>
+      <c r="AV131">
+        <v>3</v>
+      </c>
+      <c r="AW131">
+        <v>20</v>
+      </c>
+      <c r="AX131">
+        <v>3</v>
+      </c>
+      <c r="AY131">
+        <v>37</v>
+      </c>
+      <c r="AZ131">
+        <v>7</v>
+      </c>
+      <c r="BA131">
+        <v>8</v>
+      </c>
+      <c r="BB131">
+        <v>4</v>
+      </c>
+      <c r="BC131">
+        <v>12</v>
+      </c>
+      <c r="BD131">
+        <v>0</v>
+      </c>
+      <c r="BE131">
+        <v>0</v>
+      </c>
+      <c r="BF131">
+        <v>0</v>
+      </c>
+      <c r="BG131">
+        <v>0</v>
+      </c>
+      <c r="BH131">
+        <v>0</v>
+      </c>
+      <c r="BI131">
+        <v>0</v>
+      </c>
+      <c r="BJ131">
+        <v>0</v>
+      </c>
+      <c r="BK131">
+        <v>0</v>
+      </c>
+      <c r="BL131">
+        <v>0</v>
+      </c>
+      <c r="BM131">
+        <v>0</v>
+      </c>
+      <c r="BN131">
+        <v>0</v>
+      </c>
+      <c r="BO131">
+        <v>0</v>
+      </c>
+      <c r="BP131">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="251">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,27 @@
     <t>['11']</t>
   </si>
   <si>
+    <t>['23', '49']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['77', '81']</t>
+  </si>
+  <si>
+    <t>['25', '69', '90+4']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
+    <t>['23']</t>
+  </si>
+  <si>
     <t>['31', '60']</t>
   </si>
   <si>
@@ -560,9 +581,6 @@
   </si>
   <si>
     <t>['13', '39']</t>
-  </si>
-  <si>
-    <t>['27']</t>
   </si>
   <si>
     <t>['55', '57', '62', '90+4']</t>
@@ -631,9 +649,6 @@
     <t>['11', '17']</t>
   </si>
   <si>
-    <t>['90+3']</t>
-  </si>
-  <si>
     <t>['20', '53']</t>
   </si>
   <si>
@@ -641,9 +656,6 @@
   </si>
   <si>
     <t>['44']</t>
-  </si>
-  <si>
-    <t>['23']</t>
   </si>
   <si>
     <t>['23', '80']</t>
@@ -731,6 +743,30 @@
   </si>
   <si>
     <t>['61']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['46', '55']</t>
+  </si>
+  <si>
+    <t>['38', '45']</t>
+  </si>
+  <si>
+    <t>['1', '20', '25', '70']</t>
+  </si>
+  <si>
+    <t>['76']</t>
+  </si>
+  <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['20']</t>
+  </si>
+  <si>
+    <t>['5', '53']</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1128,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP131"/>
+  <dimension ref="A1:BP141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,7 +1387,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1969,7 +2005,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2050,7 +2086,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ5">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2175,7 +2211,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="Q6">
         <v>4.1</v>
@@ -2587,7 +2623,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="Q8">
         <v>2.28</v>
@@ -2871,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AQ9">
         <v>0.86</v>
@@ -3492,7 +3528,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ12">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR12">
         <v>1.68</v>
@@ -3695,7 +3731,7 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ13">
         <v>0.86</v>
@@ -3904,7 +3940,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ14">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR14">
         <v>2.25</v>
@@ -4029,7 +4065,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="Q15">
         <v>4.1</v>
@@ -4107,10 +4143,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ15">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4313,7 +4349,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>1.13</v>
@@ -4519,7 +4555,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ17">
         <v>2.17</v>
@@ -4934,7 +4970,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR19">
         <v>1.74</v>
@@ -5140,7 +5176,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ20">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR20">
         <v>1.61</v>
@@ -5265,7 +5301,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="Q21">
         <v>4.4</v>
@@ -5343,7 +5379,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AQ21">
         <v>0.88</v>
@@ -5549,10 +5585,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5677,7 +5713,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5758,7 +5794,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ23">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR23">
         <v>1.4</v>
@@ -5964,7 +6000,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ24">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR24">
         <v>3.04</v>
@@ -6089,7 +6125,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6167,7 +6203,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6295,7 +6331,7 @@
         <v>108</v>
       </c>
       <c r="P26" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="Q26">
         <v>3.95</v>
@@ -6501,7 +6537,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6579,10 +6615,10 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR27">
         <v>1.59</v>
@@ -6991,10 +7027,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ29">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7403,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ31">
         <v>1.13</v>
@@ -7531,7 +7567,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="Q32">
         <v>3.45</v>
@@ -7609,10 +7645,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ32">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>1.26</v>
@@ -7737,7 +7773,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7943,7 +7979,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8021,10 +8057,10 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AQ34">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR34">
         <v>1.24</v>
@@ -8149,7 +8185,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8227,7 +8263,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ35">
         <v>2</v>
@@ -8355,7 +8391,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>2.8</v>
@@ -8433,7 +8469,7 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
         <v>0.88</v>
@@ -8642,7 +8678,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ37">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR37">
         <v>1.86</v>
@@ -8767,7 +8803,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -8848,7 +8884,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR38">
         <v>1.1</v>
@@ -9051,10 +9087,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ39">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR39">
         <v>1.33</v>
@@ -9257,7 +9293,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ40">
         <v>1.33</v>
@@ -9466,7 +9502,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ41">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR41">
         <v>1.46</v>
@@ -9591,7 +9627,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9669,7 +9705,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ42">
         <v>1.13</v>
@@ -9878,7 +9914,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ43">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR43">
         <v>1.09</v>
@@ -10084,7 +10120,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ44">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR44">
         <v>1.37</v>
@@ -10290,7 +10326,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ45">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR45">
         <v>1.47</v>
@@ -10621,7 +10657,7 @@
         <v>105</v>
       </c>
       <c r="P47" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10699,7 +10735,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ47">
         <v>1</v>
@@ -10827,7 +10863,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -11033,7 +11069,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -11111,10 +11147,10 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ49">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR49">
         <v>1.15</v>
@@ -11445,7 +11481,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="Q51">
         <v>1.91</v>
@@ -11523,7 +11559,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ51">
         <v>1.17</v>
@@ -11651,7 +11687,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11729,10 +11765,10 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ52">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR52">
         <v>1.25</v>
@@ -11857,7 +11893,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11935,7 +11971,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ53">
         <v>1.33</v>
@@ -12475,7 +12511,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q56">
         <v>4.33</v>
@@ -12553,7 +12589,7 @@
         <v>0.75</v>
       </c>
       <c r="AP56">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AQ56">
         <v>1.13</v>
@@ -12762,7 +12798,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ57">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR57">
         <v>1.77</v>
@@ -12968,7 +13004,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ58">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR58">
         <v>1.9</v>
@@ -13093,7 +13129,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13174,7 +13210,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR59">
         <v>1.09</v>
@@ -13377,7 +13413,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
         <v>1.5</v>
@@ -13505,7 +13541,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13711,7 +13747,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -13789,10 +13825,10 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ62">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -13995,10 +14031,10 @@
         <v>0.5</v>
       </c>
       <c r="AP63">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ63">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14123,7 +14159,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14204,7 +14240,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ64">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR64">
         <v>1.49</v>
@@ -14329,7 +14365,7 @@
         <v>90</v>
       </c>
       <c r="P65" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="Q65">
         <v>3.6</v>
@@ -14407,7 +14443,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ65">
         <v>2.17</v>
@@ -14535,7 +14571,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="Q66">
         <v>4.75</v>
@@ -14616,7 +14652,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ66">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR66">
         <v>1.04</v>
@@ -14741,7 +14777,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15025,7 +15061,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ68">
         <v>0.71</v>
@@ -15437,10 +15473,10 @@
         <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AQ70">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR70">
         <v>1.09</v>
@@ -15643,10 +15679,10 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ71">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR71">
         <v>1.39</v>
@@ -15849,7 +15885,7 @@
         <v>1.2</v>
       </c>
       <c r="AP72">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ72">
         <v>0.88</v>
@@ -16058,7 +16094,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ73">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR73">
         <v>1.25</v>
@@ -16183,7 +16219,7 @@
         <v>141</v>
       </c>
       <c r="P74" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
       <c r="Q74">
         <v>2.63</v>
@@ -16261,7 +16297,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ74">
         <v>1.17</v>
@@ -16467,10 +16503,10 @@
         <v>0.33</v>
       </c>
       <c r="AP75">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ75">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR75">
         <v>1.77</v>
@@ -16676,7 +16712,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR76">
         <v>1.39</v>
@@ -16879,10 +16915,10 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ77">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR77">
         <v>1.29</v>
@@ -17085,7 +17121,7 @@
         <v>1.25</v>
       </c>
       <c r="AP78">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ78">
         <v>1.5</v>
@@ -17213,7 +17249,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17294,7 +17330,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ79">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR79">
         <v>2.01</v>
@@ -17497,7 +17533,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ80">
         <v>0.86</v>
@@ -17625,7 +17661,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17706,7 +17742,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ81">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.55</v>
@@ -17909,10 +17945,10 @@
         <v>3</v>
       </c>
       <c r="AP82">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ82">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR82">
         <v>1.31</v>
@@ -18037,7 +18073,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18243,7 +18279,7 @@
         <v>146</v>
       </c>
       <c r="P84" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
       <c r="Q84">
         <v>3.4</v>
@@ -18655,7 +18691,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18733,10 +18769,10 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ86">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR86">
         <v>1.94</v>
@@ -18861,7 +18897,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -18939,7 +18975,7 @@
         <v>0</v>
       </c>
       <c r="AP87">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ87">
         <v>0.71</v>
@@ -19067,7 +19103,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19273,7 +19309,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19354,7 +19390,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ89">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR89">
         <v>2.31</v>
@@ -19763,10 +19799,10 @@
         <v>0.75</v>
       </c>
       <c r="AP91">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AQ91">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR91">
         <v>1.1</v>
@@ -19891,7 +19927,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -19972,7 +20008,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ92">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR92">
         <v>1.1</v>
@@ -20097,7 +20133,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20303,7 +20339,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q94">
         <v>2.3</v>
@@ -20381,7 +20417,7 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ94">
         <v>1.17</v>
@@ -20509,7 +20545,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20587,7 +20623,7 @@
         <v>1.75</v>
       </c>
       <c r="AP95">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
         <v>2.17</v>
@@ -20796,7 +20832,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ96">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR96">
         <v>1.52</v>
@@ -20921,7 +20957,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q97">
         <v>3.25</v>
@@ -20999,10 +21035,10 @@
         <v>0.25</v>
       </c>
       <c r="AP97">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ97">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR97">
         <v>1.35</v>
@@ -21205,10 +21241,10 @@
         <v>1.25</v>
       </c>
       <c r="AP98">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ98">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR98">
         <v>1.74</v>
@@ -21411,10 +21447,10 @@
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ99">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR99">
         <v>1.86</v>
@@ -21539,7 +21575,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21617,10 +21653,10 @@
         <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ100">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR100">
         <v>1.51</v>
@@ -21745,7 +21781,7 @@
         <v>122</v>
       </c>
       <c r="P101" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q101">
         <v>3.25</v>
@@ -21823,10 +21859,10 @@
         <v>0.25</v>
       </c>
       <c r="AP101">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ101">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR101">
         <v>1.44</v>
@@ -21951,7 +21987,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q102">
         <v>2.25</v>
@@ -22029,7 +22065,7 @@
         <v>1.25</v>
       </c>
       <c r="AP102">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ102">
         <v>1.17</v>
@@ -22238,7 +22274,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ103">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR103">
         <v>1.59</v>
@@ -22569,7 +22605,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q105">
         <v>2.38</v>
@@ -22647,7 +22683,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ105">
         <v>0.88</v>
@@ -22775,7 +22811,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22856,7 +22892,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ106">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR106">
         <v>1.3</v>
@@ -22981,7 +23017,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -23187,7 +23223,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23393,7 +23429,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q109">
         <v>2.3</v>
@@ -23474,7 +23510,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ109">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR109">
         <v>2.1</v>
@@ -23677,7 +23713,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ110">
         <v>0.86</v>
@@ -23805,7 +23841,7 @@
         <v>122</v>
       </c>
       <c r="P111" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -23883,10 +23919,10 @@
         <v>2.5</v>
       </c>
       <c r="AP111">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ111">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR111">
         <v>1.26</v>
@@ -24089,7 +24125,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -24217,7 +24253,7 @@
         <v>164</v>
       </c>
       <c r="P113" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q113">
         <v>3.6</v>
@@ -24504,7 +24540,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ114">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AR114">
         <v>1.57</v>
@@ -24629,7 +24665,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24707,7 +24743,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AQ115">
         <v>1.5</v>
@@ -24835,7 +24871,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q116">
         <v>3.25</v>
@@ -24913,10 +24949,10 @@
         <v>0.6</v>
       </c>
       <c r="AP116">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ116">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AR116">
         <v>1.54</v>
@@ -25122,7 +25158,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ117">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR117">
         <v>1.11</v>
@@ -25328,7 +25364,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ118">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR118">
         <v>1.57</v>
@@ -25531,7 +25567,7 @@
         <v>2.4</v>
       </c>
       <c r="AP119">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ119">
         <v>2</v>
@@ -25865,7 +25901,7 @@
         <v>167</v>
       </c>
       <c r="P121" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -25943,10 +25979,10 @@
         <v>0.6</v>
       </c>
       <c r="AP121">
-        <v>0.14</v>
+        <v>0.25</v>
       </c>
       <c r="AQ121">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR121">
         <v>1.17</v>
@@ -26071,7 +26107,7 @@
         <v>168</v>
       </c>
       <c r="P122" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26149,7 +26185,7 @@
         <v>0.83</v>
       </c>
       <c r="AP122">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AQ122">
         <v>0.71</v>
@@ -26277,7 +26313,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26483,7 +26519,7 @@
         <v>90</v>
       </c>
       <c r="P124" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -27101,7 +27137,7 @@
         <v>171</v>
       </c>
       <c r="P127" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27182,7 +27218,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ127">
-        <v>0.83</v>
+        <v>1.14</v>
       </c>
       <c r="AR127">
         <v>1.52</v>
@@ -27307,7 +27343,7 @@
         <v>90</v>
       </c>
       <c r="P128" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q128">
         <v>2.88</v>
@@ -27385,7 +27421,7 @@
         <v>0.86</v>
       </c>
       <c r="AP128">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AQ128">
         <v>1.13</v>
@@ -27513,7 +27549,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27719,7 +27755,7 @@
         <v>90</v>
       </c>
       <c r="P130" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -27800,7 +27836,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ130">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR130">
         <v>1.35</v>
@@ -27925,7 +27961,7 @@
         <v>173</v>
       </c>
       <c r="P131" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28081,6 +28117,2066 @@
         <v>0</v>
       </c>
       <c r="BP131">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7778620</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45783.04166666666</v>
+      </c>
+      <c r="F132">
+        <v>14</v>
+      </c>
+      <c r="G132" t="s">
+        <v>85</v>
+      </c>
+      <c r="H132" t="s">
+        <v>74</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>3</v>
+      </c>
+      <c r="O132" t="s">
+        <v>174</v>
+      </c>
+      <c r="P132" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q132">
+        <v>2.5</v>
+      </c>
+      <c r="R132">
+        <v>2.1</v>
+      </c>
+      <c r="S132">
+        <v>4.75</v>
+      </c>
+      <c r="T132">
+        <v>1.44</v>
+      </c>
+      <c r="U132">
+        <v>2.63</v>
+      </c>
+      <c r="V132">
+        <v>3.25</v>
+      </c>
+      <c r="W132">
+        <v>1.33</v>
+      </c>
+      <c r="X132">
+        <v>9</v>
+      </c>
+      <c r="Y132">
+        <v>1.07</v>
+      </c>
+      <c r="Z132">
+        <v>1.74</v>
+      </c>
+      <c r="AA132">
+        <v>3.6</v>
+      </c>
+      <c r="AB132">
+        <v>3.74</v>
+      </c>
+      <c r="AC132">
+        <v>0</v>
+      </c>
+      <c r="AD132">
+        <v>0</v>
+      </c>
+      <c r="AE132">
+        <v>0</v>
+      </c>
+      <c r="AF132">
+        <v>0</v>
+      </c>
+      <c r="AG132">
+        <v>1.69</v>
+      </c>
+      <c r="AH132">
+        <v>2.04</v>
+      </c>
+      <c r="AI132">
+        <v>1.91</v>
+      </c>
+      <c r="AJ132">
+        <v>1.8</v>
+      </c>
+      <c r="AK132">
+        <v>0</v>
+      </c>
+      <c r="AL132">
+        <v>0</v>
+      </c>
+      <c r="AM132">
+        <v>0</v>
+      </c>
+      <c r="AN132">
+        <v>1.71</v>
+      </c>
+      <c r="AO132">
+        <v>1</v>
+      </c>
+      <c r="AP132">
+        <v>1.88</v>
+      </c>
+      <c r="AQ132">
+        <v>0.86</v>
+      </c>
+      <c r="AR132">
+        <v>1.48</v>
+      </c>
+      <c r="AS132">
+        <v>1.32</v>
+      </c>
+      <c r="AT132">
+        <v>2.8</v>
+      </c>
+      <c r="AU132">
+        <v>9</v>
+      </c>
+      <c r="AV132">
+        <v>7</v>
+      </c>
+      <c r="AW132">
+        <v>1</v>
+      </c>
+      <c r="AX132">
+        <v>9</v>
+      </c>
+      <c r="AY132">
+        <v>10</v>
+      </c>
+      <c r="AZ132">
+        <v>16</v>
+      </c>
+      <c r="BA132">
+        <v>4</v>
+      </c>
+      <c r="BB132">
+        <v>3</v>
+      </c>
+      <c r="BC132">
+        <v>7</v>
+      </c>
+      <c r="BD132">
+        <v>0</v>
+      </c>
+      <c r="BE132">
+        <v>0</v>
+      </c>
+      <c r="BF132">
+        <v>0</v>
+      </c>
+      <c r="BG132">
+        <v>0</v>
+      </c>
+      <c r="BH132">
+        <v>0</v>
+      </c>
+      <c r="BI132">
+        <v>0</v>
+      </c>
+      <c r="BJ132">
+        <v>0</v>
+      </c>
+      <c r="BK132">
+        <v>0</v>
+      </c>
+      <c r="BL132">
+        <v>0</v>
+      </c>
+      <c r="BM132">
+        <v>0</v>
+      </c>
+      <c r="BN132">
+        <v>0</v>
+      </c>
+      <c r="BO132">
+        <v>0</v>
+      </c>
+      <c r="BP132">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7778624</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45783.07986111111</v>
+      </c>
+      <c r="F133">
+        <v>14</v>
+      </c>
+      <c r="G133" t="s">
+        <v>86</v>
+      </c>
+      <c r="H133" t="s">
+        <v>76</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>0</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>2</v>
+      </c>
+      <c r="N133">
+        <v>3</v>
+      </c>
+      <c r="O133" t="s">
+        <v>175</v>
+      </c>
+      <c r="P133" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q133">
+        <v>4</v>
+      </c>
+      <c r="R133">
+        <v>2.2</v>
+      </c>
+      <c r="S133">
+        <v>2.75</v>
+      </c>
+      <c r="T133">
+        <v>1.4</v>
+      </c>
+      <c r="U133">
+        <v>2.75</v>
+      </c>
+      <c r="V133">
+        <v>2.75</v>
+      </c>
+      <c r="W133">
+        <v>1.4</v>
+      </c>
+      <c r="X133">
+        <v>8</v>
+      </c>
+      <c r="Y133">
+        <v>1.08</v>
+      </c>
+      <c r="Z133">
+        <v>3.08</v>
+      </c>
+      <c r="AA133">
+        <v>3.26</v>
+      </c>
+      <c r="AB133">
+        <v>2.05</v>
+      </c>
+      <c r="AC133">
+        <v>0</v>
+      </c>
+      <c r="AD133">
+        <v>0</v>
+      </c>
+      <c r="AE133">
+        <v>0</v>
+      </c>
+      <c r="AF133">
+        <v>0</v>
+      </c>
+      <c r="AG133">
+        <v>1.88</v>
+      </c>
+      <c r="AH133">
+        <v>1.82</v>
+      </c>
+      <c r="AI133">
+        <v>1.8</v>
+      </c>
+      <c r="AJ133">
+        <v>1.91</v>
+      </c>
+      <c r="AK133">
+        <v>0</v>
+      </c>
+      <c r="AL133">
+        <v>0</v>
+      </c>
+      <c r="AM133">
+        <v>0</v>
+      </c>
+      <c r="AN133">
+        <v>1.33</v>
+      </c>
+      <c r="AO133">
+        <v>0.67</v>
+      </c>
+      <c r="AP133">
+        <v>1.14</v>
+      </c>
+      <c r="AQ133">
+        <v>1</v>
+      </c>
+      <c r="AR133">
+        <v>1.27</v>
+      </c>
+      <c r="AS133">
+        <v>1.53</v>
+      </c>
+      <c r="AT133">
+        <v>2.8</v>
+      </c>
+      <c r="AU133">
+        <v>4</v>
+      </c>
+      <c r="AV133">
+        <v>6</v>
+      </c>
+      <c r="AW133">
+        <v>5</v>
+      </c>
+      <c r="AX133">
+        <v>3</v>
+      </c>
+      <c r="AY133">
+        <v>9</v>
+      </c>
+      <c r="AZ133">
+        <v>9</v>
+      </c>
+      <c r="BA133">
+        <v>3</v>
+      </c>
+      <c r="BB133">
+        <v>4</v>
+      </c>
+      <c r="BC133">
+        <v>7</v>
+      </c>
+      <c r="BD133">
+        <v>0</v>
+      </c>
+      <c r="BE133">
+        <v>0</v>
+      </c>
+      <c r="BF133">
+        <v>0</v>
+      </c>
+      <c r="BG133">
+        <v>0</v>
+      </c>
+      <c r="BH133">
+        <v>0</v>
+      </c>
+      <c r="BI133">
+        <v>0</v>
+      </c>
+      <c r="BJ133">
+        <v>0</v>
+      </c>
+      <c r="BK133">
+        <v>0</v>
+      </c>
+      <c r="BL133">
+        <v>0</v>
+      </c>
+      <c r="BM133">
+        <v>0</v>
+      </c>
+      <c r="BN133">
+        <v>0</v>
+      </c>
+      <c r="BO133">
+        <v>0</v>
+      </c>
+      <c r="BP133">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7778625</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45783.08333333334</v>
+      </c>
+      <c r="F134">
+        <v>14</v>
+      </c>
+      <c r="G134" t="s">
+        <v>81</v>
+      </c>
+      <c r="H134" t="s">
+        <v>84</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>2</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>2</v>
+      </c>
+      <c r="N134">
+        <v>3</v>
+      </c>
+      <c r="O134" t="s">
+        <v>176</v>
+      </c>
+      <c r="P134" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q134">
+        <v>3.4</v>
+      </c>
+      <c r="R134">
+        <v>2</v>
+      </c>
+      <c r="S134">
+        <v>3.5</v>
+      </c>
+      <c r="T134">
+        <v>1.5</v>
+      </c>
+      <c r="U134">
+        <v>2.5</v>
+      </c>
+      <c r="V134">
+        <v>3.5</v>
+      </c>
+      <c r="W134">
+        <v>1.29</v>
+      </c>
+      <c r="X134">
+        <v>11</v>
+      </c>
+      <c r="Y134">
+        <v>1.05</v>
+      </c>
+      <c r="Z134">
+        <v>2.58</v>
+      </c>
+      <c r="AA134">
+        <v>2.84</v>
+      </c>
+      <c r="AB134">
+        <v>2.64</v>
+      </c>
+      <c r="AC134">
+        <v>0</v>
+      </c>
+      <c r="AD134">
+        <v>0</v>
+      </c>
+      <c r="AE134">
+        <v>0</v>
+      </c>
+      <c r="AF134">
+        <v>0</v>
+      </c>
+      <c r="AG134">
+        <v>1.85</v>
+      </c>
+      <c r="AH134">
+        <v>1.75</v>
+      </c>
+      <c r="AI134">
+        <v>2</v>
+      </c>
+      <c r="AJ134">
+        <v>1.73</v>
+      </c>
+      <c r="AK134">
+        <v>0</v>
+      </c>
+      <c r="AL134">
+        <v>0</v>
+      </c>
+      <c r="AM134">
+        <v>0</v>
+      </c>
+      <c r="AN134">
+        <v>1</v>
+      </c>
+      <c r="AO134">
+        <v>1.17</v>
+      </c>
+      <c r="AP134">
+        <v>0.86</v>
+      </c>
+      <c r="AQ134">
+        <v>1.43</v>
+      </c>
+      <c r="AR134">
+        <v>1.18</v>
+      </c>
+      <c r="AS134">
+        <v>1.54</v>
+      </c>
+      <c r="AT134">
+        <v>2.72</v>
+      </c>
+      <c r="AU134">
+        <v>9</v>
+      </c>
+      <c r="AV134">
+        <v>4</v>
+      </c>
+      <c r="AW134">
+        <v>7</v>
+      </c>
+      <c r="AX134">
+        <v>1</v>
+      </c>
+      <c r="AY134">
+        <v>16</v>
+      </c>
+      <c r="AZ134">
+        <v>5</v>
+      </c>
+      <c r="BA134">
+        <v>9</v>
+      </c>
+      <c r="BB134">
+        <v>0</v>
+      </c>
+      <c r="BC134">
+        <v>9</v>
+      </c>
+      <c r="BD134">
+        <v>0</v>
+      </c>
+      <c r="BE134">
+        <v>0</v>
+      </c>
+      <c r="BF134">
+        <v>0</v>
+      </c>
+      <c r="BG134">
+        <v>0</v>
+      </c>
+      <c r="BH134">
+        <v>0</v>
+      </c>
+      <c r="BI134">
+        <v>0</v>
+      </c>
+      <c r="BJ134">
+        <v>0</v>
+      </c>
+      <c r="BK134">
+        <v>0</v>
+      </c>
+      <c r="BL134">
+        <v>0</v>
+      </c>
+      <c r="BM134">
+        <v>0</v>
+      </c>
+      <c r="BN134">
+        <v>0</v>
+      </c>
+      <c r="BO134">
+        <v>0</v>
+      </c>
+      <c r="BP134">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7778619</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45783.08333333334</v>
+      </c>
+      <c r="F135">
+        <v>14</v>
+      </c>
+      <c r="G135" t="s">
+        <v>87</v>
+      </c>
+      <c r="H135" t="s">
+        <v>73</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>3</v>
+      </c>
+      <c r="K135">
+        <v>3</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>4</v>
+      </c>
+      <c r="N135">
+        <v>6</v>
+      </c>
+      <c r="O135" t="s">
+        <v>177</v>
+      </c>
+      <c r="P135" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q135">
+        <v>3.1</v>
+      </c>
+      <c r="R135">
+        <v>2.2</v>
+      </c>
+      <c r="S135">
+        <v>3.25</v>
+      </c>
+      <c r="T135">
+        <v>1.36</v>
+      </c>
+      <c r="U135">
+        <v>3</v>
+      </c>
+      <c r="V135">
+        <v>2.75</v>
+      </c>
+      <c r="W135">
+        <v>1.4</v>
+      </c>
+      <c r="X135">
+        <v>7</v>
+      </c>
+      <c r="Y135">
+        <v>1.1</v>
+      </c>
+      <c r="Z135">
+        <v>2.36</v>
+      </c>
+      <c r="AA135">
+        <v>3.15</v>
+      </c>
+      <c r="AB135">
+        <v>2.64</v>
+      </c>
+      <c r="AC135">
+        <v>0</v>
+      </c>
+      <c r="AD135">
+        <v>0</v>
+      </c>
+      <c r="AE135">
+        <v>0</v>
+      </c>
+      <c r="AF135">
+        <v>0</v>
+      </c>
+      <c r="AG135">
+        <v>1.83</v>
+      </c>
+      <c r="AH135">
+        <v>1.87</v>
+      </c>
+      <c r="AI135">
+        <v>1.67</v>
+      </c>
+      <c r="AJ135">
+        <v>2.1</v>
+      </c>
+      <c r="AK135">
+        <v>0</v>
+      </c>
+      <c r="AL135">
+        <v>0</v>
+      </c>
+      <c r="AM135">
+        <v>0</v>
+      </c>
+      <c r="AN135">
+        <v>1.4</v>
+      </c>
+      <c r="AO135">
+        <v>0.83</v>
+      </c>
+      <c r="AP135">
+        <v>1.17</v>
+      </c>
+      <c r="AQ135">
+        <v>1.14</v>
+      </c>
+      <c r="AR135">
+        <v>1.52</v>
+      </c>
+      <c r="AS135">
+        <v>1.22</v>
+      </c>
+      <c r="AT135">
+        <v>2.74</v>
+      </c>
+      <c r="AU135">
+        <v>8</v>
+      </c>
+      <c r="AV135">
+        <v>6</v>
+      </c>
+      <c r="AW135">
+        <v>5</v>
+      </c>
+      <c r="AX135">
+        <v>9</v>
+      </c>
+      <c r="AY135">
+        <v>13</v>
+      </c>
+      <c r="AZ135">
+        <v>15</v>
+      </c>
+      <c r="BA135">
+        <v>3</v>
+      </c>
+      <c r="BB135">
+        <v>2</v>
+      </c>
+      <c r="BC135">
+        <v>5</v>
+      </c>
+      <c r="BD135">
+        <v>0</v>
+      </c>
+      <c r="BE135">
+        <v>0</v>
+      </c>
+      <c r="BF135">
+        <v>0</v>
+      </c>
+      <c r="BG135">
+        <v>0</v>
+      </c>
+      <c r="BH135">
+        <v>0</v>
+      </c>
+      <c r="BI135">
+        <v>0</v>
+      </c>
+      <c r="BJ135">
+        <v>0</v>
+      </c>
+      <c r="BK135">
+        <v>0</v>
+      </c>
+      <c r="BL135">
+        <v>0</v>
+      </c>
+      <c r="BM135">
+        <v>0</v>
+      </c>
+      <c r="BN135">
+        <v>0</v>
+      </c>
+      <c r="BO135">
+        <v>0</v>
+      </c>
+      <c r="BP135">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7778622</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45783.08333333334</v>
+      </c>
+      <c r="F136">
+        <v>14</v>
+      </c>
+      <c r="G136" t="s">
+        <v>88</v>
+      </c>
+      <c r="H136" t="s">
+        <v>79</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>3</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>3</v>
+      </c>
+      <c r="O136" t="s">
+        <v>178</v>
+      </c>
+      <c r="P136" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q136">
+        <v>2.88</v>
+      </c>
+      <c r="R136">
+        <v>2.05</v>
+      </c>
+      <c r="S136">
+        <v>4</v>
+      </c>
+      <c r="T136">
+        <v>1.44</v>
+      </c>
+      <c r="U136">
+        <v>2.63</v>
+      </c>
+      <c r="V136">
+        <v>3.25</v>
+      </c>
+      <c r="W136">
+        <v>1.33</v>
+      </c>
+      <c r="X136">
+        <v>10</v>
+      </c>
+      <c r="Y136">
+        <v>1.06</v>
+      </c>
+      <c r="Z136">
+        <v>2.13</v>
+      </c>
+      <c r="AA136">
+        <v>3.04</v>
+      </c>
+      <c r="AB136">
+        <v>3.1</v>
+      </c>
+      <c r="AC136">
+        <v>0</v>
+      </c>
+      <c r="AD136">
+        <v>0</v>
+      </c>
+      <c r="AE136">
+        <v>0</v>
+      </c>
+      <c r="AF136">
+        <v>0</v>
+      </c>
+      <c r="AG136">
+        <v>1.8</v>
+      </c>
+      <c r="AH136">
+        <v>1.85</v>
+      </c>
+      <c r="AI136">
+        <v>1.91</v>
+      </c>
+      <c r="AJ136">
+        <v>1.8</v>
+      </c>
+      <c r="AK136">
+        <v>0</v>
+      </c>
+      <c r="AL136">
+        <v>0</v>
+      </c>
+      <c r="AM136">
+        <v>0</v>
+      </c>
+      <c r="AN136">
+        <v>1</v>
+      </c>
+      <c r="AO136">
+        <v>1.33</v>
+      </c>
+      <c r="AP136">
+        <v>1.33</v>
+      </c>
+      <c r="AQ136">
+        <v>1.14</v>
+      </c>
+      <c r="AR136">
+        <v>1.4</v>
+      </c>
+      <c r="AS136">
+        <v>1.08</v>
+      </c>
+      <c r="AT136">
+        <v>2.48</v>
+      </c>
+      <c r="AU136">
+        <v>5</v>
+      </c>
+      <c r="AV136">
+        <v>6</v>
+      </c>
+      <c r="AW136">
+        <v>3</v>
+      </c>
+      <c r="AX136">
+        <v>8</v>
+      </c>
+      <c r="AY136">
+        <v>8</v>
+      </c>
+      <c r="AZ136">
+        <v>14</v>
+      </c>
+      <c r="BA136">
+        <v>4</v>
+      </c>
+      <c r="BB136">
+        <v>5</v>
+      </c>
+      <c r="BC136">
+        <v>9</v>
+      </c>
+      <c r="BD136">
+        <v>0</v>
+      </c>
+      <c r="BE136">
+        <v>0</v>
+      </c>
+      <c r="BF136">
+        <v>0</v>
+      </c>
+      <c r="BG136">
+        <v>0</v>
+      </c>
+      <c r="BH136">
+        <v>0</v>
+      </c>
+      <c r="BI136">
+        <v>0</v>
+      </c>
+      <c r="BJ136">
+        <v>0</v>
+      </c>
+      <c r="BK136">
+        <v>0</v>
+      </c>
+      <c r="BL136">
+        <v>0</v>
+      </c>
+      <c r="BM136">
+        <v>0</v>
+      </c>
+      <c r="BN136">
+        <v>0</v>
+      </c>
+      <c r="BO136">
+        <v>0</v>
+      </c>
+      <c r="BP136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7778627</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45783.125</v>
+      </c>
+      <c r="F137">
+        <v>14</v>
+      </c>
+      <c r="G137" t="s">
+        <v>77</v>
+      </c>
+      <c r="H137" t="s">
+        <v>70</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>1</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>179</v>
+      </c>
+      <c r="P137" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q137">
+        <v>4</v>
+      </c>
+      <c r="R137">
+        <v>2.1</v>
+      </c>
+      <c r="S137">
+        <v>2.75</v>
+      </c>
+      <c r="T137">
+        <v>1.4</v>
+      </c>
+      <c r="U137">
+        <v>2.75</v>
+      </c>
+      <c r="V137">
+        <v>3</v>
+      </c>
+      <c r="W137">
+        <v>1.36</v>
+      </c>
+      <c r="X137">
+        <v>8</v>
+      </c>
+      <c r="Y137">
+        <v>1.08</v>
+      </c>
+      <c r="Z137">
+        <v>3.05</v>
+      </c>
+      <c r="AA137">
+        <v>3.39</v>
+      </c>
+      <c r="AB137">
+        <v>2.01</v>
+      </c>
+      <c r="AC137">
+        <v>0</v>
+      </c>
+      <c r="AD137">
+        <v>0</v>
+      </c>
+      <c r="AE137">
+        <v>0</v>
+      </c>
+      <c r="AF137">
+        <v>0</v>
+      </c>
+      <c r="AG137">
+        <v>1.94</v>
+      </c>
+      <c r="AH137">
+        <v>1.76</v>
+      </c>
+      <c r="AI137">
+        <v>1.83</v>
+      </c>
+      <c r="AJ137">
+        <v>1.83</v>
+      </c>
+      <c r="AK137">
+        <v>0</v>
+      </c>
+      <c r="AL137">
+        <v>0</v>
+      </c>
+      <c r="AM137">
+        <v>0</v>
+      </c>
+      <c r="AN137">
+        <v>0.14</v>
+      </c>
+      <c r="AO137">
+        <v>1.17</v>
+      </c>
+      <c r="AP137">
+        <v>0.25</v>
+      </c>
+      <c r="AQ137">
+        <v>1.14</v>
+      </c>
+      <c r="AR137">
+        <v>1.16</v>
+      </c>
+      <c r="AS137">
+        <v>1.05</v>
+      </c>
+      <c r="AT137">
+        <v>2.21</v>
+      </c>
+      <c r="AU137">
+        <v>3</v>
+      </c>
+      <c r="AV137">
+        <v>4</v>
+      </c>
+      <c r="AW137">
+        <v>7</v>
+      </c>
+      <c r="AX137">
+        <v>8</v>
+      </c>
+      <c r="AY137">
+        <v>10</v>
+      </c>
+      <c r="AZ137">
+        <v>12</v>
+      </c>
+      <c r="BA137">
+        <v>1</v>
+      </c>
+      <c r="BB137">
+        <v>7</v>
+      </c>
+      <c r="BC137">
+        <v>8</v>
+      </c>
+      <c r="BD137">
+        <v>0</v>
+      </c>
+      <c r="BE137">
+        <v>0</v>
+      </c>
+      <c r="BF137">
+        <v>0</v>
+      </c>
+      <c r="BG137">
+        <v>0</v>
+      </c>
+      <c r="BH137">
+        <v>0</v>
+      </c>
+      <c r="BI137">
+        <v>0</v>
+      </c>
+      <c r="BJ137">
+        <v>0</v>
+      </c>
+      <c r="BK137">
+        <v>0</v>
+      </c>
+      <c r="BL137">
+        <v>0</v>
+      </c>
+      <c r="BM137">
+        <v>0</v>
+      </c>
+      <c r="BN137">
+        <v>0</v>
+      </c>
+      <c r="BO137">
+        <v>0</v>
+      </c>
+      <c r="BP137">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7778628</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45783.125</v>
+      </c>
+      <c r="F138">
+        <v>14</v>
+      </c>
+      <c r="G138" t="s">
+        <v>82</v>
+      </c>
+      <c r="H138" t="s">
+        <v>78</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138" t="s">
+        <v>90</v>
+      </c>
+      <c r="P138" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q138">
+        <v>3.75</v>
+      </c>
+      <c r="R138">
+        <v>2.05</v>
+      </c>
+      <c r="S138">
+        <v>3.1</v>
+      </c>
+      <c r="T138">
+        <v>1.5</v>
+      </c>
+      <c r="U138">
+        <v>2.5</v>
+      </c>
+      <c r="V138">
+        <v>3.4</v>
+      </c>
+      <c r="W138">
+        <v>1.3</v>
+      </c>
+      <c r="X138">
+        <v>10</v>
+      </c>
+      <c r="Y138">
+        <v>1.06</v>
+      </c>
+      <c r="Z138">
+        <v>2.93</v>
+      </c>
+      <c r="AA138">
+        <v>3.05</v>
+      </c>
+      <c r="AB138">
+        <v>2.22</v>
+      </c>
+      <c r="AC138">
+        <v>0</v>
+      </c>
+      <c r="AD138">
+        <v>0</v>
+      </c>
+      <c r="AE138">
+        <v>0</v>
+      </c>
+      <c r="AF138">
+        <v>0</v>
+      </c>
+      <c r="AG138">
+        <v>1.65</v>
+      </c>
+      <c r="AH138">
+        <v>2.05</v>
+      </c>
+      <c r="AI138">
+        <v>1.91</v>
+      </c>
+      <c r="AJ138">
+        <v>1.8</v>
+      </c>
+      <c r="AK138">
+        <v>0</v>
+      </c>
+      <c r="AL138">
+        <v>0</v>
+      </c>
+      <c r="AM138">
+        <v>0</v>
+      </c>
+      <c r="AN138">
+        <v>1.14</v>
+      </c>
+      <c r="AO138">
+        <v>2.33</v>
+      </c>
+      <c r="AP138">
+        <v>1</v>
+      </c>
+      <c r="AQ138">
+        <v>2.43</v>
+      </c>
+      <c r="AR138">
+        <v>1.54</v>
+      </c>
+      <c r="AS138">
+        <v>1.41</v>
+      </c>
+      <c r="AT138">
+        <v>2.95</v>
+      </c>
+      <c r="AU138">
+        <v>3</v>
+      </c>
+      <c r="AV138">
+        <v>6</v>
+      </c>
+      <c r="AW138">
+        <v>1</v>
+      </c>
+      <c r="AX138">
+        <v>4</v>
+      </c>
+      <c r="AY138">
+        <v>4</v>
+      </c>
+      <c r="AZ138">
+        <v>10</v>
+      </c>
+      <c r="BA138">
+        <v>10</v>
+      </c>
+      <c r="BB138">
+        <v>7</v>
+      </c>
+      <c r="BC138">
+        <v>17</v>
+      </c>
+      <c r="BD138">
+        <v>0</v>
+      </c>
+      <c r="BE138">
+        <v>0</v>
+      </c>
+      <c r="BF138">
+        <v>0</v>
+      </c>
+      <c r="BG138">
+        <v>0</v>
+      </c>
+      <c r="BH138">
+        <v>0</v>
+      </c>
+      <c r="BI138">
+        <v>0</v>
+      </c>
+      <c r="BJ138">
+        <v>0</v>
+      </c>
+      <c r="BK138">
+        <v>0</v>
+      </c>
+      <c r="BL138">
+        <v>0</v>
+      </c>
+      <c r="BM138">
+        <v>0</v>
+      </c>
+      <c r="BN138">
+        <v>0</v>
+      </c>
+      <c r="BO138">
+        <v>0</v>
+      </c>
+      <c r="BP138">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7778621</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45783.125</v>
+      </c>
+      <c r="F139">
+        <v>14</v>
+      </c>
+      <c r="G139" t="s">
+        <v>89</v>
+      </c>
+      <c r="H139" t="s">
+        <v>72</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>1</v>
+      </c>
+      <c r="O139" t="s">
+        <v>90</v>
+      </c>
+      <c r="P139" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q139">
+        <v>3</v>
+      </c>
+      <c r="R139">
+        <v>2.05</v>
+      </c>
+      <c r="S139">
+        <v>4</v>
+      </c>
+      <c r="T139">
+        <v>1.5</v>
+      </c>
+      <c r="U139">
+        <v>2.5</v>
+      </c>
+      <c r="V139">
+        <v>3.4</v>
+      </c>
+      <c r="W139">
+        <v>1.3</v>
+      </c>
+      <c r="X139">
+        <v>10</v>
+      </c>
+      <c r="Y139">
+        <v>1.06</v>
+      </c>
+      <c r="Z139">
+        <v>2.37</v>
+      </c>
+      <c r="AA139">
+        <v>3.25</v>
+      </c>
+      <c r="AB139">
+        <v>2.57</v>
+      </c>
+      <c r="AC139">
+        <v>0</v>
+      </c>
+      <c r="AD139">
+        <v>0</v>
+      </c>
+      <c r="AE139">
+        <v>0</v>
+      </c>
+      <c r="AF139">
+        <v>0</v>
+      </c>
+      <c r="AG139">
+        <v>1.85</v>
+      </c>
+      <c r="AH139">
+        <v>1.85</v>
+      </c>
+      <c r="AI139">
+        <v>1.91</v>
+      </c>
+      <c r="AJ139">
+        <v>1.8</v>
+      </c>
+      <c r="AK139">
+        <v>0</v>
+      </c>
+      <c r="AL139">
+        <v>0</v>
+      </c>
+      <c r="AM139">
+        <v>0</v>
+      </c>
+      <c r="AN139">
+        <v>1.2</v>
+      </c>
+      <c r="AO139">
+        <v>0.83</v>
+      </c>
+      <c r="AP139">
+        <v>1</v>
+      </c>
+      <c r="AQ139">
+        <v>1.14</v>
+      </c>
+      <c r="AR139">
+        <v>1.74</v>
+      </c>
+      <c r="AS139">
+        <v>1.14</v>
+      </c>
+      <c r="AT139">
+        <v>2.88</v>
+      </c>
+      <c r="AU139">
+        <v>2</v>
+      </c>
+      <c r="AV139">
+        <v>7</v>
+      </c>
+      <c r="AW139">
+        <v>3</v>
+      </c>
+      <c r="AX139">
+        <v>3</v>
+      </c>
+      <c r="AY139">
+        <v>5</v>
+      </c>
+      <c r="AZ139">
+        <v>10</v>
+      </c>
+      <c r="BA139">
+        <v>3</v>
+      </c>
+      <c r="BB139">
+        <v>8</v>
+      </c>
+      <c r="BC139">
+        <v>11</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
+        <v>0</v>
+      </c>
+      <c r="BG139">
+        <v>0</v>
+      </c>
+      <c r="BH139">
+        <v>0</v>
+      </c>
+      <c r="BI139">
+        <v>0</v>
+      </c>
+      <c r="BJ139">
+        <v>0</v>
+      </c>
+      <c r="BK139">
+        <v>0</v>
+      </c>
+      <c r="BL139">
+        <v>0</v>
+      </c>
+      <c r="BM139">
+        <v>0</v>
+      </c>
+      <c r="BN139">
+        <v>0</v>
+      </c>
+      <c r="BO139">
+        <v>0</v>
+      </c>
+      <c r="BP139">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7778626</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45783.15972222222</v>
+      </c>
+      <c r="F140">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
+        <v>83</v>
+      </c>
+      <c r="H140" t="s">
+        <v>75</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140" t="s">
+        <v>90</v>
+      </c>
+      <c r="P140" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q140">
+        <v>3</v>
+      </c>
+      <c r="R140">
+        <v>2</v>
+      </c>
+      <c r="S140">
+        <v>4</v>
+      </c>
+      <c r="T140">
+        <v>1.53</v>
+      </c>
+      <c r="U140">
+        <v>2.38</v>
+      </c>
+      <c r="V140">
+        <v>3.5</v>
+      </c>
+      <c r="W140">
+        <v>1.29</v>
+      </c>
+      <c r="X140">
+        <v>11</v>
+      </c>
+      <c r="Y140">
+        <v>1.05</v>
+      </c>
+      <c r="Z140">
+        <v>2.15</v>
+      </c>
+      <c r="AA140">
+        <v>2.89</v>
+      </c>
+      <c r="AB140">
+        <v>3.25</v>
+      </c>
+      <c r="AC140">
+        <v>0</v>
+      </c>
+      <c r="AD140">
+        <v>0</v>
+      </c>
+      <c r="AE140">
+        <v>1.5</v>
+      </c>
+      <c r="AF140">
+        <v>2.4</v>
+      </c>
+      <c r="AG140">
+        <v>2</v>
+      </c>
+      <c r="AH140">
+        <v>1.67</v>
+      </c>
+      <c r="AI140">
+        <v>2.1</v>
+      </c>
+      <c r="AJ140">
+        <v>1.67</v>
+      </c>
+      <c r="AK140">
+        <v>0</v>
+      </c>
+      <c r="AL140">
+        <v>0</v>
+      </c>
+      <c r="AM140">
+        <v>0</v>
+      </c>
+      <c r="AN140">
+        <v>2</v>
+      </c>
+      <c r="AO140">
+        <v>0.8</v>
+      </c>
+      <c r="AP140">
+        <v>1.67</v>
+      </c>
+      <c r="AQ140">
+        <v>1.17</v>
+      </c>
+      <c r="AR140">
+        <v>1.32</v>
+      </c>
+      <c r="AS140">
+        <v>1.24</v>
+      </c>
+      <c r="AT140">
+        <v>2.56</v>
+      </c>
+      <c r="AU140">
+        <v>4</v>
+      </c>
+      <c r="AV140">
+        <v>6</v>
+      </c>
+      <c r="AW140">
+        <v>8</v>
+      </c>
+      <c r="AX140">
+        <v>7</v>
+      </c>
+      <c r="AY140">
+        <v>17</v>
+      </c>
+      <c r="AZ140">
+        <v>16</v>
+      </c>
+      <c r="BA140">
+        <v>8</v>
+      </c>
+      <c r="BB140">
+        <v>4</v>
+      </c>
+      <c r="BC140">
+        <v>12</v>
+      </c>
+      <c r="BD140">
+        <v>0</v>
+      </c>
+      <c r="BE140">
+        <v>0</v>
+      </c>
+      <c r="BF140">
+        <v>0</v>
+      </c>
+      <c r="BG140">
+        <v>0</v>
+      </c>
+      <c r="BH140">
+        <v>0</v>
+      </c>
+      <c r="BI140">
+        <v>0</v>
+      </c>
+      <c r="BJ140">
+        <v>0</v>
+      </c>
+      <c r="BK140">
+        <v>0</v>
+      </c>
+      <c r="BL140">
+        <v>0</v>
+      </c>
+      <c r="BM140">
+        <v>0</v>
+      </c>
+      <c r="BN140">
+        <v>0</v>
+      </c>
+      <c r="BO140">
+        <v>0</v>
+      </c>
+      <c r="BP140">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7778623</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45783.16666666666</v>
+      </c>
+      <c r="F141">
+        <v>14</v>
+      </c>
+      <c r="G141" t="s">
+        <v>80</v>
+      </c>
+      <c r="H141" t="s">
+        <v>71</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>2</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141" t="s">
+        <v>180</v>
+      </c>
+      <c r="P141" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q141">
+        <v>2.88</v>
+      </c>
+      <c r="R141">
+        <v>2.25</v>
+      </c>
+      <c r="S141">
+        <v>3.6</v>
+      </c>
+      <c r="T141">
+        <v>1.36</v>
+      </c>
+      <c r="U141">
+        <v>3</v>
+      </c>
+      <c r="V141">
+        <v>2.63</v>
+      </c>
+      <c r="W141">
+        <v>1.44</v>
+      </c>
+      <c r="X141">
+        <v>7</v>
+      </c>
+      <c r="Y141">
+        <v>1.1</v>
+      </c>
+      <c r="Z141">
+        <v>2.18</v>
+      </c>
+      <c r="AA141">
+        <v>3.27</v>
+      </c>
+      <c r="AB141">
+        <v>2.81</v>
+      </c>
+      <c r="AC141">
+        <v>0</v>
+      </c>
+      <c r="AD141">
+        <v>0</v>
+      </c>
+      <c r="AE141">
+        <v>2.55</v>
+      </c>
+      <c r="AF141">
+        <v>1.53</v>
+      </c>
+      <c r="AG141">
+        <v>1.77</v>
+      </c>
+      <c r="AH141">
+        <v>1.93</v>
+      </c>
+      <c r="AI141">
+        <v>1.67</v>
+      </c>
+      <c r="AJ141">
+        <v>2.1</v>
+      </c>
+      <c r="AK141">
+        <v>0</v>
+      </c>
+      <c r="AL141">
+        <v>0</v>
+      </c>
+      <c r="AM141">
+        <v>0</v>
+      </c>
+      <c r="AN141">
+        <v>3</v>
+      </c>
+      <c r="AO141">
+        <v>1.17</v>
+      </c>
+      <c r="AP141">
+        <v>2.57</v>
+      </c>
+      <c r="AQ141">
+        <v>1.43</v>
+      </c>
+      <c r="AR141">
+        <v>1.59</v>
+      </c>
+      <c r="AS141">
+        <v>1.48</v>
+      </c>
+      <c r="AT141">
+        <v>3.07</v>
+      </c>
+      <c r="AU141">
+        <v>10</v>
+      </c>
+      <c r="AV141">
+        <v>5</v>
+      </c>
+      <c r="AW141">
+        <v>7</v>
+      </c>
+      <c r="AX141">
+        <v>5</v>
+      </c>
+      <c r="AY141">
+        <v>20</v>
+      </c>
+      <c r="AZ141">
+        <v>12</v>
+      </c>
+      <c r="BA141">
+        <v>7</v>
+      </c>
+      <c r="BB141">
+        <v>5</v>
+      </c>
+      <c r="BC141">
+        <v>12</v>
+      </c>
+      <c r="BD141">
+        <v>0</v>
+      </c>
+      <c r="BE141">
+        <v>0</v>
+      </c>
+      <c r="BF141">
+        <v>0</v>
+      </c>
+      <c r="BG141">
+        <v>0</v>
+      </c>
+      <c r="BH141">
+        <v>0</v>
+      </c>
+      <c r="BI141">
+        <v>0</v>
+      </c>
+      <c r="BJ141">
+        <v>0</v>
+      </c>
+      <c r="BK141">
+        <v>0</v>
+      </c>
+      <c r="BL141">
+        <v>0</v>
+      </c>
+      <c r="BM141">
+        <v>0</v>
+      </c>
+      <c r="BN141">
+        <v>0</v>
+      </c>
+      <c r="BO141">
+        <v>0</v>
+      </c>
+      <c r="BP141">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="252">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -557,6 +557,9 @@
   </si>
   <si>
     <t>['23']</t>
+  </si>
+  <si>
+    <t>['16', '31', '77']</t>
   </si>
   <si>
     <t>['31', '60']</t>
@@ -1128,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP141"/>
+  <dimension ref="A1:BP142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1387,7 +1390,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1671,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -2005,7 +2008,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2211,7 +2214,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>4.1</v>
@@ -2498,7 +2501,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ7">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2623,7 +2626,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q8">
         <v>2.28</v>
@@ -3937,7 +3940,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ14">
         <v>1.14</v>
@@ -4065,7 +4068,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q15">
         <v>4.1</v>
@@ -4558,7 +4561,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ17">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5301,7 +5304,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q21">
         <v>4.4</v>
@@ -5713,7 +5716,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6125,7 +6128,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6537,7 +6540,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -7567,7 +7570,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q32">
         <v>3.45</v>
@@ -7773,7 +7776,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7851,7 +7854,7 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ33">
         <v>0.71</v>
@@ -7979,7 +7982,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8185,7 +8188,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8391,7 +8394,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q36">
         <v>2.8</v>
@@ -8803,7 +8806,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -9627,7 +9630,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10657,7 +10660,7 @@
         <v>105</v>
       </c>
       <c r="P47" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10863,7 +10866,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -10944,7 +10947,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ48">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR48">
         <v>1.52</v>
@@ -11069,7 +11072,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -11481,7 +11484,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>1.91</v>
@@ -11687,7 +11690,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11893,7 +11896,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12511,7 +12514,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q56">
         <v>4.33</v>
@@ -13001,7 +13004,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ58">
         <v>1.43</v>
@@ -13129,7 +13132,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13541,7 +13544,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13747,7 +13750,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -14159,7 +14162,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14365,7 +14368,7 @@
         <v>90</v>
       </c>
       <c r="P65" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q65">
         <v>3.6</v>
@@ -14446,7 +14449,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ65">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR65">
         <v>1.13</v>
@@ -14571,7 +14574,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q66">
         <v>4.75</v>
@@ -14777,7 +14780,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -17249,7 +17252,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17327,7 +17330,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ79">
         <v>1.14</v>
@@ -17661,7 +17664,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18073,7 +18076,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18691,7 +18694,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18897,7 +18900,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19103,7 +19106,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19309,7 +19312,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19927,7 +19930,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20133,7 +20136,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20339,7 +20342,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q94">
         <v>2.3</v>
@@ -20545,7 +20548,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20626,7 +20629,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR95">
         <v>1.47</v>
@@ -20957,7 +20960,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q97">
         <v>3.25</v>
@@ -21575,7 +21578,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21781,7 +21784,7 @@
         <v>122</v>
       </c>
       <c r="P101" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q101">
         <v>3.25</v>
@@ -21987,7 +21990,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q102">
         <v>2.25</v>
@@ -22477,7 +22480,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ104">
         <v>1.13</v>
@@ -22605,7 +22608,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q105">
         <v>2.38</v>
@@ -22811,7 +22814,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23017,7 +23020,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -23223,7 +23226,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23429,7 +23432,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q109">
         <v>2.3</v>
@@ -23841,7 +23844,7 @@
         <v>122</v>
       </c>
       <c r="P111" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -24253,7 +24256,7 @@
         <v>164</v>
       </c>
       <c r="P113" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q113">
         <v>3.6</v>
@@ -24334,7 +24337,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ113">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR113">
         <v>1.23</v>
@@ -24665,7 +24668,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24871,7 +24874,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q116">
         <v>3.25</v>
@@ -25901,7 +25904,7 @@
         <v>167</v>
       </c>
       <c r="P121" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26107,7 +26110,7 @@
         <v>168</v>
       </c>
       <c r="P122" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26313,7 +26316,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26519,7 +26522,7 @@
         <v>90</v>
       </c>
       <c r="P124" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -27137,7 +27140,7 @@
         <v>171</v>
       </c>
       <c r="P127" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27343,7 +27346,7 @@
         <v>90</v>
       </c>
       <c r="P128" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q128">
         <v>2.88</v>
@@ -27549,7 +27552,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27627,7 +27630,7 @@
         <v>0.83</v>
       </c>
       <c r="AP129">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="AQ129">
         <v>0.86</v>
@@ -27755,7 +27758,7 @@
         <v>90</v>
       </c>
       <c r="P130" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -27961,7 +27964,7 @@
         <v>173</v>
       </c>
       <c r="P131" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28167,7 +28170,7 @@
         <v>174</v>
       </c>
       <c r="P132" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -28373,7 +28376,7 @@
         <v>175</v>
       </c>
       <c r="P133" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -28579,7 +28582,7 @@
         <v>176</v>
       </c>
       <c r="P134" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28785,7 +28788,7 @@
         <v>177</v>
       </c>
       <c r="P135" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -29197,7 +29200,7 @@
         <v>179</v>
       </c>
       <c r="P137" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -29403,7 +29406,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29609,7 +29612,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -29815,7 +29818,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q140">
         <v>3</v>
@@ -30021,7 +30024,7 @@
         <v>180</v>
       </c>
       <c r="P141" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30177,6 +30180,212 @@
         <v>0</v>
       </c>
       <c r="BP141">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7778631</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45787.08333333334</v>
+      </c>
+      <c r="F142">
+        <v>15</v>
+      </c>
+      <c r="G142" t="s">
+        <v>71</v>
+      </c>
+      <c r="H142" t="s">
+        <v>85</v>
+      </c>
+      <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <v>3</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>3</v>
+      </c>
+      <c r="O142" t="s">
+        <v>181</v>
+      </c>
+      <c r="P142" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q142">
+        <v>3.2</v>
+      </c>
+      <c r="R142">
+        <v>2.1</v>
+      </c>
+      <c r="S142">
+        <v>3.5</v>
+      </c>
+      <c r="T142">
+        <v>1.44</v>
+      </c>
+      <c r="U142">
+        <v>2.63</v>
+      </c>
+      <c r="V142">
+        <v>3.25</v>
+      </c>
+      <c r="W142">
+        <v>1.33</v>
+      </c>
+      <c r="X142">
+        <v>9</v>
+      </c>
+      <c r="Y142">
+        <v>1.07</v>
+      </c>
+      <c r="Z142">
+        <v>1.97</v>
+      </c>
+      <c r="AA142">
+        <v>3.4</v>
+      </c>
+      <c r="AB142">
+        <v>3.15</v>
+      </c>
+      <c r="AC142">
+        <v>0</v>
+      </c>
+      <c r="AD142">
+        <v>0</v>
+      </c>
+      <c r="AE142">
+        <v>0</v>
+      </c>
+      <c r="AF142">
+        <v>0</v>
+      </c>
+      <c r="AG142">
+        <v>1.73</v>
+      </c>
+      <c r="AH142">
+        <v>1.97</v>
+      </c>
+      <c r="AI142">
+        <v>1.83</v>
+      </c>
+      <c r="AJ142">
+        <v>1.83</v>
+      </c>
+      <c r="AK142">
+        <v>0</v>
+      </c>
+      <c r="AL142">
+        <v>0</v>
+      </c>
+      <c r="AM142">
+        <v>0</v>
+      </c>
+      <c r="AN142">
+        <v>2.43</v>
+      </c>
+      <c r="AO142">
+        <v>2.17</v>
+      </c>
+      <c r="AP142">
+        <v>2.5</v>
+      </c>
+      <c r="AQ142">
+        <v>1.86</v>
+      </c>
+      <c r="AR142">
+        <v>1.79</v>
+      </c>
+      <c r="AS142">
+        <v>1.44</v>
+      </c>
+      <c r="AT142">
+        <v>3.23</v>
+      </c>
+      <c r="AU142">
+        <v>7</v>
+      </c>
+      <c r="AV142">
+        <v>0</v>
+      </c>
+      <c r="AW142">
+        <v>8</v>
+      </c>
+      <c r="AX142">
+        <v>14</v>
+      </c>
+      <c r="AY142">
+        <v>19</v>
+      </c>
+      <c r="AZ142">
+        <v>19</v>
+      </c>
+      <c r="BA142">
+        <v>9</v>
+      </c>
+      <c r="BB142">
+        <v>6</v>
+      </c>
+      <c r="BC142">
+        <v>15</v>
+      </c>
+      <c r="BD142">
+        <v>0</v>
+      </c>
+      <c r="BE142">
+        <v>0</v>
+      </c>
+      <c r="BF142">
+        <v>0</v>
+      </c>
+      <c r="BG142">
+        <v>0</v>
+      </c>
+      <c r="BH142">
+        <v>0</v>
+      </c>
+      <c r="BI142">
+        <v>0</v>
+      </c>
+      <c r="BJ142">
+        <v>0</v>
+      </c>
+      <c r="BK142">
+        <v>0</v>
+      </c>
+      <c r="BL142">
+        <v>0</v>
+      </c>
+      <c r="BM142">
+        <v>0</v>
+      </c>
+      <c r="BN142">
+        <v>0</v>
+      </c>
+      <c r="BO142">
+        <v>0</v>
+      </c>
+      <c r="BP142">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="259">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,21 @@
     <t>['16', '31', '77']</t>
   </si>
   <si>
+    <t>['74']</t>
+  </si>
+  <si>
+    <t>['90+9']</t>
+  </si>
+  <si>
+    <t>['43', '90+2']</t>
+  </si>
+  <si>
+    <t>['15', '32']</t>
+  </si>
+  <si>
+    <t>['30', '70']</t>
+  </si>
+  <si>
     <t>['31', '60']</t>
   </si>
   <si>
@@ -770,6 +785,12 @@
   </si>
   <si>
     <t>['5', '53']</t>
+  </si>
+  <si>
+    <t>['86']</t>
+  </si>
+  <si>
+    <t>['6', '18']</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP142"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1390,7 +1411,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1468,10 +1489,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1883,7 +1904,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ4">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2008,7 +2029,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2086,7 +2107,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ5">
         <v>1.43</v>
@@ -2214,7 +2235,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>4.1</v>
@@ -2498,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ7">
         <v>1.86</v>
@@ -2626,7 +2647,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q8">
         <v>2.28</v>
@@ -2704,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
         <v>1.33</v>
@@ -3116,10 +3137,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3325,7 +3346,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ11">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3528,7 +3549,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>1.17</v>
@@ -3943,7 +3964,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ14">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR14">
         <v>2.25</v>
@@ -4068,7 +4089,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q15">
         <v>4.1</v>
@@ -4355,7 +4376,7 @@
         <v>1</v>
       </c>
       <c r="AQ16">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4558,7 +4579,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ17">
         <v>1.86</v>
@@ -4764,7 +4785,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4970,10 +4991,10 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR19">
         <v>1.74</v>
@@ -5304,7 +5325,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q21">
         <v>4.4</v>
@@ -5385,7 +5406,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ21">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR21">
         <v>1.32</v>
@@ -5591,7 +5612,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ22">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5716,7 +5737,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5794,7 +5815,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ23">
         <v>2.43</v>
@@ -6000,7 +6021,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ24">
         <v>1.14</v>
@@ -6128,7 +6149,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6415,7 +6436,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ26">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR26">
         <v>0.85</v>
@@ -6540,7 +6561,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6824,7 +6845,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ28">
         <v>1.5</v>
@@ -7030,10 +7051,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ29">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7236,10 +7257,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR30">
         <v>1.54</v>
@@ -7445,7 +7466,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ31">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR31">
         <v>1.27</v>
@@ -7570,7 +7591,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q32">
         <v>3.45</v>
@@ -7776,7 +7797,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7857,7 +7878,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ33">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR33">
         <v>1.88</v>
@@ -7982,7 +8003,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8188,7 +8209,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8269,7 +8290,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ35">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR35">
         <v>0</v>
@@ -8394,7 +8415,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q36">
         <v>2.8</v>
@@ -8475,7 +8496,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -8678,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ37">
         <v>1.17</v>
@@ -8806,7 +8827,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -8887,7 +8908,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ38">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR38">
         <v>1.1</v>
@@ -9090,7 +9111,7 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ39">
         <v>1.14</v>
@@ -9296,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ40">
         <v>1.33</v>
@@ -9630,7 +9651,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9711,7 +9732,7 @@
         <v>1</v>
       </c>
       <c r="AQ42">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR42">
         <v>0</v>
@@ -10120,10 +10141,10 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ44">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR44">
         <v>1.37</v>
@@ -10326,7 +10347,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ45">
         <v>1.43</v>
@@ -10532,7 +10553,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ46">
         <v>1.5</v>
@@ -10660,7 +10681,7 @@
         <v>105</v>
       </c>
       <c r="P47" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10866,7 +10887,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -10944,7 +10965,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
         <v>1.86</v>
@@ -11072,7 +11093,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -11153,7 +11174,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ49">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR49">
         <v>1.15</v>
@@ -11356,7 +11377,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ50">
         <v>0.86</v>
@@ -11484,7 +11505,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q51">
         <v>1.91</v>
@@ -11565,7 +11586,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ51">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR51">
         <v>1.69</v>
@@ -11690,7 +11711,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11896,7 +11917,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12180,10 +12201,10 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ54">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR54">
         <v>2.36</v>
@@ -12386,7 +12407,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ55">
         <v>0.86</v>
@@ -12514,7 +12535,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q56">
         <v>4.33</v>
@@ -12595,7 +12616,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ56">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR56">
         <v>1.03</v>
@@ -12798,7 +12819,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ57">
         <v>2.43</v>
@@ -13132,7 +13153,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13213,7 +13234,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ59">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR59">
         <v>1.09</v>
@@ -13544,7 +13565,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13625,7 +13646,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ61">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR61">
         <v>1.1</v>
@@ -13750,7 +13771,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -13831,7 +13852,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ62">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -14162,7 +14183,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14240,7 +14261,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ64">
         <v>1.14</v>
@@ -14368,7 +14389,7 @@
         <v>90</v>
       </c>
       <c r="P65" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q65">
         <v>3.6</v>
@@ -14446,7 +14467,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ65">
         <v>1.86</v>
@@ -14574,7 +14595,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q66">
         <v>4.75</v>
@@ -14780,7 +14801,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14858,7 +14879,7 @@
         <v>0.75</v>
       </c>
       <c r="AP67">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -15067,7 +15088,7 @@
         <v>1</v>
       </c>
       <c r="AQ68">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR68">
         <v>1.93</v>
@@ -15270,10 +15291,10 @@
         <v>3</v>
       </c>
       <c r="AP69">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ69">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR69">
         <v>1.3</v>
@@ -15479,7 +15500,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ70">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR70">
         <v>1.09</v>
@@ -15682,7 +15703,7 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ71">
         <v>1.43</v>
@@ -15891,7 +15912,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ72">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR72">
         <v>1.51</v>
@@ -16303,7 +16324,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ74">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR74">
         <v>1.3</v>
@@ -16712,10 +16733,10 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ76">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR76">
         <v>1.39</v>
@@ -17252,7 +17273,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17333,7 +17354,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ79">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR79">
         <v>2.01</v>
@@ -17664,7 +17685,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17742,7 +17763,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -18076,7 +18097,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18154,7 +18175,7 @@
         <v>0.8</v>
       </c>
       <c r="AP83">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ83">
         <v>1</v>
@@ -18360,10 +18381,10 @@
         <v>1.2</v>
       </c>
       <c r="AP84">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR84">
         <v>1.56</v>
@@ -18694,7 +18715,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18900,7 +18921,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -18978,10 +18999,10 @@
         <v>0</v>
       </c>
       <c r="AP87">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ87">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR87">
         <v>1.26</v>
@@ -19106,7 +19127,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19187,7 +19208,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ88">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR88">
         <v>1.22</v>
@@ -19312,7 +19333,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19390,7 +19411,7 @@
         <v>0.33</v>
       </c>
       <c r="AP89">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ89">
         <v>1.17</v>
@@ -19596,7 +19617,7 @@
         <v>1.33</v>
       </c>
       <c r="AP90">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ90">
         <v>1.33</v>
@@ -19805,7 +19826,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ91">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR91">
         <v>1.1</v>
@@ -19930,7 +19951,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20136,7 +20157,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20214,10 +20235,10 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ93">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR93">
         <v>1.32</v>
@@ -20342,7 +20363,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q94">
         <v>2.3</v>
@@ -20423,7 +20444,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ94">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR94">
         <v>1.38</v>
@@ -20548,7 +20569,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20832,7 +20853,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
         <v>1.43</v>
@@ -20960,7 +20981,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q97">
         <v>3.25</v>
@@ -21038,7 +21059,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ97">
         <v>1.43</v>
@@ -21247,7 +21268,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ98">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR98">
         <v>1.74</v>
@@ -21578,7 +21599,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21659,7 +21680,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ100">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR100">
         <v>1.51</v>
@@ -21784,7 +21805,7 @@
         <v>122</v>
       </c>
       <c r="P101" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q101">
         <v>3.25</v>
@@ -21862,7 +21883,7 @@
         <v>0.25</v>
       </c>
       <c r="AP101">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ101">
         <v>1.14</v>
@@ -21990,7 +22011,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q102">
         <v>2.25</v>
@@ -22071,7 +22092,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ102">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR102">
         <v>1.46</v>
@@ -22274,10 +22295,10 @@
         <v>0.8</v>
       </c>
       <c r="AP103">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ103">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR103">
         <v>1.59</v>
@@ -22483,7 +22504,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ104">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR104">
         <v>1.89</v>
@@ -22608,7 +22629,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q105">
         <v>2.38</v>
@@ -22689,7 +22710,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ105">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR105">
         <v>1.64</v>
@@ -22814,7 +22835,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22892,10 +22913,10 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ106">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR106">
         <v>1.3</v>
@@ -23020,7 +23041,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -23226,7 +23247,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23304,7 +23325,7 @@
         <v>1.17</v>
       </c>
       <c r="AP108">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ108">
         <v>1</v>
@@ -23432,7 +23453,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q109">
         <v>2.3</v>
@@ -23510,7 +23531,7 @@
         <v>0.8</v>
       </c>
       <c r="AP109">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ109">
         <v>1.14</v>
@@ -23716,7 +23737,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ110">
         <v>0.86</v>
@@ -23844,7 +23865,7 @@
         <v>122</v>
       </c>
       <c r="P111" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -24128,7 +24149,7 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ112">
         <v>1</v>
@@ -24256,7 +24277,7 @@
         <v>164</v>
       </c>
       <c r="P113" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q113">
         <v>3.6</v>
@@ -24540,7 +24561,7 @@
         <v>2.6</v>
       </c>
       <c r="AP114">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ114">
         <v>2.43</v>
@@ -24668,7 +24689,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24874,7 +24895,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q116">
         <v>3.25</v>
@@ -25364,7 +25385,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ118">
         <v>1.43</v>
@@ -25573,7 +25594,7 @@
         <v>1</v>
       </c>
       <c r="AQ119">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR119">
         <v>1.4</v>
@@ -25776,10 +25797,10 @@
         <v>0.4</v>
       </c>
       <c r="AP120">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ120">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR120">
         <v>1.38</v>
@@ -25904,7 +25925,7 @@
         <v>167</v>
       </c>
       <c r="P121" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -25985,7 +26006,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ121">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR121">
         <v>1.17</v>
@@ -26110,7 +26131,7 @@
         <v>168</v>
       </c>
       <c r="P122" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26191,7 +26212,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ122">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR122">
         <v>1.51</v>
@@ -26316,7 +26337,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26394,10 +26415,10 @@
         <v>0.86</v>
       </c>
       <c r="AP123">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ123">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR123">
         <v>1.58</v>
@@ -26522,7 +26543,7 @@
         <v>90</v>
       </c>
       <c r="P124" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -27012,10 +27033,10 @@
         <v>2.17</v>
       </c>
       <c r="AP126">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ126">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR126">
         <v>1.32</v>
@@ -27140,7 +27161,7 @@
         <v>171</v>
       </c>
       <c r="P127" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27218,7 +27239,7 @@
         <v>0.8</v>
       </c>
       <c r="AP127">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AQ127">
         <v>1.14</v>
@@ -27346,7 +27367,7 @@
         <v>90</v>
       </c>
       <c r="P128" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q128">
         <v>2.88</v>
@@ -27427,7 +27448,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ128">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR128">
         <v>1.41</v>
@@ -27552,7 +27573,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27758,7 +27779,7 @@
         <v>90</v>
       </c>
       <c r="P130" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -27964,7 +27985,7 @@
         <v>173</v>
       </c>
       <c r="P131" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28042,10 +28063,10 @@
         <v>1.2</v>
       </c>
       <c r="AP131">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ131">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR131">
         <v>2.03</v>
@@ -28170,7 +28191,7 @@
         <v>174</v>
       </c>
       <c r="P132" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -28251,7 +28272,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ132">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR132">
         <v>1.48</v>
@@ -28376,7 +28397,7 @@
         <v>175</v>
       </c>
       <c r="P133" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -28454,7 +28475,7 @@
         <v>0.67</v>
       </c>
       <c r="AP133">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ133">
         <v>1</v>
@@ -28582,7 +28603,7 @@
         <v>176</v>
       </c>
       <c r="P134" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28788,7 +28809,7 @@
         <v>177</v>
       </c>
       <c r="P135" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -29075,7 +29096,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ136">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR136">
         <v>1.4</v>
@@ -29200,7 +29221,7 @@
         <v>179</v>
       </c>
       <c r="P137" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -29406,7 +29427,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29612,7 +29633,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -29693,7 +29714,7 @@
         <v>1</v>
       </c>
       <c r="AQ139">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR139">
         <v>1.74</v>
@@ -29818,7 +29839,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q140">
         <v>3</v>
@@ -29896,7 +29917,7 @@
         <v>0.8</v>
       </c>
       <c r="AP140">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AQ140">
         <v>1.17</v>
@@ -30024,7 +30045,7 @@
         <v>180</v>
       </c>
       <c r="P141" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30386,6 +30407,1860 @@
         <v>0</v>
       </c>
       <c r="BP142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7778629</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45788.04166666666</v>
+      </c>
+      <c r="F143">
+        <v>15</v>
+      </c>
+      <c r="G143" t="s">
+        <v>70</v>
+      </c>
+      <c r="H143" t="s">
+        <v>87</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>1</v>
+      </c>
+      <c r="L143">
+        <v>1</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>2</v>
+      </c>
+      <c r="O143" t="s">
+        <v>182</v>
+      </c>
+      <c r="P143" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q143">
+        <v>3.1</v>
+      </c>
+      <c r="R143">
+        <v>2.1</v>
+      </c>
+      <c r="S143">
+        <v>3.4</v>
+      </c>
+      <c r="T143">
+        <v>1.4</v>
+      </c>
+      <c r="U143">
+        <v>2.75</v>
+      </c>
+      <c r="V143">
+        <v>3</v>
+      </c>
+      <c r="W143">
+        <v>1.36</v>
+      </c>
+      <c r="X143">
+        <v>8</v>
+      </c>
+      <c r="Y143">
+        <v>1.08</v>
+      </c>
+      <c r="Z143">
+        <v>2.34</v>
+      </c>
+      <c r="AA143">
+        <v>3.21</v>
+      </c>
+      <c r="AB143">
+        <v>2.62</v>
+      </c>
+      <c r="AC143">
+        <v>0</v>
+      </c>
+      <c r="AD143">
+        <v>0</v>
+      </c>
+      <c r="AE143">
+        <v>0</v>
+      </c>
+      <c r="AF143">
+        <v>0</v>
+      </c>
+      <c r="AG143">
+        <v>1.84</v>
+      </c>
+      <c r="AH143">
+        <v>1.86</v>
+      </c>
+      <c r="AI143">
+        <v>1.8</v>
+      </c>
+      <c r="AJ143">
+        <v>1.91</v>
+      </c>
+      <c r="AK143">
+        <v>0</v>
+      </c>
+      <c r="AL143">
+        <v>0</v>
+      </c>
+      <c r="AM143">
+        <v>0</v>
+      </c>
+      <c r="AN143">
+        <v>0.86</v>
+      </c>
+      <c r="AO143">
+        <v>1.13</v>
+      </c>
+      <c r="AP143">
+        <v>0.88</v>
+      </c>
+      <c r="AQ143">
+        <v>1.11</v>
+      </c>
+      <c r="AR143">
+        <v>1.61</v>
+      </c>
+      <c r="AS143">
+        <v>1.34</v>
+      </c>
+      <c r="AT143">
+        <v>2.95</v>
+      </c>
+      <c r="AU143">
+        <v>5</v>
+      </c>
+      <c r="AV143">
+        <v>6</v>
+      </c>
+      <c r="AW143">
+        <v>5</v>
+      </c>
+      <c r="AX143">
+        <v>3</v>
+      </c>
+      <c r="AY143">
+        <v>10</v>
+      </c>
+      <c r="AZ143">
+        <v>9</v>
+      </c>
+      <c r="BA143">
+        <v>4</v>
+      </c>
+      <c r="BB143">
+        <v>3</v>
+      </c>
+      <c r="BC143">
+        <v>7</v>
+      </c>
+      <c r="BD143">
+        <v>0</v>
+      </c>
+      <c r="BE143">
+        <v>0</v>
+      </c>
+      <c r="BF143">
+        <v>0</v>
+      </c>
+      <c r="BG143">
+        <v>0</v>
+      </c>
+      <c r="BH143">
+        <v>0</v>
+      </c>
+      <c r="BI143">
+        <v>0</v>
+      </c>
+      <c r="BJ143">
+        <v>0</v>
+      </c>
+      <c r="BK143">
+        <v>0</v>
+      </c>
+      <c r="BL143">
+        <v>0</v>
+      </c>
+      <c r="BM143">
+        <v>0</v>
+      </c>
+      <c r="BN143">
+        <v>0</v>
+      </c>
+      <c r="BO143">
+        <v>0</v>
+      </c>
+      <c r="BP143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7778633</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45788.04166666666</v>
+      </c>
+      <c r="F144">
+        <v>15</v>
+      </c>
+      <c r="G144" t="s">
+        <v>73</v>
+      </c>
+      <c r="H144" t="s">
+        <v>74</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>143</v>
+      </c>
+      <c r="P144" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q144">
+        <v>2.63</v>
+      </c>
+      <c r="R144">
+        <v>2.2</v>
+      </c>
+      <c r="S144">
+        <v>4</v>
+      </c>
+      <c r="T144">
+        <v>1.36</v>
+      </c>
+      <c r="U144">
+        <v>3</v>
+      </c>
+      <c r="V144">
+        <v>2.75</v>
+      </c>
+      <c r="W144">
+        <v>1.4</v>
+      </c>
+      <c r="X144">
+        <v>8</v>
+      </c>
+      <c r="Y144">
+        <v>1.08</v>
+      </c>
+      <c r="Z144">
+        <v>1.78</v>
+      </c>
+      <c r="AA144">
+        <v>3.55</v>
+      </c>
+      <c r="AB144">
+        <v>3.6</v>
+      </c>
+      <c r="AC144">
+        <v>2.81</v>
+      </c>
+      <c r="AD144">
+        <v>1.45</v>
+      </c>
+      <c r="AE144">
+        <v>1.98</v>
+      </c>
+      <c r="AF144">
+        <v>1.86</v>
+      </c>
+      <c r="AG144">
+        <v>1.83</v>
+      </c>
+      <c r="AH144">
+        <v>1.87</v>
+      </c>
+      <c r="AI144">
+        <v>1.8</v>
+      </c>
+      <c r="AJ144">
+        <v>1.91</v>
+      </c>
+      <c r="AK144">
+        <v>0</v>
+      </c>
+      <c r="AL144">
+        <v>0</v>
+      </c>
+      <c r="AM144">
+        <v>0</v>
+      </c>
+      <c r="AN144">
+        <v>1.86</v>
+      </c>
+      <c r="AO144">
+        <v>0.86</v>
+      </c>
+      <c r="AP144">
+        <v>2</v>
+      </c>
+      <c r="AQ144">
+        <v>0.75</v>
+      </c>
+      <c r="AR144">
+        <v>1.35</v>
+      </c>
+      <c r="AS144">
+        <v>1.44</v>
+      </c>
+      <c r="AT144">
+        <v>2.79</v>
+      </c>
+      <c r="AU144">
+        <v>4</v>
+      </c>
+      <c r="AV144">
+        <v>5</v>
+      </c>
+      <c r="AW144">
+        <v>9</v>
+      </c>
+      <c r="AX144">
+        <v>8</v>
+      </c>
+      <c r="AY144">
+        <v>13</v>
+      </c>
+      <c r="AZ144">
+        <v>13</v>
+      </c>
+      <c r="BA144">
+        <v>5</v>
+      </c>
+      <c r="BB144">
+        <v>6</v>
+      </c>
+      <c r="BC144">
+        <v>11</v>
+      </c>
+      <c r="BD144">
+        <v>0</v>
+      </c>
+      <c r="BE144">
+        <v>0</v>
+      </c>
+      <c r="BF144">
+        <v>0</v>
+      </c>
+      <c r="BG144">
+        <v>0</v>
+      </c>
+      <c r="BH144">
+        <v>0</v>
+      </c>
+      <c r="BI144">
+        <v>0</v>
+      </c>
+      <c r="BJ144">
+        <v>0</v>
+      </c>
+      <c r="BK144">
+        <v>0</v>
+      </c>
+      <c r="BL144">
+        <v>0</v>
+      </c>
+      <c r="BM144">
+        <v>0</v>
+      </c>
+      <c r="BN144">
+        <v>0</v>
+      </c>
+      <c r="BO144">
+        <v>0</v>
+      </c>
+      <c r="BP144">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7778637</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45788.08333333334</v>
+      </c>
+      <c r="F145">
+        <v>15</v>
+      </c>
+      <c r="G145" t="s">
+        <v>76</v>
+      </c>
+      <c r="H145" t="s">
+        <v>88</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145" t="s">
+        <v>183</v>
+      </c>
+      <c r="P145" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q145">
+        <v>2.38</v>
+      </c>
+      <c r="R145">
+        <v>2.3</v>
+      </c>
+      <c r="S145">
+        <v>4.33</v>
+      </c>
+      <c r="T145">
+        <v>1.33</v>
+      </c>
+      <c r="U145">
+        <v>3.25</v>
+      </c>
+      <c r="V145">
+        <v>2.63</v>
+      </c>
+      <c r="W145">
+        <v>1.44</v>
+      </c>
+      <c r="X145">
+        <v>6.5</v>
+      </c>
+      <c r="Y145">
+        <v>1.11</v>
+      </c>
+      <c r="Z145">
+        <v>1.81</v>
+      </c>
+      <c r="AA145">
+        <v>3.61</v>
+      </c>
+      <c r="AB145">
+        <v>3.47</v>
+      </c>
+      <c r="AC145">
+        <v>0</v>
+      </c>
+      <c r="AD145">
+        <v>0</v>
+      </c>
+      <c r="AE145">
+        <v>3.88</v>
+      </c>
+      <c r="AF145">
+        <v>1.26</v>
+      </c>
+      <c r="AG145">
+        <v>1.7</v>
+      </c>
+      <c r="AH145">
+        <v>1.95</v>
+      </c>
+      <c r="AI145">
+        <v>1.73</v>
+      </c>
+      <c r="AJ145">
+        <v>2</v>
+      </c>
+      <c r="AK145">
+        <v>0</v>
+      </c>
+      <c r="AL145">
+        <v>0</v>
+      </c>
+      <c r="AM145">
+        <v>0</v>
+      </c>
+      <c r="AN145">
+        <v>1.86</v>
+      </c>
+      <c r="AO145">
+        <v>1</v>
+      </c>
+      <c r="AP145">
+        <v>1.75</v>
+      </c>
+      <c r="AQ145">
+        <v>1</v>
+      </c>
+      <c r="AR145">
+        <v>2.16</v>
+      </c>
+      <c r="AS145">
+        <v>1.35</v>
+      </c>
+      <c r="AT145">
+        <v>3.51</v>
+      </c>
+      <c r="AU145">
+        <v>3</v>
+      </c>
+      <c r="AV145">
+        <v>3</v>
+      </c>
+      <c r="AW145">
+        <v>9</v>
+      </c>
+      <c r="AX145">
+        <v>4</v>
+      </c>
+      <c r="AY145">
+        <v>12</v>
+      </c>
+      <c r="AZ145">
+        <v>7</v>
+      </c>
+      <c r="BA145">
+        <v>6</v>
+      </c>
+      <c r="BB145">
+        <v>5</v>
+      </c>
+      <c r="BC145">
+        <v>11</v>
+      </c>
+      <c r="BD145">
+        <v>0</v>
+      </c>
+      <c r="BE145">
+        <v>0</v>
+      </c>
+      <c r="BF145">
+        <v>0</v>
+      </c>
+      <c r="BG145">
+        <v>0</v>
+      </c>
+      <c r="BH145">
+        <v>0</v>
+      </c>
+      <c r="BI145">
+        <v>0</v>
+      </c>
+      <c r="BJ145">
+        <v>0</v>
+      </c>
+      <c r="BK145">
+        <v>0</v>
+      </c>
+      <c r="BL145">
+        <v>0</v>
+      </c>
+      <c r="BM145">
+        <v>0</v>
+      </c>
+      <c r="BN145">
+        <v>0</v>
+      </c>
+      <c r="BO145">
+        <v>0</v>
+      </c>
+      <c r="BP145">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7778636</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45788.08333333334</v>
+      </c>
+      <c r="F146">
+        <v>15</v>
+      </c>
+      <c r="G146" t="s">
+        <v>75</v>
+      </c>
+      <c r="H146" t="s">
+        <v>72</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>0</v>
+      </c>
+      <c r="O146" t="s">
+        <v>90</v>
+      </c>
+      <c r="P146" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q146">
+        <v>2.88</v>
+      </c>
+      <c r="R146">
+        <v>2</v>
+      </c>
+      <c r="S146">
+        <v>4.5</v>
+      </c>
+      <c r="T146">
+        <v>1.5</v>
+      </c>
+      <c r="U146">
+        <v>2.5</v>
+      </c>
+      <c r="V146">
+        <v>3.5</v>
+      </c>
+      <c r="W146">
+        <v>1.29</v>
+      </c>
+      <c r="X146">
+        <v>11</v>
+      </c>
+      <c r="Y146">
+        <v>1.05</v>
+      </c>
+      <c r="Z146">
+        <v>2.09</v>
+      </c>
+      <c r="AA146">
+        <v>3.23</v>
+      </c>
+      <c r="AB146">
+        <v>3.03</v>
+      </c>
+      <c r="AC146">
+        <v>2.86</v>
+      </c>
+      <c r="AD146">
+        <v>1.44</v>
+      </c>
+      <c r="AE146">
+        <v>1.5</v>
+      </c>
+      <c r="AF146">
+        <v>2.4</v>
+      </c>
+      <c r="AG146">
+        <v>1.91</v>
+      </c>
+      <c r="AH146">
+        <v>1.79</v>
+      </c>
+      <c r="AI146">
+        <v>2.1</v>
+      </c>
+      <c r="AJ146">
+        <v>1.67</v>
+      </c>
+      <c r="AK146">
+        <v>0</v>
+      </c>
+      <c r="AL146">
+        <v>0</v>
+      </c>
+      <c r="AM146">
+        <v>0</v>
+      </c>
+      <c r="AN146">
+        <v>1.75</v>
+      </c>
+      <c r="AO146">
+        <v>1.14</v>
+      </c>
+      <c r="AP146">
+        <v>1.67</v>
+      </c>
+      <c r="AQ146">
+        <v>1.13</v>
+      </c>
+      <c r="AR146">
+        <v>1.32</v>
+      </c>
+      <c r="AS146">
+        <v>1.22</v>
+      </c>
+      <c r="AT146">
+        <v>2.54</v>
+      </c>
+      <c r="AU146">
+        <v>2</v>
+      </c>
+      <c r="AV146">
+        <v>3</v>
+      </c>
+      <c r="AW146">
+        <v>2</v>
+      </c>
+      <c r="AX146">
+        <v>3</v>
+      </c>
+      <c r="AY146">
+        <v>4</v>
+      </c>
+      <c r="AZ146">
+        <v>6</v>
+      </c>
+      <c r="BA146">
+        <v>7</v>
+      </c>
+      <c r="BB146">
+        <v>2</v>
+      </c>
+      <c r="BC146">
+        <v>9</v>
+      </c>
+      <c r="BD146">
+        <v>0</v>
+      </c>
+      <c r="BE146">
+        <v>0</v>
+      </c>
+      <c r="BF146">
+        <v>0</v>
+      </c>
+      <c r="BG146">
+        <v>0</v>
+      </c>
+      <c r="BH146">
+        <v>0</v>
+      </c>
+      <c r="BI146">
+        <v>0</v>
+      </c>
+      <c r="BJ146">
+        <v>0</v>
+      </c>
+      <c r="BK146">
+        <v>0</v>
+      </c>
+      <c r="BL146">
+        <v>0</v>
+      </c>
+      <c r="BM146">
+        <v>0</v>
+      </c>
+      <c r="BN146">
+        <v>0</v>
+      </c>
+      <c r="BO146">
+        <v>0</v>
+      </c>
+      <c r="BP146">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7778635</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45788.08333333334</v>
+      </c>
+      <c r="F147">
+        <v>15</v>
+      </c>
+      <c r="G147" t="s">
+        <v>78</v>
+      </c>
+      <c r="H147" t="s">
+        <v>80</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>0</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>1</v>
+      </c>
+      <c r="N147">
+        <v>1</v>
+      </c>
+      <c r="O147" t="s">
+        <v>90</v>
+      </c>
+      <c r="P147" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q147">
+        <v>3.1</v>
+      </c>
+      <c r="R147">
+        <v>2.1</v>
+      </c>
+      <c r="S147">
+        <v>3.5</v>
+      </c>
+      <c r="T147">
+        <v>1.4</v>
+      </c>
+      <c r="U147">
+        <v>2.75</v>
+      </c>
+      <c r="V147">
+        <v>3</v>
+      </c>
+      <c r="W147">
+        <v>1.36</v>
+      </c>
+      <c r="X147">
+        <v>8</v>
+      </c>
+      <c r="Y147">
+        <v>1.08</v>
+      </c>
+      <c r="Z147">
+        <v>2.44</v>
+      </c>
+      <c r="AA147">
+        <v>3.27</v>
+      </c>
+      <c r="AB147">
+        <v>2.48</v>
+      </c>
+      <c r="AC147">
+        <v>0</v>
+      </c>
+      <c r="AD147">
+        <v>0</v>
+      </c>
+      <c r="AE147">
+        <v>4.02</v>
+      </c>
+      <c r="AF147">
+        <v>1.25</v>
+      </c>
+      <c r="AG147">
+        <v>1.79</v>
+      </c>
+      <c r="AH147">
+        <v>1.91</v>
+      </c>
+      <c r="AI147">
+        <v>1.8</v>
+      </c>
+      <c r="AJ147">
+        <v>1.91</v>
+      </c>
+      <c r="AK147">
+        <v>0</v>
+      </c>
+      <c r="AL147">
+        <v>0</v>
+      </c>
+      <c r="AM147">
+        <v>0</v>
+      </c>
+      <c r="AN147">
+        <v>1.14</v>
+      </c>
+      <c r="AO147">
+        <v>2</v>
+      </c>
+      <c r="AP147">
+        <v>1</v>
+      </c>
+      <c r="AQ147">
+        <v>2.13</v>
+      </c>
+      <c r="AR147">
+        <v>1.55</v>
+      </c>
+      <c r="AS147">
+        <v>1.18</v>
+      </c>
+      <c r="AT147">
+        <v>2.73</v>
+      </c>
+      <c r="AU147">
+        <v>0</v>
+      </c>
+      <c r="AV147">
+        <v>4</v>
+      </c>
+      <c r="AW147">
+        <v>17</v>
+      </c>
+      <c r="AX147">
+        <v>4</v>
+      </c>
+      <c r="AY147">
+        <v>21</v>
+      </c>
+      <c r="AZ147">
+        <v>10</v>
+      </c>
+      <c r="BA147">
+        <v>5</v>
+      </c>
+      <c r="BB147">
+        <v>6</v>
+      </c>
+      <c r="BC147">
+        <v>11</v>
+      </c>
+      <c r="BD147">
+        <v>0</v>
+      </c>
+      <c r="BE147">
+        <v>0</v>
+      </c>
+      <c r="BF147">
+        <v>0</v>
+      </c>
+      <c r="BG147">
+        <v>0</v>
+      </c>
+      <c r="BH147">
+        <v>0</v>
+      </c>
+      <c r="BI147">
+        <v>0</v>
+      </c>
+      <c r="BJ147">
+        <v>0</v>
+      </c>
+      <c r="BK147">
+        <v>0</v>
+      </c>
+      <c r="BL147">
+        <v>0</v>
+      </c>
+      <c r="BM147">
+        <v>0</v>
+      </c>
+      <c r="BN147">
+        <v>0</v>
+      </c>
+      <c r="BO147">
+        <v>0</v>
+      </c>
+      <c r="BP147">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7778630</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45788.08333333334</v>
+      </c>
+      <c r="F148">
+        <v>15</v>
+      </c>
+      <c r="G148" t="s">
+        <v>84</v>
+      </c>
+      <c r="H148" t="s">
+        <v>89</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>2</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>3</v>
+      </c>
+      <c r="O148" t="s">
+        <v>184</v>
+      </c>
+      <c r="P148" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q148">
+        <v>3</v>
+      </c>
+      <c r="R148">
+        <v>2.05</v>
+      </c>
+      <c r="S148">
+        <v>4</v>
+      </c>
+      <c r="T148">
+        <v>1.5</v>
+      </c>
+      <c r="U148">
+        <v>2.5</v>
+      </c>
+      <c r="V148">
+        <v>3.4</v>
+      </c>
+      <c r="W148">
+        <v>1.3</v>
+      </c>
+      <c r="X148">
+        <v>10</v>
+      </c>
+      <c r="Y148">
+        <v>1.06</v>
+      </c>
+      <c r="Z148">
+        <v>2.04</v>
+      </c>
+      <c r="AA148">
+        <v>3.23</v>
+      </c>
+      <c r="AB148">
+        <v>3.13</v>
+      </c>
+      <c r="AC148">
+        <v>0</v>
+      </c>
+      <c r="AD148">
+        <v>0</v>
+      </c>
+      <c r="AE148">
+        <v>0</v>
+      </c>
+      <c r="AF148">
+        <v>0</v>
+      </c>
+      <c r="AG148">
+        <v>1.91</v>
+      </c>
+      <c r="AH148">
+        <v>1.79</v>
+      </c>
+      <c r="AI148">
+        <v>1.91</v>
+      </c>
+      <c r="AJ148">
+        <v>1.8</v>
+      </c>
+      <c r="AK148">
+        <v>0</v>
+      </c>
+      <c r="AL148">
+        <v>0</v>
+      </c>
+      <c r="AM148">
+        <v>0</v>
+      </c>
+      <c r="AN148">
+        <v>1.86</v>
+      </c>
+      <c r="AO148">
+        <v>0.88</v>
+      </c>
+      <c r="AP148">
+        <v>2</v>
+      </c>
+      <c r="AQ148">
+        <v>0.78</v>
+      </c>
+      <c r="AR148">
+        <v>1.54</v>
+      </c>
+      <c r="AS148">
+        <v>1.44</v>
+      </c>
+      <c r="AT148">
+        <v>2.98</v>
+      </c>
+      <c r="AU148">
+        <v>10</v>
+      </c>
+      <c r="AV148">
+        <v>4</v>
+      </c>
+      <c r="AW148">
+        <v>14</v>
+      </c>
+      <c r="AX148">
+        <v>1</v>
+      </c>
+      <c r="AY148">
+        <v>24</v>
+      </c>
+      <c r="AZ148">
+        <v>5</v>
+      </c>
+      <c r="BA148">
+        <v>10</v>
+      </c>
+      <c r="BB148">
+        <v>3</v>
+      </c>
+      <c r="BC148">
+        <v>13</v>
+      </c>
+      <c r="BD148">
+        <v>0</v>
+      </c>
+      <c r="BE148">
+        <v>0</v>
+      </c>
+      <c r="BF148">
+        <v>0</v>
+      </c>
+      <c r="BG148">
+        <v>0</v>
+      </c>
+      <c r="BH148">
+        <v>0</v>
+      </c>
+      <c r="BI148">
+        <v>0</v>
+      </c>
+      <c r="BJ148">
+        <v>0</v>
+      </c>
+      <c r="BK148">
+        <v>0</v>
+      </c>
+      <c r="BL148">
+        <v>0</v>
+      </c>
+      <c r="BM148">
+        <v>0</v>
+      </c>
+      <c r="BN148">
+        <v>0</v>
+      </c>
+      <c r="BO148">
+        <v>0</v>
+      </c>
+      <c r="BP148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7778634</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45788.08333333334</v>
+      </c>
+      <c r="F149">
+        <v>15</v>
+      </c>
+      <c r="G149" t="s">
+        <v>83</v>
+      </c>
+      <c r="H149" t="s">
+        <v>81</v>
+      </c>
+      <c r="I149">
+        <v>2</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>2</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>2</v>
+      </c>
+      <c r="O149" t="s">
+        <v>185</v>
+      </c>
+      <c r="P149" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q149">
+        <v>2.75</v>
+      </c>
+      <c r="R149">
+        <v>1.95</v>
+      </c>
+      <c r="S149">
+        <v>4.75</v>
+      </c>
+      <c r="T149">
+        <v>1.57</v>
+      </c>
+      <c r="U149">
+        <v>2.25</v>
+      </c>
+      <c r="V149">
+        <v>3.75</v>
+      </c>
+      <c r="W149">
+        <v>1.25</v>
+      </c>
+      <c r="X149">
+        <v>11</v>
+      </c>
+      <c r="Y149">
+        <v>1.05</v>
+      </c>
+      <c r="Z149">
+        <v>1.86</v>
+      </c>
+      <c r="AA149">
+        <v>3.21</v>
+      </c>
+      <c r="AB149">
+        <v>3.69</v>
+      </c>
+      <c r="AC149">
+        <v>0</v>
+      </c>
+      <c r="AD149">
+        <v>0</v>
+      </c>
+      <c r="AE149">
+        <v>1.5</v>
+      </c>
+      <c r="AF149">
+        <v>2.3</v>
+      </c>
+      <c r="AG149">
+        <v>2.17</v>
+      </c>
+      <c r="AH149">
+        <v>1.61</v>
+      </c>
+      <c r="AI149">
+        <v>2.2</v>
+      </c>
+      <c r="AJ149">
+        <v>1.62</v>
+      </c>
+      <c r="AK149">
+        <v>0</v>
+      </c>
+      <c r="AL149">
+        <v>0</v>
+      </c>
+      <c r="AM149">
+        <v>0</v>
+      </c>
+      <c r="AN149">
+        <v>1.67</v>
+      </c>
+      <c r="AO149">
+        <v>0.71</v>
+      </c>
+      <c r="AP149">
+        <v>1.86</v>
+      </c>
+      <c r="AQ149">
+        <v>0.63</v>
+      </c>
+      <c r="AR149">
+        <v>1.34</v>
+      </c>
+      <c r="AS149">
+        <v>1.5</v>
+      </c>
+      <c r="AT149">
+        <v>2.84</v>
+      </c>
+      <c r="AU149">
+        <v>6</v>
+      </c>
+      <c r="AV149">
+        <v>2</v>
+      </c>
+      <c r="AW149">
+        <v>5</v>
+      </c>
+      <c r="AX149">
+        <v>8</v>
+      </c>
+      <c r="AY149">
+        <v>11</v>
+      </c>
+      <c r="AZ149">
+        <v>10</v>
+      </c>
+      <c r="BA149">
+        <v>1</v>
+      </c>
+      <c r="BB149">
+        <v>6</v>
+      </c>
+      <c r="BC149">
+        <v>7</v>
+      </c>
+      <c r="BD149">
+        <v>0</v>
+      </c>
+      <c r="BE149">
+        <v>0</v>
+      </c>
+      <c r="BF149">
+        <v>0</v>
+      </c>
+      <c r="BG149">
+        <v>0</v>
+      </c>
+      <c r="BH149">
+        <v>0</v>
+      </c>
+      <c r="BI149">
+        <v>0</v>
+      </c>
+      <c r="BJ149">
+        <v>0</v>
+      </c>
+      <c r="BK149">
+        <v>0</v>
+      </c>
+      <c r="BL149">
+        <v>0</v>
+      </c>
+      <c r="BM149">
+        <v>0</v>
+      </c>
+      <c r="BN149">
+        <v>0</v>
+      </c>
+      <c r="BO149">
+        <v>0</v>
+      </c>
+      <c r="BP149">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7778632</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45788.08680555555</v>
+      </c>
+      <c r="F150">
+        <v>15</v>
+      </c>
+      <c r="G150" t="s">
+        <v>86</v>
+      </c>
+      <c r="H150" t="s">
+        <v>79</v>
+      </c>
+      <c r="I150">
+        <v>1</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+      <c r="M150">
+        <v>1</v>
+      </c>
+      <c r="N150">
+        <v>2</v>
+      </c>
+      <c r="O150" t="s">
+        <v>180</v>
+      </c>
+      <c r="P150" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q150">
+        <v>3.6</v>
+      </c>
+      <c r="R150">
+        <v>1.91</v>
+      </c>
+      <c r="S150">
+        <v>3.6</v>
+      </c>
+      <c r="T150">
+        <v>1.57</v>
+      </c>
+      <c r="U150">
+        <v>2.25</v>
+      </c>
+      <c r="V150">
+        <v>3.75</v>
+      </c>
+      <c r="W150">
+        <v>1.25</v>
+      </c>
+      <c r="X150">
+        <v>11</v>
+      </c>
+      <c r="Y150">
+        <v>1.05</v>
+      </c>
+      <c r="Z150">
+        <v>2.39</v>
+      </c>
+      <c r="AA150">
+        <v>2.99</v>
+      </c>
+      <c r="AB150">
+        <v>2.72</v>
+      </c>
+      <c r="AC150">
+        <v>0</v>
+      </c>
+      <c r="AD150">
+        <v>0</v>
+      </c>
+      <c r="AE150">
+        <v>1.5</v>
+      </c>
+      <c r="AF150">
+        <v>2.3</v>
+      </c>
+      <c r="AG150">
+        <v>2.35</v>
+      </c>
+      <c r="AH150">
+        <v>1.53</v>
+      </c>
+      <c r="AI150">
+        <v>2.2</v>
+      </c>
+      <c r="AJ150">
+        <v>1.62</v>
+      </c>
+      <c r="AK150">
+        <v>0</v>
+      </c>
+      <c r="AL150">
+        <v>0</v>
+      </c>
+      <c r="AM150">
+        <v>0</v>
+      </c>
+      <c r="AN150">
+        <v>1.14</v>
+      </c>
+      <c r="AO150">
+        <v>1.14</v>
+      </c>
+      <c r="AP150">
+        <v>1.13</v>
+      </c>
+      <c r="AQ150">
+        <v>1.13</v>
+      </c>
+      <c r="AR150">
+        <v>1.24</v>
+      </c>
+      <c r="AS150">
+        <v>1.16</v>
+      </c>
+      <c r="AT150">
+        <v>2.4</v>
+      </c>
+      <c r="AU150">
+        <v>4</v>
+      </c>
+      <c r="AV150">
+        <v>5</v>
+      </c>
+      <c r="AW150">
+        <v>6</v>
+      </c>
+      <c r="AX150">
+        <v>12</v>
+      </c>
+      <c r="AY150">
+        <v>11</v>
+      </c>
+      <c r="AZ150">
+        <v>22</v>
+      </c>
+      <c r="BA150">
+        <v>3</v>
+      </c>
+      <c r="BB150">
+        <v>6</v>
+      </c>
+      <c r="BC150">
+        <v>9</v>
+      </c>
+      <c r="BD150">
+        <v>0</v>
+      </c>
+      <c r="BE150">
+        <v>0</v>
+      </c>
+      <c r="BF150">
+        <v>0</v>
+      </c>
+      <c r="BG150">
+        <v>0</v>
+      </c>
+      <c r="BH150">
+        <v>0</v>
+      </c>
+      <c r="BI150">
+        <v>0</v>
+      </c>
+      <c r="BJ150">
+        <v>0</v>
+      </c>
+      <c r="BK150">
+        <v>0</v>
+      </c>
+      <c r="BL150">
+        <v>0</v>
+      </c>
+      <c r="BM150">
+        <v>0</v>
+      </c>
+      <c r="BN150">
+        <v>0</v>
+      </c>
+      <c r="BO150">
+        <v>0</v>
+      </c>
+      <c r="BP150">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7778638</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45788.125</v>
+      </c>
+      <c r="F151">
+        <v>15</v>
+      </c>
+      <c r="G151" t="s">
+        <v>82</v>
+      </c>
+      <c r="H151" t="s">
+        <v>77</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>2</v>
+      </c>
+      <c r="K151">
+        <v>3</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>2</v>
+      </c>
+      <c r="N151">
+        <v>4</v>
+      </c>
+      <c r="O151" t="s">
+        <v>186</v>
+      </c>
+      <c r="P151" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q151">
+        <v>2.38</v>
+      </c>
+      <c r="R151">
+        <v>2.2</v>
+      </c>
+      <c r="S151">
+        <v>5</v>
+      </c>
+      <c r="T151">
+        <v>1.4</v>
+      </c>
+      <c r="U151">
+        <v>2.75</v>
+      </c>
+      <c r="V151">
+        <v>3</v>
+      </c>
+      <c r="W151">
+        <v>1.36</v>
+      </c>
+      <c r="X151">
+        <v>8</v>
+      </c>
+      <c r="Y151">
+        <v>1.08</v>
+      </c>
+      <c r="Z151">
+        <v>1.82</v>
+      </c>
+      <c r="AA151">
+        <v>3.55</v>
+      </c>
+      <c r="AB151">
+        <v>3.45</v>
+      </c>
+      <c r="AC151">
+        <v>0</v>
+      </c>
+      <c r="AD151">
+        <v>0</v>
+      </c>
+      <c r="AE151">
+        <v>0</v>
+      </c>
+      <c r="AF151">
+        <v>0</v>
+      </c>
+      <c r="AG151">
+        <v>1.87</v>
+      </c>
+      <c r="AH151">
+        <v>1.83</v>
+      </c>
+      <c r="AI151">
+        <v>1.91</v>
+      </c>
+      <c r="AJ151">
+        <v>1.8</v>
+      </c>
+      <c r="AK151">
+        <v>0</v>
+      </c>
+      <c r="AL151">
+        <v>0</v>
+      </c>
+      <c r="AM151">
+        <v>0</v>
+      </c>
+      <c r="AN151">
+        <v>1</v>
+      </c>
+      <c r="AO151">
+        <v>1.17</v>
+      </c>
+      <c r="AP151">
+        <v>1</v>
+      </c>
+      <c r="AQ151">
+        <v>1.14</v>
+      </c>
+      <c r="AR151">
+        <v>1.46</v>
+      </c>
+      <c r="AS151">
+        <v>1.28</v>
+      </c>
+      <c r="AT151">
+        <v>2.74</v>
+      </c>
+      <c r="AU151">
+        <v>5</v>
+      </c>
+      <c r="AV151">
+        <v>6</v>
+      </c>
+      <c r="AW151">
+        <v>4</v>
+      </c>
+      <c r="AX151">
+        <v>4</v>
+      </c>
+      <c r="AY151">
+        <v>9</v>
+      </c>
+      <c r="AZ151">
+        <v>10</v>
+      </c>
+      <c r="BA151">
+        <v>10</v>
+      </c>
+      <c r="BB151">
+        <v>4</v>
+      </c>
+      <c r="BC151">
+        <v>14</v>
+      </c>
+      <c r="BD151">
+        <v>0</v>
+      </c>
+      <c r="BE151">
+        <v>0</v>
+      </c>
+      <c r="BF151">
+        <v>0</v>
+      </c>
+      <c r="BG151">
+        <v>0</v>
+      </c>
+      <c r="BH151">
+        <v>0</v>
+      </c>
+      <c r="BI151">
+        <v>0</v>
+      </c>
+      <c r="BJ151">
+        <v>0</v>
+      </c>
+      <c r="BK151">
+        <v>0</v>
+      </c>
+      <c r="BL151">
+        <v>0</v>
+      </c>
+      <c r="BM151">
+        <v>0</v>
+      </c>
+      <c r="BN151">
+        <v>0</v>
+      </c>
+      <c r="BO151">
+        <v>0</v>
+      </c>
+      <c r="BP151">
         <v>0</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="264">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,15 @@
     <t>['30', '70']</t>
   </si>
   <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['25', '90+3']</t>
+  </si>
+  <si>
+    <t>['33', '63']</t>
+  </si>
+  <si>
     <t>['31', '60']</t>
   </si>
   <si>
@@ -791,6 +800,12 @@
   </si>
   <si>
     <t>['6', '18']</t>
+  </si>
+  <si>
+    <t>['35', '90']</t>
+  </si>
+  <si>
+    <t>['75']</t>
   </si>
 </sst>
 </file>
@@ -1152,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP151"/>
+  <dimension ref="A1:BP158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1411,7 +1426,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1901,7 +1916,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ4">
         <v>0.63</v>
@@ -2029,7 +2044,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2107,7 +2122,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ5">
         <v>1.43</v>
@@ -2235,7 +2250,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q6">
         <v>4.1</v>
@@ -2313,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ6">
         <v>1.5</v>
@@ -2522,7 +2537,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ7">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2647,7 +2662,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q8">
         <v>2.28</v>
@@ -2728,7 +2743,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2934,7 +2949,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ9">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3549,10 +3564,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ12">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR12">
         <v>1.68</v>
@@ -3755,10 +3770,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ13">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4089,7 +4104,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q15">
         <v>4.1</v>
@@ -4582,7 +4597,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ17">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4785,7 +4800,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -5200,7 +5215,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ20">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.61</v>
@@ -5325,7 +5340,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q21">
         <v>4.4</v>
@@ -5737,7 +5752,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5818,7 +5833,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ23">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR23">
         <v>1.4</v>
@@ -6149,7 +6164,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6227,7 +6242,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ25">
         <v>1</v>
@@ -6433,7 +6448,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ26">
         <v>0.78</v>
@@ -6561,7 +6576,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6642,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="AQ27">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR27">
         <v>1.59</v>
@@ -7257,7 +7272,7 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ30">
         <v>1.14</v>
@@ -7591,7 +7606,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>3.45</v>
@@ -7797,7 +7812,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8003,7 +8018,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8084,7 +8099,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ34">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR34">
         <v>1.24</v>
@@ -8209,7 +8224,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8287,7 +8302,7 @@
         <v>3</v>
       </c>
       <c r="AP35">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ35">
         <v>2.13</v>
@@ -8415,7 +8430,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q36">
         <v>2.8</v>
@@ -8702,7 +8717,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ37">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR37">
         <v>1.86</v>
@@ -8827,7 +8842,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -8905,7 +8920,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ38">
         <v>0.75</v>
@@ -9320,7 +9335,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ40">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR40">
         <v>1.47</v>
@@ -9651,7 +9666,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9729,7 +9744,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ42">
         <v>1.11</v>
@@ -9935,10 +9950,10 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ43">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR43">
         <v>1.09</v>
@@ -10141,7 +10156,7 @@
         <v>0</v>
       </c>
       <c r="AP44">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ44">
         <v>1.13</v>
@@ -10350,7 +10365,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ45">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR45">
         <v>1.47</v>
@@ -10681,7 +10696,7 @@
         <v>105</v>
       </c>
       <c r="P47" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10887,7 +10902,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -10965,10 +10980,10 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ48">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR48">
         <v>1.52</v>
@@ -11093,7 +11108,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -11380,7 +11395,7 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR50">
         <v>1.08</v>
@@ -11505,7 +11520,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q51">
         <v>1.91</v>
@@ -11583,7 +11598,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ51">
         <v>1.14</v>
@@ -11711,7 +11726,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11917,7 +11932,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -11998,7 +12013,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ53">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR53">
         <v>1.15</v>
@@ -12410,7 +12425,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ55">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR55">
         <v>1.39</v>
@@ -12535,7 +12550,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q56">
         <v>4.33</v>
@@ -12822,7 +12837,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ57">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR57">
         <v>1.77</v>
@@ -13153,7 +13168,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13565,7 +13580,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13643,7 +13658,7 @@
         <v>3</v>
       </c>
       <c r="AP61">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ61">
         <v>2.13</v>
@@ -13771,7 +13786,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -13849,7 +13864,7 @@
         <v>0</v>
       </c>
       <c r="AP62">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ62">
         <v>1.13</v>
@@ -14058,7 +14073,7 @@
         <v>1</v>
       </c>
       <c r="AQ63">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR63">
         <v>1.46</v>
@@ -14183,7 +14198,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14261,10 +14276,10 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ64">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>1.49</v>
@@ -14389,7 +14404,7 @@
         <v>90</v>
       </c>
       <c r="P65" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q65">
         <v>3.6</v>
@@ -14470,7 +14485,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ65">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR65">
         <v>1.13</v>
@@ -14595,7 +14610,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q66">
         <v>4.75</v>
@@ -14673,7 +14688,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ66">
         <v>1</v>
@@ -14801,7 +14816,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15085,7 +15100,7 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ68">
         <v>0.63</v>
@@ -15291,7 +15306,7 @@
         <v>3</v>
       </c>
       <c r="AP69">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ69">
         <v>2.13</v>
@@ -15706,7 +15721,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ71">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR71">
         <v>1.39</v>
@@ -16115,10 +16130,10 @@
         <v>0.33</v>
       </c>
       <c r="AP73">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ73">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR73">
         <v>1.25</v>
@@ -16527,7 +16542,7 @@
         <v>0.33</v>
       </c>
       <c r="AP75">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ75">
         <v>1.43</v>
@@ -17145,7 +17160,7 @@
         <v>1.25</v>
       </c>
       <c r="AP78">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ78">
         <v>1.5</v>
@@ -17273,7 +17288,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17560,7 +17575,7 @@
         <v>1</v>
       </c>
       <c r="AQ80">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR80">
         <v>1.56</v>
@@ -17685,7 +17700,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17972,7 +17987,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ82">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR82">
         <v>1.31</v>
@@ -18097,7 +18112,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18381,7 +18396,7 @@
         <v>1.2</v>
       </c>
       <c r="AP84">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ84">
         <v>1.11</v>
@@ -18715,7 +18730,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18793,10 +18808,10 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ86">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR86">
         <v>1.94</v>
@@ -18921,7 +18936,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19127,7 +19142,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19205,7 +19220,7 @@
         <v>2.25</v>
       </c>
       <c r="AP88">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ88">
         <v>2.13</v>
@@ -19333,7 +19348,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19414,7 +19429,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ89">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR89">
         <v>2.31</v>
@@ -19617,10 +19632,10 @@
         <v>1.33</v>
       </c>
       <c r="AP90">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ90">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR90">
         <v>1.26</v>
@@ -19951,7 +19966,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20029,7 +20044,7 @@
         <v>0.5</v>
       </c>
       <c r="AP92">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ92">
         <v>1</v>
@@ -20157,7 +20172,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20363,7 +20378,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q94">
         <v>2.3</v>
@@ -20569,7 +20584,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20650,7 +20665,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR95">
         <v>1.47</v>
@@ -20856,7 +20871,7 @@
         <v>1</v>
       </c>
       <c r="AQ96">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR96">
         <v>1.52</v>
@@ -20981,7 +20996,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q97">
         <v>3.25</v>
@@ -21265,7 +21280,7 @@
         <v>1.25</v>
       </c>
       <c r="AP98">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ98">
         <v>1.13</v>
@@ -21471,7 +21486,7 @@
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ99">
         <v>1.14</v>
@@ -21599,7 +21614,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21677,7 +21692,7 @@
         <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ100">
         <v>0.75</v>
@@ -21805,7 +21820,7 @@
         <v>122</v>
       </c>
       <c r="P101" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q101">
         <v>3.25</v>
@@ -21886,7 +21901,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ101">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR101">
         <v>1.44</v>
@@ -22011,7 +22026,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q102">
         <v>2.25</v>
@@ -22295,7 +22310,7 @@
         <v>0.8</v>
       </c>
       <c r="AP103">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ103">
         <v>1.13</v>
@@ -22629,7 +22644,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q105">
         <v>2.38</v>
@@ -22707,7 +22722,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ105">
         <v>0.78</v>
@@ -22835,7 +22850,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22913,7 +22928,7 @@
         <v>1</v>
       </c>
       <c r="AP106">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ106">
         <v>1.13</v>
@@ -23041,7 +23056,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -23119,10 +23134,10 @@
         <v>1.25</v>
       </c>
       <c r="AP107">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ107">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR107">
         <v>1.3</v>
@@ -23247,7 +23262,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23453,7 +23468,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q109">
         <v>2.3</v>
@@ -23534,7 +23549,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ109">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR109">
         <v>2.1</v>
@@ -23740,7 +23755,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ110">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR110">
         <v>1.34</v>
@@ -23865,7 +23880,7 @@
         <v>122</v>
       </c>
       <c r="P111" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -23946,7 +23961,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ111">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR111">
         <v>1.26</v>
@@ -24277,7 +24292,7 @@
         <v>164</v>
       </c>
       <c r="P113" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q113">
         <v>3.6</v>
@@ -24355,10 +24370,10 @@
         <v>2</v>
       </c>
       <c r="AP113">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ113">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR113">
         <v>1.23</v>
@@ -24561,10 +24576,10 @@
         <v>2.6</v>
       </c>
       <c r="AP114">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ114">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR114">
         <v>1.57</v>
@@ -24689,7 +24704,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24767,7 +24782,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ115">
         <v>1.5</v>
@@ -24895,7 +24910,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q116">
         <v>3.25</v>
@@ -24973,7 +24988,7 @@
         <v>0.6</v>
       </c>
       <c r="AP116">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ116">
         <v>1</v>
@@ -25182,7 +25197,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ117">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR117">
         <v>1.11</v>
@@ -25388,7 +25403,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ118">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR118">
         <v>1.57</v>
@@ -25797,7 +25812,7 @@
         <v>0.4</v>
       </c>
       <c r="AP120">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ120">
         <v>0.63</v>
@@ -25925,7 +25940,7 @@
         <v>167</v>
       </c>
       <c r="P121" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26131,7 +26146,7 @@
         <v>168</v>
       </c>
       <c r="P122" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26337,7 +26352,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26543,7 +26558,7 @@
         <v>90</v>
       </c>
       <c r="P124" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -26621,7 +26636,7 @@
         <v>1.29</v>
       </c>
       <c r="AP124">
-        <v>1.14</v>
+        <v>1.38</v>
       </c>
       <c r="AQ124">
         <v>1.5</v>
@@ -26830,7 +26845,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ125">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR125">
         <v>1.1</v>
@@ -27161,7 +27176,7 @@
         <v>171</v>
       </c>
       <c r="P127" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27367,7 +27382,7 @@
         <v>90</v>
       </c>
       <c r="P128" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q128">
         <v>2.88</v>
@@ -27573,7 +27588,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27654,7 +27669,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ129">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR129">
         <v>1.79</v>
@@ -27779,7 +27794,7 @@
         <v>90</v>
       </c>
       <c r="P130" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -27857,7 +27872,7 @@
         <v>0.8</v>
       </c>
       <c r="AP130">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ130">
         <v>1.43</v>
@@ -27985,7 +28000,7 @@
         <v>173</v>
       </c>
       <c r="P131" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28191,7 +28206,7 @@
         <v>174</v>
       </c>
       <c r="P132" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -28397,7 +28412,7 @@
         <v>175</v>
       </c>
       <c r="P133" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -28603,7 +28618,7 @@
         <v>176</v>
       </c>
       <c r="P134" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28809,7 +28824,7 @@
         <v>177</v>
       </c>
       <c r="P135" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -28887,7 +28902,7 @@
         <v>0.83</v>
       </c>
       <c r="AP135">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AQ135">
         <v>1.14</v>
@@ -29221,7 +29236,7 @@
         <v>179</v>
       </c>
       <c r="P137" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -29302,7 +29317,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ137">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR137">
         <v>1.16</v>
@@ -29427,7 +29442,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29508,7 +29523,7 @@
         <v>1</v>
       </c>
       <c r="AQ138">
-        <v>2.43</v>
+        <v>2.13</v>
       </c>
       <c r="AR138">
         <v>1.54</v>
@@ -29633,7 +29648,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -29711,7 +29726,7 @@
         <v>0.83</v>
       </c>
       <c r="AP139">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ139">
         <v>1.13</v>
@@ -29839,7 +29854,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q140">
         <v>3</v>
@@ -29920,7 +29935,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ140">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR140">
         <v>1.32</v>
@@ -30045,7 +30060,7 @@
         <v>180</v>
       </c>
       <c r="P141" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30123,10 +30138,10 @@
         <v>1.17</v>
       </c>
       <c r="AP141">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AQ141">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR141">
         <v>1.59</v>
@@ -30332,7 +30347,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ142">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AR142">
         <v>1.79</v>
@@ -30457,7 +30472,7 @@
         <v>182</v>
       </c>
       <c r="P143" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q143">
         <v>3.1</v>
@@ -30741,7 +30756,7 @@
         <v>0.86</v>
       </c>
       <c r="AP144">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ144">
         <v>0.75</v>
@@ -31281,7 +31296,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -31565,7 +31580,7 @@
         <v>0.88</v>
       </c>
       <c r="AP148">
-        <v>2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ148">
         <v>0.78</v>
@@ -32105,7 +32120,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q151">
         <v>2.38</v>
@@ -32262,6 +32277,1448 @@
       </c>
       <c r="BP151">
         <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7778643</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45794.0625</v>
+      </c>
+      <c r="F152">
+        <v>16</v>
+      </c>
+      <c r="G152" t="s">
+        <v>72</v>
+      </c>
+      <c r="H152" t="s">
+        <v>78</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>1</v>
+      </c>
+      <c r="O152" t="s">
+        <v>158</v>
+      </c>
+      <c r="P152" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q152">
+        <v>4.33</v>
+      </c>
+      <c r="R152">
+        <v>1.95</v>
+      </c>
+      <c r="S152">
+        <v>3</v>
+      </c>
+      <c r="T152">
+        <v>1.53</v>
+      </c>
+      <c r="U152">
+        <v>2.38</v>
+      </c>
+      <c r="V152">
+        <v>3.5</v>
+      </c>
+      <c r="W152">
+        <v>1.29</v>
+      </c>
+      <c r="X152">
+        <v>11</v>
+      </c>
+      <c r="Y152">
+        <v>1.05</v>
+      </c>
+      <c r="Z152">
+        <v>2.74</v>
+      </c>
+      <c r="AA152">
+        <v>3.02</v>
+      </c>
+      <c r="AB152">
+        <v>2.36</v>
+      </c>
+      <c r="AC152">
+        <v>1.09</v>
+      </c>
+      <c r="AD152">
+        <v>6.5</v>
+      </c>
+      <c r="AE152">
+        <v>1.46</v>
+      </c>
+      <c r="AF152">
+        <v>2.38</v>
+      </c>
+      <c r="AG152">
+        <v>2.3</v>
+      </c>
+      <c r="AH152">
+        <v>1.5</v>
+      </c>
+      <c r="AI152">
+        <v>2.1</v>
+      </c>
+      <c r="AJ152">
+        <v>1.67</v>
+      </c>
+      <c r="AK152">
+        <v>1.62</v>
+      </c>
+      <c r="AL152">
+        <v>1.3</v>
+      </c>
+      <c r="AM152">
+        <v>1.3</v>
+      </c>
+      <c r="AN152">
+        <v>1.14</v>
+      </c>
+      <c r="AO152">
+        <v>2.43</v>
+      </c>
+      <c r="AP152">
+        <v>1.38</v>
+      </c>
+      <c r="AQ152">
+        <v>2.13</v>
+      </c>
+      <c r="AR152">
+        <v>1.16</v>
+      </c>
+      <c r="AS152">
+        <v>1.41</v>
+      </c>
+      <c r="AT152">
+        <v>2.57</v>
+      </c>
+      <c r="AU152">
+        <v>4</v>
+      </c>
+      <c r="AV152">
+        <v>4</v>
+      </c>
+      <c r="AW152">
+        <v>6</v>
+      </c>
+      <c r="AX152">
+        <v>9</v>
+      </c>
+      <c r="AY152">
+        <v>10</v>
+      </c>
+      <c r="AZ152">
+        <v>13</v>
+      </c>
+      <c r="BA152">
+        <v>5</v>
+      </c>
+      <c r="BB152">
+        <v>3</v>
+      </c>
+      <c r="BC152">
+        <v>8</v>
+      </c>
+      <c r="BD152">
+        <v>2.09</v>
+      </c>
+      <c r="BE152">
+        <v>6.2</v>
+      </c>
+      <c r="BF152">
+        <v>2.09</v>
+      </c>
+      <c r="BG152">
+        <v>1.27</v>
+      </c>
+      <c r="BH152">
+        <v>3.14</v>
+      </c>
+      <c r="BI152">
+        <v>1.51</v>
+      </c>
+      <c r="BJ152">
+        <v>2.26</v>
+      </c>
+      <c r="BK152">
+        <v>1.89</v>
+      </c>
+      <c r="BL152">
+        <v>1.77</v>
+      </c>
+      <c r="BM152">
+        <v>2.43</v>
+      </c>
+      <c r="BN152">
+        <v>1.44</v>
+      </c>
+      <c r="BO152">
+        <v>3.34</v>
+      </c>
+      <c r="BP152">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7778639</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45794.08333333334</v>
+      </c>
+      <c r="F153">
+        <v>16</v>
+      </c>
+      <c r="G153" t="s">
+        <v>87</v>
+      </c>
+      <c r="H153" t="s">
+        <v>86</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>3</v>
+      </c>
+      <c r="O153" t="s">
+        <v>156</v>
+      </c>
+      <c r="P153" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q153">
+        <v>2.5</v>
+      </c>
+      <c r="R153">
+        <v>2.2</v>
+      </c>
+      <c r="S153">
+        <v>4.5</v>
+      </c>
+      <c r="T153">
+        <v>1.4</v>
+      </c>
+      <c r="U153">
+        <v>2.75</v>
+      </c>
+      <c r="V153">
+        <v>2.75</v>
+      </c>
+      <c r="W153">
+        <v>1.4</v>
+      </c>
+      <c r="X153">
+        <v>8</v>
+      </c>
+      <c r="Y153">
+        <v>1.08</v>
+      </c>
+      <c r="Z153">
+        <v>1.92</v>
+      </c>
+      <c r="AA153">
+        <v>3.12</v>
+      </c>
+      <c r="AB153">
+        <v>3.59</v>
+      </c>
+      <c r="AC153">
+        <v>1.06</v>
+      </c>
+      <c r="AD153">
+        <v>8</v>
+      </c>
+      <c r="AE153">
+        <v>1.33</v>
+      </c>
+      <c r="AF153">
+        <v>3.2</v>
+      </c>
+      <c r="AG153">
+        <v>1.93</v>
+      </c>
+      <c r="AH153">
+        <v>1.77</v>
+      </c>
+      <c r="AI153">
+        <v>1.83</v>
+      </c>
+      <c r="AJ153">
+        <v>1.83</v>
+      </c>
+      <c r="AK153">
+        <v>1.22</v>
+      </c>
+      <c r="AL153">
+        <v>1.25</v>
+      </c>
+      <c r="AM153">
+        <v>1.83</v>
+      </c>
+      <c r="AN153">
+        <v>1.17</v>
+      </c>
+      <c r="AO153">
+        <v>0.86</v>
+      </c>
+      <c r="AP153">
+        <v>1.43</v>
+      </c>
+      <c r="AQ153">
+        <v>0.75</v>
+      </c>
+      <c r="AR153">
+        <v>1.56</v>
+      </c>
+      <c r="AS153">
+        <v>1.15</v>
+      </c>
+      <c r="AT153">
+        <v>2.71</v>
+      </c>
+      <c r="AU153">
+        <v>7</v>
+      </c>
+      <c r="AV153">
+        <v>4</v>
+      </c>
+      <c r="AW153">
+        <v>11</v>
+      </c>
+      <c r="AX153">
+        <v>5</v>
+      </c>
+      <c r="AY153">
+        <v>18</v>
+      </c>
+      <c r="AZ153">
+        <v>9</v>
+      </c>
+      <c r="BA153">
+        <v>5</v>
+      </c>
+      <c r="BB153">
+        <v>4</v>
+      </c>
+      <c r="BC153">
+        <v>9</v>
+      </c>
+      <c r="BD153">
+        <v>1.53</v>
+      </c>
+      <c r="BE153">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF153">
+        <v>2.91</v>
+      </c>
+      <c r="BG153">
+        <v>1.26</v>
+      </c>
+      <c r="BH153">
+        <v>3.22</v>
+      </c>
+      <c r="BI153">
+        <v>1.5</v>
+      </c>
+      <c r="BJ153">
+        <v>2.28</v>
+      </c>
+      <c r="BK153">
+        <v>1.98</v>
+      </c>
+      <c r="BL153">
+        <v>1.82</v>
+      </c>
+      <c r="BM153">
+        <v>2.43</v>
+      </c>
+      <c r="BN153">
+        <v>1.44</v>
+      </c>
+      <c r="BO153">
+        <v>3.28</v>
+      </c>
+      <c r="BP153">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7778640</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45794.08333333334</v>
+      </c>
+      <c r="F154">
+        <v>16</v>
+      </c>
+      <c r="G154" t="s">
+        <v>89</v>
+      </c>
+      <c r="H154" t="s">
+        <v>75</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>2</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>2</v>
+      </c>
+      <c r="N154">
+        <v>3</v>
+      </c>
+      <c r="O154" t="s">
+        <v>187</v>
+      </c>
+      <c r="P154" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q154">
+        <v>3.4</v>
+      </c>
+      <c r="R154">
+        <v>1.95</v>
+      </c>
+      <c r="S154">
+        <v>3.6</v>
+      </c>
+      <c r="T154">
+        <v>1.53</v>
+      </c>
+      <c r="U154">
+        <v>2.38</v>
+      </c>
+      <c r="V154">
+        <v>3.5</v>
+      </c>
+      <c r="W154">
+        <v>1.29</v>
+      </c>
+      <c r="X154">
+        <v>11</v>
+      </c>
+      <c r="Y154">
+        <v>1.05</v>
+      </c>
+      <c r="Z154">
+        <v>2.77</v>
+      </c>
+      <c r="AA154">
+        <v>2.81</v>
+      </c>
+      <c r="AB154">
+        <v>2.48</v>
+      </c>
+      <c r="AC154">
+        <v>1.1</v>
+      </c>
+      <c r="AD154">
+        <v>6.25</v>
+      </c>
+      <c r="AE154">
+        <v>1.48</v>
+      </c>
+      <c r="AF154">
+        <v>2.55</v>
+      </c>
+      <c r="AG154">
+        <v>2.37</v>
+      </c>
+      <c r="AH154">
+        <v>1.48</v>
+      </c>
+      <c r="AI154">
+        <v>2.1</v>
+      </c>
+      <c r="AJ154">
+        <v>1.67</v>
+      </c>
+      <c r="AK154">
+        <v>1.4</v>
+      </c>
+      <c r="AL154">
+        <v>1.3</v>
+      </c>
+      <c r="AM154">
+        <v>1.45</v>
+      </c>
+      <c r="AN154">
+        <v>1</v>
+      </c>
+      <c r="AO154">
+        <v>1.17</v>
+      </c>
+      <c r="AP154">
+        <v>0.86</v>
+      </c>
+      <c r="AQ154">
+        <v>1.43</v>
+      </c>
+      <c r="AR154">
+        <v>1.59</v>
+      </c>
+      <c r="AS154">
+        <v>1.29</v>
+      </c>
+      <c r="AT154">
+        <v>2.88</v>
+      </c>
+      <c r="AU154">
+        <v>4</v>
+      </c>
+      <c r="AV154">
+        <v>6</v>
+      </c>
+      <c r="AW154">
+        <v>4</v>
+      </c>
+      <c r="AX154">
+        <v>7</v>
+      </c>
+      <c r="AY154">
+        <v>8</v>
+      </c>
+      <c r="AZ154">
+        <v>13</v>
+      </c>
+      <c r="BA154">
+        <v>4</v>
+      </c>
+      <c r="BB154">
+        <v>4</v>
+      </c>
+      <c r="BC154">
+        <v>8</v>
+      </c>
+      <c r="BD154">
+        <v>2.07</v>
+      </c>
+      <c r="BE154">
+        <v>6.2</v>
+      </c>
+      <c r="BF154">
+        <v>2.11</v>
+      </c>
+      <c r="BG154">
+        <v>1.27</v>
+      </c>
+      <c r="BH154">
+        <v>3.14</v>
+      </c>
+      <c r="BI154">
+        <v>1.51</v>
+      </c>
+      <c r="BJ154">
+        <v>2.26</v>
+      </c>
+      <c r="BK154">
+        <v>1.8</v>
+      </c>
+      <c r="BL154">
+        <v>2</v>
+      </c>
+      <c r="BM154">
+        <v>2.46</v>
+      </c>
+      <c r="BN154">
+        <v>1.43</v>
+      </c>
+      <c r="BO154">
+        <v>3.34</v>
+      </c>
+      <c r="BP154">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7778641</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45794.08333333334</v>
+      </c>
+      <c r="F155">
+        <v>16</v>
+      </c>
+      <c r="G155" t="s">
+        <v>84</v>
+      </c>
+      <c r="H155" t="s">
+        <v>82</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>188</v>
+      </c>
+      <c r="P155" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q155">
+        <v>3.1</v>
+      </c>
+      <c r="R155">
+        <v>2.1</v>
+      </c>
+      <c r="S155">
+        <v>3.6</v>
+      </c>
+      <c r="T155">
+        <v>1.44</v>
+      </c>
+      <c r="U155">
+        <v>2.63</v>
+      </c>
+      <c r="V155">
+        <v>3.25</v>
+      </c>
+      <c r="W155">
+        <v>1.33</v>
+      </c>
+      <c r="X155">
+        <v>9</v>
+      </c>
+      <c r="Y155">
+        <v>1.07</v>
+      </c>
+      <c r="Z155">
+        <v>2.28</v>
+      </c>
+      <c r="AA155">
+        <v>2.99</v>
+      </c>
+      <c r="AB155">
+        <v>2.89</v>
+      </c>
+      <c r="AC155">
+        <v>1.06</v>
+      </c>
+      <c r="AD155">
+        <v>8</v>
+      </c>
+      <c r="AE155">
+        <v>1.36</v>
+      </c>
+      <c r="AF155">
+        <v>2.95</v>
+      </c>
+      <c r="AG155">
+        <v>1.95</v>
+      </c>
+      <c r="AH155">
+        <v>1.7</v>
+      </c>
+      <c r="AI155">
+        <v>1.83</v>
+      </c>
+      <c r="AJ155">
+        <v>1.83</v>
+      </c>
+      <c r="AK155">
+        <v>1.36</v>
+      </c>
+      <c r="AL155">
+        <v>1.28</v>
+      </c>
+      <c r="AM155">
+        <v>1.57</v>
+      </c>
+      <c r="AN155">
+        <v>2</v>
+      </c>
+      <c r="AO155">
+        <v>1.33</v>
+      </c>
+      <c r="AP155">
+        <v>2.11</v>
+      </c>
+      <c r="AQ155">
+        <v>1.14</v>
+      </c>
+      <c r="AR155">
+        <v>1.71</v>
+      </c>
+      <c r="AS155">
+        <v>1.45</v>
+      </c>
+      <c r="AT155">
+        <v>3.16</v>
+      </c>
+      <c r="AU155">
+        <v>4</v>
+      </c>
+      <c r="AV155">
+        <v>4</v>
+      </c>
+      <c r="AW155">
+        <v>6</v>
+      </c>
+      <c r="AX155">
+        <v>0</v>
+      </c>
+      <c r="AY155">
+        <v>10</v>
+      </c>
+      <c r="AZ155">
+        <v>4</v>
+      </c>
+      <c r="BA155">
+        <v>4</v>
+      </c>
+      <c r="BB155">
+        <v>3</v>
+      </c>
+      <c r="BC155">
+        <v>7</v>
+      </c>
+      <c r="BD155">
+        <v>2.19</v>
+      </c>
+      <c r="BE155">
+        <v>6.2</v>
+      </c>
+      <c r="BF155">
+        <v>2</v>
+      </c>
+      <c r="BG155">
+        <v>1.26</v>
+      </c>
+      <c r="BH155">
+        <v>3.22</v>
+      </c>
+      <c r="BI155">
+        <v>1.5</v>
+      </c>
+      <c r="BJ155">
+        <v>2.28</v>
+      </c>
+      <c r="BK155">
+        <v>1.85</v>
+      </c>
+      <c r="BL155">
+        <v>1.95</v>
+      </c>
+      <c r="BM155">
+        <v>2.43</v>
+      </c>
+      <c r="BN155">
+        <v>1.44</v>
+      </c>
+      <c r="BO155">
+        <v>3.28</v>
+      </c>
+      <c r="BP155">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7778642</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45794.08333333334</v>
+      </c>
+      <c r="F156">
+        <v>16</v>
+      </c>
+      <c r="G156" t="s">
+        <v>80</v>
+      </c>
+      <c r="H156" t="s">
+        <v>85</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>0</v>
+      </c>
+      <c r="O156" t="s">
+        <v>90</v>
+      </c>
+      <c r="P156" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q156">
+        <v>2.88</v>
+      </c>
+      <c r="R156">
+        <v>2.1</v>
+      </c>
+      <c r="S156">
+        <v>3.75</v>
+      </c>
+      <c r="T156">
+        <v>1.44</v>
+      </c>
+      <c r="U156">
+        <v>2.63</v>
+      </c>
+      <c r="V156">
+        <v>3.25</v>
+      </c>
+      <c r="W156">
+        <v>1.33</v>
+      </c>
+      <c r="X156">
+        <v>9</v>
+      </c>
+      <c r="Y156">
+        <v>1.07</v>
+      </c>
+      <c r="Z156">
+        <v>2.18</v>
+      </c>
+      <c r="AA156">
+        <v>3.12</v>
+      </c>
+      <c r="AB156">
+        <v>2.93</v>
+      </c>
+      <c r="AC156">
+        <v>1.06</v>
+      </c>
+      <c r="AD156">
+        <v>8</v>
+      </c>
+      <c r="AE156">
+        <v>1.36</v>
+      </c>
+      <c r="AF156">
+        <v>3</v>
+      </c>
+      <c r="AG156">
+        <v>2</v>
+      </c>
+      <c r="AH156">
+        <v>1.67</v>
+      </c>
+      <c r="AI156">
+        <v>1.83</v>
+      </c>
+      <c r="AJ156">
+        <v>1.83</v>
+      </c>
+      <c r="AK156">
+        <v>1.35</v>
+      </c>
+      <c r="AL156">
+        <v>1.28</v>
+      </c>
+      <c r="AM156">
+        <v>1.62</v>
+      </c>
+      <c r="AN156">
+        <v>2.57</v>
+      </c>
+      <c r="AO156">
+        <v>1.86</v>
+      </c>
+      <c r="AP156">
+        <v>2.38</v>
+      </c>
+      <c r="AQ156">
+        <v>1.75</v>
+      </c>
+      <c r="AR156">
+        <v>1.69</v>
+      </c>
+      <c r="AS156">
+        <v>1.43</v>
+      </c>
+      <c r="AT156">
+        <v>3.12</v>
+      </c>
+      <c r="AU156">
+        <v>2</v>
+      </c>
+      <c r="AV156">
+        <v>6</v>
+      </c>
+      <c r="AW156">
+        <v>7</v>
+      </c>
+      <c r="AX156">
+        <v>10</v>
+      </c>
+      <c r="AY156">
+        <v>9</v>
+      </c>
+      <c r="AZ156">
+        <v>16</v>
+      </c>
+      <c r="BA156">
+        <v>5</v>
+      </c>
+      <c r="BB156">
+        <v>6</v>
+      </c>
+      <c r="BC156">
+        <v>11</v>
+      </c>
+      <c r="BD156">
+        <v>1.94</v>
+      </c>
+      <c r="BE156">
+        <v>6.2</v>
+      </c>
+      <c r="BF156">
+        <v>2.27</v>
+      </c>
+      <c r="BG156">
+        <v>1.3</v>
+      </c>
+      <c r="BH156">
+        <v>2.97</v>
+      </c>
+      <c r="BI156">
+        <v>1.56</v>
+      </c>
+      <c r="BJ156">
+        <v>2.16</v>
+      </c>
+      <c r="BK156">
+        <v>2</v>
+      </c>
+      <c r="BL156">
+        <v>1.8</v>
+      </c>
+      <c r="BM156">
+        <v>2.59</v>
+      </c>
+      <c r="BN156">
+        <v>1.39</v>
+      </c>
+      <c r="BO156">
+        <v>3.58</v>
+      </c>
+      <c r="BP156">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7778644</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45794.08333333334</v>
+      </c>
+      <c r="F157">
+        <v>16</v>
+      </c>
+      <c r="G157" t="s">
+        <v>73</v>
+      </c>
+      <c r="H157" t="s">
+        <v>70</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>2</v>
+      </c>
+      <c r="O157" t="s">
+        <v>189</v>
+      </c>
+      <c r="P157" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q157">
+        <v>3.1</v>
+      </c>
+      <c r="R157">
+        <v>2.1</v>
+      </c>
+      <c r="S157">
+        <v>3.6</v>
+      </c>
+      <c r="T157">
+        <v>1.44</v>
+      </c>
+      <c r="U157">
+        <v>2.63</v>
+      </c>
+      <c r="V157">
+        <v>3</v>
+      </c>
+      <c r="W157">
+        <v>1.36</v>
+      </c>
+      <c r="X157">
+        <v>9</v>
+      </c>
+      <c r="Y157">
+        <v>1.07</v>
+      </c>
+      <c r="Z157">
+        <v>2.15</v>
+      </c>
+      <c r="AA157">
+        <v>3.12</v>
+      </c>
+      <c r="AB157">
+        <v>3.01</v>
+      </c>
+      <c r="AC157">
+        <v>1.06</v>
+      </c>
+      <c r="AD157">
+        <v>8</v>
+      </c>
+      <c r="AE157">
+        <v>1.33</v>
+      </c>
+      <c r="AF157">
+        <v>3.1</v>
+      </c>
+      <c r="AG157">
+        <v>1.96</v>
+      </c>
+      <c r="AH157">
+        <v>1.74</v>
+      </c>
+      <c r="AI157">
+        <v>1.83</v>
+      </c>
+      <c r="AJ157">
+        <v>1.83</v>
+      </c>
+      <c r="AK157">
+        <v>1.36</v>
+      </c>
+      <c r="AL157">
+        <v>1.28</v>
+      </c>
+      <c r="AM157">
+        <v>1.57</v>
+      </c>
+      <c r="AN157">
+        <v>2</v>
+      </c>
+      <c r="AO157">
+        <v>1.14</v>
+      </c>
+      <c r="AP157">
+        <v>2.11</v>
+      </c>
+      <c r="AQ157">
+        <v>1</v>
+      </c>
+      <c r="AR157">
+        <v>1.38</v>
+      </c>
+      <c r="AS157">
+        <v>1.13</v>
+      </c>
+      <c r="AT157">
+        <v>2.51</v>
+      </c>
+      <c r="AU157">
+        <v>4</v>
+      </c>
+      <c r="AV157">
+        <v>3</v>
+      </c>
+      <c r="AW157">
+        <v>3</v>
+      </c>
+      <c r="AX157">
+        <v>7</v>
+      </c>
+      <c r="AY157">
+        <v>7</v>
+      </c>
+      <c r="AZ157">
+        <v>10</v>
+      </c>
+      <c r="BA157">
+        <v>6</v>
+      </c>
+      <c r="BB157">
+        <v>5</v>
+      </c>
+      <c r="BC157">
+        <v>11</v>
+      </c>
+      <c r="BD157">
+        <v>1.66</v>
+      </c>
+      <c r="BE157">
+        <v>6.55</v>
+      </c>
+      <c r="BF157">
+        <v>2.76</v>
+      </c>
+      <c r="BG157">
+        <v>1.22</v>
+      </c>
+      <c r="BH157">
+        <v>3.5</v>
+      </c>
+      <c r="BI157">
+        <v>1.42</v>
+      </c>
+      <c r="BJ157">
+        <v>2.49</v>
+      </c>
+      <c r="BK157">
+        <v>1.8</v>
+      </c>
+      <c r="BL157">
+        <v>2</v>
+      </c>
+      <c r="BM157">
+        <v>2.24</v>
+      </c>
+      <c r="BN157">
+        <v>1.52</v>
+      </c>
+      <c r="BO157">
+        <v>2.97</v>
+      </c>
+      <c r="BP157">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>7778645</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45794.08333333334</v>
+      </c>
+      <c r="F158">
+        <v>16</v>
+      </c>
+      <c r="G158" t="s">
+        <v>74</v>
+      </c>
+      <c r="H158" t="s">
+        <v>71</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158" t="s">
+        <v>90</v>
+      </c>
+      <c r="P158" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q158">
+        <v>4</v>
+      </c>
+      <c r="R158">
+        <v>2.2</v>
+      </c>
+      <c r="S158">
+        <v>2.63</v>
+      </c>
+      <c r="T158">
+        <v>1.36</v>
+      </c>
+      <c r="U158">
+        <v>3</v>
+      </c>
+      <c r="V158">
+        <v>2.63</v>
+      </c>
+      <c r="W158">
+        <v>1.44</v>
+      </c>
+      <c r="X158">
+        <v>7</v>
+      </c>
+      <c r="Y158">
+        <v>1.1</v>
+      </c>
+      <c r="Z158">
+        <v>3.28</v>
+      </c>
+      <c r="AA158">
+        <v>3.45</v>
+      </c>
+      <c r="AB158">
+        <v>1.91</v>
+      </c>
+      <c r="AC158">
+        <v>1.05</v>
+      </c>
+      <c r="AD158">
+        <v>8.5</v>
+      </c>
+      <c r="AE158">
+        <v>1.25</v>
+      </c>
+      <c r="AF158">
+        <v>3.6</v>
+      </c>
+      <c r="AG158">
+        <v>1.83</v>
+      </c>
+      <c r="AH158">
+        <v>1.87</v>
+      </c>
+      <c r="AI158">
+        <v>1.73</v>
+      </c>
+      <c r="AJ158">
+        <v>2</v>
+      </c>
+      <c r="AK158">
+        <v>1.75</v>
+      </c>
+      <c r="AL158">
+        <v>1.25</v>
+      </c>
+      <c r="AM158">
+        <v>1.3</v>
+      </c>
+      <c r="AN158">
+        <v>1.29</v>
+      </c>
+      <c r="AO158">
+        <v>1.43</v>
+      </c>
+      <c r="AP158">
+        <v>1.13</v>
+      </c>
+      <c r="AQ158">
+        <v>1.63</v>
+      </c>
+      <c r="AR158">
+        <v>1.44</v>
+      </c>
+      <c r="AS158">
+        <v>1.45</v>
+      </c>
+      <c r="AT158">
+        <v>2.89</v>
+      </c>
+      <c r="AU158">
+        <v>2</v>
+      </c>
+      <c r="AV158">
+        <v>3</v>
+      </c>
+      <c r="AW158">
+        <v>7</v>
+      </c>
+      <c r="AX158">
+        <v>9</v>
+      </c>
+      <c r="AY158">
+        <v>9</v>
+      </c>
+      <c r="AZ158">
+        <v>12</v>
+      </c>
+      <c r="BA158">
+        <v>6</v>
+      </c>
+      <c r="BB158">
+        <v>7</v>
+      </c>
+      <c r="BC158">
+        <v>13</v>
+      </c>
+      <c r="BD158">
+        <v>1.93</v>
+      </c>
+      <c r="BE158">
+        <v>6.3</v>
+      </c>
+      <c r="BF158">
+        <v>2.27</v>
+      </c>
+      <c r="BG158">
+        <v>1.23</v>
+      </c>
+      <c r="BH158">
+        <v>3.42</v>
+      </c>
+      <c r="BI158">
+        <v>1.44</v>
+      </c>
+      <c r="BJ158">
+        <v>2.43</v>
+      </c>
+      <c r="BK158">
+        <v>2</v>
+      </c>
+      <c r="BL158">
+        <v>1.8</v>
+      </c>
+      <c r="BM158">
+        <v>2.28</v>
+      </c>
+      <c r="BN158">
+        <v>1.5</v>
+      </c>
+      <c r="BO158">
+        <v>3.05</v>
+      </c>
+      <c r="BP158">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="266">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -807,6 +807,12 @@
   <si>
     <t>['75']</t>
   </si>
+  <si>
+    <t>['21', '59']</t>
+  </si>
+  <si>
+    <t>['44', '76']</t>
+  </si>
 </sst>
 </file>
 
@@ -1167,7 +1173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP158"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1713,7 +1719,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2331,7 +2337,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ6">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2946,7 +2952,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ9">
         <v>0.75</v>
@@ -3358,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ11">
         <v>1.11</v>
@@ -4182,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ15">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4803,7 +4809,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5212,7 +5218,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5418,7 +5424,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ21">
         <v>0.78</v>
@@ -6245,7 +6251,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR25">
         <v>1.45</v>
@@ -6863,7 +6869,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR28">
         <v>2.36</v>
@@ -7478,7 +7484,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ31">
         <v>1.11</v>
@@ -7687,7 +7693,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR32">
         <v>1.26</v>
@@ -8096,7 +8102,7 @@
         <v>3</v>
       </c>
       <c r="AP34">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ34">
         <v>2.13</v>
@@ -9538,7 +9544,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ41">
         <v>1.43</v>
@@ -10571,7 +10577,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ46">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR46">
         <v>2.49</v>
@@ -10777,7 +10783,7 @@
         <v>1</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR47">
         <v>1.58</v>
@@ -11186,7 +11192,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ49">
         <v>1.13</v>
@@ -12010,7 +12016,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ53">
         <v>1.14</v>
@@ -12628,7 +12634,7 @@
         <v>0.75</v>
       </c>
       <c r="AP56">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ56">
         <v>1.11</v>
@@ -13246,7 +13252,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ59">
         <v>0.75</v>
@@ -13455,7 +13461,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR60">
         <v>1.48</v>
@@ -14691,7 +14697,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ66">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR66">
         <v>1.04</v>
@@ -14897,7 +14903,7 @@
         <v>1</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR67">
         <v>1.24</v>
@@ -15512,7 +15518,7 @@
         <v>0.5</v>
       </c>
       <c r="AP70">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ70">
         <v>1.13</v>
@@ -16336,7 +16342,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ74">
         <v>1.14</v>
@@ -17163,7 +17169,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ78">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR78">
         <v>1.6</v>
@@ -17781,7 +17787,7 @@
         <v>1</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR81">
         <v>1.55</v>
@@ -18193,7 +18199,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ83">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR83">
         <v>1.52</v>
@@ -18602,10 +18608,10 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ85">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR85">
         <v>1.08</v>
@@ -19838,7 +19844,7 @@
         <v>0.75</v>
       </c>
       <c r="AP91">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ91">
         <v>1.13</v>
@@ -20047,7 +20053,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ92">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR92">
         <v>1.1</v>
@@ -23343,7 +23349,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ108">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR108">
         <v>1.33</v>
@@ -23958,7 +23964,7 @@
         <v>2.5</v>
       </c>
       <c r="AP111">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ111">
         <v>2.13</v>
@@ -24167,7 +24173,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ112">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR112">
         <v>1.39</v>
@@ -24785,7 +24791,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ115">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR115">
         <v>1.85</v>
@@ -24991,7 +24997,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR116">
         <v>1.54</v>
@@ -25194,7 +25200,7 @@
         <v>1</v>
       </c>
       <c r="AP117">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ117">
         <v>1.43</v>
@@ -26018,7 +26024,7 @@
         <v>0.6</v>
       </c>
       <c r="AP121">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ121">
         <v>0.75</v>
@@ -26639,7 +26645,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ124">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR124">
         <v>1.17</v>
@@ -26842,7 +26848,7 @@
         <v>1.6</v>
       </c>
       <c r="AP125">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AQ125">
         <v>1.14</v>
@@ -28493,7 +28499,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ133">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AR133">
         <v>1.27</v>
@@ -28696,7 +28702,7 @@
         <v>1.17</v>
       </c>
       <c r="AP134">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ134">
         <v>1.43</v>
@@ -29314,7 +29320,7 @@
         <v>1.17</v>
       </c>
       <c r="AP137">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AQ137">
         <v>1</v>
@@ -30965,7 +30971,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ145">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR145">
         <v>2.16</v>
@@ -33719,6 +33725,624 @@
       </c>
       <c r="BP158">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>7778646</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45795.08333333334</v>
+      </c>
+      <c r="F159">
+        <v>16</v>
+      </c>
+      <c r="G159" t="s">
+        <v>81</v>
+      </c>
+      <c r="H159" t="s">
+        <v>88</v>
+      </c>
+      <c r="I159">
+        <v>1</v>
+      </c>
+      <c r="J159">
+        <v>0</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>1</v>
+      </c>
+      <c r="O159" t="s">
+        <v>141</v>
+      </c>
+      <c r="P159" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q159">
+        <v>3.2</v>
+      </c>
+      <c r="R159">
+        <v>2.05</v>
+      </c>
+      <c r="S159">
+        <v>3.5</v>
+      </c>
+      <c r="T159">
+        <v>1.44</v>
+      </c>
+      <c r="U159">
+        <v>2.63</v>
+      </c>
+      <c r="V159">
+        <v>3.25</v>
+      </c>
+      <c r="W159">
+        <v>1.33</v>
+      </c>
+      <c r="X159">
+        <v>9</v>
+      </c>
+      <c r="Y159">
+        <v>1.07</v>
+      </c>
+      <c r="Z159">
+        <v>2.34</v>
+      </c>
+      <c r="AA159">
+        <v>3.16</v>
+      </c>
+      <c r="AB159">
+        <v>2.66</v>
+      </c>
+      <c r="AC159">
+        <v>1.01</v>
+      </c>
+      <c r="AD159">
+        <v>8.5</v>
+      </c>
+      <c r="AE159">
+        <v>1.32</v>
+      </c>
+      <c r="AF159">
+        <v>2.88</v>
+      </c>
+      <c r="AG159">
+        <v>2.05</v>
+      </c>
+      <c r="AH159">
+        <v>1.65</v>
+      </c>
+      <c r="AI159">
+        <v>1.83</v>
+      </c>
+      <c r="AJ159">
+        <v>1.83</v>
+      </c>
+      <c r="AK159">
+        <v>1.44</v>
+      </c>
+      <c r="AL159">
+        <v>1.33</v>
+      </c>
+      <c r="AM159">
+        <v>1.44</v>
+      </c>
+      <c r="AN159">
+        <v>0.86</v>
+      </c>
+      <c r="AO159">
+        <v>1</v>
+      </c>
+      <c r="AP159">
+        <v>1.13</v>
+      </c>
+      <c r="AQ159">
+        <v>0.9</v>
+      </c>
+      <c r="AR159">
+        <v>1.33</v>
+      </c>
+      <c r="AS159">
+        <v>1.31</v>
+      </c>
+      <c r="AT159">
+        <v>2.64</v>
+      </c>
+      <c r="AU159">
+        <v>4</v>
+      </c>
+      <c r="AV159">
+        <v>4</v>
+      </c>
+      <c r="AW159">
+        <v>9</v>
+      </c>
+      <c r="AX159">
+        <v>5</v>
+      </c>
+      <c r="AY159">
+        <v>13</v>
+      </c>
+      <c r="AZ159">
+        <v>9</v>
+      </c>
+      <c r="BA159">
+        <v>3</v>
+      </c>
+      <c r="BB159">
+        <v>4</v>
+      </c>
+      <c r="BC159">
+        <v>7</v>
+      </c>
+      <c r="BD159">
+        <v>1.69</v>
+      </c>
+      <c r="BE159">
+        <v>6.45</v>
+      </c>
+      <c r="BF159">
+        <v>2.69</v>
+      </c>
+      <c r="BG159">
+        <v>1.22</v>
+      </c>
+      <c r="BH159">
+        <v>3.48</v>
+      </c>
+      <c r="BI159">
+        <v>1.44</v>
+      </c>
+      <c r="BJ159">
+        <v>2.43</v>
+      </c>
+      <c r="BK159">
+        <v>1.82</v>
+      </c>
+      <c r="BL159">
+        <v>1.98</v>
+      </c>
+      <c r="BM159">
+        <v>2.26</v>
+      </c>
+      <c r="BN159">
+        <v>1.51</v>
+      </c>
+      <c r="BO159">
+        <v>3.05</v>
+      </c>
+      <c r="BP159">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>7778648</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45795.08333333334</v>
+      </c>
+      <c r="F160">
+        <v>16</v>
+      </c>
+      <c r="G160" t="s">
+        <v>79</v>
+      </c>
+      <c r="H160" t="s">
+        <v>76</v>
+      </c>
+      <c r="I160">
+        <v>1</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>2</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+      <c r="M160">
+        <v>2</v>
+      </c>
+      <c r="N160">
+        <v>3</v>
+      </c>
+      <c r="O160" t="s">
+        <v>141</v>
+      </c>
+      <c r="P160" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q160">
+        <v>3.75</v>
+      </c>
+      <c r="R160">
+        <v>2.1</v>
+      </c>
+      <c r="S160">
+        <v>2.88</v>
+      </c>
+      <c r="T160">
+        <v>1.4</v>
+      </c>
+      <c r="U160">
+        <v>2.75</v>
+      </c>
+      <c r="V160">
+        <v>3</v>
+      </c>
+      <c r="W160">
+        <v>1.36</v>
+      </c>
+      <c r="X160">
+        <v>8</v>
+      </c>
+      <c r="Y160">
+        <v>1.08</v>
+      </c>
+      <c r="Z160">
+        <v>3.1</v>
+      </c>
+      <c r="AA160">
+        <v>3.13</v>
+      </c>
+      <c r="AB160">
+        <v>2.09</v>
+      </c>
+      <c r="AC160">
+        <v>1.02</v>
+      </c>
+      <c r="AD160">
+        <v>7.8</v>
+      </c>
+      <c r="AE160">
+        <v>1.3</v>
+      </c>
+      <c r="AF160">
+        <v>2.97</v>
+      </c>
+      <c r="AG160">
+        <v>1.93</v>
+      </c>
+      <c r="AH160">
+        <v>1.77</v>
+      </c>
+      <c r="AI160">
+        <v>1.83</v>
+      </c>
+      <c r="AJ160">
+        <v>1.83</v>
+      </c>
+      <c r="AK160">
+        <v>1.65</v>
+      </c>
+      <c r="AL160">
+        <v>1.33</v>
+      </c>
+      <c r="AM160">
+        <v>1.33</v>
+      </c>
+      <c r="AN160">
+        <v>1.86</v>
+      </c>
+      <c r="AO160">
+        <v>1</v>
+      </c>
+      <c r="AP160">
+        <v>1.63</v>
+      </c>
+      <c r="AQ160">
+        <v>1.25</v>
+      </c>
+      <c r="AR160">
+        <v>1.07</v>
+      </c>
+      <c r="AS160">
+        <v>1.49</v>
+      </c>
+      <c r="AT160">
+        <v>2.56</v>
+      </c>
+      <c r="AU160">
+        <v>4</v>
+      </c>
+      <c r="AV160">
+        <v>4</v>
+      </c>
+      <c r="AW160">
+        <v>8</v>
+      </c>
+      <c r="AX160">
+        <v>14</v>
+      </c>
+      <c r="AY160">
+        <v>12</v>
+      </c>
+      <c r="AZ160">
+        <v>18</v>
+      </c>
+      <c r="BA160">
+        <v>5</v>
+      </c>
+      <c r="BB160">
+        <v>7</v>
+      </c>
+      <c r="BC160">
+        <v>12</v>
+      </c>
+      <c r="BD160">
+        <v>2.11</v>
+      </c>
+      <c r="BE160">
+        <v>6.15</v>
+      </c>
+      <c r="BF160">
+        <v>2.08</v>
+      </c>
+      <c r="BG160">
+        <v>1.27</v>
+      </c>
+      <c r="BH160">
+        <v>3.14</v>
+      </c>
+      <c r="BI160">
+        <v>1.5</v>
+      </c>
+      <c r="BJ160">
+        <v>2.28</v>
+      </c>
+      <c r="BK160">
+        <v>1.9</v>
+      </c>
+      <c r="BL160">
+        <v>1.9</v>
+      </c>
+      <c r="BM160">
+        <v>2.43</v>
+      </c>
+      <c r="BN160">
+        <v>1.44</v>
+      </c>
+      <c r="BO160">
+        <v>3.34</v>
+      </c>
+      <c r="BP160">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>7778647</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45795.25</v>
+      </c>
+      <c r="F161">
+        <v>16</v>
+      </c>
+      <c r="G161" t="s">
+        <v>77</v>
+      </c>
+      <c r="H161" t="s">
+        <v>83</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>0</v>
+      </c>
+      <c r="M161">
+        <v>2</v>
+      </c>
+      <c r="N161">
+        <v>2</v>
+      </c>
+      <c r="O161" t="s">
+        <v>90</v>
+      </c>
+      <c r="P161" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q161">
+        <v>4.75</v>
+      </c>
+      <c r="R161">
+        <v>2.05</v>
+      </c>
+      <c r="S161">
+        <v>2.6</v>
+      </c>
+      <c r="T161">
+        <v>1.5</v>
+      </c>
+      <c r="U161">
+        <v>2.5</v>
+      </c>
+      <c r="V161">
+        <v>3.4</v>
+      </c>
+      <c r="W161">
+        <v>1.3</v>
+      </c>
+      <c r="X161">
+        <v>10</v>
+      </c>
+      <c r="Y161">
+        <v>1.06</v>
+      </c>
+      <c r="Z161">
+        <v>3.87</v>
+      </c>
+      <c r="AA161">
+        <v>3.23</v>
+      </c>
+      <c r="AB161">
+        <v>1.81</v>
+      </c>
+      <c r="AC161">
+        <v>1.03</v>
+      </c>
+      <c r="AD161">
+        <v>7.2</v>
+      </c>
+      <c r="AE161">
+        <v>1.36</v>
+      </c>
+      <c r="AF161">
+        <v>2.7</v>
+      </c>
+      <c r="AG161">
+        <v>2.15</v>
+      </c>
+      <c r="AH161">
+        <v>1.57</v>
+      </c>
+      <c r="AI161">
+        <v>2</v>
+      </c>
+      <c r="AJ161">
+        <v>1.73</v>
+      </c>
+      <c r="AK161">
+        <v>1.8</v>
+      </c>
+      <c r="AL161">
+        <v>1.35</v>
+      </c>
+      <c r="AM161">
+        <v>1.22</v>
+      </c>
+      <c r="AN161">
+        <v>0.25</v>
+      </c>
+      <c r="AO161">
+        <v>1.5</v>
+      </c>
+      <c r="AP161">
+        <v>0.22</v>
+      </c>
+      <c r="AQ161">
+        <v>1.67</v>
+      </c>
+      <c r="AR161">
+        <v>1.16</v>
+      </c>
+      <c r="AS161">
+        <v>1.38</v>
+      </c>
+      <c r="AT161">
+        <v>2.54</v>
+      </c>
+      <c r="AU161">
+        <v>6</v>
+      </c>
+      <c r="AV161">
+        <v>6</v>
+      </c>
+      <c r="AW161">
+        <v>5</v>
+      </c>
+      <c r="AX161">
+        <v>9</v>
+      </c>
+      <c r="AY161">
+        <v>11</v>
+      </c>
+      <c r="AZ161">
+        <v>15</v>
+      </c>
+      <c r="BA161">
+        <v>5</v>
+      </c>
+      <c r="BB161">
+        <v>1</v>
+      </c>
+      <c r="BC161">
+        <v>6</v>
+      </c>
+      <c r="BD161">
+        <v>2.63</v>
+      </c>
+      <c r="BE161">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="BF161">
+        <v>1.62</v>
+      </c>
+      <c r="BG161">
+        <v>1.26</v>
+      </c>
+      <c r="BH161">
+        <v>3.22</v>
+      </c>
+      <c r="BI161">
+        <v>1.49</v>
+      </c>
+      <c r="BJ161">
+        <v>2.3</v>
+      </c>
+      <c r="BK161">
+        <v>1.85</v>
+      </c>
+      <c r="BL161">
+        <v>1.95</v>
+      </c>
+      <c r="BM161">
+        <v>2.41</v>
+      </c>
+      <c r="BN161">
+        <v>1.45</v>
+      </c>
+      <c r="BO161">
+        <v>3.28</v>
+      </c>
+      <c r="BP161">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -586,6 +586,18 @@
     <t>['33', '63']</t>
   </si>
   <si>
+    <t>['78']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['29', '39']</t>
+  </si>
+  <si>
+    <t>['18']</t>
+  </si>
+  <si>
     <t>['31', '60']</t>
   </si>
   <si>
@@ -662,9 +674,6 @@
   </si>
   <si>
     <t>['7']</t>
-  </si>
-  <si>
-    <t>['17']</t>
   </si>
   <si>
     <t>['29']</t>
@@ -812,6 +821,15 @@
   </si>
   <si>
     <t>['44', '76']</t>
+  </si>
+  <si>
+    <t>['10', '76']</t>
+  </si>
+  <si>
+    <t>['59', '63', '70', '90+5']</t>
+  </si>
+  <si>
+    <t>['49', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1173,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP161"/>
+  <dimension ref="A1:BP168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1432,7 +1450,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1510,10 +1528,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ2">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2050,7 +2068,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2256,7 +2274,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q6">
         <v>4.1</v>
@@ -2540,10 +2558,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ7">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2668,7 +2686,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q8">
         <v>2.28</v>
@@ -2746,7 +2764,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ8">
         <v>1.14</v>
@@ -3161,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3367,7 +3385,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ11">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3985,7 +4003,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ14">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>2.25</v>
@@ -4110,7 +4128,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q15">
         <v>4.1</v>
@@ -4188,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ15">
         <v>1.25</v>
@@ -4394,10 +4412,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ16">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4600,10 +4618,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ17">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5015,7 +5033,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR19">
         <v>1.74</v>
@@ -5346,7 +5364,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q21">
         <v>4.4</v>
@@ -5427,7 +5445,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ21">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR21">
         <v>1.32</v>
@@ -5758,7 +5776,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5836,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ23">
         <v>2.13</v>
@@ -6042,10 +6060,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ24">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR24">
         <v>3.04</v>
@@ -6170,7 +6188,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6457,7 +6475,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ26">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR26">
         <v>0.85</v>
@@ -6582,7 +6600,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6660,7 +6678,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ27">
         <v>1.63</v>
@@ -6866,7 +6884,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ28">
         <v>1.67</v>
@@ -7075,7 +7093,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ29">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7484,10 +7502,10 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ31">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1.27</v>
@@ -7612,7 +7630,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q32">
         <v>3.45</v>
@@ -7818,7 +7836,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8024,7 +8042,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8230,7 +8248,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8311,7 +8329,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ35">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR35">
         <v>0</v>
@@ -8436,7 +8454,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q36">
         <v>2.8</v>
@@ -8514,10 +8532,10 @@
         <v>2</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ36">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>0</v>
@@ -8720,7 +8738,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ37">
         <v>1.43</v>
@@ -8848,7 +8866,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -8929,7 +8947,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ38">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR38">
         <v>1.1</v>
@@ -9135,7 +9153,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ39">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR39">
         <v>1.33</v>
@@ -9338,7 +9356,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ40">
         <v>1.14</v>
@@ -9672,7 +9690,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9753,7 +9771,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ42">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>0</v>
@@ -10165,7 +10183,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ44">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR44">
         <v>1.37</v>
@@ -10368,7 +10386,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ45">
         <v>1.63</v>
@@ -10574,7 +10592,7 @@
         <v>2</v>
       </c>
       <c r="AP46">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ46">
         <v>1.67</v>
@@ -10702,7 +10720,7 @@
         <v>105</v>
       </c>
       <c r="P47" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10780,7 +10798,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ47">
         <v>0.9</v>
@@ -10908,7 +10926,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -10989,7 +11007,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ48">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR48">
         <v>1.52</v>
@@ -11114,7 +11132,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -11192,7 +11210,7 @@
         <v>0</v>
       </c>
       <c r="AP49">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ49">
         <v>1.13</v>
@@ -11526,7 +11544,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q51">
         <v>1.91</v>
@@ -11732,7 +11750,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11813,7 +11831,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ52">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR52">
         <v>1.25</v>
@@ -11938,7 +11956,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12016,7 +12034,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ53">
         <v>1.14</v>
@@ -12222,10 +12240,10 @@
         <v>1.5</v>
       </c>
       <c r="AP54">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ54">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR54">
         <v>2.36</v>
@@ -12428,7 +12446,7 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ55">
         <v>0.75</v>
@@ -12556,7 +12574,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q56">
         <v>4.33</v>
@@ -12637,7 +12655,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ56">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR56">
         <v>1.03</v>
@@ -12840,7 +12858,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ57">
         <v>2.13</v>
@@ -13174,7 +13192,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13255,7 +13273,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ59">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR59">
         <v>1.09</v>
@@ -13458,7 +13476,7 @@
         <v>1.33</v>
       </c>
       <c r="AP60">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ60">
         <v>1.67</v>
@@ -13586,7 +13604,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13667,7 +13685,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ61">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR61">
         <v>1.1</v>
@@ -13792,7 +13810,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -13873,7 +13891,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ62">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -14076,7 +14094,7 @@
         <v>0.5</v>
       </c>
       <c r="AP63">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ63">
         <v>1.43</v>
@@ -14204,7 +14222,7 @@
         <v>134</v>
       </c>
       <c r="P64" t="s">
-        <v>216</v>
+        <v>191</v>
       </c>
       <c r="Q64">
         <v>3.1</v>
@@ -14410,7 +14428,7 @@
         <v>90</v>
       </c>
       <c r="P65" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q65">
         <v>3.6</v>
@@ -14491,7 +14509,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ65">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR65">
         <v>1.13</v>
@@ -14616,7 +14634,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q66">
         <v>4.75</v>
@@ -14822,7 +14840,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -15315,7 +15333,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ69">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR69">
         <v>1.3</v>
@@ -15724,7 +15742,7 @@
         <v>1.5</v>
       </c>
       <c r="AP71">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ71">
         <v>1.63</v>
@@ -15933,7 +15951,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ72">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.51</v>
@@ -16342,7 +16360,7 @@
         <v>0.5</v>
       </c>
       <c r="AP74">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ74">
         <v>1.14</v>
@@ -16754,10 +16772,10 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ76">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR76">
         <v>1.39</v>
@@ -16960,10 +16978,10 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ77">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR77">
         <v>1.29</v>
@@ -17294,7 +17312,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17578,7 +17596,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ80">
         <v>0.75</v>
@@ -17706,7 +17724,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18118,7 +18136,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18196,7 +18214,7 @@
         <v>0.8</v>
       </c>
       <c r="AP83">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ83">
         <v>0.9</v>
@@ -18405,7 +18423,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ84">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR84">
         <v>1.56</v>
@@ -18736,7 +18754,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18942,7 +18960,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19148,7 +19166,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19229,7 +19247,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ88">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR88">
         <v>1.22</v>
@@ -19354,7 +19372,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19432,7 +19450,7 @@
         <v>0.33</v>
       </c>
       <c r="AP89">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ89">
         <v>1.43</v>
@@ -19847,7 +19865,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ91">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR91">
         <v>1.1</v>
@@ -19972,7 +19990,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20178,7 +20196,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20256,7 +20274,7 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ93">
         <v>0.63</v>
@@ -20384,7 +20402,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q94">
         <v>2.3</v>
@@ -20462,7 +20480,7 @@
         <v>0.67</v>
       </c>
       <c r="AP94">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ94">
         <v>1.14</v>
@@ -20590,7 +20608,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20668,10 +20686,10 @@
         <v>1.75</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ95">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR95">
         <v>1.47</v>
@@ -21002,7 +21020,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q97">
         <v>3.25</v>
@@ -21080,7 +21098,7 @@
         <v>0.25</v>
       </c>
       <c r="AP97">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ97">
         <v>1.43</v>
@@ -21495,7 +21513,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ99">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR99">
         <v>1.86</v>
@@ -21620,7 +21638,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21701,7 +21719,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ100">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR100">
         <v>1.51</v>
@@ -21826,7 +21844,7 @@
         <v>122</v>
       </c>
       <c r="P101" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q101">
         <v>3.25</v>
@@ -22032,7 +22050,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q102">
         <v>2.25</v>
@@ -22319,7 +22337,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ103">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR103">
         <v>1.59</v>
@@ -22525,7 +22543,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ104">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR104">
         <v>1.89</v>
@@ -22650,7 +22668,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q105">
         <v>2.38</v>
@@ -22731,7 +22749,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ105">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR105">
         <v>1.64</v>
@@ -22856,7 +22874,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23062,7 +23080,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -23268,7 +23286,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23346,7 +23364,7 @@
         <v>1.17</v>
       </c>
       <c r="AP108">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ108">
         <v>0.9</v>
@@ -23474,7 +23492,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q109">
         <v>2.3</v>
@@ -23552,7 +23570,7 @@
         <v>0.8</v>
       </c>
       <c r="AP109">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ109">
         <v>1</v>
@@ -23758,7 +23776,7 @@
         <v>1</v>
       </c>
       <c r="AP110">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ110">
         <v>0.75</v>
@@ -23886,7 +23904,7 @@
         <v>122</v>
       </c>
       <c r="P111" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -23964,7 +23982,7 @@
         <v>2.5</v>
       </c>
       <c r="AP111">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ111">
         <v>2.13</v>
@@ -24298,7 +24316,7 @@
         <v>164</v>
       </c>
       <c r="P113" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q113">
         <v>3.6</v>
@@ -24379,7 +24397,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ113">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR113">
         <v>1.23</v>
@@ -24710,7 +24728,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24916,7 +24934,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q116">
         <v>3.25</v>
@@ -25406,7 +25424,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ118">
         <v>1.63</v>
@@ -25612,10 +25630,10 @@
         <v>2.4</v>
       </c>
       <c r="AP119">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ119">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR119">
         <v>1.4</v>
@@ -25946,7 +25964,7 @@
         <v>167</v>
       </c>
       <c r="P121" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26027,7 +26045,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ121">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR121">
         <v>1.17</v>
@@ -26152,7 +26170,7 @@
         <v>168</v>
       </c>
       <c r="P122" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26358,7 +26376,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26436,10 +26454,10 @@
         <v>0.86</v>
       </c>
       <c r="AP123">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ123">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR123">
         <v>1.58</v>
@@ -26564,7 +26582,7 @@
         <v>90</v>
       </c>
       <c r="P124" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -27054,10 +27072,10 @@
         <v>2.17</v>
       </c>
       <c r="AP126">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ126">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR126">
         <v>1.32</v>
@@ -27182,7 +27200,7 @@
         <v>171</v>
       </c>
       <c r="P127" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27263,7 +27281,7 @@
         <v>1</v>
       </c>
       <c r="AQ127">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR127">
         <v>1.52</v>
@@ -27388,7 +27406,7 @@
         <v>90</v>
       </c>
       <c r="P128" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q128">
         <v>2.88</v>
@@ -27466,10 +27484,10 @@
         <v>0.86</v>
       </c>
       <c r="AP128">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ128">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR128">
         <v>1.41</v>
@@ -27594,7 +27612,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27800,7 +27818,7 @@
         <v>90</v>
       </c>
       <c r="P130" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28006,7 +28024,7 @@
         <v>173</v>
       </c>
       <c r="P131" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28084,7 +28102,7 @@
         <v>1.2</v>
       </c>
       <c r="AP131">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ131">
         <v>1.14</v>
@@ -28212,7 +28230,7 @@
         <v>174</v>
       </c>
       <c r="P132" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -28293,7 +28311,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ132">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR132">
         <v>1.48</v>
@@ -28418,7 +28436,7 @@
         <v>175</v>
       </c>
       <c r="P133" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -28624,7 +28642,7 @@
         <v>176</v>
       </c>
       <c r="P134" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28702,7 +28720,7 @@
         <v>1.17</v>
       </c>
       <c r="AP134">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ134">
         <v>1.43</v>
@@ -28830,7 +28848,7 @@
         <v>177</v>
       </c>
       <c r="P135" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -28911,7 +28929,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ135">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR135">
         <v>1.52</v>
@@ -29114,7 +29132,7 @@
         <v>1.33</v>
       </c>
       <c r="AP136">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ136">
         <v>1.13</v>
@@ -29242,7 +29260,7 @@
         <v>179</v>
       </c>
       <c r="P137" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -29448,7 +29466,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29526,7 +29544,7 @@
         <v>2.33</v>
       </c>
       <c r="AP138">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ138">
         <v>2.13</v>
@@ -29654,7 +29672,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -29735,7 +29753,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ139">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR139">
         <v>1.74</v>
@@ -29860,7 +29878,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q140">
         <v>3</v>
@@ -29938,7 +29956,7 @@
         <v>0.8</v>
       </c>
       <c r="AP140">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ140">
         <v>1.43</v>
@@ -30066,7 +30084,7 @@
         <v>180</v>
       </c>
       <c r="P141" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30353,7 +30371,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ142">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR142">
         <v>1.79</v>
@@ -30478,7 +30496,7 @@
         <v>182</v>
       </c>
       <c r="P143" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q143">
         <v>3.1</v>
@@ -30556,10 +30574,10 @@
         <v>1.13</v>
       </c>
       <c r="AP143">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AQ143">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AR143">
         <v>1.61</v>
@@ -30765,7 +30783,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ144">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR144">
         <v>1.35</v>
@@ -30968,7 +30986,7 @@
         <v>1</v>
       </c>
       <c r="AP145">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ145">
         <v>0.9</v>
@@ -31174,10 +31192,10 @@
         <v>1.14</v>
       </c>
       <c r="AP146">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ146">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR146">
         <v>1.32</v>
@@ -31302,7 +31320,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -31383,7 +31401,7 @@
         <v>1</v>
       </c>
       <c r="AQ147">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AR147">
         <v>1.55</v>
@@ -31589,7 +31607,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ148">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR148">
         <v>1.54</v>
@@ -31792,7 +31810,7 @@
         <v>0.71</v>
       </c>
       <c r="AP149">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ149">
         <v>0.63</v>
@@ -32126,7 +32144,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q151">
         <v>2.38</v>
@@ -32204,7 +32222,7 @@
         <v>1.17</v>
       </c>
       <c r="AP151">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ151">
         <v>1.14</v>
@@ -32538,7 +32556,7 @@
         <v>156</v>
       </c>
       <c r="P153" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q153">
         <v>2.5</v>
@@ -32744,7 +32762,7 @@
         <v>187</v>
       </c>
       <c r="P154" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q154">
         <v>3.4</v>
@@ -33237,7 +33255,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ156">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR156">
         <v>1.69</v>
@@ -33568,7 +33586,7 @@
         <v>90</v>
       </c>
       <c r="P158" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -33852,7 +33870,7 @@
         <v>1</v>
       </c>
       <c r="AP159">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AQ159">
         <v>0.9</v>
@@ -33980,7 +33998,7 @@
         <v>141</v>
       </c>
       <c r="P160" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="Q160">
         <v>3.75</v>
@@ -34186,7 +34204,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q161">
         <v>4.75</v>
@@ -34343,6 +34361,1448 @@
       </c>
       <c r="BP161">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="162" spans="1:68">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162">
+        <v>7778650</v>
+      </c>
+      <c r="C162" t="s">
+        <v>68</v>
+      </c>
+      <c r="D162" t="s">
+        <v>69</v>
+      </c>
+      <c r="E162" s="2">
+        <v>45802.04166666666</v>
+      </c>
+      <c r="F162">
+        <v>17</v>
+      </c>
+      <c r="G162" t="s">
+        <v>70</v>
+      </c>
+      <c r="H162" t="s">
+        <v>85</v>
+      </c>
+      <c r="I162">
+        <v>1</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>2</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+      <c r="M162">
+        <v>2</v>
+      </c>
+      <c r="N162">
+        <v>3</v>
+      </c>
+      <c r="O162" t="s">
+        <v>180</v>
+      </c>
+      <c r="P162" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q162">
+        <v>3.75</v>
+      </c>
+      <c r="R162">
+        <v>2</v>
+      </c>
+      <c r="S162">
+        <v>3.2</v>
+      </c>
+      <c r="T162">
+        <v>1.5</v>
+      </c>
+      <c r="U162">
+        <v>2.5</v>
+      </c>
+      <c r="V162">
+        <v>3.4</v>
+      </c>
+      <c r="W162">
+        <v>1.3</v>
+      </c>
+      <c r="X162">
+        <v>10</v>
+      </c>
+      <c r="Y162">
+        <v>1.06</v>
+      </c>
+      <c r="Z162">
+        <v>2.87</v>
+      </c>
+      <c r="AA162">
+        <v>2.95</v>
+      </c>
+      <c r="AB162">
+        <v>2.31</v>
+      </c>
+      <c r="AC162">
+        <v>1.01</v>
+      </c>
+      <c r="AD162">
+        <v>8.5</v>
+      </c>
+      <c r="AE162">
+        <v>1.36</v>
+      </c>
+      <c r="AF162">
+        <v>2.7</v>
+      </c>
+      <c r="AG162">
+        <v>2.2</v>
+      </c>
+      <c r="AH162">
+        <v>1.57</v>
+      </c>
+      <c r="AI162">
+        <v>2</v>
+      </c>
+      <c r="AJ162">
+        <v>1.73</v>
+      </c>
+      <c r="AK162">
+        <v>1.55</v>
+      </c>
+      <c r="AL162">
+        <v>1.36</v>
+      </c>
+      <c r="AM162">
+        <v>1.36</v>
+      </c>
+      <c r="AN162">
+        <v>0.88</v>
+      </c>
+      <c r="AO162">
+        <v>1.75</v>
+      </c>
+      <c r="AP162">
+        <v>0.78</v>
+      </c>
+      <c r="AQ162">
+        <v>1.89</v>
+      </c>
+      <c r="AR162">
+        <v>1.61</v>
+      </c>
+      <c r="AS162">
+        <v>1.48</v>
+      </c>
+      <c r="AT162">
+        <v>3.09</v>
+      </c>
+      <c r="AU162">
+        <v>7</v>
+      </c>
+      <c r="AV162">
+        <v>4</v>
+      </c>
+      <c r="AW162">
+        <v>7</v>
+      </c>
+      <c r="AX162">
+        <v>8</v>
+      </c>
+      <c r="AY162">
+        <v>14</v>
+      </c>
+      <c r="AZ162">
+        <v>12</v>
+      </c>
+      <c r="BA162">
+        <v>11</v>
+      </c>
+      <c r="BB162">
+        <v>4</v>
+      </c>
+      <c r="BC162">
+        <v>15</v>
+      </c>
+      <c r="BD162">
+        <v>2.33</v>
+      </c>
+      <c r="BE162">
+        <v>6.4</v>
+      </c>
+      <c r="BF162">
+        <v>1.88</v>
+      </c>
+      <c r="BG162">
+        <v>1.18</v>
+      </c>
+      <c r="BH162">
+        <v>3.84</v>
+      </c>
+      <c r="BI162">
+        <v>1.37</v>
+      </c>
+      <c r="BJ162">
+        <v>2.66</v>
+      </c>
+      <c r="BK162">
+        <v>1.88</v>
+      </c>
+      <c r="BL162">
+        <v>1.92</v>
+      </c>
+      <c r="BM162">
+        <v>2.1</v>
+      </c>
+      <c r="BN162">
+        <v>1.59</v>
+      </c>
+      <c r="BO162">
+        <v>2.78</v>
+      </c>
+      <c r="BP162">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="163" spans="1:68">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163">
+        <v>7778654</v>
+      </c>
+      <c r="C163" t="s">
+        <v>68</v>
+      </c>
+      <c r="D163" t="s">
+        <v>69</v>
+      </c>
+      <c r="E163" s="2">
+        <v>45802.08333333334</v>
+      </c>
+      <c r="F163">
+        <v>17</v>
+      </c>
+      <c r="G163" t="s">
+        <v>76</v>
+      </c>
+      <c r="H163" t="s">
+        <v>80</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>0</v>
+      </c>
+      <c r="K163">
+        <v>0</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>1</v>
+      </c>
+      <c r="O163" t="s">
+        <v>190</v>
+      </c>
+      <c r="P163" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q163">
+        <v>2.88</v>
+      </c>
+      <c r="R163">
+        <v>2.3</v>
+      </c>
+      <c r="S163">
+        <v>3.4</v>
+      </c>
+      <c r="T163">
+        <v>1.33</v>
+      </c>
+      <c r="U163">
+        <v>3.25</v>
+      </c>
+      <c r="V163">
+        <v>2.5</v>
+      </c>
+      <c r="W163">
+        <v>1.5</v>
+      </c>
+      <c r="X163">
+        <v>6</v>
+      </c>
+      <c r="Y163">
+        <v>1.13</v>
+      </c>
+      <c r="Z163">
+        <v>2.12</v>
+      </c>
+      <c r="AA163">
+        <v>3.5</v>
+      </c>
+      <c r="AB163">
+        <v>2.77</v>
+      </c>
+      <c r="AC163">
+        <v>1.01</v>
+      </c>
+      <c r="AD163">
+        <v>11</v>
+      </c>
+      <c r="AE163">
+        <v>1.16</v>
+      </c>
+      <c r="AF163">
+        <v>4.15</v>
+      </c>
+      <c r="AG163">
+        <v>1.65</v>
+      </c>
+      <c r="AH163">
+        <v>2.05</v>
+      </c>
+      <c r="AI163">
+        <v>1.62</v>
+      </c>
+      <c r="AJ163">
+        <v>2.2</v>
+      </c>
+      <c r="AK163">
+        <v>1.36</v>
+      </c>
+      <c r="AL163">
+        <v>1.3</v>
+      </c>
+      <c r="AM163">
+        <v>1.65</v>
+      </c>
+      <c r="AN163">
+        <v>1.75</v>
+      </c>
+      <c r="AO163">
+        <v>2.13</v>
+      </c>
+      <c r="AP163">
+        <v>1.89</v>
+      </c>
+      <c r="AQ163">
+        <v>1.89</v>
+      </c>
+      <c r="AR163">
+        <v>2.07</v>
+      </c>
+      <c r="AS163">
+        <v>1.18</v>
+      </c>
+      <c r="AT163">
+        <v>3.25</v>
+      </c>
+      <c r="AU163">
+        <v>5</v>
+      </c>
+      <c r="AV163">
+        <v>3</v>
+      </c>
+      <c r="AW163">
+        <v>9</v>
+      </c>
+      <c r="AX163">
+        <v>8</v>
+      </c>
+      <c r="AY163">
+        <v>14</v>
+      </c>
+      <c r="AZ163">
+        <v>11</v>
+      </c>
+      <c r="BA163">
+        <v>5</v>
+      </c>
+      <c r="BB163">
+        <v>6</v>
+      </c>
+      <c r="BC163">
+        <v>11</v>
+      </c>
+      <c r="BD163">
+        <v>1.83</v>
+      </c>
+      <c r="BE163">
+        <v>6.3</v>
+      </c>
+      <c r="BF163">
+        <v>2.42</v>
+      </c>
+      <c r="BG163">
+        <v>1.24</v>
+      </c>
+      <c r="BH163">
+        <v>3.34</v>
+      </c>
+      <c r="BI163">
+        <v>1.45</v>
+      </c>
+      <c r="BJ163">
+        <v>2.41</v>
+      </c>
+      <c r="BK163">
+        <v>1.88</v>
+      </c>
+      <c r="BL163">
+        <v>1.92</v>
+      </c>
+      <c r="BM163">
+        <v>2.3</v>
+      </c>
+      <c r="BN163">
+        <v>1.49</v>
+      </c>
+      <c r="BO163">
+        <v>3.08</v>
+      </c>
+      <c r="BP163">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:68">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>7778652</v>
+      </c>
+      <c r="C164" t="s">
+        <v>68</v>
+      </c>
+      <c r="D164" t="s">
+        <v>69</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45802.08333333334</v>
+      </c>
+      <c r="F164">
+        <v>17</v>
+      </c>
+      <c r="G164" t="s">
+        <v>83</v>
+      </c>
+      <c r="H164" t="s">
+        <v>73</v>
+      </c>
+      <c r="I164">
+        <v>1</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>2</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+      <c r="M164">
+        <v>1</v>
+      </c>
+      <c r="N164">
+        <v>2</v>
+      </c>
+      <c r="O164" t="s">
+        <v>191</v>
+      </c>
+      <c r="P164" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q164">
+        <v>3.1</v>
+      </c>
+      <c r="R164">
+        <v>2</v>
+      </c>
+      <c r="S164">
+        <v>4</v>
+      </c>
+      <c r="T164">
+        <v>1.5</v>
+      </c>
+      <c r="U164">
+        <v>2.5</v>
+      </c>
+      <c r="V164">
+        <v>3.5</v>
+      </c>
+      <c r="W164">
+        <v>1.29</v>
+      </c>
+      <c r="X164">
+        <v>11</v>
+      </c>
+      <c r="Y164">
+        <v>1.05</v>
+      </c>
+      <c r="Z164">
+        <v>2.25</v>
+      </c>
+      <c r="AA164">
+        <v>2.98</v>
+      </c>
+      <c r="AB164">
+        <v>2.94</v>
+      </c>
+      <c r="AC164">
+        <v>1.02</v>
+      </c>
+      <c r="AD164">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE164">
+        <v>1.36</v>
+      </c>
+      <c r="AF164">
+        <v>2.69</v>
+      </c>
+      <c r="AG164">
+        <v>2.25</v>
+      </c>
+      <c r="AH164">
+        <v>1.53</v>
+      </c>
+      <c r="AI164">
+        <v>2</v>
+      </c>
+      <c r="AJ164">
+        <v>1.73</v>
+      </c>
+      <c r="AK164">
+        <v>1.35</v>
+      </c>
+      <c r="AL164">
+        <v>1.36</v>
+      </c>
+      <c r="AM164">
+        <v>1.57</v>
+      </c>
+      <c r="AN164">
+        <v>1.86</v>
+      </c>
+      <c r="AO164">
+        <v>1.14</v>
+      </c>
+      <c r="AP164">
+        <v>1.75</v>
+      </c>
+      <c r="AQ164">
+        <v>1.13</v>
+      </c>
+      <c r="AR164">
+        <v>1.35</v>
+      </c>
+      <c r="AS164">
+        <v>1.29</v>
+      </c>
+      <c r="AT164">
+        <v>2.64</v>
+      </c>
+      <c r="AU164">
+        <v>2</v>
+      </c>
+      <c r="AV164">
+        <v>3</v>
+      </c>
+      <c r="AW164">
+        <v>11</v>
+      </c>
+      <c r="AX164">
+        <v>4</v>
+      </c>
+      <c r="AY164">
+        <v>13</v>
+      </c>
+      <c r="AZ164">
+        <v>7</v>
+      </c>
+      <c r="BA164">
+        <v>5</v>
+      </c>
+      <c r="BB164">
+        <v>1</v>
+      </c>
+      <c r="BC164">
+        <v>6</v>
+      </c>
+      <c r="BD164">
+        <v>1.83</v>
+      </c>
+      <c r="BE164">
+        <v>6.3</v>
+      </c>
+      <c r="BF164">
+        <v>2.42</v>
+      </c>
+      <c r="BG164">
+        <v>1.24</v>
+      </c>
+      <c r="BH164">
+        <v>3.34</v>
+      </c>
+      <c r="BI164">
+        <v>1.47</v>
+      </c>
+      <c r="BJ164">
+        <v>2.35</v>
+      </c>
+      <c r="BK164">
+        <v>1.9</v>
+      </c>
+      <c r="BL164">
+        <v>1.9</v>
+      </c>
+      <c r="BM164">
+        <v>2.33</v>
+      </c>
+      <c r="BN164">
+        <v>1.48</v>
+      </c>
+      <c r="BO164">
+        <v>3.14</v>
+      </c>
+      <c r="BP164">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="165" spans="1:68">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>7778653</v>
+      </c>
+      <c r="C165" t="s">
+        <v>68</v>
+      </c>
+      <c r="D165" t="s">
+        <v>69</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45802.08333333334</v>
+      </c>
+      <c r="F165">
+        <v>17</v>
+      </c>
+      <c r="G165" t="s">
+        <v>75</v>
+      </c>
+      <c r="H165" t="s">
+        <v>87</v>
+      </c>
+      <c r="I165">
+        <v>2</v>
+      </c>
+      <c r="J165">
+        <v>0</v>
+      </c>
+      <c r="K165">
+        <v>2</v>
+      </c>
+      <c r="L165">
+        <v>2</v>
+      </c>
+      <c r="M165">
+        <v>1</v>
+      </c>
+      <c r="N165">
+        <v>3</v>
+      </c>
+      <c r="O165" t="s">
+        <v>192</v>
+      </c>
+      <c r="P165" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q165">
+        <v>3.25</v>
+      </c>
+      <c r="R165">
+        <v>2.1</v>
+      </c>
+      <c r="S165">
+        <v>3.25</v>
+      </c>
+      <c r="T165">
+        <v>1.4</v>
+      </c>
+      <c r="U165">
+        <v>2.75</v>
+      </c>
+      <c r="V165">
+        <v>3</v>
+      </c>
+      <c r="W165">
+        <v>1.36</v>
+      </c>
+      <c r="X165">
+        <v>8</v>
+      </c>
+      <c r="Y165">
+        <v>1.08</v>
+      </c>
+      <c r="Z165">
+        <v>2.45</v>
+      </c>
+      <c r="AA165">
+        <v>3.25</v>
+      </c>
+      <c r="AB165">
+        <v>2.47</v>
+      </c>
+      <c r="AC165">
+        <v>1.02</v>
+      </c>
+      <c r="AD165">
+        <v>8</v>
+      </c>
+      <c r="AE165">
+        <v>1.25</v>
+      </c>
+      <c r="AF165">
+        <v>3.28</v>
+      </c>
+      <c r="AG165">
+        <v>1.92</v>
+      </c>
+      <c r="AH165">
+        <v>1.78</v>
+      </c>
+      <c r="AI165">
+        <v>1.8</v>
+      </c>
+      <c r="AJ165">
+        <v>1.91</v>
+      </c>
+      <c r="AK165">
+        <v>1.44</v>
+      </c>
+      <c r="AL165">
+        <v>1.33</v>
+      </c>
+      <c r="AM165">
+        <v>1.44</v>
+      </c>
+      <c r="AN165">
+        <v>1.67</v>
+      </c>
+      <c r="AO165">
+        <v>1.11</v>
+      </c>
+      <c r="AP165">
+        <v>1.8</v>
+      </c>
+      <c r="AQ165">
+        <v>1</v>
+      </c>
+      <c r="AR165">
+        <v>1.25</v>
+      </c>
+      <c r="AS165">
+        <v>1.37</v>
+      </c>
+      <c r="AT165">
+        <v>2.62</v>
+      </c>
+      <c r="AU165">
+        <v>7</v>
+      </c>
+      <c r="AV165">
+        <v>4</v>
+      </c>
+      <c r="AW165">
+        <v>8</v>
+      </c>
+      <c r="AX165">
+        <v>4</v>
+      </c>
+      <c r="AY165">
+        <v>15</v>
+      </c>
+      <c r="AZ165">
+        <v>8</v>
+      </c>
+      <c r="BA165">
+        <v>5</v>
+      </c>
+      <c r="BB165">
+        <v>8</v>
+      </c>
+      <c r="BC165">
+        <v>13</v>
+      </c>
+      <c r="BD165">
+        <v>2.14</v>
+      </c>
+      <c r="BE165">
+        <v>6.25</v>
+      </c>
+      <c r="BF165">
+        <v>2.04</v>
+      </c>
+      <c r="BG165">
+        <v>1.24</v>
+      </c>
+      <c r="BH165">
+        <v>3.34</v>
+      </c>
+      <c r="BI165">
+        <v>1.47</v>
+      </c>
+      <c r="BJ165">
+        <v>2.35</v>
+      </c>
+      <c r="BK165">
+        <v>1.9</v>
+      </c>
+      <c r="BL165">
+        <v>1.9</v>
+      </c>
+      <c r="BM165">
+        <v>2.33</v>
+      </c>
+      <c r="BN165">
+        <v>1.48</v>
+      </c>
+      <c r="BO165">
+        <v>3.14</v>
+      </c>
+      <c r="BP165">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="166" spans="1:68">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>7778649</v>
+      </c>
+      <c r="C166" t="s">
+        <v>68</v>
+      </c>
+      <c r="D166" t="s">
+        <v>69</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45802.08333333334</v>
+      </c>
+      <c r="F166">
+        <v>17</v>
+      </c>
+      <c r="G166" t="s">
+        <v>88</v>
+      </c>
+      <c r="H166" t="s">
+        <v>72</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>0</v>
+      </c>
+      <c r="K166">
+        <v>0</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>4</v>
+      </c>
+      <c r="N166">
+        <v>4</v>
+      </c>
+      <c r="O166" t="s">
+        <v>90</v>
+      </c>
+      <c r="P166" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q166">
+        <v>2.75</v>
+      </c>
+      <c r="R166">
+        <v>2.05</v>
+      </c>
+      <c r="S166">
+        <v>4.33</v>
+      </c>
+      <c r="T166">
+        <v>1.5</v>
+      </c>
+      <c r="U166">
+        <v>2.5</v>
+      </c>
+      <c r="V166">
+        <v>3.4</v>
+      </c>
+      <c r="W166">
+        <v>1.3</v>
+      </c>
+      <c r="X166">
+        <v>10</v>
+      </c>
+      <c r="Y166">
+        <v>1.06</v>
+      </c>
+      <c r="Z166">
+        <v>2</v>
+      </c>
+      <c r="AA166">
+        <v>3.06</v>
+      </c>
+      <c r="AB166">
+        <v>3.41</v>
+      </c>
+      <c r="AC166">
+        <v>1.03</v>
+      </c>
+      <c r="AD166">
+        <v>7.6</v>
+      </c>
+      <c r="AE166">
+        <v>1.36</v>
+      </c>
+      <c r="AF166">
+        <v>2.7</v>
+      </c>
+      <c r="AG166">
+        <v>2.15</v>
+      </c>
+      <c r="AH166">
+        <v>1.57</v>
+      </c>
+      <c r="AI166">
+        <v>2</v>
+      </c>
+      <c r="AJ166">
+        <v>1.73</v>
+      </c>
+      <c r="AK166">
+        <v>1.29</v>
+      </c>
+      <c r="AL166">
+        <v>1.35</v>
+      </c>
+      <c r="AM166">
+        <v>1.7</v>
+      </c>
+      <c r="AN166">
+        <v>1.33</v>
+      </c>
+      <c r="AO166">
+        <v>1.13</v>
+      </c>
+      <c r="AP166">
+        <v>1.14</v>
+      </c>
+      <c r="AQ166">
+        <v>1.33</v>
+      </c>
+      <c r="AR166">
+        <v>1.35</v>
+      </c>
+      <c r="AS166">
+        <v>1.16</v>
+      </c>
+      <c r="AT166">
+        <v>2.51</v>
+      </c>
+      <c r="AU166">
+        <v>4</v>
+      </c>
+      <c r="AV166">
+        <v>12</v>
+      </c>
+      <c r="AW166">
+        <v>6</v>
+      </c>
+      <c r="AX166">
+        <v>6</v>
+      </c>
+      <c r="AY166">
+        <v>10</v>
+      </c>
+      <c r="AZ166">
+        <v>18</v>
+      </c>
+      <c r="BA166">
+        <v>4</v>
+      </c>
+      <c r="BB166">
+        <v>7</v>
+      </c>
+      <c r="BC166">
+        <v>11</v>
+      </c>
+      <c r="BD166">
+        <v>1.9</v>
+      </c>
+      <c r="BE166">
+        <v>6.3</v>
+      </c>
+      <c r="BF166">
+        <v>2.31</v>
+      </c>
+      <c r="BG166">
+        <v>1.23</v>
+      </c>
+      <c r="BH166">
+        <v>3.42</v>
+      </c>
+      <c r="BI166">
+        <v>1.44</v>
+      </c>
+      <c r="BJ166">
+        <v>2.43</v>
+      </c>
+      <c r="BK166">
+        <v>1.85</v>
+      </c>
+      <c r="BL166">
+        <v>1.95</v>
+      </c>
+      <c r="BM166">
+        <v>2.26</v>
+      </c>
+      <c r="BN166">
+        <v>1.51</v>
+      </c>
+      <c r="BO166">
+        <v>3.05</v>
+      </c>
+      <c r="BP166">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="167" spans="1:68">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>7778651</v>
+      </c>
+      <c r="C167" t="s">
+        <v>68</v>
+      </c>
+      <c r="D167" t="s">
+        <v>69</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45802.08333333334</v>
+      </c>
+      <c r="F167">
+        <v>17</v>
+      </c>
+      <c r="G167" t="s">
+        <v>81</v>
+      </c>
+      <c r="H167" t="s">
+        <v>74</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>0</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>0</v>
+      </c>
+      <c r="O167" t="s">
+        <v>90</v>
+      </c>
+      <c r="P167" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q167">
+        <v>2.88</v>
+      </c>
+      <c r="R167">
+        <v>2.1</v>
+      </c>
+      <c r="S167">
+        <v>4</v>
+      </c>
+      <c r="T167">
+        <v>1.44</v>
+      </c>
+      <c r="U167">
+        <v>2.63</v>
+      </c>
+      <c r="V167">
+        <v>3.25</v>
+      </c>
+      <c r="W167">
+        <v>1.33</v>
+      </c>
+      <c r="X167">
+        <v>9</v>
+      </c>
+      <c r="Y167">
+        <v>1.07</v>
+      </c>
+      <c r="Z167">
+        <v>2.1</v>
+      </c>
+      <c r="AA167">
+        <v>3.1</v>
+      </c>
+      <c r="AB167">
+        <v>3.12</v>
+      </c>
+      <c r="AC167">
+        <v>1.02</v>
+      </c>
+      <c r="AD167">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE167">
+        <v>1.32</v>
+      </c>
+      <c r="AF167">
+        <v>2.88</v>
+      </c>
+      <c r="AG167">
+        <v>2.05</v>
+      </c>
+      <c r="AH167">
+        <v>1.61</v>
+      </c>
+      <c r="AI167">
+        <v>1.83</v>
+      </c>
+      <c r="AJ167">
+        <v>1.83</v>
+      </c>
+      <c r="AK167">
+        <v>1.33</v>
+      </c>
+      <c r="AL167">
+        <v>1.35</v>
+      </c>
+      <c r="AM167">
+        <v>1.67</v>
+      </c>
+      <c r="AN167">
+        <v>1.13</v>
+      </c>
+      <c r="AO167">
+        <v>0.75</v>
+      </c>
+      <c r="AP167">
+        <v>1.11</v>
+      </c>
+      <c r="AQ167">
+        <v>0.78</v>
+      </c>
+      <c r="AR167">
+        <v>1.34</v>
+      </c>
+      <c r="AS167">
+        <v>1.44</v>
+      </c>
+      <c r="AT167">
+        <v>2.78</v>
+      </c>
+      <c r="AU167">
+        <v>8</v>
+      </c>
+      <c r="AV167">
+        <v>8</v>
+      </c>
+      <c r="AW167">
+        <v>5</v>
+      </c>
+      <c r="AX167">
+        <v>8</v>
+      </c>
+      <c r="AY167">
+        <v>13</v>
+      </c>
+      <c r="AZ167">
+        <v>16</v>
+      </c>
+      <c r="BA167">
+        <v>5</v>
+      </c>
+      <c r="BB167">
+        <v>7</v>
+      </c>
+      <c r="BC167">
+        <v>12</v>
+      </c>
+      <c r="BD167">
+        <v>1.9</v>
+      </c>
+      <c r="BE167">
+        <v>6.3</v>
+      </c>
+      <c r="BF167">
+        <v>2.31</v>
+      </c>
+      <c r="BG167">
+        <v>1.24</v>
+      </c>
+      <c r="BH167">
+        <v>3.34</v>
+      </c>
+      <c r="BI167">
+        <v>1.45</v>
+      </c>
+      <c r="BJ167">
+        <v>2.41</v>
+      </c>
+      <c r="BK167">
+        <v>1.88</v>
+      </c>
+      <c r="BL167">
+        <v>1.92</v>
+      </c>
+      <c r="BM167">
+        <v>2.3</v>
+      </c>
+      <c r="BN167">
+        <v>1.49</v>
+      </c>
+      <c r="BO167">
+        <v>3.08</v>
+      </c>
+      <c r="BP167">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="168" spans="1:68">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>7778655</v>
+      </c>
+      <c r="C168" t="s">
+        <v>68</v>
+      </c>
+      <c r="D168" t="s">
+        <v>69</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45802.16666666666</v>
+      </c>
+      <c r="F168">
+        <v>17</v>
+      </c>
+      <c r="G168" t="s">
+        <v>82</v>
+      </c>
+      <c r="H168" t="s">
+        <v>89</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+      <c r="M168">
+        <v>2</v>
+      </c>
+      <c r="N168">
+        <v>3</v>
+      </c>
+      <c r="O168" t="s">
+        <v>193</v>
+      </c>
+      <c r="P168" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q168">
+        <v>2.75</v>
+      </c>
+      <c r="R168">
+        <v>2.05</v>
+      </c>
+      <c r="S168">
+        <v>4.33</v>
+      </c>
+      <c r="T168">
+        <v>1.44</v>
+      </c>
+      <c r="U168">
+        <v>2.63</v>
+      </c>
+      <c r="V168">
+        <v>3.25</v>
+      </c>
+      <c r="W168">
+        <v>1.33</v>
+      </c>
+      <c r="X168">
+        <v>10</v>
+      </c>
+      <c r="Y168">
+        <v>1.06</v>
+      </c>
+      <c r="Z168">
+        <v>2.09</v>
+      </c>
+      <c r="AA168">
+        <v>3.02</v>
+      </c>
+      <c r="AB168">
+        <v>3.23</v>
+      </c>
+      <c r="AC168">
+        <v>1.03</v>
+      </c>
+      <c r="AD168">
+        <v>7.6</v>
+      </c>
+      <c r="AE168">
+        <v>1.34</v>
+      </c>
+      <c r="AF168">
+        <v>2.78</v>
+      </c>
+      <c r="AG168">
+        <v>2.1</v>
+      </c>
+      <c r="AH168">
+        <v>1.6</v>
+      </c>
+      <c r="AI168">
+        <v>1.91</v>
+      </c>
+      <c r="AJ168">
+        <v>1.8</v>
+      </c>
+      <c r="AK168">
+        <v>1.3</v>
+      </c>
+      <c r="AL168">
+        <v>1.35</v>
+      </c>
+      <c r="AM168">
+        <v>1.67</v>
+      </c>
+      <c r="AN168">
+        <v>1</v>
+      </c>
+      <c r="AO168">
+        <v>0.78</v>
+      </c>
+      <c r="AP168">
+        <v>0.9</v>
+      </c>
+      <c r="AQ168">
+        <v>1</v>
+      </c>
+      <c r="AR168">
+        <v>1.45</v>
+      </c>
+      <c r="AS168">
+        <v>1.39</v>
+      </c>
+      <c r="AT168">
+        <v>2.84</v>
+      </c>
+      <c r="AU168">
+        <v>3</v>
+      </c>
+      <c r="AV168">
+        <v>4</v>
+      </c>
+      <c r="AW168">
+        <v>7</v>
+      </c>
+      <c r="AX168">
+        <v>6</v>
+      </c>
+      <c r="AY168">
+        <v>10</v>
+      </c>
+      <c r="AZ168">
+        <v>10</v>
+      </c>
+      <c r="BA168">
+        <v>6</v>
+      </c>
+      <c r="BB168">
+        <v>4</v>
+      </c>
+      <c r="BC168">
+        <v>10</v>
+      </c>
+      <c r="BD168">
+        <v>1.36</v>
+      </c>
+      <c r="BE168">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF168">
+        <v>3.65</v>
+      </c>
+      <c r="BG168">
+        <v>1.2</v>
+      </c>
+      <c r="BH168">
+        <v>3.7</v>
+      </c>
+      <c r="BI168">
+        <v>1.39</v>
+      </c>
+      <c r="BJ168">
+        <v>2.59</v>
+      </c>
+      <c r="BK168">
+        <v>1.71</v>
+      </c>
+      <c r="BL168">
+        <v>1.97</v>
+      </c>
+      <c r="BM168">
+        <v>2.15</v>
+      </c>
+      <c r="BN168">
+        <v>1.56</v>
+      </c>
+      <c r="BO168">
+        <v>2.83</v>
+      </c>
+      <c r="BP168">
+        <v>1.33</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="279">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,6 +598,21 @@
     <t>['18']</t>
   </si>
   <si>
+    <t>['44', '45+1']</t>
+  </si>
+  <si>
+    <t>['44', '66']</t>
+  </si>
+  <si>
+    <t>['51', '68']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['3', '6', '10']</t>
+  </si>
+  <si>
     <t>['31', '60']</t>
   </si>
   <si>
@@ -830,6 +845,12 @@
   </si>
   <si>
     <t>['49', '90+1']</t>
+  </si>
+  <si>
+    <t>['4', '90+4']</t>
+  </si>
+  <si>
+    <t>['23', '42']</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP168"/>
+  <dimension ref="A1:BP175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1450,7 +1471,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1734,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ3">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1943,7 +1964,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2068,7 +2089,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2274,7 +2295,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q6">
         <v>4.1</v>
@@ -2352,7 +2373,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ6">
         <v>1.67</v>
@@ -2558,7 +2579,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ7">
         <v>1.89</v>
@@ -2686,7 +2707,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q8">
         <v>2.28</v>
@@ -2973,7 +2994,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ9">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3794,10 +3815,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ13">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4000,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14">
         <v>1.33</v>
@@ -4128,7 +4149,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q15">
         <v>4.1</v>
@@ -4209,7 +4230,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4824,10 +4845,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ18">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5364,7 +5385,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q21">
         <v>4.4</v>
@@ -5648,7 +5669,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ22">
         <v>1.13</v>
@@ -5776,7 +5797,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5854,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ23">
         <v>2.13</v>
@@ -6063,7 +6084,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ24">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR24">
         <v>3.04</v>
@@ -6188,7 +6209,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6266,10 +6287,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ25">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR25">
         <v>1.45</v>
@@ -6472,7 +6493,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6600,7 +6621,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -7296,10 +7317,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ30">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR30">
         <v>1.54</v>
@@ -7630,7 +7651,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q32">
         <v>3.45</v>
@@ -7708,10 +7729,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ32">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR32">
         <v>1.26</v>
@@ -7836,7 +7857,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7914,10 +7935,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ33">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR33">
         <v>1.88</v>
@@ -8042,7 +8063,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8248,7 +8269,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8454,7 +8475,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q36">
         <v>2.8</v>
@@ -8866,7 +8887,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -9153,7 +9174,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ39">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR39">
         <v>1.33</v>
@@ -9690,7 +9711,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9768,7 +9789,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9974,7 +9995,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -10386,7 +10407,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ45">
         <v>1.63</v>
@@ -10720,7 +10741,7 @@
         <v>105</v>
       </c>
       <c r="P47" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10801,7 +10822,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ47">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR47">
         <v>1.58</v>
@@ -10926,7 +10947,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -11004,7 +11025,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ48">
         <v>1.89</v>
@@ -11132,7 +11153,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -11419,7 +11440,7 @@
         <v>1</v>
       </c>
       <c r="AQ50">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR50">
         <v>1.08</v>
@@ -11544,7 +11565,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q51">
         <v>1.91</v>
@@ -11622,10 +11643,10 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ51">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR51">
         <v>1.69</v>
@@ -11750,7 +11771,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11828,10 +11849,10 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ52">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR52">
         <v>1.25</v>
@@ -11956,7 +11977,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12446,10 +12467,10 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ55">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR55">
         <v>1.39</v>
@@ -12574,7 +12595,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q56">
         <v>4.33</v>
@@ -13064,7 +13085,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ58">
         <v>1.43</v>
@@ -13192,7 +13213,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13604,7 +13625,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13810,7 +13831,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -14300,7 +14321,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ64">
         <v>1</v>
@@ -14428,7 +14449,7 @@
         <v>90</v>
       </c>
       <c r="P65" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q65">
         <v>3.6</v>
@@ -14634,7 +14655,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q66">
         <v>4.75</v>
@@ -14712,10 +14733,10 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ66">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR66">
         <v>1.04</v>
@@ -14840,7 +14861,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14921,7 +14942,7 @@
         <v>1</v>
       </c>
       <c r="AQ67">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR67">
         <v>1.24</v>
@@ -15124,10 +15145,10 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ68">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR68">
         <v>1.93</v>
@@ -15948,7 +15969,7 @@
         <v>1.2</v>
       </c>
       <c r="AP72">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -16363,7 +16384,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ74">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR74">
         <v>1.3</v>
@@ -16566,7 +16587,7 @@
         <v>0.33</v>
       </c>
       <c r="AP75">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ75">
         <v>1.43</v>
@@ -16772,7 +16793,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ76">
         <v>0.78</v>
@@ -16981,7 +17002,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ77">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR77">
         <v>1.29</v>
@@ -17312,7 +17333,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17390,7 +17411,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ79">
         <v>1.13</v>
@@ -17599,7 +17620,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ80">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR80">
         <v>1.56</v>
@@ -17724,7 +17745,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17805,7 +17826,7 @@
         <v>1</v>
       </c>
       <c r="AQ81">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR81">
         <v>1.55</v>
@@ -18008,7 +18029,7 @@
         <v>3</v>
       </c>
       <c r="AP82">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ82">
         <v>2.13</v>
@@ -18136,7 +18157,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18217,7 +18238,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ83">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR83">
         <v>1.52</v>
@@ -18420,7 +18441,7 @@
         <v>1.2</v>
       </c>
       <c r="AP84">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18754,7 +18775,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18832,7 +18853,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ86">
         <v>1.63</v>
@@ -18960,7 +18981,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19041,7 +19062,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ87">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR87">
         <v>1.26</v>
@@ -19166,7 +19187,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19244,7 +19265,7 @@
         <v>2.25</v>
       </c>
       <c r="AP88">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ88">
         <v>1.89</v>
@@ -19372,7 +19393,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19990,7 +20011,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20071,7 +20092,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ92">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR92">
         <v>1.1</v>
@@ -20196,7 +20217,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20274,10 +20295,10 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ93">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR93">
         <v>1.32</v>
@@ -20402,7 +20423,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q94">
         <v>2.3</v>
@@ -20483,7 +20504,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ94">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR94">
         <v>1.38</v>
@@ -20608,7 +20629,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21020,7 +21041,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q97">
         <v>3.25</v>
@@ -21304,7 +21325,7 @@
         <v>1.25</v>
       </c>
       <c r="AP98">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ98">
         <v>1.13</v>
@@ -21510,10 +21531,10 @@
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ99">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR99">
         <v>1.86</v>
@@ -21638,7 +21659,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21844,7 +21865,7 @@
         <v>122</v>
       </c>
       <c r="P101" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q101">
         <v>3.25</v>
@@ -22050,7 +22071,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q102">
         <v>2.25</v>
@@ -22128,10 +22149,10 @@
         <v>1.25</v>
       </c>
       <c r="AP102">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ102">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR102">
         <v>1.46</v>
@@ -22334,7 +22355,7 @@
         <v>0.8</v>
       </c>
       <c r="AP103">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ103">
         <v>1.33</v>
@@ -22540,7 +22561,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -22668,7 +22689,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q105">
         <v>2.38</v>
@@ -22746,7 +22767,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -22874,7 +22895,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23080,7 +23101,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -23158,7 +23179,7 @@
         <v>1.25</v>
       </c>
       <c r="AP107">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ107">
         <v>1.14</v>
@@ -23286,7 +23307,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23364,10 +23385,10 @@
         <v>1.17</v>
       </c>
       <c r="AP108">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ108">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR108">
         <v>1.33</v>
@@ -23492,7 +23513,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q109">
         <v>2.3</v>
@@ -23779,7 +23800,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ110">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR110">
         <v>1.34</v>
@@ -23904,7 +23925,7 @@
         <v>122</v>
       </c>
       <c r="P111" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -24191,7 +24212,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ112">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR112">
         <v>1.39</v>
@@ -24316,7 +24337,7 @@
         <v>164</v>
       </c>
       <c r="P113" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q113">
         <v>3.6</v>
@@ -24600,7 +24621,7 @@
         <v>2.6</v>
       </c>
       <c r="AP114">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ114">
         <v>2.13</v>
@@ -24728,7 +24749,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24806,7 +24827,7 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ115">
         <v>1.67</v>
@@ -24934,7 +24955,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q116">
         <v>3.25</v>
@@ -25015,7 +25036,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ116">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR116">
         <v>1.54</v>
@@ -25839,7 +25860,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ120">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR120">
         <v>1.38</v>
@@ -25964,7 +25985,7 @@
         <v>167</v>
       </c>
       <c r="P121" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26170,7 +26191,7 @@
         <v>168</v>
       </c>
       <c r="P122" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26248,10 +26269,10 @@
         <v>0.83</v>
       </c>
       <c r="AP122">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ122">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR122">
         <v>1.51</v>
@@ -26376,7 +26397,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26582,7 +26603,7 @@
         <v>90</v>
       </c>
       <c r="P124" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -27072,7 +27093,7 @@
         <v>2.17</v>
       </c>
       <c r="AP126">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ126">
         <v>1.89</v>
@@ -27200,7 +27221,7 @@
         <v>171</v>
       </c>
       <c r="P127" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27281,7 +27302,7 @@
         <v>1</v>
       </c>
       <c r="AQ127">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR127">
         <v>1.52</v>
@@ -27406,7 +27427,7 @@
         <v>90</v>
       </c>
       <c r="P128" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q128">
         <v>2.88</v>
@@ -27612,7 +27633,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27690,10 +27711,10 @@
         <v>0.83</v>
       </c>
       <c r="AP129">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ129">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR129">
         <v>1.79</v>
@@ -27818,7 +27839,7 @@
         <v>90</v>
       </c>
       <c r="P130" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -27896,7 +27917,7 @@
         <v>0.8</v>
       </c>
       <c r="AP130">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ130">
         <v>1.43</v>
@@ -28024,7 +28045,7 @@
         <v>173</v>
       </c>
       <c r="P131" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28105,7 +28126,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ131">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR131">
         <v>2.03</v>
@@ -28230,7 +28251,7 @@
         <v>174</v>
       </c>
       <c r="P132" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -28308,7 +28329,7 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ132">
         <v>0.78</v>
@@ -28436,7 +28457,7 @@
         <v>175</v>
       </c>
       <c r="P133" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -28517,7 +28538,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ133">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR133">
         <v>1.27</v>
@@ -28642,7 +28663,7 @@
         <v>176</v>
       </c>
       <c r="P134" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28848,7 +28869,7 @@
         <v>177</v>
       </c>
       <c r="P135" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -28929,7 +28950,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ135">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR135">
         <v>1.52</v>
@@ -29260,7 +29281,7 @@
         <v>179</v>
       </c>
       <c r="P137" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -29466,7 +29487,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29672,7 +29693,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -29750,7 +29771,7 @@
         <v>0.83</v>
       </c>
       <c r="AP139">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ139">
         <v>1.33</v>
@@ -29878,7 +29899,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q140">
         <v>3</v>
@@ -30084,7 +30105,7 @@
         <v>180</v>
       </c>
       <c r="P141" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30162,7 +30183,7 @@
         <v>1.17</v>
       </c>
       <c r="AP141">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ141">
         <v>1.63</v>
@@ -30368,7 +30389,7 @@
         <v>2.17</v>
       </c>
       <c r="AP142">
-        <v>2.5</v>
+        <v>2.33</v>
       </c>
       <c r="AQ142">
         <v>1.89</v>
@@ -30496,7 +30517,7 @@
         <v>182</v>
       </c>
       <c r="P143" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q143">
         <v>3.1</v>
@@ -30989,7 +31010,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ145">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR145">
         <v>2.16</v>
@@ -31192,7 +31213,7 @@
         <v>1.14</v>
       </c>
       <c r="AP146">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ146">
         <v>1.33</v>
@@ -31320,7 +31341,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -31604,7 +31625,7 @@
         <v>0.88</v>
       </c>
       <c r="AP148">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ148">
         <v>1</v>
@@ -31813,7 +31834,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ149">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR149">
         <v>1.34</v>
@@ -32144,7 +32165,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q151">
         <v>2.38</v>
@@ -32225,7 +32246,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ151">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR151">
         <v>1.46</v>
@@ -32556,7 +32577,7 @@
         <v>156</v>
       </c>
       <c r="P153" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q153">
         <v>2.5</v>
@@ -32637,7 +32658,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ153">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR153">
         <v>1.56</v>
@@ -32762,7 +32783,7 @@
         <v>187</v>
       </c>
       <c r="P154" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q154">
         <v>3.4</v>
@@ -32840,7 +32861,7 @@
         <v>1.17</v>
       </c>
       <c r="AP154">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ154">
         <v>1.43</v>
@@ -33046,7 +33067,7 @@
         <v>1.33</v>
       </c>
       <c r="AP155">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ155">
         <v>1.14</v>
@@ -33252,7 +33273,7 @@
         <v>1.86</v>
       </c>
       <c r="AP156">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ156">
         <v>1.89</v>
@@ -33586,7 +33607,7 @@
         <v>90</v>
       </c>
       <c r="P158" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -33664,7 +33685,7 @@
         <v>1.43</v>
       </c>
       <c r="AP158">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ158">
         <v>1.63</v>
@@ -33873,7 +33894,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ159">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR159">
         <v>1.33</v>
@@ -33998,7 +34019,7 @@
         <v>141</v>
       </c>
       <c r="P160" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="Q160">
         <v>3.75</v>
@@ -34079,7 +34100,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ160">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR160">
         <v>1.07</v>
@@ -34204,7 +34225,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="Q161">
         <v>4.75</v>
@@ -34410,7 +34431,7 @@
         <v>180</v>
       </c>
       <c r="P162" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="Q162">
         <v>3.75</v>
@@ -34822,7 +34843,7 @@
         <v>191</v>
       </c>
       <c r="P164" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q164">
         <v>3.1</v>
@@ -34903,7 +34924,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ164">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR164">
         <v>1.35</v>
@@ -35106,7 +35127,7 @@
         <v>1.11</v>
       </c>
       <c r="AP165">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35234,7 +35255,7 @@
         <v>90</v>
       </c>
       <c r="P166" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35646,7 +35667,7 @@
         <v>193</v>
       </c>
       <c r="P168" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -35803,6 +35824,1448 @@
       </c>
       <c r="BP168">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7778664</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45808.08333333334</v>
+      </c>
+      <c r="F169">
+        <v>18</v>
+      </c>
+      <c r="G169" t="s">
+        <v>75</v>
+      </c>
+      <c r="H169" t="s">
+        <v>77</v>
+      </c>
+      <c r="I169">
+        <v>2</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>2</v>
+      </c>
+      <c r="L169">
+        <v>2</v>
+      </c>
+      <c r="M169">
+        <v>2</v>
+      </c>
+      <c r="N169">
+        <v>4</v>
+      </c>
+      <c r="O169" t="s">
+        <v>194</v>
+      </c>
+      <c r="P169" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q169">
+        <v>2.3</v>
+      </c>
+      <c r="R169">
+        <v>2.2</v>
+      </c>
+      <c r="S169">
+        <v>5</v>
+      </c>
+      <c r="T169">
+        <v>1.4</v>
+      </c>
+      <c r="U169">
+        <v>2.75</v>
+      </c>
+      <c r="V169">
+        <v>2.75</v>
+      </c>
+      <c r="W169">
+        <v>1.4</v>
+      </c>
+      <c r="X169">
+        <v>8</v>
+      </c>
+      <c r="Y169">
+        <v>1.08</v>
+      </c>
+      <c r="Z169">
+        <v>1.71</v>
+      </c>
+      <c r="AA169">
+        <v>3.5</v>
+      </c>
+      <c r="AB169">
+        <v>3.99</v>
+      </c>
+      <c r="AC169">
+        <v>1</v>
+      </c>
+      <c r="AD169">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE169">
+        <v>1.26</v>
+      </c>
+      <c r="AF169">
+        <v>3.22</v>
+      </c>
+      <c r="AG169">
+        <v>1.84</v>
+      </c>
+      <c r="AH169">
+        <v>1.86</v>
+      </c>
+      <c r="AI169">
+        <v>1.91</v>
+      </c>
+      <c r="AJ169">
+        <v>1.8</v>
+      </c>
+      <c r="AK169">
+        <v>1.18</v>
+      </c>
+      <c r="AL169">
+        <v>1.3</v>
+      </c>
+      <c r="AM169">
+        <v>2</v>
+      </c>
+      <c r="AN169">
+        <v>1.8</v>
+      </c>
+      <c r="AO169">
+        <v>1.14</v>
+      </c>
+      <c r="AP169">
+        <v>1.73</v>
+      </c>
+      <c r="AQ169">
+        <v>1.13</v>
+      </c>
+      <c r="AR169">
+        <v>1.3</v>
+      </c>
+      <c r="AS169">
+        <v>1.28</v>
+      </c>
+      <c r="AT169">
+        <v>2.58</v>
+      </c>
+      <c r="AU169">
+        <v>4</v>
+      </c>
+      <c r="AV169">
+        <v>4</v>
+      </c>
+      <c r="AW169">
+        <v>7</v>
+      </c>
+      <c r="AX169">
+        <v>3</v>
+      </c>
+      <c r="AY169">
+        <v>11</v>
+      </c>
+      <c r="AZ169">
+        <v>7</v>
+      </c>
+      <c r="BA169">
+        <v>7</v>
+      </c>
+      <c r="BB169">
+        <v>1</v>
+      </c>
+      <c r="BC169">
+        <v>8</v>
+      </c>
+      <c r="BD169">
+        <v>1.34</v>
+      </c>
+      <c r="BE169">
+        <v>9.5</v>
+      </c>
+      <c r="BF169">
+        <v>4.07</v>
+      </c>
+      <c r="BG169">
+        <v>1.17</v>
+      </c>
+      <c r="BH169">
+        <v>4.15</v>
+      </c>
+      <c r="BI169">
+        <v>1.34</v>
+      </c>
+      <c r="BJ169">
+        <v>3.02</v>
+      </c>
+      <c r="BK169">
+        <v>1.58</v>
+      </c>
+      <c r="BL169">
+        <v>2.28</v>
+      </c>
+      <c r="BM169">
+        <v>2</v>
+      </c>
+      <c r="BN169">
+        <v>1.8</v>
+      </c>
+      <c r="BO169">
+        <v>2.38</v>
+      </c>
+      <c r="BP169">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7778662</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45808.08333333334</v>
+      </c>
+      <c r="F170">
+        <v>18</v>
+      </c>
+      <c r="G170" t="s">
+        <v>74</v>
+      </c>
+      <c r="H170" t="s">
+        <v>88</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>2</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>3</v>
+      </c>
+      <c r="O170" t="s">
+        <v>195</v>
+      </c>
+      <c r="P170" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q170">
+        <v>3.25</v>
+      </c>
+      <c r="R170">
+        <v>2.2</v>
+      </c>
+      <c r="S170">
+        <v>3.1</v>
+      </c>
+      <c r="T170">
+        <v>1.36</v>
+      </c>
+      <c r="U170">
+        <v>3</v>
+      </c>
+      <c r="V170">
+        <v>2.63</v>
+      </c>
+      <c r="W170">
+        <v>1.44</v>
+      </c>
+      <c r="X170">
+        <v>7</v>
+      </c>
+      <c r="Y170">
+        <v>1.1</v>
+      </c>
+      <c r="Z170">
+        <v>2.54</v>
+      </c>
+      <c r="AA170">
+        <v>3.45</v>
+      </c>
+      <c r="AB170">
+        <v>2.3</v>
+      </c>
+      <c r="AC170">
+        <v>1.02</v>
+      </c>
+      <c r="AD170">
+        <v>10</v>
+      </c>
+      <c r="AE170">
+        <v>1.22</v>
+      </c>
+      <c r="AF170">
+        <v>3.5</v>
+      </c>
+      <c r="AG170">
+        <v>1.59</v>
+      </c>
+      <c r="AH170">
+        <v>2.21</v>
+      </c>
+      <c r="AI170">
+        <v>1.67</v>
+      </c>
+      <c r="AJ170">
+        <v>2.1</v>
+      </c>
+      <c r="AK170">
+        <v>1.55</v>
+      </c>
+      <c r="AL170">
+        <v>1.3</v>
+      </c>
+      <c r="AM170">
+        <v>1.44</v>
+      </c>
+      <c r="AN170">
+        <v>1.13</v>
+      </c>
+      <c r="AO170">
+        <v>0.9</v>
+      </c>
+      <c r="AP170">
+        <v>1.33</v>
+      </c>
+      <c r="AQ170">
+        <v>0.82</v>
+      </c>
+      <c r="AR170">
+        <v>1.44</v>
+      </c>
+      <c r="AS170">
+        <v>1.32</v>
+      </c>
+      <c r="AT170">
+        <v>2.76</v>
+      </c>
+      <c r="AU170">
+        <v>6</v>
+      </c>
+      <c r="AV170">
+        <v>2</v>
+      </c>
+      <c r="AW170">
+        <v>8</v>
+      </c>
+      <c r="AX170">
+        <v>9</v>
+      </c>
+      <c r="AY170">
+        <v>14</v>
+      </c>
+      <c r="AZ170">
+        <v>11</v>
+      </c>
+      <c r="BA170">
+        <v>6</v>
+      </c>
+      <c r="BB170">
+        <v>8</v>
+      </c>
+      <c r="BC170">
+        <v>14</v>
+      </c>
+      <c r="BD170">
+        <v>1.75</v>
+      </c>
+      <c r="BE170">
+        <v>8</v>
+      </c>
+      <c r="BF170">
+        <v>2.44</v>
+      </c>
+      <c r="BG170">
+        <v>1.24</v>
+      </c>
+      <c r="BH170">
+        <v>3.52</v>
+      </c>
+      <c r="BI170">
+        <v>1.45</v>
+      </c>
+      <c r="BJ170">
+        <v>2.57</v>
+      </c>
+      <c r="BK170">
+        <v>1.74</v>
+      </c>
+      <c r="BL170">
+        <v>2.01</v>
+      </c>
+      <c r="BM170">
+        <v>2.18</v>
+      </c>
+      <c r="BN170">
+        <v>1.64</v>
+      </c>
+      <c r="BO170">
+        <v>2.73</v>
+      </c>
+      <c r="BP170">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7778660</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45808.08333333334</v>
+      </c>
+      <c r="F171">
+        <v>18</v>
+      </c>
+      <c r="G171" t="s">
+        <v>71</v>
+      </c>
+      <c r="H171" t="s">
+        <v>73</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>2</v>
+      </c>
+      <c r="L171">
+        <v>2</v>
+      </c>
+      <c r="M171">
+        <v>2</v>
+      </c>
+      <c r="N171">
+        <v>4</v>
+      </c>
+      <c r="O171" t="s">
+        <v>115</v>
+      </c>
+      <c r="P171" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q171">
+        <v>2.75</v>
+      </c>
+      <c r="R171">
+        <v>2.2</v>
+      </c>
+      <c r="S171">
+        <v>3.75</v>
+      </c>
+      <c r="T171">
+        <v>1.36</v>
+      </c>
+      <c r="U171">
+        <v>3</v>
+      </c>
+      <c r="V171">
+        <v>2.75</v>
+      </c>
+      <c r="W171">
+        <v>1.4</v>
+      </c>
+      <c r="X171">
+        <v>7</v>
+      </c>
+      <c r="Y171">
+        <v>1.1</v>
+      </c>
+      <c r="Z171">
+        <v>1.88</v>
+      </c>
+      <c r="AA171">
+        <v>3.55</v>
+      </c>
+      <c r="AB171">
+        <v>3.27</v>
+      </c>
+      <c r="AC171">
+        <v>1</v>
+      </c>
+      <c r="AD171">
+        <v>9</v>
+      </c>
+      <c r="AE171">
+        <v>1.24</v>
+      </c>
+      <c r="AF171">
+        <v>3.34</v>
+      </c>
+      <c r="AG171">
+        <v>1.62</v>
+      </c>
+      <c r="AH171">
+        <v>2.15</v>
+      </c>
+      <c r="AI171">
+        <v>1.73</v>
+      </c>
+      <c r="AJ171">
+        <v>2</v>
+      </c>
+      <c r="AK171">
+        <v>1.33</v>
+      </c>
+      <c r="AL171">
+        <v>1.3</v>
+      </c>
+      <c r="AM171">
+        <v>1.67</v>
+      </c>
+      <c r="AN171">
+        <v>2.5</v>
+      </c>
+      <c r="AO171">
+        <v>1.13</v>
+      </c>
+      <c r="AP171">
+        <v>2.33</v>
+      </c>
+      <c r="AQ171">
+        <v>1.11</v>
+      </c>
+      <c r="AR171">
+        <v>1.8</v>
+      </c>
+      <c r="AS171">
+        <v>1.24</v>
+      </c>
+      <c r="AT171">
+        <v>3.04</v>
+      </c>
+      <c r="AU171">
+        <v>7</v>
+      </c>
+      <c r="AV171">
+        <v>6</v>
+      </c>
+      <c r="AW171">
+        <v>8</v>
+      </c>
+      <c r="AX171">
+        <v>12</v>
+      </c>
+      <c r="AY171">
+        <v>15</v>
+      </c>
+      <c r="AZ171">
+        <v>18</v>
+      </c>
+      <c r="BA171">
+        <v>1</v>
+      </c>
+      <c r="BB171">
+        <v>9</v>
+      </c>
+      <c r="BC171">
+        <v>10</v>
+      </c>
+      <c r="BD171">
+        <v>1.91</v>
+      </c>
+      <c r="BE171">
+        <v>8</v>
+      </c>
+      <c r="BF171">
+        <v>2.2</v>
+      </c>
+      <c r="BG171">
+        <v>1.21</v>
+      </c>
+      <c r="BH171">
+        <v>3.78</v>
+      </c>
+      <c r="BI171">
+        <v>1.4</v>
+      </c>
+      <c r="BJ171">
+        <v>2.72</v>
+      </c>
+      <c r="BK171">
+        <v>1.67</v>
+      </c>
+      <c r="BL171">
+        <v>2.12</v>
+      </c>
+      <c r="BM171">
+        <v>2.07</v>
+      </c>
+      <c r="BN171">
+        <v>1.71</v>
+      </c>
+      <c r="BO171">
+        <v>2.58</v>
+      </c>
+      <c r="BP171">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7778661</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45808.08333333334</v>
+      </c>
+      <c r="F172">
+        <v>18</v>
+      </c>
+      <c r="G172" t="s">
+        <v>80</v>
+      </c>
+      <c r="H172" t="s">
+        <v>81</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172" t="s">
+        <v>90</v>
+      </c>
+      <c r="P172" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q172">
+        <v>2.5</v>
+      </c>
+      <c r="R172">
+        <v>2.1</v>
+      </c>
+      <c r="S172">
+        <v>4.75</v>
+      </c>
+      <c r="T172">
+        <v>1.44</v>
+      </c>
+      <c r="U172">
+        <v>2.63</v>
+      </c>
+      <c r="V172">
+        <v>3</v>
+      </c>
+      <c r="W172">
+        <v>1.36</v>
+      </c>
+      <c r="X172">
+        <v>9</v>
+      </c>
+      <c r="Y172">
+        <v>1.07</v>
+      </c>
+      <c r="Z172">
+        <v>1.6</v>
+      </c>
+      <c r="AA172">
+        <v>3.69</v>
+      </c>
+      <c r="AB172">
+        <v>4.5</v>
+      </c>
+      <c r="AC172">
+        <v>1.01</v>
+      </c>
+      <c r="AD172">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE172">
+        <v>1.29</v>
+      </c>
+      <c r="AF172">
+        <v>3.04</v>
+      </c>
+      <c r="AG172">
+        <v>1.73</v>
+      </c>
+      <c r="AH172">
+        <v>1.97</v>
+      </c>
+      <c r="AI172">
+        <v>1.91</v>
+      </c>
+      <c r="AJ172">
+        <v>1.8</v>
+      </c>
+      <c r="AK172">
+        <v>1.22</v>
+      </c>
+      <c r="AL172">
+        <v>1.3</v>
+      </c>
+      <c r="AM172">
+        <v>1.85</v>
+      </c>
+      <c r="AN172">
+        <v>2.38</v>
+      </c>
+      <c r="AO172">
+        <v>0.63</v>
+      </c>
+      <c r="AP172">
+        <v>2.22</v>
+      </c>
+      <c r="AQ172">
+        <v>0.67</v>
+      </c>
+      <c r="AR172">
+        <v>1.63</v>
+      </c>
+      <c r="AS172">
+        <v>1.47</v>
+      </c>
+      <c r="AT172">
+        <v>3.1</v>
+      </c>
+      <c r="AU172">
+        <v>7</v>
+      </c>
+      <c r="AV172">
+        <v>3</v>
+      </c>
+      <c r="AW172">
+        <v>10</v>
+      </c>
+      <c r="AX172">
+        <v>5</v>
+      </c>
+      <c r="AY172">
+        <v>17</v>
+      </c>
+      <c r="AZ172">
+        <v>8</v>
+      </c>
+      <c r="BA172">
+        <v>3</v>
+      </c>
+      <c r="BB172">
+        <v>6</v>
+      </c>
+      <c r="BC172">
+        <v>9</v>
+      </c>
+      <c r="BD172">
+        <v>1.69</v>
+      </c>
+      <c r="BE172">
+        <v>8</v>
+      </c>
+      <c r="BF172">
+        <v>2.62</v>
+      </c>
+      <c r="BG172">
+        <v>1.44</v>
+      </c>
+      <c r="BH172">
+        <v>2.6</v>
+      </c>
+      <c r="BI172">
+        <v>1.75</v>
+      </c>
+      <c r="BJ172">
+        <v>2.01</v>
+      </c>
+      <c r="BK172">
+        <v>2.21</v>
+      </c>
+      <c r="BL172">
+        <v>1.62</v>
+      </c>
+      <c r="BM172">
+        <v>2.82</v>
+      </c>
+      <c r="BN172">
+        <v>1.38</v>
+      </c>
+      <c r="BO172">
+        <v>3.82</v>
+      </c>
+      <c r="BP172">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7778657</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45808.08333333334</v>
+      </c>
+      <c r="F173">
+        <v>18</v>
+      </c>
+      <c r="G173" t="s">
+        <v>89</v>
+      </c>
+      <c r="H173" t="s">
+        <v>86</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>2</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>4</v>
+      </c>
+      <c r="O173" t="s">
+        <v>196</v>
+      </c>
+      <c r="P173" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q173">
+        <v>3</v>
+      </c>
+      <c r="R173">
+        <v>2</v>
+      </c>
+      <c r="S173">
+        <v>4</v>
+      </c>
+      <c r="T173">
+        <v>1.5</v>
+      </c>
+      <c r="U173">
+        <v>2.5</v>
+      </c>
+      <c r="V173">
+        <v>3.5</v>
+      </c>
+      <c r="W173">
+        <v>1.29</v>
+      </c>
+      <c r="X173">
+        <v>11</v>
+      </c>
+      <c r="Y173">
+        <v>1.05</v>
+      </c>
+      <c r="Z173">
+        <v>2.15</v>
+      </c>
+      <c r="AA173">
+        <v>3.15</v>
+      </c>
+      <c r="AB173">
+        <v>2.97</v>
+      </c>
+      <c r="AC173">
+        <v>1.05</v>
+      </c>
+      <c r="AD173">
+        <v>6.65</v>
+      </c>
+      <c r="AE173">
+        <v>1.4</v>
+      </c>
+      <c r="AF173">
+        <v>2.56</v>
+      </c>
+      <c r="AG173">
+        <v>2.04</v>
+      </c>
+      <c r="AH173">
+        <v>1.69</v>
+      </c>
+      <c r="AI173">
+        <v>2</v>
+      </c>
+      <c r="AJ173">
+        <v>1.73</v>
+      </c>
+      <c r="AK173">
+        <v>1.33</v>
+      </c>
+      <c r="AL173">
+        <v>1.36</v>
+      </c>
+      <c r="AM173">
+        <v>1.62</v>
+      </c>
+      <c r="AN173">
+        <v>0.86</v>
+      </c>
+      <c r="AO173">
+        <v>0.75</v>
+      </c>
+      <c r="AP173">
+        <v>0.88</v>
+      </c>
+      <c r="AQ173">
+        <v>0.78</v>
+      </c>
+      <c r="AR173">
+        <v>1.56</v>
+      </c>
+      <c r="AS173">
+        <v>1.15</v>
+      </c>
+      <c r="AT173">
+        <v>2.71</v>
+      </c>
+      <c r="AU173">
+        <v>4</v>
+      </c>
+      <c r="AV173">
+        <v>8</v>
+      </c>
+      <c r="AW173">
+        <v>9</v>
+      </c>
+      <c r="AX173">
+        <v>3</v>
+      </c>
+      <c r="AY173">
+        <v>13</v>
+      </c>
+      <c r="AZ173">
+        <v>11</v>
+      </c>
+      <c r="BA173">
+        <v>8</v>
+      </c>
+      <c r="BB173">
+        <v>1</v>
+      </c>
+      <c r="BC173">
+        <v>9</v>
+      </c>
+      <c r="BD173">
+        <v>1.85</v>
+      </c>
+      <c r="BE173">
+        <v>7.5</v>
+      </c>
+      <c r="BF173">
+        <v>2.29</v>
+      </c>
+      <c r="BG173">
+        <v>1.36</v>
+      </c>
+      <c r="BH173">
+        <v>2.88</v>
+      </c>
+      <c r="BI173">
+        <v>1.62</v>
+      </c>
+      <c r="BJ173">
+        <v>2.21</v>
+      </c>
+      <c r="BK173">
+        <v>2.01</v>
+      </c>
+      <c r="BL173">
+        <v>1.75</v>
+      </c>
+      <c r="BM173">
+        <v>2.53</v>
+      </c>
+      <c r="BN173">
+        <v>1.46</v>
+      </c>
+      <c r="BO173">
+        <v>3.35</v>
+      </c>
+      <c r="BP173">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7778656</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45808.08333333334</v>
+      </c>
+      <c r="F174">
+        <v>18</v>
+      </c>
+      <c r="G174" t="s">
+        <v>85</v>
+      </c>
+      <c r="H174" t="s">
+        <v>87</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174" t="s">
+        <v>197</v>
+      </c>
+      <c r="P174" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q174">
+        <v>2.88</v>
+      </c>
+      <c r="R174">
+        <v>2.1</v>
+      </c>
+      <c r="S174">
+        <v>4</v>
+      </c>
+      <c r="T174">
+        <v>1.44</v>
+      </c>
+      <c r="U174">
+        <v>2.63</v>
+      </c>
+      <c r="V174">
+        <v>3.25</v>
+      </c>
+      <c r="W174">
+        <v>1.33</v>
+      </c>
+      <c r="X174">
+        <v>9</v>
+      </c>
+      <c r="Y174">
+        <v>1.07</v>
+      </c>
+      <c r="Z174">
+        <v>1.99</v>
+      </c>
+      <c r="AA174">
+        <v>3.32</v>
+      </c>
+      <c r="AB174">
+        <v>3.17</v>
+      </c>
+      <c r="AC174">
+        <v>1.01</v>
+      </c>
+      <c r="AD174">
+        <v>8.6</v>
+      </c>
+      <c r="AE174">
+        <v>1.29</v>
+      </c>
+      <c r="AF174">
+        <v>3.04</v>
+      </c>
+      <c r="AG174">
+        <v>1.88</v>
+      </c>
+      <c r="AH174">
+        <v>1.82</v>
+      </c>
+      <c r="AI174">
+        <v>1.83</v>
+      </c>
+      <c r="AJ174">
+        <v>1.83</v>
+      </c>
+      <c r="AK174">
+        <v>1.36</v>
+      </c>
+      <c r="AL174">
+        <v>1.33</v>
+      </c>
+      <c r="AM174">
+        <v>1.62</v>
+      </c>
+      <c r="AN174">
+        <v>1.88</v>
+      </c>
+      <c r="AO174">
+        <v>1</v>
+      </c>
+      <c r="AP174">
+        <v>1.78</v>
+      </c>
+      <c r="AQ174">
+        <v>1</v>
+      </c>
+      <c r="AR174">
+        <v>1.5</v>
+      </c>
+      <c r="AS174">
+        <v>1.37</v>
+      </c>
+      <c r="AT174">
+        <v>2.87</v>
+      </c>
+      <c r="AU174">
+        <v>3</v>
+      </c>
+      <c r="AV174">
+        <v>3</v>
+      </c>
+      <c r="AW174">
+        <v>13</v>
+      </c>
+      <c r="AX174">
+        <v>3</v>
+      </c>
+      <c r="AY174">
+        <v>16</v>
+      </c>
+      <c r="AZ174">
+        <v>6</v>
+      </c>
+      <c r="BA174">
+        <v>4</v>
+      </c>
+      <c r="BB174">
+        <v>3</v>
+      </c>
+      <c r="BC174">
+        <v>7</v>
+      </c>
+      <c r="BD174">
+        <v>1.91</v>
+      </c>
+      <c r="BE174">
+        <v>7.5</v>
+      </c>
+      <c r="BF174">
+        <v>2.2</v>
+      </c>
+      <c r="BG174">
+        <v>1.51</v>
+      </c>
+      <c r="BH174">
+        <v>2.39</v>
+      </c>
+      <c r="BI174">
+        <v>1.85</v>
+      </c>
+      <c r="BJ174">
+        <v>1.95</v>
+      </c>
+      <c r="BK174">
+        <v>2.4</v>
+      </c>
+      <c r="BL174">
+        <v>1.53</v>
+      </c>
+      <c r="BM174">
+        <v>3.2</v>
+      </c>
+      <c r="BN174">
+        <v>1.3</v>
+      </c>
+      <c r="BO174">
+        <v>4.25</v>
+      </c>
+      <c r="BP174">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7778659</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45808.08333333334</v>
+      </c>
+      <c r="F175">
+        <v>18</v>
+      </c>
+      <c r="G175" t="s">
+        <v>84</v>
+      </c>
+      <c r="H175" t="s">
+        <v>76</v>
+      </c>
+      <c r="I175">
+        <v>3</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>3</v>
+      </c>
+      <c r="L175">
+        <v>3</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>3</v>
+      </c>
+      <c r="O175" t="s">
+        <v>198</v>
+      </c>
+      <c r="P175" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q175">
+        <v>3.4</v>
+      </c>
+      <c r="R175">
+        <v>2.2</v>
+      </c>
+      <c r="S175">
+        <v>3</v>
+      </c>
+      <c r="T175">
+        <v>1.4</v>
+      </c>
+      <c r="U175">
+        <v>2.75</v>
+      </c>
+      <c r="V175">
+        <v>2.75</v>
+      </c>
+      <c r="W175">
+        <v>1.4</v>
+      </c>
+      <c r="X175">
+        <v>8</v>
+      </c>
+      <c r="Y175">
+        <v>1.08</v>
+      </c>
+      <c r="Z175">
+        <v>2.69</v>
+      </c>
+      <c r="AA175">
+        <v>3.37</v>
+      </c>
+      <c r="AB175">
+        <v>2.21</v>
+      </c>
+      <c r="AC175">
+        <v>1.03</v>
+      </c>
+      <c r="AD175">
+        <v>9</v>
+      </c>
+      <c r="AE175">
+        <v>1.24</v>
+      </c>
+      <c r="AF175">
+        <v>3.34</v>
+      </c>
+      <c r="AG175">
+        <v>1.72</v>
+      </c>
+      <c r="AH175">
+        <v>2</v>
+      </c>
+      <c r="AI175">
+        <v>1.73</v>
+      </c>
+      <c r="AJ175">
+        <v>2</v>
+      </c>
+      <c r="AK175">
+        <v>1.55</v>
+      </c>
+      <c r="AL175">
+        <v>1.3</v>
+      </c>
+      <c r="AM175">
+        <v>1.4</v>
+      </c>
+      <c r="AN175">
+        <v>2.11</v>
+      </c>
+      <c r="AO175">
+        <v>1.25</v>
+      </c>
+      <c r="AP175">
+        <v>2.2</v>
+      </c>
+      <c r="AQ175">
+        <v>1.11</v>
+      </c>
+      <c r="AR175">
+        <v>1.66</v>
+      </c>
+      <c r="AS175">
+        <v>1.56</v>
+      </c>
+      <c r="AT175">
+        <v>3.22</v>
+      </c>
+      <c r="AU175">
+        <v>7</v>
+      </c>
+      <c r="AV175">
+        <v>4</v>
+      </c>
+      <c r="AW175">
+        <v>8</v>
+      </c>
+      <c r="AX175">
+        <v>7</v>
+      </c>
+      <c r="AY175">
+        <v>15</v>
+      </c>
+      <c r="AZ175">
+        <v>11</v>
+      </c>
+      <c r="BA175">
+        <v>5</v>
+      </c>
+      <c r="BB175">
+        <v>3</v>
+      </c>
+      <c r="BC175">
+        <v>8</v>
+      </c>
+      <c r="BD175">
+        <v>2</v>
+      </c>
+      <c r="BE175">
+        <v>7.5</v>
+      </c>
+      <c r="BF175">
+        <v>2.1</v>
+      </c>
+      <c r="BG175">
+        <v>1.43</v>
+      </c>
+      <c r="BH175">
+        <v>2.62</v>
+      </c>
+      <c r="BI175">
+        <v>1.73</v>
+      </c>
+      <c r="BJ175">
+        <v>2.03</v>
+      </c>
+      <c r="BK175">
+        <v>2.19</v>
+      </c>
+      <c r="BL175">
+        <v>1.63</v>
+      </c>
+      <c r="BM175">
+        <v>2.8</v>
+      </c>
+      <c r="BN175">
+        <v>1.38</v>
+      </c>
+      <c r="BO175">
+        <v>3.78</v>
+      </c>
+      <c r="BP175">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1112" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -611,6 +611,9 @@
   </si>
   <si>
     <t>['3', '6', '10']</t>
+  </si>
+  <si>
+    <t>['57', '85']</t>
   </si>
   <si>
     <t>['31', '60']</t>
@@ -1212,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP175"/>
+  <dimension ref="A1:BP177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1471,7 +1474,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -2089,7 +2092,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2295,7 +2298,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q6">
         <v>4.1</v>
@@ -2376,7 +2379,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ6">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2707,7 +2710,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q8">
         <v>2.28</v>
@@ -3197,7 +3200,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3403,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -4024,7 +4027,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR14">
         <v>2.25</v>
@@ -4149,7 +4152,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q15">
         <v>4.1</v>
@@ -5051,7 +5054,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ19">
         <v>0.78</v>
@@ -5257,7 +5260,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5385,7 +5388,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q21">
         <v>4.4</v>
@@ -5797,7 +5800,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6209,7 +6212,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6621,7 +6624,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6908,7 +6911,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ28">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR28">
         <v>2.36</v>
@@ -7114,7 +7117,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ29">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7651,7 +7654,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q32">
         <v>3.45</v>
@@ -7857,7 +7860,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8063,7 +8066,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8269,7 +8272,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8475,7 +8478,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q36">
         <v>2.8</v>
@@ -8887,7 +8890,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -9583,7 +9586,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ41">
         <v>1.43</v>
@@ -9711,7 +9714,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10204,7 +10207,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ44">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR44">
         <v>1.37</v>
@@ -10616,7 +10619,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ46">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR46">
         <v>2.49</v>
@@ -10741,7 +10744,7 @@
         <v>105</v>
       </c>
       <c r="P47" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10947,7 +10950,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -11153,7 +11156,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -11437,7 +11440,7 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ50">
         <v>0.78</v>
@@ -11565,7 +11568,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q51">
         <v>1.91</v>
@@ -11771,7 +11774,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11977,7 +11980,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12595,7 +12598,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q56">
         <v>4.33</v>
@@ -13213,7 +13216,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13291,7 +13294,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ59">
         <v>0.78</v>
@@ -13500,7 +13503,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ60">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR60">
         <v>1.48</v>
@@ -13625,7 +13628,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13831,7 +13834,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -13912,7 +13915,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ62">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -14449,7 +14452,7 @@
         <v>90</v>
       </c>
       <c r="P65" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q65">
         <v>3.6</v>
@@ -14655,7 +14658,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q66">
         <v>4.75</v>
@@ -14861,7 +14864,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14939,7 +14942,7 @@
         <v>0.75</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ67">
         <v>0.82</v>
@@ -17208,7 +17211,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ78">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR78">
         <v>1.6</v>
@@ -17333,7 +17336,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17745,7 +17748,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17823,7 +17826,7 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ81">
         <v>1.11</v>
@@ -18157,7 +18160,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18647,10 +18650,10 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ85">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR85">
         <v>1.08</v>
@@ -18775,7 +18778,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18981,7 +18984,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19187,7 +19190,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19393,7 +19396,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19886,7 +19889,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ91">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR91">
         <v>1.1</v>
@@ -20011,7 +20014,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20217,7 +20220,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20423,7 +20426,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q94">
         <v>2.3</v>
@@ -20629,7 +20632,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20913,7 +20916,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ96">
         <v>1.63</v>
@@ -21041,7 +21044,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q97">
         <v>3.25</v>
@@ -21659,7 +21662,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21865,7 +21868,7 @@
         <v>122</v>
       </c>
       <c r="P101" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q101">
         <v>3.25</v>
@@ -22071,7 +22074,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q102">
         <v>2.25</v>
@@ -22358,7 +22361,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ103">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR103">
         <v>1.59</v>
@@ -22689,7 +22692,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q105">
         <v>2.38</v>
@@ -22895,7 +22898,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23101,7 +23104,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -23307,7 +23310,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23513,7 +23516,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q109">
         <v>2.3</v>
@@ -23925,7 +23928,7 @@
         <v>122</v>
       </c>
       <c r="P111" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -24337,7 +24340,7 @@
         <v>164</v>
       </c>
       <c r="P113" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q113">
         <v>3.6</v>
@@ -24749,7 +24752,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24830,7 +24833,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ115">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR115">
         <v>1.85</v>
@@ -24955,7 +24958,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q116">
         <v>3.25</v>
@@ -25239,7 +25242,7 @@
         <v>1</v>
       </c>
       <c r="AP117">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ117">
         <v>1.43</v>
@@ -25985,7 +25988,7 @@
         <v>167</v>
       </c>
       <c r="P121" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26191,7 +26194,7 @@
         <v>168</v>
       </c>
       <c r="P122" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26397,7 +26400,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26603,7 +26606,7 @@
         <v>90</v>
       </c>
       <c r="P124" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -26684,7 +26687,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ124">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR124">
         <v>1.17</v>
@@ -26887,7 +26890,7 @@
         <v>1.6</v>
       </c>
       <c r="AP125">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ125">
         <v>1.14</v>
@@ -27221,7 +27224,7 @@
         <v>171</v>
       </c>
       <c r="P127" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27299,7 +27302,7 @@
         <v>0.8</v>
       </c>
       <c r="AP127">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ127">
         <v>1.11</v>
@@ -27427,7 +27430,7 @@
         <v>90</v>
       </c>
       <c r="P128" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q128">
         <v>2.88</v>
@@ -27633,7 +27636,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27839,7 +27842,7 @@
         <v>90</v>
       </c>
       <c r="P130" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28045,7 +28048,7 @@
         <v>173</v>
       </c>
       <c r="P131" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28251,7 +28254,7 @@
         <v>174</v>
       </c>
       <c r="P132" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -28457,7 +28460,7 @@
         <v>175</v>
       </c>
       <c r="P133" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -28663,7 +28666,7 @@
         <v>176</v>
       </c>
       <c r="P134" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28869,7 +28872,7 @@
         <v>177</v>
       </c>
       <c r="P135" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -29281,7 +29284,7 @@
         <v>179</v>
       </c>
       <c r="P137" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -29487,7 +29490,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29693,7 +29696,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -29774,7 +29777,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ139">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR139">
         <v>1.74</v>
@@ -29899,7 +29902,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q140">
         <v>3</v>
@@ -30105,7 +30108,7 @@
         <v>180</v>
       </c>
       <c r="P141" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30517,7 +30520,7 @@
         <v>182</v>
       </c>
       <c r="P143" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q143">
         <v>3.1</v>
@@ -31216,7 +31219,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ146">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR146">
         <v>1.32</v>
@@ -31341,7 +31344,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -31419,7 +31422,7 @@
         <v>2</v>
       </c>
       <c r="AP147">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AQ147">
         <v>1.89</v>
@@ -32165,7 +32168,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q151">
         <v>2.38</v>
@@ -32577,7 +32580,7 @@
         <v>156</v>
       </c>
       <c r="P153" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q153">
         <v>2.5</v>
@@ -32783,7 +32786,7 @@
         <v>187</v>
       </c>
       <c r="P154" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q154">
         <v>3.4</v>
@@ -33607,7 +33610,7 @@
         <v>90</v>
       </c>
       <c r="P158" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -34019,7 +34022,7 @@
         <v>141</v>
       </c>
       <c r="P160" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q160">
         <v>3.75</v>
@@ -34097,7 +34100,7 @@
         <v>1</v>
       </c>
       <c r="AP160">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AQ160">
         <v>1.11</v>
@@ -34225,7 +34228,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q161">
         <v>4.75</v>
@@ -34306,7 +34309,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ161">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR161">
         <v>1.16</v>
@@ -34431,7 +34434,7 @@
         <v>180</v>
       </c>
       <c r="P162" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q162">
         <v>3.75</v>
@@ -34843,7 +34846,7 @@
         <v>191</v>
       </c>
       <c r="P164" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q164">
         <v>3.1</v>
@@ -35255,7 +35258,7 @@
         <v>90</v>
       </c>
       <c r="P166" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35336,7 +35339,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ166">
-        <v>1.33</v>
+        <v>1.2</v>
       </c>
       <c r="AR166">
         <v>1.35</v>
@@ -35667,7 +35670,7 @@
         <v>193</v>
       </c>
       <c r="P168" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -35873,7 +35876,7 @@
         <v>194</v>
       </c>
       <c r="P169" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36285,7 +36288,7 @@
         <v>115</v>
       </c>
       <c r="P171" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q171">
         <v>2.75</v>
@@ -36697,7 +36700,7 @@
         <v>196</v>
       </c>
       <c r="P173" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -37266,6 +37269,418 @@
       </c>
       <c r="BP175">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7778663</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45808.25347222222</v>
+      </c>
+      <c r="F176">
+        <v>18</v>
+      </c>
+      <c r="G176" t="s">
+        <v>78</v>
+      </c>
+      <c r="H176" t="s">
+        <v>83</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176" t="s">
+        <v>90</v>
+      </c>
+      <c r="P176" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q176">
+        <v>3.4</v>
+      </c>
+      <c r="R176">
+        <v>1.91</v>
+      </c>
+      <c r="S176">
+        <v>3.75</v>
+      </c>
+      <c r="T176">
+        <v>1.57</v>
+      </c>
+      <c r="U176">
+        <v>2.25</v>
+      </c>
+      <c r="V176">
+        <v>3.75</v>
+      </c>
+      <c r="W176">
+        <v>1.25</v>
+      </c>
+      <c r="X176">
+        <v>11</v>
+      </c>
+      <c r="Y176">
+        <v>1.05</v>
+      </c>
+      <c r="Z176">
+        <v>2.31</v>
+      </c>
+      <c r="AA176">
+        <v>2.99</v>
+      </c>
+      <c r="AB176">
+        <v>2.83</v>
+      </c>
+      <c r="AC176">
+        <v>1.05</v>
+      </c>
+      <c r="AD176">
+        <v>6.4</v>
+      </c>
+      <c r="AE176">
+        <v>1.5</v>
+      </c>
+      <c r="AF176">
+        <v>2.3</v>
+      </c>
+      <c r="AG176">
+        <v>2.56</v>
+      </c>
+      <c r="AH176">
+        <v>1.45</v>
+      </c>
+      <c r="AI176">
+        <v>2.2</v>
+      </c>
+      <c r="AJ176">
+        <v>1.62</v>
+      </c>
+      <c r="AK176">
+        <v>1.36</v>
+      </c>
+      <c r="AL176">
+        <v>1.36</v>
+      </c>
+      <c r="AM176">
+        <v>1.55</v>
+      </c>
+      <c r="AN176">
+        <v>1</v>
+      </c>
+      <c r="AO176">
+        <v>1.67</v>
+      </c>
+      <c r="AP176">
+        <v>0.89</v>
+      </c>
+      <c r="AQ176">
+        <v>1.8</v>
+      </c>
+      <c r="AR176">
+        <v>1.53</v>
+      </c>
+      <c r="AS176">
+        <v>1.4</v>
+      </c>
+      <c r="AT176">
+        <v>2.93</v>
+      </c>
+      <c r="AU176">
+        <v>5</v>
+      </c>
+      <c r="AV176">
+        <v>4</v>
+      </c>
+      <c r="AW176">
+        <v>3</v>
+      </c>
+      <c r="AX176">
+        <v>3</v>
+      </c>
+      <c r="AY176">
+        <v>8</v>
+      </c>
+      <c r="AZ176">
+        <v>7</v>
+      </c>
+      <c r="BA176">
+        <v>2</v>
+      </c>
+      <c r="BB176">
+        <v>5</v>
+      </c>
+      <c r="BC176">
+        <v>7</v>
+      </c>
+      <c r="BD176">
+        <v>1.95</v>
+      </c>
+      <c r="BE176">
+        <v>7.5</v>
+      </c>
+      <c r="BF176">
+        <v>2.1</v>
+      </c>
+      <c r="BG176">
+        <v>1.34</v>
+      </c>
+      <c r="BH176">
+        <v>2.78</v>
+      </c>
+      <c r="BI176">
+        <v>1.64</v>
+      </c>
+      <c r="BJ176">
+        <v>2.07</v>
+      </c>
+      <c r="BK176">
+        <v>2.07</v>
+      </c>
+      <c r="BL176">
+        <v>1.61</v>
+      </c>
+      <c r="BM176">
+        <v>2.78</v>
+      </c>
+      <c r="BN176">
+        <v>1.34</v>
+      </c>
+      <c r="BO176">
+        <v>3.6</v>
+      </c>
+      <c r="BP176">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7778665</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45808.29166666666</v>
+      </c>
+      <c r="F177">
+        <v>18</v>
+      </c>
+      <c r="G177" t="s">
+        <v>79</v>
+      </c>
+      <c r="H177" t="s">
+        <v>72</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>2</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>3</v>
+      </c>
+      <c r="O177" t="s">
+        <v>199</v>
+      </c>
+      <c r="P177" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q177">
+        <v>3.1</v>
+      </c>
+      <c r="R177">
+        <v>1.91</v>
+      </c>
+      <c r="S177">
+        <v>4.5</v>
+      </c>
+      <c r="T177">
+        <v>1.62</v>
+      </c>
+      <c r="U177">
+        <v>2.2</v>
+      </c>
+      <c r="V177">
+        <v>4</v>
+      </c>
+      <c r="W177">
+        <v>1.22</v>
+      </c>
+      <c r="X177">
+        <v>13</v>
+      </c>
+      <c r="Y177">
+        <v>1.04</v>
+      </c>
+      <c r="Z177">
+        <v>2.24</v>
+      </c>
+      <c r="AA177">
+        <v>2.88</v>
+      </c>
+      <c r="AB177">
+        <v>3.07</v>
+      </c>
+      <c r="AC177">
+        <v>1.08</v>
+      </c>
+      <c r="AD177">
+        <v>5.55</v>
+      </c>
+      <c r="AE177">
+        <v>1.55</v>
+      </c>
+      <c r="AF177">
+        <v>2.2</v>
+      </c>
+      <c r="AG177">
+        <v>2.73</v>
+      </c>
+      <c r="AH177">
+        <v>1.4</v>
+      </c>
+      <c r="AI177">
+        <v>2.38</v>
+      </c>
+      <c r="AJ177">
+        <v>1.53</v>
+      </c>
+      <c r="AK177">
+        <v>1.3</v>
+      </c>
+      <c r="AL177">
+        <v>1.4</v>
+      </c>
+      <c r="AM177">
+        <v>1.62</v>
+      </c>
+      <c r="AN177">
+        <v>1.63</v>
+      </c>
+      <c r="AO177">
+        <v>1.33</v>
+      </c>
+      <c r="AP177">
+        <v>1.78</v>
+      </c>
+      <c r="AQ177">
+        <v>1.2</v>
+      </c>
+      <c r="AR177">
+        <v>1.12</v>
+      </c>
+      <c r="AS177">
+        <v>1.31</v>
+      </c>
+      <c r="AT177">
+        <v>2.43</v>
+      </c>
+      <c r="AU177">
+        <v>6</v>
+      </c>
+      <c r="AV177">
+        <v>4</v>
+      </c>
+      <c r="AW177">
+        <v>6</v>
+      </c>
+      <c r="AX177">
+        <v>2</v>
+      </c>
+      <c r="AY177">
+        <v>12</v>
+      </c>
+      <c r="AZ177">
+        <v>6</v>
+      </c>
+      <c r="BA177">
+        <v>5</v>
+      </c>
+      <c r="BB177">
+        <v>2</v>
+      </c>
+      <c r="BC177">
+        <v>7</v>
+      </c>
+      <c r="BD177">
+        <v>1.75</v>
+      </c>
+      <c r="BE177">
+        <v>7.5</v>
+      </c>
+      <c r="BF177">
+        <v>2.53</v>
+      </c>
+      <c r="BG177">
+        <v>1.39</v>
+      </c>
+      <c r="BH177">
+        <v>2.77</v>
+      </c>
+      <c r="BI177">
+        <v>1.67</v>
+      </c>
+      <c r="BJ177">
+        <v>2.13</v>
+      </c>
+      <c r="BK177">
+        <v>2.08</v>
+      </c>
+      <c r="BL177">
+        <v>1.7</v>
+      </c>
+      <c r="BM177">
+        <v>2.63</v>
+      </c>
+      <c r="BN177">
+        <v>1.42</v>
+      </c>
+      <c r="BO177">
+        <v>3.52</v>
+      </c>
+      <c r="BP177">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1124" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="281">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -616,6 +616,9 @@
     <t>['57', '85']</t>
   </si>
   <si>
+    <t>['18', '65', '75', '86', '90+6']</t>
+  </si>
+  <si>
     <t>['31', '60']</t>
   </si>
   <si>
@@ -1215,7 +1218,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP177"/>
+  <dimension ref="A1:BP178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1474,7 +1477,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1552,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>1.89</v>
@@ -2092,7 +2095,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2298,7 +2301,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q6">
         <v>4.1</v>
@@ -2710,7 +2713,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q8">
         <v>2.28</v>
@@ -2791,7 +2794,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ8">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -4152,7 +4155,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q15">
         <v>4.1</v>
@@ -5388,7 +5391,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q21">
         <v>4.4</v>
@@ -5800,7 +5803,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -6212,7 +6215,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6624,7 +6627,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6908,7 +6911,7 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>1.8</v>
@@ -7654,7 +7657,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q32">
         <v>3.45</v>
@@ -7860,7 +7863,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -8066,7 +8069,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8272,7 +8275,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8478,7 +8481,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q36">
         <v>2.8</v>
@@ -8762,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
         <v>1.43</v>
@@ -8890,7 +8893,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -9383,7 +9386,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ40">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.47</v>
@@ -9714,7 +9717,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -10744,7 +10747,7 @@
         <v>105</v>
       </c>
       <c r="P47" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10950,7 +10953,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -11156,7 +11159,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -11568,7 +11571,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>1.91</v>
@@ -11774,7 +11777,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11980,7 +11983,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12061,7 +12064,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ53">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.15</v>
@@ -12598,7 +12601,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q56">
         <v>4.33</v>
@@ -12882,7 +12885,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
         <v>2.13</v>
@@ -13216,7 +13219,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13628,7 +13631,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13834,7 +13837,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -14452,7 +14455,7 @@
         <v>90</v>
       </c>
       <c r="P65" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q65">
         <v>3.6</v>
@@ -14658,7 +14661,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q66">
         <v>4.75</v>
@@ -14864,7 +14867,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -17336,7 +17339,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17748,7 +17751,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -18160,7 +18163,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18238,7 +18241,7 @@
         <v>0.8</v>
       </c>
       <c r="AP83">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
         <v>0.82</v>
@@ -18778,7 +18781,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18984,7 +18987,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19190,7 +19193,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19396,7 +19399,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19683,7 +19686,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ90">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.26</v>
@@ -20014,7 +20017,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20220,7 +20223,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20426,7 +20429,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q94">
         <v>2.3</v>
@@ -20632,7 +20635,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -21044,7 +21047,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q97">
         <v>3.25</v>
@@ -21662,7 +21665,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21868,7 +21871,7 @@
         <v>122</v>
       </c>
       <c r="P101" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q101">
         <v>3.25</v>
@@ -22074,7 +22077,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q102">
         <v>2.25</v>
@@ -22692,7 +22695,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q105">
         <v>2.38</v>
@@ -22898,7 +22901,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23104,7 +23107,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -23185,7 +23188,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ107">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR107">
         <v>1.3</v>
@@ -23310,7 +23313,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23516,7 +23519,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q109">
         <v>2.3</v>
@@ -23928,7 +23931,7 @@
         <v>122</v>
       </c>
       <c r="P111" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -24340,7 +24343,7 @@
         <v>164</v>
       </c>
       <c r="P113" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q113">
         <v>3.6</v>
@@ -24752,7 +24755,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24958,7 +24961,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q116">
         <v>3.25</v>
@@ -25448,7 +25451,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ118">
         <v>1.63</v>
@@ -25988,7 +25991,7 @@
         <v>167</v>
       </c>
       <c r="P121" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26194,7 +26197,7 @@
         <v>168</v>
       </c>
       <c r="P122" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26400,7 +26403,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26478,7 +26481,7 @@
         <v>0.86</v>
       </c>
       <c r="AP123">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ123">
         <v>1</v>
@@ -26606,7 +26609,7 @@
         <v>90</v>
       </c>
       <c r="P124" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -26893,7 +26896,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ125">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR125">
         <v>1.1</v>
@@ -27224,7 +27227,7 @@
         <v>171</v>
       </c>
       <c r="P127" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27430,7 +27433,7 @@
         <v>90</v>
       </c>
       <c r="P128" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q128">
         <v>2.88</v>
@@ -27636,7 +27639,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27842,7 +27845,7 @@
         <v>90</v>
       </c>
       <c r="P130" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -28048,7 +28051,7 @@
         <v>173</v>
       </c>
       <c r="P131" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28254,7 +28257,7 @@
         <v>174</v>
       </c>
       <c r="P132" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -28460,7 +28463,7 @@
         <v>175</v>
       </c>
       <c r="P133" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -28666,7 +28669,7 @@
         <v>176</v>
       </c>
       <c r="P134" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28872,7 +28875,7 @@
         <v>177</v>
       </c>
       <c r="P135" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -29284,7 +29287,7 @@
         <v>179</v>
       </c>
       <c r="P137" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -29490,7 +29493,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29696,7 +29699,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -29902,7 +29905,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q140">
         <v>3</v>
@@ -30108,7 +30111,7 @@
         <v>180</v>
       </c>
       <c r="P141" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30520,7 +30523,7 @@
         <v>182</v>
       </c>
       <c r="P143" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q143">
         <v>3.1</v>
@@ -30598,7 +30601,7 @@
         <v>1.13</v>
       </c>
       <c r="AP143">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ143">
         <v>1</v>
@@ -31344,7 +31347,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -32168,7 +32171,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q151">
         <v>2.38</v>
@@ -32580,7 +32583,7 @@
         <v>156</v>
       </c>
       <c r="P153" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q153">
         <v>2.5</v>
@@ -32786,7 +32789,7 @@
         <v>187</v>
       </c>
       <c r="P154" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q154">
         <v>3.4</v>
@@ -33073,7 +33076,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ155">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR155">
         <v>1.71</v>
@@ -33610,7 +33613,7 @@
         <v>90</v>
       </c>
       <c r="P158" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -34022,7 +34025,7 @@
         <v>141</v>
       </c>
       <c r="P160" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q160">
         <v>3.75</v>
@@ -34228,7 +34231,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q161">
         <v>4.75</v>
@@ -34434,7 +34437,7 @@
         <v>180</v>
       </c>
       <c r="P162" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q162">
         <v>3.75</v>
@@ -34512,7 +34515,7 @@
         <v>1.75</v>
       </c>
       <c r="AP162">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ162">
         <v>1.89</v>
@@ -34846,7 +34849,7 @@
         <v>191</v>
       </c>
       <c r="P164" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q164">
         <v>3.1</v>
@@ -35258,7 +35261,7 @@
         <v>90</v>
       </c>
       <c r="P166" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35670,7 +35673,7 @@
         <v>193</v>
       </c>
       <c r="P168" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -35876,7 +35879,7 @@
         <v>194</v>
       </c>
       <c r="P169" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q169">
         <v>2.3</v>
@@ -36288,7 +36291,7 @@
         <v>115</v>
       </c>
       <c r="P171" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q171">
         <v>2.75</v>
@@ -36700,7 +36703,7 @@
         <v>196</v>
       </c>
       <c r="P173" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q173">
         <v>3</v>
@@ -37318,7 +37321,7 @@
         <v>90</v>
       </c>
       <c r="P176" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q176">
         <v>3.4</v>
@@ -37681,6 +37684,212 @@
       </c>
       <c r="BP177">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7778658</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45809.08333333334</v>
+      </c>
+      <c r="F178">
+        <v>18</v>
+      </c>
+      <c r="G178" t="s">
+        <v>70</v>
+      </c>
+      <c r="H178" t="s">
+        <v>82</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>5</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>6</v>
+      </c>
+      <c r="O178" t="s">
+        <v>200</v>
+      </c>
+      <c r="P178" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q178">
+        <v>3.4</v>
+      </c>
+      <c r="R178">
+        <v>2.05</v>
+      </c>
+      <c r="S178">
+        <v>3.25</v>
+      </c>
+      <c r="T178">
+        <v>1.44</v>
+      </c>
+      <c r="U178">
+        <v>2.63</v>
+      </c>
+      <c r="V178">
+        <v>3.25</v>
+      </c>
+      <c r="W178">
+        <v>1.33</v>
+      </c>
+      <c r="X178">
+        <v>9</v>
+      </c>
+      <c r="Y178">
+        <v>1.07</v>
+      </c>
+      <c r="Z178">
+        <v>2.55</v>
+      </c>
+      <c r="AA178">
+        <v>3.08</v>
+      </c>
+      <c r="AB178">
+        <v>2.48</v>
+      </c>
+      <c r="AC178">
+        <v>1.02</v>
+      </c>
+      <c r="AD178">
+        <v>7.7</v>
+      </c>
+      <c r="AE178">
+        <v>1.32</v>
+      </c>
+      <c r="AF178">
+        <v>2.88</v>
+      </c>
+      <c r="AG178">
+        <v>2</v>
+      </c>
+      <c r="AH178">
+        <v>1.67</v>
+      </c>
+      <c r="AI178">
+        <v>1.83</v>
+      </c>
+      <c r="AJ178">
+        <v>1.83</v>
+      </c>
+      <c r="AK178">
+        <v>1.44</v>
+      </c>
+      <c r="AL178">
+        <v>1.33</v>
+      </c>
+      <c r="AM178">
+        <v>1.44</v>
+      </c>
+      <c r="AN178">
+        <v>0.78</v>
+      </c>
+      <c r="AO178">
+        <v>1.14</v>
+      </c>
+      <c r="AP178">
+        <v>1</v>
+      </c>
+      <c r="AQ178">
+        <v>1</v>
+      </c>
+      <c r="AR178">
+        <v>1.63</v>
+      </c>
+      <c r="AS178">
+        <v>1.37</v>
+      </c>
+      <c r="AT178">
+        <v>3</v>
+      </c>
+      <c r="AU178">
+        <v>7</v>
+      </c>
+      <c r="AV178">
+        <v>5</v>
+      </c>
+      <c r="AW178">
+        <v>6</v>
+      </c>
+      <c r="AX178">
+        <v>5</v>
+      </c>
+      <c r="AY178">
+        <v>13</v>
+      </c>
+      <c r="AZ178">
+        <v>10</v>
+      </c>
+      <c r="BA178">
+        <v>4</v>
+      </c>
+      <c r="BB178">
+        <v>4</v>
+      </c>
+      <c r="BC178">
+        <v>8</v>
+      </c>
+      <c r="BD178">
+        <v>2.28</v>
+      </c>
+      <c r="BE178">
+        <v>8</v>
+      </c>
+      <c r="BF178">
+        <v>1.85</v>
+      </c>
+      <c r="BG178">
+        <v>1.28</v>
+      </c>
+      <c r="BH178">
+        <v>3.2</v>
+      </c>
+      <c r="BI178">
+        <v>1.52</v>
+      </c>
+      <c r="BJ178">
+        <v>2.36</v>
+      </c>
+      <c r="BK178">
+        <v>1.92</v>
+      </c>
+      <c r="BL178">
+        <v>1.88</v>
+      </c>
+      <c r="BM178">
+        <v>2.37</v>
+      </c>
+      <c r="BN178">
+        <v>1.55</v>
+      </c>
+      <c r="BO178">
+        <v>3.07</v>
+      </c>
+      <c r="BP178">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
@@ -2615,7 +2615,7 @@
         <v>10</v>
       </c>
       <c r="AZ7">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA7">
         <v>7</v>
@@ -4878,10 +4878,10 @@
         <v>6</v>
       </c>
       <c r="AY18">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="AZ18">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BA18">
         <v>10</v>
@@ -7144,10 +7144,10 @@
         <v>4</v>
       </c>
       <c r="AY29">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ29">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA29">
         <v>2</v>
@@ -7968,10 +7968,10 @@
         <v>7</v>
       </c>
       <c r="AY33">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ33">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA33">
         <v>8</v>
@@ -8380,7 +8380,7 @@
         <v>0</v>
       </c>
       <c r="AY35">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AZ35">
         <v>5</v>
@@ -11067,10 +11067,10 @@
         <v>5</v>
       </c>
       <c r="BB48">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC48">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD48">
         <v>1.85</v>
@@ -12088,10 +12088,10 @@
         <v>6</v>
       </c>
       <c r="AY53">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ53">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BA53">
         <v>5</v>
@@ -13327,7 +13327,7 @@
         <v>9</v>
       </c>
       <c r="AZ59">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="BA59">
         <v>1</v>
@@ -14566,13 +14566,13 @@
         <v>3</v>
       </c>
       <c r="BA65">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB65">
         <v>6</v>
       </c>
       <c r="BC65">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD65">
         <v>0</v>
@@ -16002,7 +16002,7 @@
         <v>5</v>
       </c>
       <c r="AY72">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ72">
         <v>10</v>
@@ -16620,10 +16620,10 @@
         <v>6</v>
       </c>
       <c r="AY75">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ75">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA75">
         <v>4</v>
@@ -16826,10 +16826,10 @@
         <v>5</v>
       </c>
       <c r="AY76">
+        <v>6</v>
+      </c>
+      <c r="AZ76">
         <v>8</v>
-      </c>
-      <c r="AZ76">
-        <v>9</v>
       </c>
       <c r="BA76">
         <v>5</v>
@@ -17032,10 +17032,10 @@
         <v>6</v>
       </c>
       <c r="AY77">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ77">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA77">
         <v>3</v>
@@ -17444,7 +17444,7 @@
         <v>3</v>
       </c>
       <c r="AY79">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AZ79">
         <v>11</v>
@@ -20740,10 +20740,10 @@
         <v>4</v>
       </c>
       <c r="AY95">
+        <v>6</v>
+      </c>
+      <c r="AZ95">
         <v>7</v>
-      </c>
-      <c r="AZ95">
-        <v>8</v>
       </c>
       <c r="BA95">
         <v>4</v>
@@ -22594,7 +22594,7 @@
         <v>7</v>
       </c>
       <c r="AY104">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AZ104">
         <v>12</v>
@@ -25275,7 +25275,7 @@
         <v>6</v>
       </c>
       <c r="AZ117">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA117">
         <v>7</v>
@@ -28156,10 +28156,10 @@
         <v>3</v>
       </c>
       <c r="AY131">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AZ131">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA131">
         <v>8</v>
@@ -30010,10 +30010,10 @@
         <v>7</v>
       </c>
       <c r="AY140">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AZ140">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="BA140">
         <v>8</v>
@@ -30216,10 +30216,10 @@
         <v>5</v>
       </c>
       <c r="AY141">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AZ141">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="BA141">
         <v>7</v>
@@ -30422,10 +30422,10 @@
         <v>14</v>
       </c>
       <c r="AY142">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="AZ142">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="BA142">
         <v>9</v>
@@ -31452,10 +31452,10 @@
         <v>4</v>
       </c>
       <c r="AY147">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AZ147">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BA147">
         <v>5</v>
@@ -32070,10 +32070,10 @@
         <v>12</v>
       </c>
       <c r="AY150">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ150">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="BA150">
         <v>3</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,27 +598,6 @@
     <t>['18']</t>
   </si>
   <si>
-    <t>['44', '45+1']</t>
-  </si>
-  <si>
-    <t>['44', '66']</t>
-  </si>
-  <si>
-    <t>['51', '68']</t>
-  </si>
-  <si>
-    <t>['45']</t>
-  </si>
-  <si>
-    <t>['3', '6', '10']</t>
-  </si>
-  <si>
-    <t>['57', '85']</t>
-  </si>
-  <si>
-    <t>['18', '65', '75', '86', '90+6']</t>
-  </si>
-  <si>
     <t>['31', '60']</t>
   </si>
   <si>
@@ -851,12 +830,6 @@
   </si>
   <si>
     <t>['49', '90+1']</t>
-  </si>
-  <si>
-    <t>['4', '90+4']</t>
-  </si>
-  <si>
-    <t>['23', '42']</t>
   </si>
 </sst>
 </file>
@@ -1218,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP178"/>
+  <dimension ref="A1:BP168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1477,7 +1450,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1555,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ2">
         <v>1.89</v>
@@ -1761,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ3">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1970,7 +1943,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2095,7 +2068,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2301,7 +2274,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="Q6">
         <v>4.1</v>
@@ -2379,10 +2352,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AQ6">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2585,7 +2558,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AQ7">
         <v>1.89</v>
@@ -2713,7 +2686,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="Q8">
         <v>2.28</v>
@@ -2794,7 +2767,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ8">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -3000,7 +2973,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ9">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3203,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3409,7 +3382,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3821,10 +3794,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="AQ13">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4027,10 +4000,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ14">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AR14">
         <v>2.25</v>
@@ -4155,7 +4128,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="Q15">
         <v>4.1</v>
@@ -4236,7 +4209,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ15">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4851,10 +4824,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ18">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5057,7 +5030,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>0.78</v>
@@ -5263,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5391,7 +5364,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="Q21">
         <v>4.4</v>
@@ -5675,7 +5648,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AQ22">
         <v>1.13</v>
@@ -5803,7 +5776,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5881,7 +5854,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AQ23">
         <v>2.13</v>
@@ -6090,7 +6063,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ24">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AR24">
         <v>3.04</v>
@@ -6215,7 +6188,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6293,10 +6266,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="AQ25">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="AR25">
         <v>1.45</v>
@@ -6499,7 +6472,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6627,7 +6600,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6911,10 +6884,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ28">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR28">
         <v>2.36</v>
@@ -7120,7 +7093,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ29">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7323,10 +7296,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ30">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR30">
         <v>1.54</v>
@@ -7657,7 +7630,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="Q32">
         <v>3.45</v>
@@ -7735,10 +7708,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AQ32">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR32">
         <v>1.26</v>
@@ -7863,7 +7836,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7941,10 +7914,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ33">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR33">
         <v>1.88</v>
@@ -8069,7 +8042,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8275,7 +8248,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8481,7 +8454,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Q36">
         <v>2.8</v>
@@ -8765,7 +8738,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ37">
         <v>1.43</v>
@@ -8893,7 +8866,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -9180,7 +9153,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ39">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AR39">
         <v>1.33</v>
@@ -9386,7 +9359,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR40">
         <v>1.47</v>
@@ -9589,7 +9562,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AQ41">
         <v>1.43</v>
@@ -9717,7 +9690,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9795,7 +9768,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -10001,7 +9974,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -10210,7 +10183,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ44">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AR44">
         <v>1.37</v>
@@ -10413,7 +10386,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AQ45">
         <v>1.63</v>
@@ -10622,7 +10595,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ46">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR46">
         <v>2.49</v>
@@ -10747,7 +10720,7 @@
         <v>105</v>
       </c>
       <c r="P47" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10828,7 +10801,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ47">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="AR47">
         <v>1.58</v>
@@ -10953,7 +10926,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -11031,7 +11004,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ48">
         <v>1.89</v>
@@ -11159,7 +11132,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -11443,10 +11416,10 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AQ50">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="AR50">
         <v>1.08</v>
@@ -11571,7 +11544,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="Q51">
         <v>1.91</v>
@@ -11649,10 +11622,10 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="AQ51">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR51">
         <v>1.69</v>
@@ -11777,7 +11750,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11855,10 +11828,10 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AQ52">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AR52">
         <v>1.25</v>
@@ -11983,7 +11956,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12064,7 +12037,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR53">
         <v>1.15</v>
@@ -12473,10 +12446,10 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AQ55">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="AR55">
         <v>1.39</v>
@@ -12601,7 +12574,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="Q56">
         <v>4.33</v>
@@ -12885,7 +12858,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ57">
         <v>2.13</v>
@@ -13091,7 +13064,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ58">
         <v>1.43</v>
@@ -13219,7 +13192,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13297,7 +13270,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AQ59">
         <v>0.78</v>
@@ -13506,7 +13479,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ60">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR60">
         <v>1.48</v>
@@ -13631,7 +13604,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13837,7 +13810,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -13918,7 +13891,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ62">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -14327,7 +14300,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ64">
         <v>1</v>
@@ -14455,7 +14428,7 @@
         <v>90</v>
       </c>
       <c r="P65" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="Q65">
         <v>3.6</v>
@@ -14661,7 +14634,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="Q66">
         <v>4.75</v>
@@ -14739,10 +14712,10 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AQ66">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR66">
         <v>1.04</v>
@@ -14867,7 +14840,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14945,10 +14918,10 @@
         <v>0.75</v>
       </c>
       <c r="AP67">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AQ67">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="AR67">
         <v>1.24</v>
@@ -15151,10 +15124,10 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AQ68">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR68">
         <v>1.93</v>
@@ -15975,7 +15948,7 @@
         <v>1.2</v>
       </c>
       <c r="AP72">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -16390,7 +16363,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ74">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR74">
         <v>1.3</v>
@@ -16593,7 +16566,7 @@
         <v>0.33</v>
       </c>
       <c r="AP75">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="AQ75">
         <v>1.43</v>
@@ -16799,7 +16772,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AQ76">
         <v>0.78</v>
@@ -17008,7 +16981,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ77">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AR77">
         <v>1.29</v>
@@ -17214,7 +17187,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ78">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR78">
         <v>1.6</v>
@@ -17339,7 +17312,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17417,7 +17390,7 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ79">
         <v>1.13</v>
@@ -17626,7 +17599,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ80">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="AR80">
         <v>1.56</v>
@@ -17751,7 +17724,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17829,10 +17802,10 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR81">
         <v>1.55</v>
@@ -18035,7 +18008,7 @@
         <v>3</v>
       </c>
       <c r="AP82">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AQ82">
         <v>2.13</v>
@@ -18163,7 +18136,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18241,10 +18214,10 @@
         <v>0.8</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ83">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="AR83">
         <v>1.52</v>
@@ -18447,7 +18420,7 @@
         <v>1.2</v>
       </c>
       <c r="AP84">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18653,10 +18626,10 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AQ85">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR85">
         <v>1.08</v>
@@ -18781,7 +18754,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18859,7 +18832,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AQ86">
         <v>1.63</v>
@@ -18987,7 +18960,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19068,7 +19041,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ87">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR87">
         <v>1.26</v>
@@ -19193,7 +19166,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19271,7 +19244,7 @@
         <v>2.25</v>
       </c>
       <c r="AP88">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AQ88">
         <v>1.89</v>
@@ -19399,7 +19372,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19686,7 +19659,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ90">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR90">
         <v>1.26</v>
@@ -19892,7 +19865,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ91">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AR91">
         <v>1.1</v>
@@ -20017,7 +19990,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20098,7 +20071,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ92">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR92">
         <v>1.1</v>
@@ -20223,7 +20196,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20301,10 +20274,10 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AQ93">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR93">
         <v>1.32</v>
@@ -20429,7 +20402,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="Q94">
         <v>2.3</v>
@@ -20510,7 +20483,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ94">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR94">
         <v>1.38</v>
@@ -20635,7 +20608,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20919,7 +20892,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AQ96">
         <v>1.63</v>
@@ -21047,7 +21020,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="Q97">
         <v>3.25</v>
@@ -21331,7 +21304,7 @@
         <v>1.25</v>
       </c>
       <c r="AP98">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="AQ98">
         <v>1.13</v>
@@ -21537,10 +21510,10 @@
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AQ99">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AR99">
         <v>1.86</v>
@@ -21665,7 +21638,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21871,7 +21844,7 @@
         <v>122</v>
       </c>
       <c r="P101" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="Q101">
         <v>3.25</v>
@@ -22077,7 +22050,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Q102">
         <v>2.25</v>
@@ -22155,10 +22128,10 @@
         <v>1.25</v>
       </c>
       <c r="AP102">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AQ102">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR102">
         <v>1.46</v>
@@ -22361,10 +22334,10 @@
         <v>0.8</v>
       </c>
       <c r="AP103">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ103">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AR103">
         <v>1.59</v>
@@ -22567,7 +22540,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -22695,7 +22668,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="Q105">
         <v>2.38</v>
@@ -22773,7 +22746,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -22901,7 +22874,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -23107,7 +23080,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -23185,10 +23158,10 @@
         <v>1.25</v>
       </c>
       <c r="AP107">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AQ107">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR107">
         <v>1.3</v>
@@ -23313,7 +23286,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23391,10 +23364,10 @@
         <v>1.17</v>
       </c>
       <c r="AP108">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AQ108">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="AR108">
         <v>1.33</v>
@@ -23519,7 +23492,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="Q109">
         <v>2.3</v>
@@ -23806,7 +23779,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ110">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="AR110">
         <v>1.34</v>
@@ -23931,7 +23904,7 @@
         <v>122</v>
       </c>
       <c r="P111" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -24218,7 +24191,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ112">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="AR112">
         <v>1.39</v>
@@ -24343,7 +24316,7 @@
         <v>164</v>
       </c>
       <c r="P113" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="Q113">
         <v>3.6</v>
@@ -24627,7 +24600,7 @@
         <v>2.6</v>
       </c>
       <c r="AP114">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ114">
         <v>2.13</v>
@@ -24755,7 +24728,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24833,10 +24806,10 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AQ115">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR115">
         <v>1.85</v>
@@ -24961,7 +24934,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="Q116">
         <v>3.25</v>
@@ -25042,7 +25015,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ116">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR116">
         <v>1.54</v>
@@ -25245,7 +25218,7 @@
         <v>1</v>
       </c>
       <c r="AP117">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AQ117">
         <v>1.43</v>
@@ -25451,7 +25424,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ118">
         <v>1.63</v>
@@ -25866,7 +25839,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ120">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR120">
         <v>1.38</v>
@@ -25991,7 +25964,7 @@
         <v>167</v>
       </c>
       <c r="P121" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26197,7 +26170,7 @@
         <v>168</v>
       </c>
       <c r="P122" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26275,10 +26248,10 @@
         <v>0.83</v>
       </c>
       <c r="AP122">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AQ122">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR122">
         <v>1.51</v>
@@ -26403,7 +26376,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26481,7 +26454,7 @@
         <v>0.86</v>
       </c>
       <c r="AP123">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ123">
         <v>1</v>
@@ -26609,7 +26582,7 @@
         <v>90</v>
       </c>
       <c r="P124" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -26690,7 +26663,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ124">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR124">
         <v>1.17</v>
@@ -26893,10 +26866,10 @@
         <v>1.6</v>
       </c>
       <c r="AP125">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AQ125">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR125">
         <v>1.1</v>
@@ -27099,7 +27072,7 @@
         <v>2.17</v>
       </c>
       <c r="AP126">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AQ126">
         <v>1.89</v>
@@ -27227,7 +27200,7 @@
         <v>171</v>
       </c>
       <c r="P127" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27305,10 +27278,10 @@
         <v>0.8</v>
       </c>
       <c r="AP127">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AQ127">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AR127">
         <v>1.52</v>
@@ -27433,7 +27406,7 @@
         <v>90</v>
       </c>
       <c r="P128" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="Q128">
         <v>2.88</v>
@@ -27639,7 +27612,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27717,10 +27690,10 @@
         <v>0.83</v>
       </c>
       <c r="AP129">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ129">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="AR129">
         <v>1.79</v>
@@ -27845,7 +27818,7 @@
         <v>90</v>
       </c>
       <c r="P130" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -27923,7 +27896,7 @@
         <v>0.8</v>
       </c>
       <c r="AP130">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AQ130">
         <v>1.43</v>
@@ -28051,7 +28024,7 @@
         <v>173</v>
       </c>
       <c r="P131" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28132,7 +28105,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ131">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR131">
         <v>2.03</v>
@@ -28257,7 +28230,7 @@
         <v>174</v>
       </c>
       <c r="P132" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -28335,7 +28308,7 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AQ132">
         <v>0.78</v>
@@ -28463,7 +28436,7 @@
         <v>175</v>
       </c>
       <c r="P133" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -28544,7 +28517,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ133">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR133">
         <v>1.27</v>
@@ -28669,7 +28642,7 @@
         <v>176</v>
       </c>
       <c r="P134" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28875,7 +28848,7 @@
         <v>177</v>
       </c>
       <c r="P135" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -28956,7 +28929,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ135">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AR135">
         <v>1.52</v>
@@ -29287,7 +29260,7 @@
         <v>179</v>
       </c>
       <c r="P137" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -29493,7 +29466,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29699,7 +29672,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -29777,10 +29750,10 @@
         <v>0.83</v>
       </c>
       <c r="AP139">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AQ139">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AR139">
         <v>1.74</v>
@@ -29905,7 +29878,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="Q140">
         <v>3</v>
@@ -30111,7 +30084,7 @@
         <v>180</v>
       </c>
       <c r="P141" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30189,7 +30162,7 @@
         <v>1.17</v>
       </c>
       <c r="AP141">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="AQ141">
         <v>1.63</v>
@@ -30395,7 +30368,7 @@
         <v>2.17</v>
       </c>
       <c r="AP142">
-        <v>2.33</v>
+        <v>2.5</v>
       </c>
       <c r="AQ142">
         <v>1.89</v>
@@ -30523,7 +30496,7 @@
         <v>182</v>
       </c>
       <c r="P143" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="Q143">
         <v>3.1</v>
@@ -30601,7 +30574,7 @@
         <v>1.13</v>
       </c>
       <c r="AP143">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ143">
         <v>1</v>
@@ -31016,7 +30989,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ145">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="AR145">
         <v>2.16</v>
@@ -31219,10 +31192,10 @@
         <v>1.14</v>
       </c>
       <c r="AP146">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AQ146">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AR146">
         <v>1.32</v>
@@ -31347,7 +31320,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -31425,7 +31398,7 @@
         <v>2</v>
       </c>
       <c r="AP147">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="AQ147">
         <v>1.89</v>
@@ -31631,7 +31604,7 @@
         <v>0.88</v>
       </c>
       <c r="AP148">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ148">
         <v>1</v>
@@ -31840,7 +31813,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ149">
-        <v>0.67</v>
+        <v>0.63</v>
       </c>
       <c r="AR149">
         <v>1.34</v>
@@ -32171,7 +32144,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="Q151">
         <v>2.38</v>
@@ -32252,7 +32225,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ151">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AR151">
         <v>1.46</v>
@@ -32583,7 +32556,7 @@
         <v>156</v>
       </c>
       <c r="P153" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="Q153">
         <v>2.5</v>
@@ -32664,7 +32637,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ153">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="AR153">
         <v>1.56</v>
@@ -32789,7 +32762,7 @@
         <v>187</v>
       </c>
       <c r="P154" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="Q154">
         <v>3.4</v>
@@ -32867,7 +32840,7 @@
         <v>1.17</v>
       </c>
       <c r="AP154">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AQ154">
         <v>1.43</v>
@@ -33073,10 +33046,10 @@
         <v>1.33</v>
       </c>
       <c r="AP155">
-        <v>2.2</v>
+        <v>2.11</v>
       </c>
       <c r="AQ155">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR155">
         <v>1.71</v>
@@ -33279,7 +33252,7 @@
         <v>1.86</v>
       </c>
       <c r="AP156">
-        <v>2.22</v>
+        <v>2.38</v>
       </c>
       <c r="AQ156">
         <v>1.89</v>
@@ -33613,7 +33586,7 @@
         <v>90</v>
       </c>
       <c r="P158" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -33691,7 +33664,7 @@
         <v>1.43</v>
       </c>
       <c r="AP158">
-        <v>1.33</v>
+        <v>1.13</v>
       </c>
       <c r="AQ158">
         <v>1.63</v>
@@ -33900,7 +33873,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ159">
-        <v>0.82</v>
+        <v>0.9</v>
       </c>
       <c r="AR159">
         <v>1.33</v>
@@ -34025,7 +33998,7 @@
         <v>141</v>
       </c>
       <c r="P160" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="Q160">
         <v>3.75</v>
@@ -34103,10 +34076,10 @@
         <v>1</v>
       </c>
       <c r="AP160">
-        <v>1.78</v>
+        <v>1.63</v>
       </c>
       <c r="AQ160">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="AR160">
         <v>1.07</v>
@@ -34231,7 +34204,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="Q161">
         <v>4.75</v>
@@ -34312,7 +34285,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ161">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR161">
         <v>1.16</v>
@@ -34437,7 +34410,7 @@
         <v>180</v>
       </c>
       <c r="P162" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="Q162">
         <v>3.75</v>
@@ -34515,7 +34488,7 @@
         <v>1.75</v>
       </c>
       <c r="AP162">
-        <v>1</v>
+        <v>0.78</v>
       </c>
       <c r="AQ162">
         <v>1.89</v>
@@ -34849,7 +34822,7 @@
         <v>191</v>
       </c>
       <c r="P164" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="Q164">
         <v>3.1</v>
@@ -34930,7 +34903,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ164">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AR164">
         <v>1.35</v>
@@ -35133,7 +35106,7 @@
         <v>1.11</v>
       </c>
       <c r="AP165">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35261,7 +35234,7 @@
         <v>90</v>
       </c>
       <c r="P166" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35342,7 +35315,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ166">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AR166">
         <v>1.35</v>
@@ -35673,7 +35646,7 @@
         <v>193</v>
       </c>
       <c r="P168" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -35830,2066 +35803,6 @@
       </c>
       <c r="BP168">
         <v>1.33</v>
-      </c>
-    </row>
-    <row r="169" spans="1:68">
-      <c r="A169" s="1">
-        <v>168</v>
-      </c>
-      <c r="B169">
-        <v>7778664</v>
-      </c>
-      <c r="C169" t="s">
-        <v>68</v>
-      </c>
-      <c r="D169" t="s">
-        <v>69</v>
-      </c>
-      <c r="E169" s="2">
-        <v>45808.08333333334</v>
-      </c>
-      <c r="F169">
-        <v>18</v>
-      </c>
-      <c r="G169" t="s">
-        <v>75</v>
-      </c>
-      <c r="H169" t="s">
-        <v>77</v>
-      </c>
-      <c r="I169">
-        <v>2</v>
-      </c>
-      <c r="J169">
-        <v>0</v>
-      </c>
-      <c r="K169">
-        <v>2</v>
-      </c>
-      <c r="L169">
-        <v>2</v>
-      </c>
-      <c r="M169">
-        <v>2</v>
-      </c>
-      <c r="N169">
-        <v>4</v>
-      </c>
-      <c r="O169" t="s">
-        <v>194</v>
-      </c>
-      <c r="P169" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q169">
-        <v>2.3</v>
-      </c>
-      <c r="R169">
-        <v>2.2</v>
-      </c>
-      <c r="S169">
-        <v>5</v>
-      </c>
-      <c r="T169">
-        <v>1.4</v>
-      </c>
-      <c r="U169">
-        <v>2.75</v>
-      </c>
-      <c r="V169">
-        <v>2.75</v>
-      </c>
-      <c r="W169">
-        <v>1.4</v>
-      </c>
-      <c r="X169">
-        <v>8</v>
-      </c>
-      <c r="Y169">
-        <v>1.08</v>
-      </c>
-      <c r="Z169">
-        <v>1.71</v>
-      </c>
-      <c r="AA169">
-        <v>3.5</v>
-      </c>
-      <c r="AB169">
-        <v>3.99</v>
-      </c>
-      <c r="AC169">
-        <v>1</v>
-      </c>
-      <c r="AD169">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="AE169">
-        <v>1.26</v>
-      </c>
-      <c r="AF169">
-        <v>3.22</v>
-      </c>
-      <c r="AG169">
-        <v>1.84</v>
-      </c>
-      <c r="AH169">
-        <v>1.86</v>
-      </c>
-      <c r="AI169">
-        <v>1.91</v>
-      </c>
-      <c r="AJ169">
-        <v>1.8</v>
-      </c>
-      <c r="AK169">
-        <v>1.18</v>
-      </c>
-      <c r="AL169">
-        <v>1.3</v>
-      </c>
-      <c r="AM169">
-        <v>2</v>
-      </c>
-      <c r="AN169">
-        <v>1.8</v>
-      </c>
-      <c r="AO169">
-        <v>1.14</v>
-      </c>
-      <c r="AP169">
-        <v>1.73</v>
-      </c>
-      <c r="AQ169">
-        <v>1.13</v>
-      </c>
-      <c r="AR169">
-        <v>1.3</v>
-      </c>
-      <c r="AS169">
-        <v>1.28</v>
-      </c>
-      <c r="AT169">
-        <v>2.58</v>
-      </c>
-      <c r="AU169">
-        <v>4</v>
-      </c>
-      <c r="AV169">
-        <v>4</v>
-      </c>
-      <c r="AW169">
-        <v>7</v>
-      </c>
-      <c r="AX169">
-        <v>3</v>
-      </c>
-      <c r="AY169">
-        <v>11</v>
-      </c>
-      <c r="AZ169">
-        <v>7</v>
-      </c>
-      <c r="BA169">
-        <v>7</v>
-      </c>
-      <c r="BB169">
-        <v>1</v>
-      </c>
-      <c r="BC169">
-        <v>8</v>
-      </c>
-      <c r="BD169">
-        <v>1.34</v>
-      </c>
-      <c r="BE169">
-        <v>9.5</v>
-      </c>
-      <c r="BF169">
-        <v>4.07</v>
-      </c>
-      <c r="BG169">
-        <v>1.17</v>
-      </c>
-      <c r="BH169">
-        <v>4.15</v>
-      </c>
-      <c r="BI169">
-        <v>1.34</v>
-      </c>
-      <c r="BJ169">
-        <v>3.02</v>
-      </c>
-      <c r="BK169">
-        <v>1.58</v>
-      </c>
-      <c r="BL169">
-        <v>2.28</v>
-      </c>
-      <c r="BM169">
-        <v>2</v>
-      </c>
-      <c r="BN169">
-        <v>1.8</v>
-      </c>
-      <c r="BO169">
-        <v>2.38</v>
-      </c>
-      <c r="BP169">
-        <v>1.51</v>
-      </c>
-    </row>
-    <row r="170" spans="1:68">
-      <c r="A170" s="1">
-        <v>169</v>
-      </c>
-      <c r="B170">
-        <v>7778662</v>
-      </c>
-      <c r="C170" t="s">
-        <v>68</v>
-      </c>
-      <c r="D170" t="s">
-        <v>69</v>
-      </c>
-      <c r="E170" s="2">
-        <v>45808.08333333334</v>
-      </c>
-      <c r="F170">
-        <v>18</v>
-      </c>
-      <c r="G170" t="s">
-        <v>74</v>
-      </c>
-      <c r="H170" t="s">
-        <v>88</v>
-      </c>
-      <c r="I170">
-        <v>1</v>
-      </c>
-      <c r="J170">
-        <v>1</v>
-      </c>
-      <c r="K170">
-        <v>2</v>
-      </c>
-      <c r="L170">
-        <v>2</v>
-      </c>
-      <c r="M170">
-        <v>1</v>
-      </c>
-      <c r="N170">
-        <v>3</v>
-      </c>
-      <c r="O170" t="s">
-        <v>195</v>
-      </c>
-      <c r="P170" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q170">
-        <v>3.25</v>
-      </c>
-      <c r="R170">
-        <v>2.2</v>
-      </c>
-      <c r="S170">
-        <v>3.1</v>
-      </c>
-      <c r="T170">
-        <v>1.36</v>
-      </c>
-      <c r="U170">
-        <v>3</v>
-      </c>
-      <c r="V170">
-        <v>2.63</v>
-      </c>
-      <c r="W170">
-        <v>1.44</v>
-      </c>
-      <c r="X170">
-        <v>7</v>
-      </c>
-      <c r="Y170">
-        <v>1.1</v>
-      </c>
-      <c r="Z170">
-        <v>2.54</v>
-      </c>
-      <c r="AA170">
-        <v>3.45</v>
-      </c>
-      <c r="AB170">
-        <v>2.3</v>
-      </c>
-      <c r="AC170">
-        <v>1.02</v>
-      </c>
-      <c r="AD170">
-        <v>10</v>
-      </c>
-      <c r="AE170">
-        <v>1.22</v>
-      </c>
-      <c r="AF170">
-        <v>3.5</v>
-      </c>
-      <c r="AG170">
-        <v>1.59</v>
-      </c>
-      <c r="AH170">
-        <v>2.21</v>
-      </c>
-      <c r="AI170">
-        <v>1.67</v>
-      </c>
-      <c r="AJ170">
-        <v>2.1</v>
-      </c>
-      <c r="AK170">
-        <v>1.55</v>
-      </c>
-      <c r="AL170">
-        <v>1.3</v>
-      </c>
-      <c r="AM170">
-        <v>1.44</v>
-      </c>
-      <c r="AN170">
-        <v>1.13</v>
-      </c>
-      <c r="AO170">
-        <v>0.9</v>
-      </c>
-      <c r="AP170">
-        <v>1.33</v>
-      </c>
-      <c r="AQ170">
-        <v>0.82</v>
-      </c>
-      <c r="AR170">
-        <v>1.44</v>
-      </c>
-      <c r="AS170">
-        <v>1.32</v>
-      </c>
-      <c r="AT170">
-        <v>2.76</v>
-      </c>
-      <c r="AU170">
-        <v>6</v>
-      </c>
-      <c r="AV170">
-        <v>2</v>
-      </c>
-      <c r="AW170">
-        <v>8</v>
-      </c>
-      <c r="AX170">
-        <v>9</v>
-      </c>
-      <c r="AY170">
-        <v>14</v>
-      </c>
-      <c r="AZ170">
-        <v>11</v>
-      </c>
-      <c r="BA170">
-        <v>6</v>
-      </c>
-      <c r="BB170">
-        <v>8</v>
-      </c>
-      <c r="BC170">
-        <v>14</v>
-      </c>
-      <c r="BD170">
-        <v>1.75</v>
-      </c>
-      <c r="BE170">
-        <v>8</v>
-      </c>
-      <c r="BF170">
-        <v>2.44</v>
-      </c>
-      <c r="BG170">
-        <v>1.24</v>
-      </c>
-      <c r="BH170">
-        <v>3.52</v>
-      </c>
-      <c r="BI170">
-        <v>1.45</v>
-      </c>
-      <c r="BJ170">
-        <v>2.57</v>
-      </c>
-      <c r="BK170">
-        <v>1.74</v>
-      </c>
-      <c r="BL170">
-        <v>2.01</v>
-      </c>
-      <c r="BM170">
-        <v>2.18</v>
-      </c>
-      <c r="BN170">
-        <v>1.64</v>
-      </c>
-      <c r="BO170">
-        <v>2.73</v>
-      </c>
-      <c r="BP170">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="171" spans="1:68">
-      <c r="A171" s="1">
-        <v>170</v>
-      </c>
-      <c r="B171">
-        <v>7778660</v>
-      </c>
-      <c r="C171" t="s">
-        <v>68</v>
-      </c>
-      <c r="D171" t="s">
-        <v>69</v>
-      </c>
-      <c r="E171" s="2">
-        <v>45808.08333333334</v>
-      </c>
-      <c r="F171">
-        <v>18</v>
-      </c>
-      <c r="G171" t="s">
-        <v>71</v>
-      </c>
-      <c r="H171" t="s">
-        <v>73</v>
-      </c>
-      <c r="I171">
-        <v>1</v>
-      </c>
-      <c r="J171">
-        <v>1</v>
-      </c>
-      <c r="K171">
-        <v>2</v>
-      </c>
-      <c r="L171">
-        <v>2</v>
-      </c>
-      <c r="M171">
-        <v>2</v>
-      </c>
-      <c r="N171">
-        <v>4</v>
-      </c>
-      <c r="O171" t="s">
-        <v>115</v>
-      </c>
-      <c r="P171" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q171">
-        <v>2.75</v>
-      </c>
-      <c r="R171">
-        <v>2.2</v>
-      </c>
-      <c r="S171">
-        <v>3.75</v>
-      </c>
-      <c r="T171">
-        <v>1.36</v>
-      </c>
-      <c r="U171">
-        <v>3</v>
-      </c>
-      <c r="V171">
-        <v>2.75</v>
-      </c>
-      <c r="W171">
-        <v>1.4</v>
-      </c>
-      <c r="X171">
-        <v>7</v>
-      </c>
-      <c r="Y171">
-        <v>1.1</v>
-      </c>
-      <c r="Z171">
-        <v>1.88</v>
-      </c>
-      <c r="AA171">
-        <v>3.55</v>
-      </c>
-      <c r="AB171">
-        <v>3.27</v>
-      </c>
-      <c r="AC171">
-        <v>1</v>
-      </c>
-      <c r="AD171">
-        <v>9</v>
-      </c>
-      <c r="AE171">
-        <v>1.24</v>
-      </c>
-      <c r="AF171">
-        <v>3.34</v>
-      </c>
-      <c r="AG171">
-        <v>1.62</v>
-      </c>
-      <c r="AH171">
-        <v>2.15</v>
-      </c>
-      <c r="AI171">
-        <v>1.73</v>
-      </c>
-      <c r="AJ171">
-        <v>2</v>
-      </c>
-      <c r="AK171">
-        <v>1.33</v>
-      </c>
-      <c r="AL171">
-        <v>1.3</v>
-      </c>
-      <c r="AM171">
-        <v>1.67</v>
-      </c>
-      <c r="AN171">
-        <v>2.5</v>
-      </c>
-      <c r="AO171">
-        <v>1.13</v>
-      </c>
-      <c r="AP171">
-        <v>2.33</v>
-      </c>
-      <c r="AQ171">
-        <v>1.11</v>
-      </c>
-      <c r="AR171">
-        <v>1.8</v>
-      </c>
-      <c r="AS171">
-        <v>1.24</v>
-      </c>
-      <c r="AT171">
-        <v>3.04</v>
-      </c>
-      <c r="AU171">
-        <v>7</v>
-      </c>
-      <c r="AV171">
-        <v>6</v>
-      </c>
-      <c r="AW171">
-        <v>8</v>
-      </c>
-      <c r="AX171">
-        <v>12</v>
-      </c>
-      <c r="AY171">
-        <v>15</v>
-      </c>
-      <c r="AZ171">
-        <v>18</v>
-      </c>
-      <c r="BA171">
-        <v>1</v>
-      </c>
-      <c r="BB171">
-        <v>9</v>
-      </c>
-      <c r="BC171">
-        <v>10</v>
-      </c>
-      <c r="BD171">
-        <v>1.91</v>
-      </c>
-      <c r="BE171">
-        <v>8</v>
-      </c>
-      <c r="BF171">
-        <v>2.2</v>
-      </c>
-      <c r="BG171">
-        <v>1.21</v>
-      </c>
-      <c r="BH171">
-        <v>3.78</v>
-      </c>
-      <c r="BI171">
-        <v>1.4</v>
-      </c>
-      <c r="BJ171">
-        <v>2.72</v>
-      </c>
-      <c r="BK171">
-        <v>1.67</v>
-      </c>
-      <c r="BL171">
-        <v>2.12</v>
-      </c>
-      <c r="BM171">
-        <v>2.07</v>
-      </c>
-      <c r="BN171">
-        <v>1.71</v>
-      </c>
-      <c r="BO171">
-        <v>2.58</v>
-      </c>
-      <c r="BP171">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="172" spans="1:68">
-      <c r="A172" s="1">
-        <v>171</v>
-      </c>
-      <c r="B172">
-        <v>7778661</v>
-      </c>
-      <c r="C172" t="s">
-        <v>68</v>
-      </c>
-      <c r="D172" t="s">
-        <v>69</v>
-      </c>
-      <c r="E172" s="2">
-        <v>45808.08333333334</v>
-      </c>
-      <c r="F172">
-        <v>18</v>
-      </c>
-      <c r="G172" t="s">
-        <v>80</v>
-      </c>
-      <c r="H172" t="s">
-        <v>81</v>
-      </c>
-      <c r="I172">
-        <v>0</v>
-      </c>
-      <c r="J172">
-        <v>0</v>
-      </c>
-      <c r="K172">
-        <v>0</v>
-      </c>
-      <c r="L172">
-        <v>0</v>
-      </c>
-      <c r="M172">
-        <v>0</v>
-      </c>
-      <c r="N172">
-        <v>0</v>
-      </c>
-      <c r="O172" t="s">
-        <v>90</v>
-      </c>
-      <c r="P172" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q172">
-        <v>2.5</v>
-      </c>
-      <c r="R172">
-        <v>2.1</v>
-      </c>
-      <c r="S172">
-        <v>4.75</v>
-      </c>
-      <c r="T172">
-        <v>1.44</v>
-      </c>
-      <c r="U172">
-        <v>2.63</v>
-      </c>
-      <c r="V172">
-        <v>3</v>
-      </c>
-      <c r="W172">
-        <v>1.36</v>
-      </c>
-      <c r="X172">
-        <v>9</v>
-      </c>
-      <c r="Y172">
-        <v>1.07</v>
-      </c>
-      <c r="Z172">
-        <v>1.6</v>
-      </c>
-      <c r="AA172">
-        <v>3.69</v>
-      </c>
-      <c r="AB172">
-        <v>4.5</v>
-      </c>
-      <c r="AC172">
-        <v>1.01</v>
-      </c>
-      <c r="AD172">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="AE172">
-        <v>1.29</v>
-      </c>
-      <c r="AF172">
-        <v>3.04</v>
-      </c>
-      <c r="AG172">
-        <v>1.73</v>
-      </c>
-      <c r="AH172">
-        <v>1.97</v>
-      </c>
-      <c r="AI172">
-        <v>1.91</v>
-      </c>
-      <c r="AJ172">
-        <v>1.8</v>
-      </c>
-      <c r="AK172">
-        <v>1.22</v>
-      </c>
-      <c r="AL172">
-        <v>1.3</v>
-      </c>
-      <c r="AM172">
-        <v>1.85</v>
-      </c>
-      <c r="AN172">
-        <v>2.38</v>
-      </c>
-      <c r="AO172">
-        <v>0.63</v>
-      </c>
-      <c r="AP172">
-        <v>2.22</v>
-      </c>
-      <c r="AQ172">
-        <v>0.67</v>
-      </c>
-      <c r="AR172">
-        <v>1.63</v>
-      </c>
-      <c r="AS172">
-        <v>1.47</v>
-      </c>
-      <c r="AT172">
-        <v>3.1</v>
-      </c>
-      <c r="AU172">
-        <v>7</v>
-      </c>
-      <c r="AV172">
-        <v>3</v>
-      </c>
-      <c r="AW172">
-        <v>10</v>
-      </c>
-      <c r="AX172">
-        <v>5</v>
-      </c>
-      <c r="AY172">
-        <v>17</v>
-      </c>
-      <c r="AZ172">
-        <v>8</v>
-      </c>
-      <c r="BA172">
-        <v>3</v>
-      </c>
-      <c r="BB172">
-        <v>6</v>
-      </c>
-      <c r="BC172">
-        <v>9</v>
-      </c>
-      <c r="BD172">
-        <v>1.69</v>
-      </c>
-      <c r="BE172">
-        <v>8</v>
-      </c>
-      <c r="BF172">
-        <v>2.62</v>
-      </c>
-      <c r="BG172">
-        <v>1.44</v>
-      </c>
-      <c r="BH172">
-        <v>2.6</v>
-      </c>
-      <c r="BI172">
-        <v>1.75</v>
-      </c>
-      <c r="BJ172">
-        <v>2.01</v>
-      </c>
-      <c r="BK172">
-        <v>2.21</v>
-      </c>
-      <c r="BL172">
-        <v>1.62</v>
-      </c>
-      <c r="BM172">
-        <v>2.82</v>
-      </c>
-      <c r="BN172">
-        <v>1.38</v>
-      </c>
-      <c r="BO172">
-        <v>3.82</v>
-      </c>
-      <c r="BP172">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="173" spans="1:68">
-      <c r="A173" s="1">
-        <v>172</v>
-      </c>
-      <c r="B173">
-        <v>7778657</v>
-      </c>
-      <c r="C173" t="s">
-        <v>68</v>
-      </c>
-      <c r="D173" t="s">
-        <v>69</v>
-      </c>
-      <c r="E173" s="2">
-        <v>45808.08333333334</v>
-      </c>
-      <c r="F173">
-        <v>18</v>
-      </c>
-      <c r="G173" t="s">
-        <v>89</v>
-      </c>
-      <c r="H173" t="s">
-        <v>86</v>
-      </c>
-      <c r="I173">
-        <v>0</v>
-      </c>
-      <c r="J173">
-        <v>2</v>
-      </c>
-      <c r="K173">
-        <v>2</v>
-      </c>
-      <c r="L173">
-        <v>2</v>
-      </c>
-      <c r="M173">
-        <v>2</v>
-      </c>
-      <c r="N173">
-        <v>4</v>
-      </c>
-      <c r="O173" t="s">
-        <v>196</v>
-      </c>
-      <c r="P173" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q173">
-        <v>3</v>
-      </c>
-      <c r="R173">
-        <v>2</v>
-      </c>
-      <c r="S173">
-        <v>4</v>
-      </c>
-      <c r="T173">
-        <v>1.5</v>
-      </c>
-      <c r="U173">
-        <v>2.5</v>
-      </c>
-      <c r="V173">
-        <v>3.5</v>
-      </c>
-      <c r="W173">
-        <v>1.29</v>
-      </c>
-      <c r="X173">
-        <v>11</v>
-      </c>
-      <c r="Y173">
-        <v>1.05</v>
-      </c>
-      <c r="Z173">
-        <v>2.15</v>
-      </c>
-      <c r="AA173">
-        <v>3.15</v>
-      </c>
-      <c r="AB173">
-        <v>2.97</v>
-      </c>
-      <c r="AC173">
-        <v>1.05</v>
-      </c>
-      <c r="AD173">
-        <v>6.65</v>
-      </c>
-      <c r="AE173">
-        <v>1.4</v>
-      </c>
-      <c r="AF173">
-        <v>2.56</v>
-      </c>
-      <c r="AG173">
-        <v>2.04</v>
-      </c>
-      <c r="AH173">
-        <v>1.69</v>
-      </c>
-      <c r="AI173">
-        <v>2</v>
-      </c>
-      <c r="AJ173">
-        <v>1.73</v>
-      </c>
-      <c r="AK173">
-        <v>1.33</v>
-      </c>
-      <c r="AL173">
-        <v>1.36</v>
-      </c>
-      <c r="AM173">
-        <v>1.62</v>
-      </c>
-      <c r="AN173">
-        <v>0.86</v>
-      </c>
-      <c r="AO173">
-        <v>0.75</v>
-      </c>
-      <c r="AP173">
-        <v>0.88</v>
-      </c>
-      <c r="AQ173">
-        <v>0.78</v>
-      </c>
-      <c r="AR173">
-        <v>1.56</v>
-      </c>
-      <c r="AS173">
-        <v>1.15</v>
-      </c>
-      <c r="AT173">
-        <v>2.71</v>
-      </c>
-      <c r="AU173">
-        <v>4</v>
-      </c>
-      <c r="AV173">
-        <v>8</v>
-      </c>
-      <c r="AW173">
-        <v>9</v>
-      </c>
-      <c r="AX173">
-        <v>3</v>
-      </c>
-      <c r="AY173">
-        <v>13</v>
-      </c>
-      <c r="AZ173">
-        <v>11</v>
-      </c>
-      <c r="BA173">
-        <v>8</v>
-      </c>
-      <c r="BB173">
-        <v>1</v>
-      </c>
-      <c r="BC173">
-        <v>9</v>
-      </c>
-      <c r="BD173">
-        <v>1.85</v>
-      </c>
-      <c r="BE173">
-        <v>7.5</v>
-      </c>
-      <c r="BF173">
-        <v>2.29</v>
-      </c>
-      <c r="BG173">
-        <v>1.36</v>
-      </c>
-      <c r="BH173">
-        <v>2.88</v>
-      </c>
-      <c r="BI173">
-        <v>1.62</v>
-      </c>
-      <c r="BJ173">
-        <v>2.21</v>
-      </c>
-      <c r="BK173">
-        <v>2.01</v>
-      </c>
-      <c r="BL173">
-        <v>1.75</v>
-      </c>
-      <c r="BM173">
-        <v>2.53</v>
-      </c>
-      <c r="BN173">
-        <v>1.46</v>
-      </c>
-      <c r="BO173">
-        <v>3.35</v>
-      </c>
-      <c r="BP173">
-        <v>1.26</v>
-      </c>
-    </row>
-    <row r="174" spans="1:68">
-      <c r="A174" s="1">
-        <v>173</v>
-      </c>
-      <c r="B174">
-        <v>7778656</v>
-      </c>
-      <c r="C174" t="s">
-        <v>68</v>
-      </c>
-      <c r="D174" t="s">
-        <v>69</v>
-      </c>
-      <c r="E174" s="2">
-        <v>45808.08333333334</v>
-      </c>
-      <c r="F174">
-        <v>18</v>
-      </c>
-      <c r="G174" t="s">
-        <v>85</v>
-      </c>
-      <c r="H174" t="s">
-        <v>87</v>
-      </c>
-      <c r="I174">
-        <v>1</v>
-      </c>
-      <c r="J174">
-        <v>0</v>
-      </c>
-      <c r="K174">
-        <v>1</v>
-      </c>
-      <c r="L174">
-        <v>1</v>
-      </c>
-      <c r="M174">
-        <v>1</v>
-      </c>
-      <c r="N174">
-        <v>2</v>
-      </c>
-      <c r="O174" t="s">
-        <v>197</v>
-      </c>
-      <c r="P174" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q174">
-        <v>2.88</v>
-      </c>
-      <c r="R174">
-        <v>2.1</v>
-      </c>
-      <c r="S174">
-        <v>4</v>
-      </c>
-      <c r="T174">
-        <v>1.44</v>
-      </c>
-      <c r="U174">
-        <v>2.63</v>
-      </c>
-      <c r="V174">
-        <v>3.25</v>
-      </c>
-      <c r="W174">
-        <v>1.33</v>
-      </c>
-      <c r="X174">
-        <v>9</v>
-      </c>
-      <c r="Y174">
-        <v>1.07</v>
-      </c>
-      <c r="Z174">
-        <v>1.99</v>
-      </c>
-      <c r="AA174">
-        <v>3.32</v>
-      </c>
-      <c r="AB174">
-        <v>3.17</v>
-      </c>
-      <c r="AC174">
-        <v>1.01</v>
-      </c>
-      <c r="AD174">
-        <v>8.6</v>
-      </c>
-      <c r="AE174">
-        <v>1.29</v>
-      </c>
-      <c r="AF174">
-        <v>3.04</v>
-      </c>
-      <c r="AG174">
-        <v>1.88</v>
-      </c>
-      <c r="AH174">
-        <v>1.82</v>
-      </c>
-      <c r="AI174">
-        <v>1.83</v>
-      </c>
-      <c r="AJ174">
-        <v>1.83</v>
-      </c>
-      <c r="AK174">
-        <v>1.36</v>
-      </c>
-      <c r="AL174">
-        <v>1.33</v>
-      </c>
-      <c r="AM174">
-        <v>1.62</v>
-      </c>
-      <c r="AN174">
-        <v>1.88</v>
-      </c>
-      <c r="AO174">
-        <v>1</v>
-      </c>
-      <c r="AP174">
-        <v>1.78</v>
-      </c>
-      <c r="AQ174">
-        <v>1</v>
-      </c>
-      <c r="AR174">
-        <v>1.5</v>
-      </c>
-      <c r="AS174">
-        <v>1.37</v>
-      </c>
-      <c r="AT174">
-        <v>2.87</v>
-      </c>
-      <c r="AU174">
-        <v>3</v>
-      </c>
-      <c r="AV174">
-        <v>3</v>
-      </c>
-      <c r="AW174">
-        <v>13</v>
-      </c>
-      <c r="AX174">
-        <v>3</v>
-      </c>
-      <c r="AY174">
-        <v>16</v>
-      </c>
-      <c r="AZ174">
-        <v>6</v>
-      </c>
-      <c r="BA174">
-        <v>4</v>
-      </c>
-      <c r="BB174">
-        <v>3</v>
-      </c>
-      <c r="BC174">
-        <v>7</v>
-      </c>
-      <c r="BD174">
-        <v>1.91</v>
-      </c>
-      <c r="BE174">
-        <v>7.5</v>
-      </c>
-      <c r="BF174">
-        <v>2.2</v>
-      </c>
-      <c r="BG174">
-        <v>1.51</v>
-      </c>
-      <c r="BH174">
-        <v>2.39</v>
-      </c>
-      <c r="BI174">
-        <v>1.85</v>
-      </c>
-      <c r="BJ174">
-        <v>1.95</v>
-      </c>
-      <c r="BK174">
-        <v>2.4</v>
-      </c>
-      <c r="BL174">
-        <v>1.53</v>
-      </c>
-      <c r="BM174">
-        <v>3.2</v>
-      </c>
-      <c r="BN174">
-        <v>1.3</v>
-      </c>
-      <c r="BO174">
-        <v>4.25</v>
-      </c>
-      <c r="BP174">
-        <v>1.16</v>
-      </c>
-    </row>
-    <row r="175" spans="1:68">
-      <c r="A175" s="1">
-        <v>174</v>
-      </c>
-      <c r="B175">
-        <v>7778659</v>
-      </c>
-      <c r="C175" t="s">
-        <v>68</v>
-      </c>
-      <c r="D175" t="s">
-        <v>69</v>
-      </c>
-      <c r="E175" s="2">
-        <v>45808.08333333334</v>
-      </c>
-      <c r="F175">
-        <v>18</v>
-      </c>
-      <c r="G175" t="s">
-        <v>84</v>
-      </c>
-      <c r="H175" t="s">
-        <v>76</v>
-      </c>
-      <c r="I175">
-        <v>3</v>
-      </c>
-      <c r="J175">
-        <v>0</v>
-      </c>
-      <c r="K175">
-        <v>3</v>
-      </c>
-      <c r="L175">
-        <v>3</v>
-      </c>
-      <c r="M175">
-        <v>0</v>
-      </c>
-      <c r="N175">
-        <v>3</v>
-      </c>
-      <c r="O175" t="s">
-        <v>198</v>
-      </c>
-      <c r="P175" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q175">
-        <v>3.4</v>
-      </c>
-      <c r="R175">
-        <v>2.2</v>
-      </c>
-      <c r="S175">
-        <v>3</v>
-      </c>
-      <c r="T175">
-        <v>1.4</v>
-      </c>
-      <c r="U175">
-        <v>2.75</v>
-      </c>
-      <c r="V175">
-        <v>2.75</v>
-      </c>
-      <c r="W175">
-        <v>1.4</v>
-      </c>
-      <c r="X175">
-        <v>8</v>
-      </c>
-      <c r="Y175">
-        <v>1.08</v>
-      </c>
-      <c r="Z175">
-        <v>2.69</v>
-      </c>
-      <c r="AA175">
-        <v>3.37</v>
-      </c>
-      <c r="AB175">
-        <v>2.21</v>
-      </c>
-      <c r="AC175">
-        <v>1.03</v>
-      </c>
-      <c r="AD175">
-        <v>9</v>
-      </c>
-      <c r="AE175">
-        <v>1.24</v>
-      </c>
-      <c r="AF175">
-        <v>3.34</v>
-      </c>
-      <c r="AG175">
-        <v>1.72</v>
-      </c>
-      <c r="AH175">
-        <v>2</v>
-      </c>
-      <c r="AI175">
-        <v>1.73</v>
-      </c>
-      <c r="AJ175">
-        <v>2</v>
-      </c>
-      <c r="AK175">
-        <v>1.55</v>
-      </c>
-      <c r="AL175">
-        <v>1.3</v>
-      </c>
-      <c r="AM175">
-        <v>1.4</v>
-      </c>
-      <c r="AN175">
-        <v>2.11</v>
-      </c>
-      <c r="AO175">
-        <v>1.25</v>
-      </c>
-      <c r="AP175">
-        <v>2.2</v>
-      </c>
-      <c r="AQ175">
-        <v>1.11</v>
-      </c>
-      <c r="AR175">
-        <v>1.66</v>
-      </c>
-      <c r="AS175">
-        <v>1.56</v>
-      </c>
-      <c r="AT175">
-        <v>3.22</v>
-      </c>
-      <c r="AU175">
-        <v>7</v>
-      </c>
-      <c r="AV175">
-        <v>4</v>
-      </c>
-      <c r="AW175">
-        <v>8</v>
-      </c>
-      <c r="AX175">
-        <v>7</v>
-      </c>
-      <c r="AY175">
-        <v>15</v>
-      </c>
-      <c r="AZ175">
-        <v>11</v>
-      </c>
-      <c r="BA175">
-        <v>5</v>
-      </c>
-      <c r="BB175">
-        <v>3</v>
-      </c>
-      <c r="BC175">
-        <v>8</v>
-      </c>
-      <c r="BD175">
-        <v>2</v>
-      </c>
-      <c r="BE175">
-        <v>7.5</v>
-      </c>
-      <c r="BF175">
-        <v>2.1</v>
-      </c>
-      <c r="BG175">
-        <v>1.43</v>
-      </c>
-      <c r="BH175">
-        <v>2.62</v>
-      </c>
-      <c r="BI175">
-        <v>1.73</v>
-      </c>
-      <c r="BJ175">
-        <v>2.03</v>
-      </c>
-      <c r="BK175">
-        <v>2.19</v>
-      </c>
-      <c r="BL175">
-        <v>1.63</v>
-      </c>
-      <c r="BM175">
-        <v>2.8</v>
-      </c>
-      <c r="BN175">
-        <v>1.38</v>
-      </c>
-      <c r="BO175">
-        <v>3.78</v>
-      </c>
-      <c r="BP175">
-        <v>1.21</v>
-      </c>
-    </row>
-    <row r="176" spans="1:68">
-      <c r="A176" s="1">
-        <v>175</v>
-      </c>
-      <c r="B176">
-        <v>7778663</v>
-      </c>
-      <c r="C176" t="s">
-        <v>68</v>
-      </c>
-      <c r="D176" t="s">
-        <v>69</v>
-      </c>
-      <c r="E176" s="2">
-        <v>45808.25347222222</v>
-      </c>
-      <c r="F176">
-        <v>18</v>
-      </c>
-      <c r="G176" t="s">
-        <v>78</v>
-      </c>
-      <c r="H176" t="s">
-        <v>83</v>
-      </c>
-      <c r="I176">
-        <v>0</v>
-      </c>
-      <c r="J176">
-        <v>1</v>
-      </c>
-      <c r="K176">
-        <v>1</v>
-      </c>
-      <c r="L176">
-        <v>0</v>
-      </c>
-      <c r="M176">
-        <v>1</v>
-      </c>
-      <c r="N176">
-        <v>1</v>
-      </c>
-      <c r="O176" t="s">
-        <v>90</v>
-      </c>
-      <c r="P176" t="s">
-        <v>254</v>
-      </c>
-      <c r="Q176">
-        <v>3.4</v>
-      </c>
-      <c r="R176">
-        <v>1.91</v>
-      </c>
-      <c r="S176">
-        <v>3.75</v>
-      </c>
-      <c r="T176">
-        <v>1.57</v>
-      </c>
-      <c r="U176">
-        <v>2.25</v>
-      </c>
-      <c r="V176">
-        <v>3.75</v>
-      </c>
-      <c r="W176">
-        <v>1.25</v>
-      </c>
-      <c r="X176">
-        <v>11</v>
-      </c>
-      <c r="Y176">
-        <v>1.05</v>
-      </c>
-      <c r="Z176">
-        <v>2.31</v>
-      </c>
-      <c r="AA176">
-        <v>2.99</v>
-      </c>
-      <c r="AB176">
-        <v>2.83</v>
-      </c>
-      <c r="AC176">
-        <v>1.05</v>
-      </c>
-      <c r="AD176">
-        <v>6.4</v>
-      </c>
-      <c r="AE176">
-        <v>1.5</v>
-      </c>
-      <c r="AF176">
-        <v>2.3</v>
-      </c>
-      <c r="AG176">
-        <v>2.56</v>
-      </c>
-      <c r="AH176">
-        <v>1.45</v>
-      </c>
-      <c r="AI176">
-        <v>2.2</v>
-      </c>
-      <c r="AJ176">
-        <v>1.62</v>
-      </c>
-      <c r="AK176">
-        <v>1.36</v>
-      </c>
-      <c r="AL176">
-        <v>1.36</v>
-      </c>
-      <c r="AM176">
-        <v>1.55</v>
-      </c>
-      <c r="AN176">
-        <v>1</v>
-      </c>
-      <c r="AO176">
-        <v>1.67</v>
-      </c>
-      <c r="AP176">
-        <v>0.89</v>
-      </c>
-      <c r="AQ176">
-        <v>1.8</v>
-      </c>
-      <c r="AR176">
-        <v>1.53</v>
-      </c>
-      <c r="AS176">
-        <v>1.4</v>
-      </c>
-      <c r="AT176">
-        <v>2.93</v>
-      </c>
-      <c r="AU176">
-        <v>5</v>
-      </c>
-      <c r="AV176">
-        <v>4</v>
-      </c>
-      <c r="AW176">
-        <v>3</v>
-      </c>
-      <c r="AX176">
-        <v>3</v>
-      </c>
-      <c r="AY176">
-        <v>8</v>
-      </c>
-      <c r="AZ176">
-        <v>7</v>
-      </c>
-      <c r="BA176">
-        <v>2</v>
-      </c>
-      <c r="BB176">
-        <v>5</v>
-      </c>
-      <c r="BC176">
-        <v>7</v>
-      </c>
-      <c r="BD176">
-        <v>1.95</v>
-      </c>
-      <c r="BE176">
-        <v>7.5</v>
-      </c>
-      <c r="BF176">
-        <v>2.1</v>
-      </c>
-      <c r="BG176">
-        <v>1.34</v>
-      </c>
-      <c r="BH176">
-        <v>2.78</v>
-      </c>
-      <c r="BI176">
-        <v>1.64</v>
-      </c>
-      <c r="BJ176">
-        <v>2.07</v>
-      </c>
-      <c r="BK176">
-        <v>2.07</v>
-      </c>
-      <c r="BL176">
-        <v>1.61</v>
-      </c>
-      <c r="BM176">
-        <v>2.78</v>
-      </c>
-      <c r="BN176">
-        <v>1.34</v>
-      </c>
-      <c r="BO176">
-        <v>3.6</v>
-      </c>
-      <c r="BP176">
-        <v>1.25</v>
-      </c>
-    </row>
-    <row r="177" spans="1:68">
-      <c r="A177" s="1">
-        <v>176</v>
-      </c>
-      <c r="B177">
-        <v>7778665</v>
-      </c>
-      <c r="C177" t="s">
-        <v>68</v>
-      </c>
-      <c r="D177" t="s">
-        <v>69</v>
-      </c>
-      <c r="E177" s="2">
-        <v>45808.29166666666</v>
-      </c>
-      <c r="F177">
-        <v>18</v>
-      </c>
-      <c r="G177" t="s">
-        <v>79</v>
-      </c>
-      <c r="H177" t="s">
-        <v>72</v>
-      </c>
-      <c r="I177">
-        <v>0</v>
-      </c>
-      <c r="J177">
-        <v>1</v>
-      </c>
-      <c r="K177">
-        <v>1</v>
-      </c>
-      <c r="L177">
-        <v>2</v>
-      </c>
-      <c r="M177">
-        <v>1</v>
-      </c>
-      <c r="N177">
-        <v>3</v>
-      </c>
-      <c r="O177" t="s">
-        <v>199</v>
-      </c>
-      <c r="P177" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q177">
-        <v>3.1</v>
-      </c>
-      <c r="R177">
-        <v>1.91</v>
-      </c>
-      <c r="S177">
-        <v>4.5</v>
-      </c>
-      <c r="T177">
-        <v>1.62</v>
-      </c>
-      <c r="U177">
-        <v>2.2</v>
-      </c>
-      <c r="V177">
-        <v>4</v>
-      </c>
-      <c r="W177">
-        <v>1.22</v>
-      </c>
-      <c r="X177">
-        <v>13</v>
-      </c>
-      <c r="Y177">
-        <v>1.04</v>
-      </c>
-      <c r="Z177">
-        <v>2.24</v>
-      </c>
-      <c r="AA177">
-        <v>2.88</v>
-      </c>
-      <c r="AB177">
-        <v>3.07</v>
-      </c>
-      <c r="AC177">
-        <v>1.08</v>
-      </c>
-      <c r="AD177">
-        <v>5.55</v>
-      </c>
-      <c r="AE177">
-        <v>1.55</v>
-      </c>
-      <c r="AF177">
-        <v>2.2</v>
-      </c>
-      <c r="AG177">
-        <v>2.73</v>
-      </c>
-      <c r="AH177">
-        <v>1.4</v>
-      </c>
-      <c r="AI177">
-        <v>2.38</v>
-      </c>
-      <c r="AJ177">
-        <v>1.53</v>
-      </c>
-      <c r="AK177">
-        <v>1.3</v>
-      </c>
-      <c r="AL177">
-        <v>1.4</v>
-      </c>
-      <c r="AM177">
-        <v>1.62</v>
-      </c>
-      <c r="AN177">
-        <v>1.63</v>
-      </c>
-      <c r="AO177">
-        <v>1.33</v>
-      </c>
-      <c r="AP177">
-        <v>1.78</v>
-      </c>
-      <c r="AQ177">
-        <v>1.2</v>
-      </c>
-      <c r="AR177">
-        <v>1.12</v>
-      </c>
-      <c r="AS177">
-        <v>1.31</v>
-      </c>
-      <c r="AT177">
-        <v>2.43</v>
-      </c>
-      <c r="AU177">
-        <v>6</v>
-      </c>
-      <c r="AV177">
-        <v>4</v>
-      </c>
-      <c r="AW177">
-        <v>6</v>
-      </c>
-      <c r="AX177">
-        <v>2</v>
-      </c>
-      <c r="AY177">
-        <v>12</v>
-      </c>
-      <c r="AZ177">
-        <v>6</v>
-      </c>
-      <c r="BA177">
-        <v>5</v>
-      </c>
-      <c r="BB177">
-        <v>2</v>
-      </c>
-      <c r="BC177">
-        <v>7</v>
-      </c>
-      <c r="BD177">
-        <v>1.75</v>
-      </c>
-      <c r="BE177">
-        <v>7.5</v>
-      </c>
-      <c r="BF177">
-        <v>2.53</v>
-      </c>
-      <c r="BG177">
-        <v>1.39</v>
-      </c>
-      <c r="BH177">
-        <v>2.77</v>
-      </c>
-      <c r="BI177">
-        <v>1.67</v>
-      </c>
-      <c r="BJ177">
-        <v>2.13</v>
-      </c>
-      <c r="BK177">
-        <v>2.08</v>
-      </c>
-      <c r="BL177">
-        <v>1.7</v>
-      </c>
-      <c r="BM177">
-        <v>2.63</v>
-      </c>
-      <c r="BN177">
-        <v>1.42</v>
-      </c>
-      <c r="BO177">
-        <v>3.52</v>
-      </c>
-      <c r="BP177">
-        <v>1.24</v>
-      </c>
-    </row>
-    <row r="178" spans="1:68">
-      <c r="A178" s="1">
-        <v>177</v>
-      </c>
-      <c r="B178">
-        <v>7778658</v>
-      </c>
-      <c r="C178" t="s">
-        <v>68</v>
-      </c>
-      <c r="D178" t="s">
-        <v>69</v>
-      </c>
-      <c r="E178" s="2">
-        <v>45809.08333333334</v>
-      </c>
-      <c r="F178">
-        <v>18</v>
-      </c>
-      <c r="G178" t="s">
-        <v>70</v>
-      </c>
-      <c r="H178" t="s">
-        <v>82</v>
-      </c>
-      <c r="I178">
-        <v>1</v>
-      </c>
-      <c r="J178">
-        <v>0</v>
-      </c>
-      <c r="K178">
-        <v>1</v>
-      </c>
-      <c r="L178">
-        <v>5</v>
-      </c>
-      <c r="M178">
-        <v>1</v>
-      </c>
-      <c r="N178">
-        <v>6</v>
-      </c>
-      <c r="O178" t="s">
-        <v>200</v>
-      </c>
-      <c r="P178" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q178">
-        <v>3.4</v>
-      </c>
-      <c r="R178">
-        <v>2.05</v>
-      </c>
-      <c r="S178">
-        <v>3.25</v>
-      </c>
-      <c r="T178">
-        <v>1.44</v>
-      </c>
-      <c r="U178">
-        <v>2.63</v>
-      </c>
-      <c r="V178">
-        <v>3.25</v>
-      </c>
-      <c r="W178">
-        <v>1.33</v>
-      </c>
-      <c r="X178">
-        <v>9</v>
-      </c>
-      <c r="Y178">
-        <v>1.07</v>
-      </c>
-      <c r="Z178">
-        <v>2.55</v>
-      </c>
-      <c r="AA178">
-        <v>3.08</v>
-      </c>
-      <c r="AB178">
-        <v>2.48</v>
-      </c>
-      <c r="AC178">
-        <v>1.02</v>
-      </c>
-      <c r="AD178">
-        <v>7.7</v>
-      </c>
-      <c r="AE178">
-        <v>1.32</v>
-      </c>
-      <c r="AF178">
-        <v>2.88</v>
-      </c>
-      <c r="AG178">
-        <v>2</v>
-      </c>
-      <c r="AH178">
-        <v>1.67</v>
-      </c>
-      <c r="AI178">
-        <v>1.83</v>
-      </c>
-      <c r="AJ178">
-        <v>1.83</v>
-      </c>
-      <c r="AK178">
-        <v>1.44</v>
-      </c>
-      <c r="AL178">
-        <v>1.33</v>
-      </c>
-      <c r="AM178">
-        <v>1.44</v>
-      </c>
-      <c r="AN178">
-        <v>0.78</v>
-      </c>
-      <c r="AO178">
-        <v>1.14</v>
-      </c>
-      <c r="AP178">
-        <v>1</v>
-      </c>
-      <c r="AQ178">
-        <v>1</v>
-      </c>
-      <c r="AR178">
-        <v>1.63</v>
-      </c>
-      <c r="AS178">
-        <v>1.37</v>
-      </c>
-      <c r="AT178">
-        <v>3</v>
-      </c>
-      <c r="AU178">
-        <v>7</v>
-      </c>
-      <c r="AV178">
-        <v>5</v>
-      </c>
-      <c r="AW178">
-        <v>6</v>
-      </c>
-      <c r="AX178">
-        <v>5</v>
-      </c>
-      <c r="AY178">
-        <v>13</v>
-      </c>
-      <c r="AZ178">
-        <v>10</v>
-      </c>
-      <c r="BA178">
-        <v>4</v>
-      </c>
-      <c r="BB178">
-        <v>4</v>
-      </c>
-      <c r="BC178">
-        <v>8</v>
-      </c>
-      <c r="BD178">
-        <v>2.28</v>
-      </c>
-      <c r="BE178">
-        <v>8</v>
-      </c>
-      <c r="BF178">
-        <v>1.85</v>
-      </c>
-      <c r="BG178">
-        <v>1.28</v>
-      </c>
-      <c r="BH178">
-        <v>3.2</v>
-      </c>
-      <c r="BI178">
-        <v>1.52</v>
-      </c>
-      <c r="BJ178">
-        <v>2.36</v>
-      </c>
-      <c r="BK178">
-        <v>1.92</v>
-      </c>
-      <c r="BL178">
-        <v>1.88</v>
-      </c>
-      <c r="BM178">
-        <v>2.37</v>
-      </c>
-      <c r="BN178">
-        <v>1.55</v>
-      </c>
-      <c r="BO178">
-        <v>3.07</v>
-      </c>
-      <c r="BP178">
-        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2025)/Japan J2 League_2025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1070" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1148" uniqueCount="285">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,6 +598,33 @@
     <t>['18']</t>
   </si>
   <si>
+    <t>['44']</t>
+  </si>
+  <si>
+    <t>['44', '66']</t>
+  </si>
+  <si>
+    <t>['35', '68']</t>
+  </si>
+  <si>
+    <t>['51', '68']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['6', '10']</t>
+  </si>
+  <si>
+    <t>['18', '65', '86', '9006']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['9001']</t>
+  </si>
+  <si>
     <t>['31', '60']</t>
   </si>
   <si>
@@ -689,9 +716,6 @@
   </si>
   <si>
     <t>['36']</t>
-  </si>
-  <si>
-    <t>['44']</t>
   </si>
   <si>
     <t>['23', '80']</t>
@@ -830,6 +854,21 @@
   </si>
   <si>
     <t>['49', '90+1']</t>
+  </si>
+  <si>
+    <t>['72', '9003']</t>
+  </si>
+  <si>
+    <t>['4', '9004']</t>
+  </si>
+  <si>
+    <t>['23', '42']</t>
+  </si>
+  <si>
+    <t>['9004']</t>
+  </si>
+  <si>
+    <t>['42']</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1230,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP168"/>
+  <dimension ref="A1:BP181"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1450,7 +1489,7 @@
         <v>90</v>
       </c>
       <c r="P2" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="Q2">
         <v>3.6</v>
@@ -1528,7 +1567,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>1.89</v>
@@ -1734,10 +1773,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ3">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1943,7 +1982,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ4">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2068,7 +2107,7 @@
         <v>93</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="Q5">
         <v>2.3</v>
@@ -2149,7 +2188,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ5">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2274,7 +2313,7 @@
         <v>90</v>
       </c>
       <c r="P6" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="Q6">
         <v>4.1</v>
@@ -2352,10 +2391,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ6">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2558,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ7">
         <v>1.89</v>
@@ -2686,7 +2725,7 @@
         <v>94</v>
       </c>
       <c r="P8" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="Q8">
         <v>2.28</v>
@@ -2767,7 +2806,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ8">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2973,7 +3012,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ9">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3176,7 +3215,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3382,7 +3421,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3794,10 +3833,10 @@
         <v>3</v>
       </c>
       <c r="AP13">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ13">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4000,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ14">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR14">
         <v>2.25</v>
@@ -4128,7 +4167,7 @@
         <v>99</v>
       </c>
       <c r="P15" t="s">
-        <v>198</v>
+        <v>207</v>
       </c>
       <c r="Q15">
         <v>4.1</v>
@@ -4209,7 +4248,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ15">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4824,10 +4863,10 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ18">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5030,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AQ19">
         <v>0.78</v>
@@ -5236,7 +5275,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ20">
         <v>1</v>
@@ -5364,7 +5403,7 @@
         <v>103</v>
       </c>
       <c r="P21" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="Q21">
         <v>4.4</v>
@@ -5648,10 +5687,10 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ22">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>0</v>
@@ -5776,7 +5815,7 @@
         <v>105</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="Q23">
         <v>3.1</v>
@@ -5854,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="AP23">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ23">
         <v>2.13</v>
@@ -6063,7 +6102,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ24">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR24">
         <v>3.04</v>
@@ -6188,7 +6227,7 @@
         <v>107</v>
       </c>
       <c r="P25" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="Q25">
         <v>2.5</v>
@@ -6266,10 +6305,10 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ25">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR25">
         <v>1.45</v>
@@ -6472,7 +6511,7 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
         <v>1</v>
@@ -6600,7 +6639,7 @@
         <v>90</v>
       </c>
       <c r="P27" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="Q27">
         <v>3.2</v>
@@ -6884,10 +6923,10 @@
         <v>3</v>
       </c>
       <c r="AP28">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR28">
         <v>2.36</v>
@@ -7090,10 +7129,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR29">
         <v>0</v>
@@ -7296,10 +7335,10 @@
         <v>0</v>
       </c>
       <c r="AP30">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ30">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AR30">
         <v>1.54</v>
@@ -7630,7 +7669,7 @@
         <v>113</v>
       </c>
       <c r="P32" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q32">
         <v>3.45</v>
@@ -7708,10 +7747,10 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ32">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR32">
         <v>1.26</v>
@@ -7836,7 +7875,7 @@
         <v>114</v>
       </c>
       <c r="P33" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="Q33">
         <v>2.5</v>
@@ -7914,10 +7953,10 @@
         <v>0</v>
       </c>
       <c r="AP33">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ33">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR33">
         <v>1.88</v>
@@ -8042,7 +8081,7 @@
         <v>115</v>
       </c>
       <c r="P34" t="s">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="Q34">
         <v>3.75</v>
@@ -8248,7 +8287,7 @@
         <v>116</v>
       </c>
       <c r="P35" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="Q35">
         <v>3.4</v>
@@ -8454,7 +8493,7 @@
         <v>117</v>
       </c>
       <c r="P36" t="s">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="Q36">
         <v>2.8</v>
@@ -8738,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="AP37">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
         <v>1.43</v>
@@ -8866,7 +8905,7 @@
         <v>118</v>
       </c>
       <c r="P38" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="Q38">
         <v>2.6</v>
@@ -9150,10 +9189,10 @@
         <v>0</v>
       </c>
       <c r="AP39">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ39">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR39">
         <v>1.33</v>
@@ -9359,7 +9398,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ40">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.47</v>
@@ -9562,10 +9601,10 @@
         <v>0</v>
       </c>
       <c r="AP41">
+        <v>1.56</v>
+      </c>
+      <c r="AQ41">
         <v>1.63</v>
-      </c>
-      <c r="AQ41">
-        <v>1.43</v>
       </c>
       <c r="AR41">
         <v>1.46</v>
@@ -9690,7 +9729,7 @@
         <v>92</v>
       </c>
       <c r="P42" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="Q42">
         <v>3</v>
@@ -9768,7 +9807,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ42">
         <v>1</v>
@@ -9974,7 +10013,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ43">
         <v>1</v>
@@ -10183,7 +10222,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ44">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR44">
         <v>1.37</v>
@@ -10386,7 +10425,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ45">
         <v>1.63</v>
@@ -10595,7 +10634,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ46">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR46">
         <v>2.49</v>
@@ -10720,7 +10759,7 @@
         <v>105</v>
       </c>
       <c r="P47" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10801,7 +10840,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ47">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR47">
         <v>1.58</v>
@@ -10926,7 +10965,7 @@
         <v>124</v>
       </c>
       <c r="P48" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="Q48">
         <v>3.6</v>
@@ -11004,7 +11043,7 @@
         <v>1.5</v>
       </c>
       <c r="AP48">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ48">
         <v>1.89</v>
@@ -11132,7 +11171,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="Q49">
         <v>3.6</v>
@@ -11213,7 +11252,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ49">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR49">
         <v>1.15</v>
@@ -11416,10 +11455,10 @@
         <v>1.5</v>
       </c>
       <c r="AP50">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AQ50">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR50">
         <v>1.08</v>
@@ -11544,7 +11583,7 @@
         <v>125</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="Q51">
         <v>1.91</v>
@@ -11622,10 +11661,10 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ51">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AR51">
         <v>1.69</v>
@@ -11750,7 +11789,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>214</v>
+        <v>223</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11828,10 +11867,10 @@
         <v>0</v>
       </c>
       <c r="AP52">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ52">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR52">
         <v>1.25</v>
@@ -11956,7 +11995,7 @@
         <v>90</v>
       </c>
       <c r="P53" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="Q53">
         <v>3.25</v>
@@ -12037,7 +12076,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ53">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.15</v>
@@ -12446,10 +12485,10 @@
         <v>1.33</v>
       </c>
       <c r="AP55">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ55">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR55">
         <v>1.39</v>
@@ -12574,7 +12613,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>216</v>
+        <v>225</v>
       </c>
       <c r="Q56">
         <v>4.33</v>
@@ -12858,7 +12897,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
         <v>2.13</v>
@@ -13064,10 +13103,10 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ58">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR58">
         <v>1.9</v>
@@ -13192,7 +13231,7 @@
         <v>131</v>
       </c>
       <c r="P59" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="Q59">
         <v>2.88</v>
@@ -13270,7 +13309,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ59">
         <v>0.78</v>
@@ -13479,7 +13518,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ60">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR60">
         <v>1.48</v>
@@ -13604,7 +13643,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>218</v>
+        <v>227</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13810,7 +13849,7 @@
         <v>90</v>
       </c>
       <c r="P62" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="Q62">
         <v>2.75</v>
@@ -13891,7 +13930,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ62">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR62">
         <v>1.82</v>
@@ -14300,7 +14339,7 @@
         <v>0.5</v>
       </c>
       <c r="AP64">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ64">
         <v>1</v>
@@ -14428,7 +14467,7 @@
         <v>90</v>
       </c>
       <c r="P65" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="Q65">
         <v>3.6</v>
@@ -14506,7 +14545,7 @@
         <v>1.33</v>
       </c>
       <c r="AP65">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ65">
         <v>1.89</v>
@@ -14634,7 +14673,7 @@
         <v>135</v>
       </c>
       <c r="P66" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="Q66">
         <v>4.75</v>
@@ -14712,10 +14751,10 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ66">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR66">
         <v>1.04</v>
@@ -14840,7 +14879,7 @@
         <v>136</v>
       </c>
       <c r="P67" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="Q67">
         <v>2.88</v>
@@ -14918,10 +14957,10 @@
         <v>0.75</v>
       </c>
       <c r="AP67">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AQ67">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR67">
         <v>1.24</v>
@@ -15124,10 +15163,10 @@
         <v>0</v>
       </c>
       <c r="AP68">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ68">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR68">
         <v>1.93</v>
@@ -15539,7 +15578,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ70">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR70">
         <v>1.09</v>
@@ -15948,7 +15987,7 @@
         <v>1.2</v>
       </c>
       <c r="AP72">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -16363,7 +16402,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ74">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AR74">
         <v>1.3</v>
@@ -16566,10 +16605,10 @@
         <v>0.33</v>
       </c>
       <c r="AP75">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ75">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR75">
         <v>1.77</v>
@@ -16772,7 +16811,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ76">
         <v>0.78</v>
@@ -16981,7 +17020,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ77">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR77">
         <v>1.29</v>
@@ -17187,7 +17226,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ78">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR78">
         <v>1.6</v>
@@ -17312,7 +17351,7 @@
         <v>144</v>
       </c>
       <c r="P79" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="Q79">
         <v>2.63</v>
@@ -17390,10 +17429,10 @@
         <v>1.33</v>
       </c>
       <c r="AP79">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ79">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>2.01</v>
@@ -17599,7 +17638,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ80">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR80">
         <v>1.56</v>
@@ -17724,7 +17763,7 @@
         <v>145</v>
       </c>
       <c r="P81" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="Q81">
         <v>3.2</v>
@@ -17802,10 +17841,10 @@
         <v>0.67</v>
       </c>
       <c r="AP81">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AQ81">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR81">
         <v>1.55</v>
@@ -18008,7 +18047,7 @@
         <v>3</v>
       </c>
       <c r="AP82">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ82">
         <v>2.13</v>
@@ -18136,7 +18175,7 @@
         <v>90</v>
       </c>
       <c r="P83" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="Q83">
         <v>3.6</v>
@@ -18214,10 +18253,10 @@
         <v>0.8</v>
       </c>
       <c r="AP83">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR83">
         <v>1.52</v>
@@ -18420,7 +18459,7 @@
         <v>1.2</v>
       </c>
       <c r="AP84">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ84">
         <v>1</v>
@@ -18626,10 +18665,10 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ85">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR85">
         <v>1.08</v>
@@ -18754,7 +18793,7 @@
         <v>148</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="Q86">
         <v>4</v>
@@ -18832,7 +18871,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ86">
         <v>1.63</v>
@@ -18960,7 +18999,7 @@
         <v>149</v>
       </c>
       <c r="P87" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="Q87">
         <v>3.25</v>
@@ -19038,10 +19077,10 @@
         <v>0</v>
       </c>
       <c r="AP87">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ87">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR87">
         <v>1.26</v>
@@ -19166,7 +19205,7 @@
         <v>150</v>
       </c>
       <c r="P88" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="Q88">
         <v>4.33</v>
@@ -19244,7 +19283,7 @@
         <v>2.25</v>
       </c>
       <c r="AP88">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ88">
         <v>1.89</v>
@@ -19372,7 +19411,7 @@
         <v>90</v>
       </c>
       <c r="P89" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19659,7 +19698,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ90">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.26</v>
@@ -19865,7 +19904,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ91">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR91">
         <v>1.1</v>
@@ -19990,7 +20029,7 @@
         <v>152</v>
       </c>
       <c r="P92" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="Q92">
         <v>4</v>
@@ -20071,7 +20110,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ92">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR92">
         <v>1.1</v>
@@ -20196,7 +20235,7 @@
         <v>153</v>
       </c>
       <c r="P93" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -20274,10 +20313,10 @@
         <v>0.25</v>
       </c>
       <c r="AP93">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ93">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR93">
         <v>1.32</v>
@@ -20402,7 +20441,7 @@
         <v>154</v>
       </c>
       <c r="P94" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="Q94">
         <v>2.3</v>
@@ -20483,7 +20522,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ94">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AR94">
         <v>1.38</v>
@@ -20608,7 +20647,7 @@
         <v>90</v>
       </c>
       <c r="P95" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Q95">
         <v>3.5</v>
@@ -20892,7 +20931,7 @@
         <v>1.5</v>
       </c>
       <c r="AP96">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AQ96">
         <v>1.63</v>
@@ -21020,7 +21059,7 @@
         <v>90</v>
       </c>
       <c r="P97" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="Q97">
         <v>3.25</v>
@@ -21101,7 +21140,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ97">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR97">
         <v>1.35</v>
@@ -21304,10 +21343,10 @@
         <v>1.25</v>
       </c>
       <c r="AP98">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ98">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR98">
         <v>1.74</v>
@@ -21510,10 +21549,10 @@
         <v>1</v>
       </c>
       <c r="AP99">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ99">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR99">
         <v>1.86</v>
@@ -21638,7 +21677,7 @@
         <v>157</v>
       </c>
       <c r="P100" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="Q100">
         <v>2.6</v>
@@ -21844,7 +21883,7 @@
         <v>122</v>
       </c>
       <c r="P101" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="Q101">
         <v>3.25</v>
@@ -21922,7 +21961,7 @@
         <v>0.25</v>
       </c>
       <c r="AP101">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ101">
         <v>1</v>
@@ -22050,7 +22089,7 @@
         <v>158</v>
       </c>
       <c r="P102" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="Q102">
         <v>2.25</v>
@@ -22128,10 +22167,10 @@
         <v>1.25</v>
       </c>
       <c r="AP102">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ102">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AR102">
         <v>1.46</v>
@@ -22334,10 +22373,10 @@
         <v>0.8</v>
       </c>
       <c r="AP103">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ103">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR103">
         <v>1.59</v>
@@ -22540,7 +22579,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ104">
         <v>1</v>
@@ -22668,7 +22707,7 @@
         <v>160</v>
       </c>
       <c r="P105" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="Q105">
         <v>2.38</v>
@@ -22746,7 +22785,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -22874,7 +22913,7 @@
         <v>90</v>
       </c>
       <c r="P106" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="Q106">
         <v>2.88</v>
@@ -22955,7 +22994,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ106">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR106">
         <v>1.3</v>
@@ -23080,7 +23119,7 @@
         <v>90</v>
       </c>
       <c r="P107" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="Q107">
         <v>3.25</v>
@@ -23158,10 +23197,10 @@
         <v>1.25</v>
       </c>
       <c r="AP107">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ107">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR107">
         <v>1.3</v>
@@ -23286,7 +23325,7 @@
         <v>161</v>
       </c>
       <c r="P108" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Q108">
         <v>3.4</v>
@@ -23364,10 +23403,10 @@
         <v>1.17</v>
       </c>
       <c r="AP108">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ108">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR108">
         <v>1.33</v>
@@ -23492,7 +23531,7 @@
         <v>162</v>
       </c>
       <c r="P109" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="Q109">
         <v>2.3</v>
@@ -23779,7 +23818,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ110">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR110">
         <v>1.34</v>
@@ -23904,7 +23943,7 @@
         <v>122</v>
       </c>
       <c r="P111" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="Q111">
         <v>4</v>
@@ -24188,10 +24227,10 @@
         <v>1</v>
       </c>
       <c r="AP112">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ112">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR112">
         <v>1.39</v>
@@ -24316,7 +24355,7 @@
         <v>164</v>
       </c>
       <c r="P113" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="Q113">
         <v>3.6</v>
@@ -24600,7 +24639,7 @@
         <v>2.6</v>
       </c>
       <c r="AP114">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ114">
         <v>2.13</v>
@@ -24728,7 +24767,7 @@
         <v>90</v>
       </c>
       <c r="P115" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="Q115">
         <v>3.75</v>
@@ -24806,10 +24845,10 @@
         <v>1</v>
       </c>
       <c r="AP115">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ115">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR115">
         <v>1.85</v>
@@ -24934,7 +24973,7 @@
         <v>165</v>
       </c>
       <c r="P116" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="Q116">
         <v>3.25</v>
@@ -25015,7 +25054,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ116">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR116">
         <v>1.54</v>
@@ -25218,7 +25257,7 @@
         <v>1</v>
       </c>
       <c r="AP117">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ117">
         <v>1.43</v>
@@ -25424,7 +25463,7 @@
         <v>1.4</v>
       </c>
       <c r="AP118">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ118">
         <v>1.63</v>
@@ -25839,7 +25878,7 @@
         <v>2.11</v>
       </c>
       <c r="AQ120">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR120">
         <v>1.38</v>
@@ -25964,7 +26003,7 @@
         <v>167</v>
       </c>
       <c r="P121" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="Q121">
         <v>3.4</v>
@@ -26170,7 +26209,7 @@
         <v>168</v>
       </c>
       <c r="P122" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="Q122">
         <v>2.5</v>
@@ -26248,10 +26287,10 @@
         <v>0.83</v>
       </c>
       <c r="AP122">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ122">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR122">
         <v>1.51</v>
@@ -26376,7 +26415,7 @@
         <v>169</v>
       </c>
       <c r="P123" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="Q123">
         <v>3.4</v>
@@ -26454,7 +26493,7 @@
         <v>0.86</v>
       </c>
       <c r="AP123">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ123">
         <v>1</v>
@@ -26582,7 +26621,7 @@
         <v>90</v>
       </c>
       <c r="P124" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="Q124">
         <v>4</v>
@@ -26663,7 +26702,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ124">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR124">
         <v>1.17</v>
@@ -26866,10 +26905,10 @@
         <v>1.6</v>
       </c>
       <c r="AP125">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ125">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR125">
         <v>1.1</v>
@@ -27072,7 +27111,7 @@
         <v>2.17</v>
       </c>
       <c r="AP126">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ126">
         <v>1.89</v>
@@ -27200,7 +27239,7 @@
         <v>171</v>
       </c>
       <c r="P127" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="Q127">
         <v>2.63</v>
@@ -27278,10 +27317,10 @@
         <v>0.8</v>
       </c>
       <c r="AP127">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AQ127">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR127">
         <v>1.52</v>
@@ -27406,7 +27445,7 @@
         <v>90</v>
       </c>
       <c r="P128" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="Q128">
         <v>2.88</v>
@@ -27612,7 +27651,7 @@
         <v>172</v>
       </c>
       <c r="P129" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="Q129">
         <v>2.4</v>
@@ -27690,10 +27729,10 @@
         <v>0.83</v>
       </c>
       <c r="AP129">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ129">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR129">
         <v>1.79</v>
@@ -27818,7 +27857,7 @@
         <v>90</v>
       </c>
       <c r="P130" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="Q130">
         <v>3.4</v>
@@ -27896,10 +27935,10 @@
         <v>0.8</v>
       </c>
       <c r="AP130">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ130">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR130">
         <v>1.35</v>
@@ -28024,7 +28063,7 @@
         <v>173</v>
       </c>
       <c r="P131" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28105,7 +28144,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ131">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AR131">
         <v>2.03</v>
@@ -28230,7 +28269,7 @@
         <v>174</v>
       </c>
       <c r="P132" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="Q132">
         <v>2.5</v>
@@ -28308,7 +28347,7 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>1.88</v>
+        <v>1.78</v>
       </c>
       <c r="AQ132">
         <v>0.78</v>
@@ -28436,7 +28475,7 @@
         <v>175</v>
       </c>
       <c r="P133" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="Q133">
         <v>4</v>
@@ -28514,10 +28553,10 @@
         <v>0.67</v>
       </c>
       <c r="AP133">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ133">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR133">
         <v>1.27</v>
@@ -28642,7 +28681,7 @@
         <v>176</v>
       </c>
       <c r="P134" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="Q134">
         <v>3.4</v>
@@ -28723,7 +28762,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ134">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR134">
         <v>1.18</v>
@@ -28848,7 +28887,7 @@
         <v>177</v>
       </c>
       <c r="P135" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="Q135">
         <v>3.1</v>
@@ -28929,7 +28968,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ135">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR135">
         <v>1.52</v>
@@ -29135,7 +29174,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ136">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR136">
         <v>1.4</v>
@@ -29260,7 +29299,7 @@
         <v>179</v>
       </c>
       <c r="P137" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="Q137">
         <v>4</v>
@@ -29466,7 +29505,7 @@
         <v>90</v>
       </c>
       <c r="P138" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="Q138">
         <v>3.75</v>
@@ -29672,7 +29711,7 @@
         <v>90</v>
       </c>
       <c r="P139" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="Q139">
         <v>3</v>
@@ -29750,10 +29789,10 @@
         <v>0.83</v>
       </c>
       <c r="AP139">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ139">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR139">
         <v>1.74</v>
@@ -29878,7 +29917,7 @@
         <v>90</v>
       </c>
       <c r="P140" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="Q140">
         <v>3</v>
@@ -30084,7 +30123,7 @@
         <v>180</v>
       </c>
       <c r="P141" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="Q141">
         <v>2.88</v>
@@ -30162,7 +30201,7 @@
         <v>1.17</v>
       </c>
       <c r="AP141">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ141">
         <v>1.63</v>
@@ -30368,7 +30407,7 @@
         <v>2.17</v>
       </c>
       <c r="AP142">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="AQ142">
         <v>1.89</v>
@@ -30496,7 +30535,7 @@
         <v>182</v>
       </c>
       <c r="P143" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="Q143">
         <v>3.1</v>
@@ -30574,7 +30613,7 @@
         <v>1.13</v>
       </c>
       <c r="AP143">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ143">
         <v>1</v>
@@ -30989,7 +31028,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ145">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR145">
         <v>2.16</v>
@@ -31192,10 +31231,10 @@
         <v>1.14</v>
       </c>
       <c r="AP146">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ146">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR146">
         <v>1.32</v>
@@ -31320,7 +31359,7 @@
         <v>90</v>
       </c>
       <c r="P147" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="Q147">
         <v>3.1</v>
@@ -31398,7 +31437,7 @@
         <v>2</v>
       </c>
       <c r="AP147">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AQ147">
         <v>1.89</v>
@@ -31604,7 +31643,7 @@
         <v>0.88</v>
       </c>
       <c r="AP148">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ148">
         <v>1</v>
@@ -31813,7 +31852,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ149">
-        <v>0.63</v>
+        <v>0.67</v>
       </c>
       <c r="AR149">
         <v>1.34</v>
@@ -32016,10 +32055,10 @@
         <v>1.14</v>
       </c>
       <c r="AP150">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ150">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR150">
         <v>1.24</v>
@@ -32144,7 +32183,7 @@
         <v>186</v>
       </c>
       <c r="P151" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="Q151">
         <v>2.38</v>
@@ -32225,7 +32264,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ151">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AR151">
         <v>1.46</v>
@@ -32556,7 +32595,7 @@
         <v>156</v>
       </c>
       <c r="P153" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="Q153">
         <v>2.5</v>
@@ -32637,7 +32676,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ153">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR153">
         <v>1.56</v>
@@ -32762,7 +32801,7 @@
         <v>187</v>
       </c>
       <c r="P154" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="Q154">
         <v>3.4</v>
@@ -32840,7 +32879,7 @@
         <v>1.17</v>
       </c>
       <c r="AP154">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AQ154">
         <v>1.43</v>
@@ -33046,10 +33085,10 @@
         <v>1.33</v>
       </c>
       <c r="AP155">
-        <v>2.11</v>
+        <v>2.2</v>
       </c>
       <c r="AQ155">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR155">
         <v>1.71</v>
@@ -33252,7 +33291,7 @@
         <v>1.86</v>
       </c>
       <c r="AP156">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ156">
         <v>1.89</v>
@@ -33586,7 +33625,7 @@
         <v>90</v>
       </c>
       <c r="P158" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="Q158">
         <v>4</v>
@@ -33664,7 +33703,7 @@
         <v>1.43</v>
       </c>
       <c r="AP158">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ158">
         <v>1.63</v>
@@ -33873,7 +33912,7 @@
         <v>1.11</v>
       </c>
       <c r="AQ159">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR159">
         <v>1.33</v>
@@ -33998,7 +34037,7 @@
         <v>141</v>
       </c>
       <c r="P160" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="Q160">
         <v>3.75</v>
@@ -34076,10 +34115,10 @@
         <v>1</v>
       </c>
       <c r="AP160">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AQ160">
-        <v>1.25</v>
+        <v>1.11</v>
       </c>
       <c r="AR160">
         <v>1.07</v>
@@ -34204,7 +34243,7 @@
         <v>90</v>
       </c>
       <c r="P161" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="Q161">
         <v>4.75</v>
@@ -34285,7 +34324,7 @@
         <v>0.22</v>
       </c>
       <c r="AQ161">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR161">
         <v>1.16</v>
@@ -34410,7 +34449,7 @@
         <v>180</v>
       </c>
       <c r="P162" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="Q162">
         <v>3.75</v>
@@ -34488,7 +34527,7 @@
         <v>1.75</v>
       </c>
       <c r="AP162">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AQ162">
         <v>1.89</v>
@@ -34822,7 +34861,7 @@
         <v>191</v>
       </c>
       <c r="P164" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="Q164">
         <v>3.1</v>
@@ -34903,7 +34942,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ164">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AR164">
         <v>1.35</v>
@@ -35106,7 +35145,7 @@
         <v>1.11</v>
       </c>
       <c r="AP165">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ165">
         <v>1</v>
@@ -35234,7 +35273,7 @@
         <v>90</v>
       </c>
       <c r="P166" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="Q166">
         <v>2.75</v>
@@ -35315,7 +35354,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ166">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AR166">
         <v>1.35</v>
@@ -35646,7 +35685,7 @@
         <v>193</v>
       </c>
       <c r="P168" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="Q168">
         <v>2.75</v>
@@ -35803,6 +35842,2684 @@
       </c>
       <c r="BP168">
         <v>1.33</v>
+      </c>
+    </row>
+    <row r="169" spans="1:68">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>7778664</v>
+      </c>
+      <c r="C169" t="s">
+        <v>68</v>
+      </c>
+      <c r="D169" t="s">
+        <v>69</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45808.08333333334</v>
+      </c>
+      <c r="F169">
+        <v>18</v>
+      </c>
+      <c r="G169" t="s">
+        <v>75</v>
+      </c>
+      <c r="H169" t="s">
+        <v>77</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+      <c r="M169">
+        <v>2</v>
+      </c>
+      <c r="N169">
+        <v>3</v>
+      </c>
+      <c r="O169" t="s">
+        <v>194</v>
+      </c>
+      <c r="P169" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q169">
+        <v>2.3</v>
+      </c>
+      <c r="R169">
+        <v>2.2</v>
+      </c>
+      <c r="S169">
+        <v>5</v>
+      </c>
+      <c r="T169">
+        <v>1.4</v>
+      </c>
+      <c r="U169">
+        <v>2.75</v>
+      </c>
+      <c r="V169">
+        <v>2.75</v>
+      </c>
+      <c r="W169">
+        <v>1.4</v>
+      </c>
+      <c r="X169">
+        <v>8</v>
+      </c>
+      <c r="Y169">
+        <v>1.08</v>
+      </c>
+      <c r="Z169">
+        <v>1.71</v>
+      </c>
+      <c r="AA169">
+        <v>3.5</v>
+      </c>
+      <c r="AB169">
+        <v>3.99</v>
+      </c>
+      <c r="AC169">
+        <v>1</v>
+      </c>
+      <c r="AD169">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE169">
+        <v>1.26</v>
+      </c>
+      <c r="AF169">
+        <v>3.22</v>
+      </c>
+      <c r="AG169">
+        <v>1.84</v>
+      </c>
+      <c r="AH169">
+        <v>1.86</v>
+      </c>
+      <c r="AI169">
+        <v>1.91</v>
+      </c>
+      <c r="AJ169">
+        <v>1.8</v>
+      </c>
+      <c r="AK169">
+        <v>1.18</v>
+      </c>
+      <c r="AL169">
+        <v>1.3</v>
+      </c>
+      <c r="AM169">
+        <v>2</v>
+      </c>
+      <c r="AN169">
+        <v>1.8</v>
+      </c>
+      <c r="AO169">
+        <v>1.14</v>
+      </c>
+      <c r="AP169">
+        <v>1.64</v>
+      </c>
+      <c r="AQ169">
+        <v>1.33</v>
+      </c>
+      <c r="AR169">
+        <v>1.3</v>
+      </c>
+      <c r="AS169">
+        <v>1.28</v>
+      </c>
+      <c r="AT169">
+        <v>2.58</v>
+      </c>
+      <c r="AU169">
+        <v>3</v>
+      </c>
+      <c r="AV169">
+        <v>4</v>
+      </c>
+      <c r="AW169">
+        <v>2</v>
+      </c>
+      <c r="AX169">
+        <v>4</v>
+      </c>
+      <c r="AY169">
+        <v>5</v>
+      </c>
+      <c r="AZ169">
+        <v>8</v>
+      </c>
+      <c r="BA169">
+        <v>7</v>
+      </c>
+      <c r="BB169">
+        <v>1</v>
+      </c>
+      <c r="BC169">
+        <v>8</v>
+      </c>
+      <c r="BD169">
+        <v>1.34</v>
+      </c>
+      <c r="BE169">
+        <v>9.5</v>
+      </c>
+      <c r="BF169">
+        <v>4.07</v>
+      </c>
+      <c r="BG169">
+        <v>1.17</v>
+      </c>
+      <c r="BH169">
+        <v>4.15</v>
+      </c>
+      <c r="BI169">
+        <v>1.34</v>
+      </c>
+      <c r="BJ169">
+        <v>3.02</v>
+      </c>
+      <c r="BK169">
+        <v>1.58</v>
+      </c>
+      <c r="BL169">
+        <v>2.28</v>
+      </c>
+      <c r="BM169">
+        <v>2</v>
+      </c>
+      <c r="BN169">
+        <v>1.8</v>
+      </c>
+      <c r="BO169">
+        <v>2.38</v>
+      </c>
+      <c r="BP169">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="170" spans="1:68">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170">
+        <v>7778662</v>
+      </c>
+      <c r="C170" t="s">
+        <v>68</v>
+      </c>
+      <c r="D170" t="s">
+        <v>69</v>
+      </c>
+      <c r="E170" s="2">
+        <v>45808.08333333334</v>
+      </c>
+      <c r="F170">
+        <v>18</v>
+      </c>
+      <c r="G170" t="s">
+        <v>74</v>
+      </c>
+      <c r="H170" t="s">
+        <v>88</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>2</v>
+      </c>
+      <c r="L170">
+        <v>2</v>
+      </c>
+      <c r="M170">
+        <v>1</v>
+      </c>
+      <c r="N170">
+        <v>3</v>
+      </c>
+      <c r="O170" t="s">
+        <v>195</v>
+      </c>
+      <c r="P170" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q170">
+        <v>3.25</v>
+      </c>
+      <c r="R170">
+        <v>2.2</v>
+      </c>
+      <c r="S170">
+        <v>3.1</v>
+      </c>
+      <c r="T170">
+        <v>1.36</v>
+      </c>
+      <c r="U170">
+        <v>3</v>
+      </c>
+      <c r="V170">
+        <v>2.63</v>
+      </c>
+      <c r="W170">
+        <v>1.44</v>
+      </c>
+      <c r="X170">
+        <v>7</v>
+      </c>
+      <c r="Y170">
+        <v>1.1</v>
+      </c>
+      <c r="Z170">
+        <v>2.54</v>
+      </c>
+      <c r="AA170">
+        <v>3.45</v>
+      </c>
+      <c r="AB170">
+        <v>2.3</v>
+      </c>
+      <c r="AC170">
+        <v>1.02</v>
+      </c>
+      <c r="AD170">
+        <v>10</v>
+      </c>
+      <c r="AE170">
+        <v>1.22</v>
+      </c>
+      <c r="AF170">
+        <v>3.5</v>
+      </c>
+      <c r="AG170">
+        <v>1.59</v>
+      </c>
+      <c r="AH170">
+        <v>2.21</v>
+      </c>
+      <c r="AI170">
+        <v>1.67</v>
+      </c>
+      <c r="AJ170">
+        <v>2.1</v>
+      </c>
+      <c r="AK170">
+        <v>1.55</v>
+      </c>
+      <c r="AL170">
+        <v>1.3</v>
+      </c>
+      <c r="AM170">
+        <v>1.44</v>
+      </c>
+      <c r="AN170">
+        <v>1.13</v>
+      </c>
+      <c r="AO170">
+        <v>0.9</v>
+      </c>
+      <c r="AP170">
+        <v>1.33</v>
+      </c>
+      <c r="AQ170">
+        <v>0.82</v>
+      </c>
+      <c r="AR170">
+        <v>1.44</v>
+      </c>
+      <c r="AS170">
+        <v>1.32</v>
+      </c>
+      <c r="AT170">
+        <v>2.76</v>
+      </c>
+      <c r="AU170">
+        <v>8</v>
+      </c>
+      <c r="AV170">
+        <v>6</v>
+      </c>
+      <c r="AW170">
+        <v>9</v>
+      </c>
+      <c r="AX170">
+        <v>6</v>
+      </c>
+      <c r="AY170">
+        <v>17</v>
+      </c>
+      <c r="AZ170">
+        <v>12</v>
+      </c>
+      <c r="BA170">
+        <v>6</v>
+      </c>
+      <c r="BB170">
+        <v>8</v>
+      </c>
+      <c r="BC170">
+        <v>14</v>
+      </c>
+      <c r="BD170">
+        <v>1.75</v>
+      </c>
+      <c r="BE170">
+        <v>8</v>
+      </c>
+      <c r="BF170">
+        <v>2.44</v>
+      </c>
+      <c r="BG170">
+        <v>1.24</v>
+      </c>
+      <c r="BH170">
+        <v>3.52</v>
+      </c>
+      <c r="BI170">
+        <v>1.45</v>
+      </c>
+      <c r="BJ170">
+        <v>2.57</v>
+      </c>
+      <c r="BK170">
+        <v>1.74</v>
+      </c>
+      <c r="BL170">
+        <v>2.01</v>
+      </c>
+      <c r="BM170">
+        <v>2.18</v>
+      </c>
+      <c r="BN170">
+        <v>1.64</v>
+      </c>
+      <c r="BO170">
+        <v>2.73</v>
+      </c>
+      <c r="BP170">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="171" spans="1:68">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171">
+        <v>7778660</v>
+      </c>
+      <c r="C171" t="s">
+        <v>68</v>
+      </c>
+      <c r="D171" t="s">
+        <v>69</v>
+      </c>
+      <c r="E171" s="2">
+        <v>45808.08333333334</v>
+      </c>
+      <c r="F171">
+        <v>18</v>
+      </c>
+      <c r="G171" t="s">
+        <v>71</v>
+      </c>
+      <c r="H171" t="s">
+        <v>73</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>2</v>
+      </c>
+      <c r="L171">
+        <v>2</v>
+      </c>
+      <c r="M171">
+        <v>2</v>
+      </c>
+      <c r="N171">
+        <v>4</v>
+      </c>
+      <c r="O171" t="s">
+        <v>196</v>
+      </c>
+      <c r="P171" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q171">
+        <v>2.75</v>
+      </c>
+      <c r="R171">
+        <v>2.2</v>
+      </c>
+      <c r="S171">
+        <v>3.75</v>
+      </c>
+      <c r="T171">
+        <v>1.36</v>
+      </c>
+      <c r="U171">
+        <v>3</v>
+      </c>
+      <c r="V171">
+        <v>2.75</v>
+      </c>
+      <c r="W171">
+        <v>1.4</v>
+      </c>
+      <c r="X171">
+        <v>7</v>
+      </c>
+      <c r="Y171">
+        <v>1.1</v>
+      </c>
+      <c r="Z171">
+        <v>1.88</v>
+      </c>
+      <c r="AA171">
+        <v>3.55</v>
+      </c>
+      <c r="AB171">
+        <v>3.27</v>
+      </c>
+      <c r="AC171">
+        <v>1</v>
+      </c>
+      <c r="AD171">
+        <v>9</v>
+      </c>
+      <c r="AE171">
+        <v>1.24</v>
+      </c>
+      <c r="AF171">
+        <v>3.34</v>
+      </c>
+      <c r="AG171">
+        <v>1.62</v>
+      </c>
+      <c r="AH171">
+        <v>2.15</v>
+      </c>
+      <c r="AI171">
+        <v>1.73</v>
+      </c>
+      <c r="AJ171">
+        <v>2</v>
+      </c>
+      <c r="AK171">
+        <v>1.33</v>
+      </c>
+      <c r="AL171">
+        <v>1.3</v>
+      </c>
+      <c r="AM171">
+        <v>1.67</v>
+      </c>
+      <c r="AN171">
+        <v>2.5</v>
+      </c>
+      <c r="AO171">
+        <v>1.13</v>
+      </c>
+      <c r="AP171">
+        <v>2.2</v>
+      </c>
+      <c r="AQ171">
+        <v>1.11</v>
+      </c>
+      <c r="AR171">
+        <v>1.8</v>
+      </c>
+      <c r="AS171">
+        <v>1.24</v>
+      </c>
+      <c r="AT171">
+        <v>3.04</v>
+      </c>
+      <c r="AU171">
+        <v>6</v>
+      </c>
+      <c r="AV171">
+        <v>6</v>
+      </c>
+      <c r="AW171">
+        <v>4</v>
+      </c>
+      <c r="AX171">
+        <v>7</v>
+      </c>
+      <c r="AY171">
+        <v>10</v>
+      </c>
+      <c r="AZ171">
+        <v>13</v>
+      </c>
+      <c r="BA171">
+        <v>1</v>
+      </c>
+      <c r="BB171">
+        <v>9</v>
+      </c>
+      <c r="BC171">
+        <v>10</v>
+      </c>
+      <c r="BD171">
+        <v>1.91</v>
+      </c>
+      <c r="BE171">
+        <v>8</v>
+      </c>
+      <c r="BF171">
+        <v>2.2</v>
+      </c>
+      <c r="BG171">
+        <v>1.21</v>
+      </c>
+      <c r="BH171">
+        <v>3.78</v>
+      </c>
+      <c r="BI171">
+        <v>1.4</v>
+      </c>
+      <c r="BJ171">
+        <v>2.72</v>
+      </c>
+      <c r="BK171">
+        <v>1.67</v>
+      </c>
+      <c r="BL171">
+        <v>2.12</v>
+      </c>
+      <c r="BM171">
+        <v>2.07</v>
+      </c>
+      <c r="BN171">
+        <v>1.71</v>
+      </c>
+      <c r="BO171">
+        <v>2.58</v>
+      </c>
+      <c r="BP171">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="172" spans="1:68">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172">
+        <v>7778661</v>
+      </c>
+      <c r="C172" t="s">
+        <v>68</v>
+      </c>
+      <c r="D172" t="s">
+        <v>69</v>
+      </c>
+      <c r="E172" s="2">
+        <v>45808.08333333334</v>
+      </c>
+      <c r="F172">
+        <v>18</v>
+      </c>
+      <c r="G172" t="s">
+        <v>80</v>
+      </c>
+      <c r="H172" t="s">
+        <v>81</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>0</v>
+      </c>
+      <c r="K172">
+        <v>0</v>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>0</v>
+      </c>
+      <c r="O172" t="s">
+        <v>90</v>
+      </c>
+      <c r="P172" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q172">
+        <v>2.5</v>
+      </c>
+      <c r="R172">
+        <v>2.1</v>
+      </c>
+      <c r="S172">
+        <v>4.75</v>
+      </c>
+      <c r="T172">
+        <v>1.44</v>
+      </c>
+      <c r="U172">
+        <v>2.63</v>
+      </c>
+      <c r="V172">
+        <v>3</v>
+      </c>
+      <c r="W172">
+        <v>1.36</v>
+      </c>
+      <c r="X172">
+        <v>9</v>
+      </c>
+      <c r="Y172">
+        <v>1.07</v>
+      </c>
+      <c r="Z172">
+        <v>1.6</v>
+      </c>
+      <c r="AA172">
+        <v>3.69</v>
+      </c>
+      <c r="AB172">
+        <v>4.5</v>
+      </c>
+      <c r="AC172">
+        <v>1.01</v>
+      </c>
+      <c r="AD172">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE172">
+        <v>1.29</v>
+      </c>
+      <c r="AF172">
+        <v>3.04</v>
+      </c>
+      <c r="AG172">
+        <v>1.73</v>
+      </c>
+      <c r="AH172">
+        <v>1.97</v>
+      </c>
+      <c r="AI172">
+        <v>1.91</v>
+      </c>
+      <c r="AJ172">
+        <v>1.8</v>
+      </c>
+      <c r="AK172">
+        <v>1.22</v>
+      </c>
+      <c r="AL172">
+        <v>1.3</v>
+      </c>
+      <c r="AM172">
+        <v>1.85</v>
+      </c>
+      <c r="AN172">
+        <v>2.38</v>
+      </c>
+      <c r="AO172">
+        <v>0.63</v>
+      </c>
+      <c r="AP172">
+        <v>2.22</v>
+      </c>
+      <c r="AQ172">
+        <v>0.67</v>
+      </c>
+      <c r="AR172">
+        <v>1.63</v>
+      </c>
+      <c r="AS172">
+        <v>1.47</v>
+      </c>
+      <c r="AT172">
+        <v>3.1</v>
+      </c>
+      <c r="AU172">
+        <v>7</v>
+      </c>
+      <c r="AV172">
+        <v>3</v>
+      </c>
+      <c r="AW172">
+        <v>10</v>
+      </c>
+      <c r="AX172">
+        <v>4</v>
+      </c>
+      <c r="AY172">
+        <v>17</v>
+      </c>
+      <c r="AZ172">
+        <v>7</v>
+      </c>
+      <c r="BA172">
+        <v>3</v>
+      </c>
+      <c r="BB172">
+        <v>6</v>
+      </c>
+      <c r="BC172">
+        <v>9</v>
+      </c>
+      <c r="BD172">
+        <v>1.69</v>
+      </c>
+      <c r="BE172">
+        <v>8</v>
+      </c>
+      <c r="BF172">
+        <v>2.62</v>
+      </c>
+      <c r="BG172">
+        <v>1.44</v>
+      </c>
+      <c r="BH172">
+        <v>2.6</v>
+      </c>
+      <c r="BI172">
+        <v>1.75</v>
+      </c>
+      <c r="BJ172">
+        <v>2.01</v>
+      </c>
+      <c r="BK172">
+        <v>2.21</v>
+      </c>
+      <c r="BL172">
+        <v>1.62</v>
+      </c>
+      <c r="BM172">
+        <v>2.82</v>
+      </c>
+      <c r="BN172">
+        <v>1.38</v>
+      </c>
+      <c r="BO172">
+        <v>3.82</v>
+      </c>
+      <c r="BP172">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:68">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173">
+        <v>7778657</v>
+      </c>
+      <c r="C173" t="s">
+        <v>68</v>
+      </c>
+      <c r="D173" t="s">
+        <v>69</v>
+      </c>
+      <c r="E173" s="2">
+        <v>45808.08333333334</v>
+      </c>
+      <c r="F173">
+        <v>18</v>
+      </c>
+      <c r="G173" t="s">
+        <v>89</v>
+      </c>
+      <c r="H173" t="s">
+        <v>86</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>2</v>
+      </c>
+      <c r="K173">
+        <v>2</v>
+      </c>
+      <c r="L173">
+        <v>2</v>
+      </c>
+      <c r="M173">
+        <v>2</v>
+      </c>
+      <c r="N173">
+        <v>4</v>
+      </c>
+      <c r="O173" t="s">
+        <v>197</v>
+      </c>
+      <c r="P173" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q173">
+        <v>3</v>
+      </c>
+      <c r="R173">
+        <v>2</v>
+      </c>
+      <c r="S173">
+        <v>4</v>
+      </c>
+      <c r="T173">
+        <v>1.5</v>
+      </c>
+      <c r="U173">
+        <v>2.5</v>
+      </c>
+      <c r="V173">
+        <v>3.5</v>
+      </c>
+      <c r="W173">
+        <v>1.29</v>
+      </c>
+      <c r="X173">
+        <v>11</v>
+      </c>
+      <c r="Y173">
+        <v>1.05</v>
+      </c>
+      <c r="Z173">
+        <v>2.15</v>
+      </c>
+      <c r="AA173">
+        <v>3.15</v>
+      </c>
+      <c r="AB173">
+        <v>2.97</v>
+      </c>
+      <c r="AC173">
+        <v>1.05</v>
+      </c>
+      <c r="AD173">
+        <v>6.65</v>
+      </c>
+      <c r="AE173">
+        <v>1.4</v>
+      </c>
+      <c r="AF173">
+        <v>2.56</v>
+      </c>
+      <c r="AG173">
+        <v>2.04</v>
+      </c>
+      <c r="AH173">
+        <v>1.69</v>
+      </c>
+      <c r="AI173">
+        <v>2</v>
+      </c>
+      <c r="AJ173">
+        <v>1.73</v>
+      </c>
+      <c r="AK173">
+        <v>1.33</v>
+      </c>
+      <c r="AL173">
+        <v>1.36</v>
+      </c>
+      <c r="AM173">
+        <v>1.62</v>
+      </c>
+      <c r="AN173">
+        <v>0.86</v>
+      </c>
+      <c r="AO173">
+        <v>0.75</v>
+      </c>
+      <c r="AP173">
+        <v>0.88</v>
+      </c>
+      <c r="AQ173">
+        <v>0.78</v>
+      </c>
+      <c r="AR173">
+        <v>1.56</v>
+      </c>
+      <c r="AS173">
+        <v>1.15</v>
+      </c>
+      <c r="AT173">
+        <v>2.71</v>
+      </c>
+      <c r="AU173">
+        <v>6</v>
+      </c>
+      <c r="AV173">
+        <v>7</v>
+      </c>
+      <c r="AW173">
+        <v>5</v>
+      </c>
+      <c r="AX173">
+        <v>1</v>
+      </c>
+      <c r="AY173">
+        <v>11</v>
+      </c>
+      <c r="AZ173">
+        <v>8</v>
+      </c>
+      <c r="BA173">
+        <v>8</v>
+      </c>
+      <c r="BB173">
+        <v>1</v>
+      </c>
+      <c r="BC173">
+        <v>9</v>
+      </c>
+      <c r="BD173">
+        <v>1.85</v>
+      </c>
+      <c r="BE173">
+        <v>7.5</v>
+      </c>
+      <c r="BF173">
+        <v>2.29</v>
+      </c>
+      <c r="BG173">
+        <v>1.36</v>
+      </c>
+      <c r="BH173">
+        <v>2.88</v>
+      </c>
+      <c r="BI173">
+        <v>1.62</v>
+      </c>
+      <c r="BJ173">
+        <v>2.21</v>
+      </c>
+      <c r="BK173">
+        <v>2.01</v>
+      </c>
+      <c r="BL173">
+        <v>1.75</v>
+      </c>
+      <c r="BM173">
+        <v>2.53</v>
+      </c>
+      <c r="BN173">
+        <v>1.46</v>
+      </c>
+      <c r="BO173">
+        <v>3.35</v>
+      </c>
+      <c r="BP173">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="174" spans="1:68">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174">
+        <v>7778656</v>
+      </c>
+      <c r="C174" t="s">
+        <v>68</v>
+      </c>
+      <c r="D174" t="s">
+        <v>69</v>
+      </c>
+      <c r="E174" s="2">
+        <v>45808.08333333334</v>
+      </c>
+      <c r="F174">
+        <v>18</v>
+      </c>
+      <c r="G174" t="s">
+        <v>85</v>
+      </c>
+      <c r="H174" t="s">
+        <v>87</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+      <c r="M174">
+        <v>1</v>
+      </c>
+      <c r="N174">
+        <v>2</v>
+      </c>
+      <c r="O174" t="s">
+        <v>198</v>
+      </c>
+      <c r="P174" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q174">
+        <v>2.88</v>
+      </c>
+      <c r="R174">
+        <v>2.1</v>
+      </c>
+      <c r="S174">
+        <v>4</v>
+      </c>
+      <c r="T174">
+        <v>1.44</v>
+      </c>
+      <c r="U174">
+        <v>2.63</v>
+      </c>
+      <c r="V174">
+        <v>3.25</v>
+      </c>
+      <c r="W174">
+        <v>1.33</v>
+      </c>
+      <c r="X174">
+        <v>9</v>
+      </c>
+      <c r="Y174">
+        <v>1.07</v>
+      </c>
+      <c r="Z174">
+        <v>1.99</v>
+      </c>
+      <c r="AA174">
+        <v>3.32</v>
+      </c>
+      <c r="AB174">
+        <v>3.17</v>
+      </c>
+      <c r="AC174">
+        <v>1.01</v>
+      </c>
+      <c r="AD174">
+        <v>8.6</v>
+      </c>
+      <c r="AE174">
+        <v>1.29</v>
+      </c>
+      <c r="AF174">
+        <v>3.04</v>
+      </c>
+      <c r="AG174">
+        <v>1.88</v>
+      </c>
+      <c r="AH174">
+        <v>1.82</v>
+      </c>
+      <c r="AI174">
+        <v>1.83</v>
+      </c>
+      <c r="AJ174">
+        <v>1.83</v>
+      </c>
+      <c r="AK174">
+        <v>1.36</v>
+      </c>
+      <c r="AL174">
+        <v>1.33</v>
+      </c>
+      <c r="AM174">
+        <v>1.62</v>
+      </c>
+      <c r="AN174">
+        <v>1.88</v>
+      </c>
+      <c r="AO174">
+        <v>1</v>
+      </c>
+      <c r="AP174">
+        <v>1.78</v>
+      </c>
+      <c r="AQ174">
+        <v>1</v>
+      </c>
+      <c r="AR174">
+        <v>1.5</v>
+      </c>
+      <c r="AS174">
+        <v>1.37</v>
+      </c>
+      <c r="AT174">
+        <v>2.87</v>
+      </c>
+      <c r="AU174">
+        <v>3</v>
+      </c>
+      <c r="AV174">
+        <v>3</v>
+      </c>
+      <c r="AW174">
+        <v>5</v>
+      </c>
+      <c r="AX174">
+        <v>2</v>
+      </c>
+      <c r="AY174">
+        <v>8</v>
+      </c>
+      <c r="AZ174">
+        <v>5</v>
+      </c>
+      <c r="BA174">
+        <v>4</v>
+      </c>
+      <c r="BB174">
+        <v>3</v>
+      </c>
+      <c r="BC174">
+        <v>7</v>
+      </c>
+      <c r="BD174">
+        <v>1.91</v>
+      </c>
+      <c r="BE174">
+        <v>7.5</v>
+      </c>
+      <c r="BF174">
+        <v>2.2</v>
+      </c>
+      <c r="BG174">
+        <v>1.51</v>
+      </c>
+      <c r="BH174">
+        <v>2.39</v>
+      </c>
+      <c r="BI174">
+        <v>1.85</v>
+      </c>
+      <c r="BJ174">
+        <v>1.95</v>
+      </c>
+      <c r="BK174">
+        <v>2.4</v>
+      </c>
+      <c r="BL174">
+        <v>1.53</v>
+      </c>
+      <c r="BM174">
+        <v>3.2</v>
+      </c>
+      <c r="BN174">
+        <v>1.3</v>
+      </c>
+      <c r="BO174">
+        <v>4.25</v>
+      </c>
+      <c r="BP174">
+        <v>1.16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:68">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175">
+        <v>7778659</v>
+      </c>
+      <c r="C175" t="s">
+        <v>68</v>
+      </c>
+      <c r="D175" t="s">
+        <v>69</v>
+      </c>
+      <c r="E175" s="2">
+        <v>45808.08333333334</v>
+      </c>
+      <c r="F175">
+        <v>18</v>
+      </c>
+      <c r="G175" t="s">
+        <v>84</v>
+      </c>
+      <c r="H175" t="s">
+        <v>76</v>
+      </c>
+      <c r="I175">
+        <v>2</v>
+      </c>
+      <c r="J175">
+        <v>0</v>
+      </c>
+      <c r="K175">
+        <v>2</v>
+      </c>
+      <c r="L175">
+        <v>2</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>2</v>
+      </c>
+      <c r="O175" t="s">
+        <v>199</v>
+      </c>
+      <c r="P175" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q175">
+        <v>3.4</v>
+      </c>
+      <c r="R175">
+        <v>2.2</v>
+      </c>
+      <c r="S175">
+        <v>3</v>
+      </c>
+      <c r="T175">
+        <v>1.4</v>
+      </c>
+      <c r="U175">
+        <v>2.75</v>
+      </c>
+      <c r="V175">
+        <v>2.75</v>
+      </c>
+      <c r="W175">
+        <v>1.4</v>
+      </c>
+      <c r="X175">
+        <v>8</v>
+      </c>
+      <c r="Y175">
+        <v>1.08</v>
+      </c>
+      <c r="Z175">
+        <v>2.69</v>
+      </c>
+      <c r="AA175">
+        <v>3.37</v>
+      </c>
+      <c r="AB175">
+        <v>2.21</v>
+      </c>
+      <c r="AC175">
+        <v>1.03</v>
+      </c>
+      <c r="AD175">
+        <v>9</v>
+      </c>
+      <c r="AE175">
+        <v>1.24</v>
+      </c>
+      <c r="AF175">
+        <v>3.34</v>
+      </c>
+      <c r="AG175">
+        <v>1.72</v>
+      </c>
+      <c r="AH175">
+        <v>2</v>
+      </c>
+      <c r="AI175">
+        <v>1.73</v>
+      </c>
+      <c r="AJ175">
+        <v>2</v>
+      </c>
+      <c r="AK175">
+        <v>1.55</v>
+      </c>
+      <c r="AL175">
+        <v>1.3</v>
+      </c>
+      <c r="AM175">
+        <v>1.4</v>
+      </c>
+      <c r="AN175">
+        <v>2.11</v>
+      </c>
+      <c r="AO175">
+        <v>1.25</v>
+      </c>
+      <c r="AP175">
+        <v>2.2</v>
+      </c>
+      <c r="AQ175">
+        <v>1.11</v>
+      </c>
+      <c r="AR175">
+        <v>1.66</v>
+      </c>
+      <c r="AS175">
+        <v>1.56</v>
+      </c>
+      <c r="AT175">
+        <v>3.22</v>
+      </c>
+      <c r="AU175">
+        <v>6</v>
+      </c>
+      <c r="AV175">
+        <v>3</v>
+      </c>
+      <c r="AW175">
+        <v>7</v>
+      </c>
+      <c r="AX175">
+        <v>3</v>
+      </c>
+      <c r="AY175">
+        <v>13</v>
+      </c>
+      <c r="AZ175">
+        <v>6</v>
+      </c>
+      <c r="BA175">
+        <v>5</v>
+      </c>
+      <c r="BB175">
+        <v>3</v>
+      </c>
+      <c r="BC175">
+        <v>8</v>
+      </c>
+      <c r="BD175">
+        <v>2</v>
+      </c>
+      <c r="BE175">
+        <v>7.5</v>
+      </c>
+      <c r="BF175">
+        <v>2.1</v>
+      </c>
+      <c r="BG175">
+        <v>1.43</v>
+      </c>
+      <c r="BH175">
+        <v>2.62</v>
+      </c>
+      <c r="BI175">
+        <v>1.73</v>
+      </c>
+      <c r="BJ175">
+        <v>2.03</v>
+      </c>
+      <c r="BK175">
+        <v>2.19</v>
+      </c>
+      <c r="BL175">
+        <v>1.63</v>
+      </c>
+      <c r="BM175">
+        <v>2.8</v>
+      </c>
+      <c r="BN175">
+        <v>1.38</v>
+      </c>
+      <c r="BO175">
+        <v>3.78</v>
+      </c>
+      <c r="BP175">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="176" spans="1:68">
+      <c r="A176" s="1">
+        <v>175</v>
+      </c>
+      <c r="B176">
+        <v>7778663</v>
+      </c>
+      <c r="C176" t="s">
+        <v>68</v>
+      </c>
+      <c r="D176" t="s">
+        <v>69</v>
+      </c>
+      <c r="E176" s="2">
+        <v>45808.25347222222</v>
+      </c>
+      <c r="F176">
+        <v>18</v>
+      </c>
+      <c r="G176" t="s">
+        <v>78</v>
+      </c>
+      <c r="H176" t="s">
+        <v>83</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+      <c r="M176">
+        <v>1</v>
+      </c>
+      <c r="N176">
+        <v>1</v>
+      </c>
+      <c r="O176" t="s">
+        <v>90</v>
+      </c>
+      <c r="P176" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q176">
+        <v>3.4</v>
+      </c>
+      <c r="R176">
+        <v>1.91</v>
+      </c>
+      <c r="S176">
+        <v>3.75</v>
+      </c>
+      <c r="T176">
+        <v>1.57</v>
+      </c>
+      <c r="U176">
+        <v>2.25</v>
+      </c>
+      <c r="V176">
+        <v>3.75</v>
+      </c>
+      <c r="W176">
+        <v>1.25</v>
+      </c>
+      <c r="X176">
+        <v>11</v>
+      </c>
+      <c r="Y176">
+        <v>1.05</v>
+      </c>
+      <c r="Z176">
+        <v>2.31</v>
+      </c>
+      <c r="AA176">
+        <v>2.99</v>
+      </c>
+      <c r="AB176">
+        <v>2.83</v>
+      </c>
+      <c r="AC176">
+        <v>1.05</v>
+      </c>
+      <c r="AD176">
+        <v>6.4</v>
+      </c>
+      <c r="AE176">
+        <v>1.5</v>
+      </c>
+      <c r="AF176">
+        <v>2.3</v>
+      </c>
+      <c r="AG176">
+        <v>2.56</v>
+      </c>
+      <c r="AH176">
+        <v>1.45</v>
+      </c>
+      <c r="AI176">
+        <v>2.2</v>
+      </c>
+      <c r="AJ176">
+        <v>1.62</v>
+      </c>
+      <c r="AK176">
+        <v>1.36</v>
+      </c>
+      <c r="AL176">
+        <v>1.36</v>
+      </c>
+      <c r="AM176">
+        <v>1.55</v>
+      </c>
+      <c r="AN176">
+        <v>1</v>
+      </c>
+      <c r="AO176">
+        <v>1.67</v>
+      </c>
+      <c r="AP176">
+        <v>1.1</v>
+      </c>
+      <c r="AQ176">
+        <v>1.8</v>
+      </c>
+      <c r="AR176">
+        <v>1.53</v>
+      </c>
+      <c r="AS176">
+        <v>1.4</v>
+      </c>
+      <c r="AT176">
+        <v>2.93</v>
+      </c>
+      <c r="AU176">
+        <v>6</v>
+      </c>
+      <c r="AV176">
+        <v>5</v>
+      </c>
+      <c r="AW176">
+        <v>4</v>
+      </c>
+      <c r="AX176">
+        <v>3</v>
+      </c>
+      <c r="AY176">
+        <v>10</v>
+      </c>
+      <c r="AZ176">
+        <v>8</v>
+      </c>
+      <c r="BA176">
+        <v>2</v>
+      </c>
+      <c r="BB176">
+        <v>5</v>
+      </c>
+      <c r="BC176">
+        <v>7</v>
+      </c>
+      <c r="BD176">
+        <v>1.95</v>
+      </c>
+      <c r="BE176">
+        <v>7.5</v>
+      </c>
+      <c r="BF176">
+        <v>2.1</v>
+      </c>
+      <c r="BG176">
+        <v>1.34</v>
+      </c>
+      <c r="BH176">
+        <v>2.78</v>
+      </c>
+      <c r="BI176">
+        <v>1.64</v>
+      </c>
+      <c r="BJ176">
+        <v>2.07</v>
+      </c>
+      <c r="BK176">
+        <v>2.07</v>
+      </c>
+      <c r="BL176">
+        <v>1.61</v>
+      </c>
+      <c r="BM176">
+        <v>2.78</v>
+      </c>
+      <c r="BN176">
+        <v>1.34</v>
+      </c>
+      <c r="BO176">
+        <v>3.6</v>
+      </c>
+      <c r="BP176">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:68">
+      <c r="A177" s="1">
+        <v>176</v>
+      </c>
+      <c r="B177">
+        <v>7778665</v>
+      </c>
+      <c r="C177" t="s">
+        <v>68</v>
+      </c>
+      <c r="D177" t="s">
+        <v>69</v>
+      </c>
+      <c r="E177" s="2">
+        <v>45808.29166666666</v>
+      </c>
+      <c r="F177">
+        <v>18</v>
+      </c>
+      <c r="G177" t="s">
+        <v>79</v>
+      </c>
+      <c r="H177" t="s">
+        <v>72</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+      <c r="M177">
+        <v>1</v>
+      </c>
+      <c r="N177">
+        <v>2</v>
+      </c>
+      <c r="O177" t="s">
+        <v>139</v>
+      </c>
+      <c r="P177" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q177">
+        <v>3.1</v>
+      </c>
+      <c r="R177">
+        <v>1.91</v>
+      </c>
+      <c r="S177">
+        <v>4.5</v>
+      </c>
+      <c r="T177">
+        <v>1.62</v>
+      </c>
+      <c r="U177">
+        <v>2.2</v>
+      </c>
+      <c r="V177">
+        <v>4</v>
+      </c>
+      <c r="W177">
+        <v>1.22</v>
+      </c>
+      <c r="X177">
+        <v>13</v>
+      </c>
+      <c r="Y177">
+        <v>1.04</v>
+      </c>
+      <c r="Z177">
+        <v>2.24</v>
+      </c>
+      <c r="AA177">
+        <v>2.88</v>
+      </c>
+      <c r="AB177">
+        <v>3.07</v>
+      </c>
+      <c r="AC177">
+        <v>1.08</v>
+      </c>
+      <c r="AD177">
+        <v>5.55</v>
+      </c>
+      <c r="AE177">
+        <v>1.55</v>
+      </c>
+      <c r="AF177">
+        <v>2.2</v>
+      </c>
+      <c r="AG177">
+        <v>2.73</v>
+      </c>
+      <c r="AH177">
+        <v>1.4</v>
+      </c>
+      <c r="AI177">
+        <v>2.38</v>
+      </c>
+      <c r="AJ177">
+        <v>1.53</v>
+      </c>
+      <c r="AK177">
+        <v>1.3</v>
+      </c>
+      <c r="AL177">
+        <v>1.4</v>
+      </c>
+      <c r="AM177">
+        <v>1.62</v>
+      </c>
+      <c r="AN177">
+        <v>1.63</v>
+      </c>
+      <c r="AO177">
+        <v>1.33</v>
+      </c>
+      <c r="AP177">
+        <v>1.56</v>
+      </c>
+      <c r="AQ177">
+        <v>1.3</v>
+      </c>
+      <c r="AR177">
+        <v>1.12</v>
+      </c>
+      <c r="AS177">
+        <v>1.31</v>
+      </c>
+      <c r="AT177">
+        <v>2.43</v>
+      </c>
+      <c r="AU177">
+        <v>3</v>
+      </c>
+      <c r="AV177">
+        <v>3</v>
+      </c>
+      <c r="AW177">
+        <v>5</v>
+      </c>
+      <c r="AX177">
+        <v>-1</v>
+      </c>
+      <c r="AY177">
+        <v>8</v>
+      </c>
+      <c r="AZ177">
+        <v>2</v>
+      </c>
+      <c r="BA177">
+        <v>5</v>
+      </c>
+      <c r="BB177">
+        <v>2</v>
+      </c>
+      <c r="BC177">
+        <v>7</v>
+      </c>
+      <c r="BD177">
+        <v>1.75</v>
+      </c>
+      <c r="BE177">
+        <v>7.5</v>
+      </c>
+      <c r="BF177">
+        <v>2.53</v>
+      </c>
+      <c r="BG177">
+        <v>1.39</v>
+      </c>
+      <c r="BH177">
+        <v>2.77</v>
+      </c>
+      <c r="BI177">
+        <v>1.67</v>
+      </c>
+      <c r="BJ177">
+        <v>2.13</v>
+      </c>
+      <c r="BK177">
+        <v>2.08</v>
+      </c>
+      <c r="BL177">
+        <v>1.7</v>
+      </c>
+      <c r="BM177">
+        <v>2.63</v>
+      </c>
+      <c r="BN177">
+        <v>1.42</v>
+      </c>
+      <c r="BO177">
+        <v>3.52</v>
+      </c>
+      <c r="BP177">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="178" spans="1:68">
+      <c r="A178" s="1">
+        <v>177</v>
+      </c>
+      <c r="B178">
+        <v>7778658</v>
+      </c>
+      <c r="C178" t="s">
+        <v>68</v>
+      </c>
+      <c r="D178" t="s">
+        <v>69</v>
+      </c>
+      <c r="E178" s="2">
+        <v>45809.08333333334</v>
+      </c>
+      <c r="F178">
+        <v>18</v>
+      </c>
+      <c r="G178" t="s">
+        <v>70</v>
+      </c>
+      <c r="H178" t="s">
+        <v>82</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178">
+        <v>0</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>4</v>
+      </c>
+      <c r="M178">
+        <v>1</v>
+      </c>
+      <c r="N178">
+        <v>5</v>
+      </c>
+      <c r="O178" t="s">
+        <v>200</v>
+      </c>
+      <c r="P178" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q178">
+        <v>3.4</v>
+      </c>
+      <c r="R178">
+        <v>2.05</v>
+      </c>
+      <c r="S178">
+        <v>3.25</v>
+      </c>
+      <c r="T178">
+        <v>1.44</v>
+      </c>
+      <c r="U178">
+        <v>2.63</v>
+      </c>
+      <c r="V178">
+        <v>3.25</v>
+      </c>
+      <c r="W178">
+        <v>1.33</v>
+      </c>
+      <c r="X178">
+        <v>9</v>
+      </c>
+      <c r="Y178">
+        <v>1.07</v>
+      </c>
+      <c r="Z178">
+        <v>2.55</v>
+      </c>
+      <c r="AA178">
+        <v>3.08</v>
+      </c>
+      <c r="AB178">
+        <v>2.48</v>
+      </c>
+      <c r="AC178">
+        <v>1.02</v>
+      </c>
+      <c r="AD178">
+        <v>7.7</v>
+      </c>
+      <c r="AE178">
+        <v>1.32</v>
+      </c>
+      <c r="AF178">
+        <v>2.88</v>
+      </c>
+      <c r="AG178">
+        <v>2</v>
+      </c>
+      <c r="AH178">
+        <v>1.67</v>
+      </c>
+      <c r="AI178">
+        <v>1.83</v>
+      </c>
+      <c r="AJ178">
+        <v>1.83</v>
+      </c>
+      <c r="AK178">
+        <v>1.44</v>
+      </c>
+      <c r="AL178">
+        <v>1.33</v>
+      </c>
+      <c r="AM178">
+        <v>1.44</v>
+      </c>
+      <c r="AN178">
+        <v>0.78</v>
+      </c>
+      <c r="AO178">
+        <v>1.14</v>
+      </c>
+      <c r="AP178">
+        <v>1</v>
+      </c>
+      <c r="AQ178">
+        <v>1</v>
+      </c>
+      <c r="AR178">
+        <v>1.63</v>
+      </c>
+      <c r="AS178">
+        <v>1.37</v>
+      </c>
+      <c r="AT178">
+        <v>3</v>
+      </c>
+      <c r="AU178">
+        <v>8</v>
+      </c>
+      <c r="AV178">
+        <v>4</v>
+      </c>
+      <c r="AW178">
+        <v>5</v>
+      </c>
+      <c r="AX178">
+        <v>4</v>
+      </c>
+      <c r="AY178">
+        <v>13</v>
+      </c>
+      <c r="AZ178">
+        <v>8</v>
+      </c>
+      <c r="BA178">
+        <v>4</v>
+      </c>
+      <c r="BB178">
+        <v>4</v>
+      </c>
+      <c r="BC178">
+        <v>8</v>
+      </c>
+      <c r="BD178">
+        <v>2.28</v>
+      </c>
+      <c r="BE178">
+        <v>8</v>
+      </c>
+      <c r="BF178">
+        <v>1.85</v>
+      </c>
+      <c r="BG178">
+        <v>1.28</v>
+      </c>
+      <c r="BH178">
+        <v>3.2</v>
+      </c>
+      <c r="BI178">
+        <v>1.52</v>
+      </c>
+      <c r="BJ178">
+        <v>2.36</v>
+      </c>
+      <c r="BK178">
+        <v>1.92</v>
+      </c>
+      <c r="BL178">
+        <v>1.88</v>
+      </c>
+      <c r="BM178">
+        <v>2.37</v>
+      </c>
+      <c r="BN178">
+        <v>1.55</v>
+      </c>
+      <c r="BO178">
+        <v>3.07</v>
+      </c>
+      <c r="BP178">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="179" spans="1:68">
+      <c r="A179" s="1">
+        <v>178</v>
+      </c>
+      <c r="B179">
+        <v>7778668</v>
+      </c>
+      <c r="C179" t="s">
+        <v>68</v>
+      </c>
+      <c r="D179" t="s">
+        <v>69</v>
+      </c>
+      <c r="E179" s="2">
+        <v>45815.25</v>
+      </c>
+      <c r="F179">
+        <v>17</v>
+      </c>
+      <c r="G179" t="s">
+        <v>78</v>
+      </c>
+      <c r="H179" t="s">
+        <v>79</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>0</v>
+      </c>
+      <c r="K179">
+        <v>0</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>1</v>
+      </c>
+      <c r="O179" t="s">
+        <v>201</v>
+      </c>
+      <c r="P179" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q179">
+        <v>2.78</v>
+      </c>
+      <c r="R179">
+        <v>1.88</v>
+      </c>
+      <c r="S179">
+        <v>4.45</v>
+      </c>
+      <c r="T179">
+        <v>1.55</v>
+      </c>
+      <c r="U179">
+        <v>2.36</v>
+      </c>
+      <c r="V179">
+        <v>3.56</v>
+      </c>
+      <c r="W179">
+        <v>1.23</v>
+      </c>
+      <c r="X179">
+        <v>8</v>
+      </c>
+      <c r="Y179">
+        <v>1.04</v>
+      </c>
+      <c r="Z179">
+        <v>2.17</v>
+      </c>
+      <c r="AA179">
+        <v>2.93</v>
+      </c>
+      <c r="AB179">
+        <v>3.14</v>
+      </c>
+      <c r="AC179">
+        <v>1.05</v>
+      </c>
+      <c r="AD179">
+        <v>6.45</v>
+      </c>
+      <c r="AE179">
+        <v>1.5</v>
+      </c>
+      <c r="AF179">
+        <v>2.3</v>
+      </c>
+      <c r="AG179">
+        <v>2.6</v>
+      </c>
+      <c r="AH179">
+        <v>1.43</v>
+      </c>
+      <c r="AI179">
+        <v>2.12</v>
+      </c>
+      <c r="AJ179">
+        <v>1.61</v>
+      </c>
+      <c r="AK179">
+        <v>1.24</v>
+      </c>
+      <c r="AL179">
+        <v>1.32</v>
+      </c>
+      <c r="AM179">
+        <v>1.65</v>
+      </c>
+      <c r="AN179">
+        <v>0.89</v>
+      </c>
+      <c r="AO179">
+        <v>1.13</v>
+      </c>
+      <c r="AP179">
+        <v>1.1</v>
+      </c>
+      <c r="AQ179">
+        <v>1</v>
+      </c>
+      <c r="AR179">
+        <v>1.53</v>
+      </c>
+      <c r="AS179">
+        <v>1.25</v>
+      </c>
+      <c r="AT179">
+        <v>2.78</v>
+      </c>
+      <c r="AU179">
+        <v>5</v>
+      </c>
+      <c r="AV179">
+        <v>2</v>
+      </c>
+      <c r="AW179">
+        <v>7</v>
+      </c>
+      <c r="AX179">
+        <v>3</v>
+      </c>
+      <c r="AY179">
+        <v>12</v>
+      </c>
+      <c r="AZ179">
+        <v>5</v>
+      </c>
+      <c r="BA179">
+        <v>3</v>
+      </c>
+      <c r="BB179">
+        <v>3</v>
+      </c>
+      <c r="BC179">
+        <v>6</v>
+      </c>
+      <c r="BD179">
+        <v>1.83</v>
+      </c>
+      <c r="BE179">
+        <v>6.3</v>
+      </c>
+      <c r="BF179">
+        <v>2.42</v>
+      </c>
+      <c r="BG179">
+        <v>1.27</v>
+      </c>
+      <c r="BH179">
+        <v>3.14</v>
+      </c>
+      <c r="BI179">
+        <v>1.52</v>
+      </c>
+      <c r="BJ179">
+        <v>2.24</v>
+      </c>
+      <c r="BK179">
+        <v>1.91</v>
+      </c>
+      <c r="BL179">
+        <v>1.76</v>
+      </c>
+      <c r="BM179">
+        <v>2.46</v>
+      </c>
+      <c r="BN179">
+        <v>1.43</v>
+      </c>
+      <c r="BO179">
+        <v>3.42</v>
+      </c>
+      <c r="BP179">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="180" spans="1:68">
+      <c r="A180" s="1">
+        <v>179</v>
+      </c>
+      <c r="B180">
+        <v>7778666</v>
+      </c>
+      <c r="C180" t="s">
+        <v>68</v>
+      </c>
+      <c r="D180" t="s">
+        <v>69</v>
+      </c>
+      <c r="E180" s="2">
+        <v>45816.08333333334</v>
+      </c>
+      <c r="F180">
+        <v>17</v>
+      </c>
+      <c r="G180" t="s">
+        <v>71</v>
+      </c>
+      <c r="H180" t="s">
+        <v>77</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>0</v>
+      </c>
+      <c r="K180">
+        <v>0</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+      <c r="M180">
+        <v>1</v>
+      </c>
+      <c r="N180">
+        <v>2</v>
+      </c>
+      <c r="O180" t="s">
+        <v>202</v>
+      </c>
+      <c r="P180" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q180">
+        <v>2</v>
+      </c>
+      <c r="R180">
+        <v>2.4</v>
+      </c>
+      <c r="S180">
+        <v>5.5</v>
+      </c>
+      <c r="T180">
+        <v>1.3</v>
+      </c>
+      <c r="U180">
+        <v>3.3</v>
+      </c>
+      <c r="V180">
+        <v>2.45</v>
+      </c>
+      <c r="W180">
+        <v>1.5</v>
+      </c>
+      <c r="X180">
+        <v>6</v>
+      </c>
+      <c r="Y180">
+        <v>1.12</v>
+      </c>
+      <c r="Z180">
+        <v>1.49</v>
+      </c>
+      <c r="AA180">
+        <v>3.97</v>
+      </c>
+      <c r="AB180">
+        <v>5.1</v>
+      </c>
+      <c r="AC180">
+        <v>1.01</v>
+      </c>
+      <c r="AD180">
+        <v>11</v>
+      </c>
+      <c r="AE180">
+        <v>1.15</v>
+      </c>
+      <c r="AF180">
+        <v>4.2</v>
+      </c>
+      <c r="AG180">
+        <v>1.65</v>
+      </c>
+      <c r="AH180">
+        <v>2</v>
+      </c>
+      <c r="AI180">
+        <v>1.75</v>
+      </c>
+      <c r="AJ180">
+        <v>2</v>
+      </c>
+      <c r="AK180">
+        <v>1.15</v>
+      </c>
+      <c r="AL180">
+        <v>1.22</v>
+      </c>
+      <c r="AM180">
+        <v>2.4</v>
+      </c>
+      <c r="AN180">
+        <v>2.33</v>
+      </c>
+      <c r="AO180">
+        <v>1.38</v>
+      </c>
+      <c r="AP180">
+        <v>2.2</v>
+      </c>
+      <c r="AQ180">
+        <v>1.33</v>
+      </c>
+      <c r="AR180">
+        <v>1.8</v>
+      </c>
+      <c r="AS180">
+        <v>1.28</v>
+      </c>
+      <c r="AT180">
+        <v>3.08</v>
+      </c>
+      <c r="AU180">
+        <v>6</v>
+      </c>
+      <c r="AV180">
+        <v>4</v>
+      </c>
+      <c r="AW180">
+        <v>18</v>
+      </c>
+      <c r="AX180">
+        <v>3</v>
+      </c>
+      <c r="AY180">
+        <v>24</v>
+      </c>
+      <c r="AZ180">
+        <v>7</v>
+      </c>
+      <c r="BA180">
+        <v>13</v>
+      </c>
+      <c r="BB180">
+        <v>6</v>
+      </c>
+      <c r="BC180">
+        <v>19</v>
+      </c>
+      <c r="BD180">
+        <v>1.44</v>
+      </c>
+      <c r="BE180">
+        <v>7.1</v>
+      </c>
+      <c r="BF180">
+        <v>3.54</v>
+      </c>
+      <c r="BG180">
+        <v>1.18</v>
+      </c>
+      <c r="BH180">
+        <v>3.82</v>
+      </c>
+      <c r="BI180">
+        <v>1.37</v>
+      </c>
+      <c r="BJ180">
+        <v>2.66</v>
+      </c>
+      <c r="BK180">
+        <v>1.68</v>
+      </c>
+      <c r="BL180">
+        <v>2.01</v>
+      </c>
+      <c r="BM180">
+        <v>2.1</v>
+      </c>
+      <c r="BN180">
+        <v>1.59</v>
+      </c>
+      <c r="BO180">
+        <v>2.78</v>
+      </c>
+      <c r="BP180">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="181" spans="1:68">
+      <c r="A181" s="1">
+        <v>180</v>
+      </c>
+      <c r="B181">
+        <v>7778667</v>
+      </c>
+      <c r="C181" t="s">
+        <v>68</v>
+      </c>
+      <c r="D181" t="s">
+        <v>69</v>
+      </c>
+      <c r="E181" s="2">
+        <v>45816.08333333334</v>
+      </c>
+      <c r="F181">
+        <v>17</v>
+      </c>
+      <c r="G181" t="s">
+        <v>86</v>
+      </c>
+      <c r="H181" t="s">
+        <v>84</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+      <c r="M181">
+        <v>1</v>
+      </c>
+      <c r="N181">
+        <v>1</v>
+      </c>
+      <c r="O181" t="s">
+        <v>90</v>
+      </c>
+      <c r="P181" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q181">
+        <v>4</v>
+      </c>
+      <c r="R181">
+        <v>2.1</v>
+      </c>
+      <c r="S181">
+        <v>2.62</v>
+      </c>
+      <c r="T181">
+        <v>1.4</v>
+      </c>
+      <c r="U181">
+        <v>2.7</v>
+      </c>
+      <c r="V181">
+        <v>3</v>
+      </c>
+      <c r="W181">
+        <v>1.36</v>
+      </c>
+      <c r="X181">
+        <v>8.5</v>
+      </c>
+      <c r="Y181">
+        <v>1.07</v>
+      </c>
+      <c r="Z181">
+        <v>3.16</v>
+      </c>
+      <c r="AA181">
+        <v>3.15</v>
+      </c>
+      <c r="AB181">
+        <v>2.06</v>
+      </c>
+      <c r="AC181">
+        <v>1.02</v>
+      </c>
+      <c r="AD181">
+        <v>7.9</v>
+      </c>
+      <c r="AE181">
+        <v>1.33</v>
+      </c>
+      <c r="AF181">
+        <v>2.83</v>
+      </c>
+      <c r="AG181">
+        <v>2.08</v>
+      </c>
+      <c r="AH181">
+        <v>1.66</v>
+      </c>
+      <c r="AI181">
+        <v>1.91</v>
+      </c>
+      <c r="AJ181">
+        <v>1.85</v>
+      </c>
+      <c r="AK181">
+        <v>1.62</v>
+      </c>
+      <c r="AL181">
+        <v>1.35</v>
+      </c>
+      <c r="AM181">
+        <v>1.33</v>
+      </c>
+      <c r="AN181">
+        <v>1.13</v>
+      </c>
+      <c r="AO181">
+        <v>1.43</v>
+      </c>
+      <c r="AP181">
+        <v>1</v>
+      </c>
+      <c r="AQ181">
+        <v>1.63</v>
+      </c>
+      <c r="AR181">
+        <v>1.23</v>
+      </c>
+      <c r="AS181">
+        <v>1.43</v>
+      </c>
+      <c r="AT181">
+        <v>2.66</v>
+      </c>
+      <c r="AU181">
+        <v>5</v>
+      </c>
+      <c r="AV181">
+        <v>4</v>
+      </c>
+      <c r="AW181">
+        <v>5</v>
+      </c>
+      <c r="AX181">
+        <v>7</v>
+      </c>
+      <c r="AY181">
+        <v>10</v>
+      </c>
+      <c r="AZ181">
+        <v>11</v>
+      </c>
+      <c r="BA181">
+        <v>4</v>
+      </c>
+      <c r="BB181">
+        <v>8</v>
+      </c>
+      <c r="BC181">
+        <v>12</v>
+      </c>
+      <c r="BD181">
+        <v>2.79</v>
+      </c>
+      <c r="BE181">
+        <v>6.35</v>
+      </c>
+      <c r="BF181">
+        <v>1.66</v>
+      </c>
+      <c r="BG181">
+        <v>1.28</v>
+      </c>
+      <c r="BH181">
+        <v>3.08</v>
+      </c>
+      <c r="BI181">
+        <v>1.53</v>
+      </c>
+      <c r="BJ181">
+        <v>2.21</v>
+      </c>
+      <c r="BK181">
+        <v>1.93</v>
+      </c>
+      <c r="BL181">
+        <v>1.74</v>
+      </c>
+      <c r="BM181">
+        <v>2.49</v>
+      </c>
+      <c r="BN181">
+        <v>1.42</v>
+      </c>
+      <c r="BO181">
+        <v>3.42</v>
+      </c>
+      <c r="BP181">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>
